--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionComplete\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GyeHyunPark\Dropbox\Energy Innovation\InputData_Working\개인폴더-계현\trans\이륜차수정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C94AFB3-7908-4908-A7F2-04683F11FBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363CA31-BCFE-44C6-9619-709236742C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9530" yWindow="230" windowWidth="30850" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="225" windowWidth="30855" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,6 @@
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -90,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="585">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -579,10 +568,6 @@
   </si>
   <si>
     <t>(척)</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>선박 디젤, 가솔린 비율 구분용</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
@@ -2297,14 +2282,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>natural gas = CNG + LNG + other fuel</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타연료는 바이오디젤, 바이오가스 같은 천연연료라고 가정하여 natural gas로 분류</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>KTX</t>
   </si>
   <si>
@@ -2981,18 +2958,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>결과탭 구분상 중유는 디젤로 가정</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타연료는 잔유(residual)로 가정했으며, 결과표 상에서 디젤로 가정</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>디젤이 99.79%로 모든 선박은 디젤 연료를 사용한다고 설정</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>KOSIS</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -3065,10 +3030,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>DV-per fuel 시트를 바탕으로 연료별 차량 비율 산정</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>Vehicle registration statistics</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -3218,6 +3179,62 @@
   </si>
   <si>
     <t>Ships excluded fishing boats</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형, 소형</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>freight</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>경형, 대형</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>passenger</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-per fuel sheet를 바탕으로 계산한 연료별 차량 비율로 이를 DV sheet에서 이용함</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 기타연료 차량의 경우 바이오디젤, 바이오가스 같은 천연연료라고 가정하여 natural gas로 분류</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; natural gas = CNG + LNG + other fuel</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>선박 디젤, 가솔린별 비율 구분용도</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>선박은 대부분 중유를 사용하지만, 결과 시트 구분상 중유가 없어 그와 정제온도가 비슷한 디젤로 가정했음</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타연료도 디젤로 가정</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 오토바이는 배달오토바이가 대다수이며, 이를 별도로 등록하거나 구분한 자료는 찾을 수 없었음</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 소형, 중형 오토바이는 배달용(freight) &amp; 경형, 대형은 레저용(passenger)으로 가정하여 목록을 구체화시킴</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
@@ -4555,7 +4572,7 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4991,7 +5008,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5011,6 +5027,37 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="40" fillId="30" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="40" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5636,11 +5683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="7" customWidth="1"/>
@@ -5657,13 +5702,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C3" s="116"/>
       <c r="D3" s="116"/>
       <c r="E3" s="116"/>
       <c r="I3" s="115" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J3" s="116"/>
       <c r="K3" s="116"/>
@@ -5671,10 +5716,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="28" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5687,23 +5732,23 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="29" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="28" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5711,24 +5756,24 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="115" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C10" s="116"/>
       <c r="D10" s="116"/>
       <c r="E10" s="116"/>
       <c r="I10" s="115" t="s">
-        <v>565</v>
-      </c>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
+        <v>558</v>
+      </c>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="28" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5741,35 +5786,35 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="29" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="28" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="28"/>
       <c r="I16" s="28" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="115" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C17" s="116"/>
       <c r="D17" s="116"/>
@@ -5780,10 +5825,10 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="28" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="R18" s="151"/>
       <c r="S18" s="150"/>
@@ -5794,7 +5839,7 @@
         <v>2020</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -5802,7 +5847,7 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="28" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="R20" s="151"/>
       <c r="S20" s="150"/>
@@ -5810,7 +5855,7 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -5818,7 +5863,7 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="2:22">
@@ -5828,24 +5873,24 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="115" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C24" s="116"/>
       <c r="D24" s="116"/>
       <c r="E24" s="116"/>
-      <c r="I24" s="156" t="s">
-        <v>569</v>
-      </c>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
+      <c r="I24" s="155" t="s">
+        <v>562</v>
+      </c>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="28" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="2:22">
@@ -5858,23 +5903,23 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="28" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="28" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="2:22">
@@ -5882,7 +5927,7 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="115" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C31" s="116"/>
       <c r="D31" s="116"/>
@@ -5890,7 +5935,7 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="28" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5900,17 +5945,17 @@
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="28" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="28" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5918,7 +5963,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" s="115" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C38" s="116"/>
       <c r="D38" s="116"/>
@@ -5926,7 +5971,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="28" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5936,57 +5981,57 @@
     </row>
     <row r="41" spans="1:5">
       <c r="B41" s="29" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" s="32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" s="28" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6019,19 +6064,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE485900-48EB-4220-ABDB-2EB75701AFAA}">
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="16.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7"/>
+    <col min="5" max="5" width="16.25" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.75" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
@@ -6041,13 +6086,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>148</v>
+        <v>330</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>147</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="82" t="s">
         <v>9</v>
@@ -6068,13 +6113,13 @@
         <v>15</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="31"/>
-      <c r="B4" s="7" t="s">
-        <v>298</v>
+      <c r="B4" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="C4" s="83">
         <f>SUM('DV-per fuel'!$U$77,'DV-per fuel'!$U$80)</f>
@@ -6110,8 +6155,8 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="7" t="s">
-        <v>297</v>
+      <c r="B5" s="31" t="s">
+        <v>296</v>
       </c>
       <c r="C5" s="84">
         <f>SUM('DV-per fuel'!$U$77,'DV-per fuel'!$U$80)/$J$4</f>
@@ -6148,11 +6193,11 @@
       <c r="K5" s="69"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="28" t="s">
-        <v>149</v>
+      <c r="B7" s="170" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="82" t="s">
         <v>9</v>
@@ -6173,12 +6218,12 @@
         <v>15</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="7" t="s">
-        <v>298</v>
+      <c r="B8" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="C8" s="83">
         <f>SUM('DV-per fuel'!$U$83,'DV-per fuel'!$U$86)</f>
@@ -6212,8 +6257,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="7" t="s">
-        <v>297</v>
+      <c r="B9" s="31" t="s">
+        <v>296</v>
       </c>
       <c r="C9" s="84">
         <f>SUM('DV-per fuel'!$U$83,'DV-per fuel'!$U$86)/$J$8</f>
@@ -6260,33 +6305,33 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
-        <v>341</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
-        <v>340</v>
+      <c r="A14" s="171" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="31" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>142</v>
+        <v>579</v>
       </c>
       <c r="F16" s="88" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6295,27 +6340,27 @@
         <v>2019</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="86">
         <v>2019</v>
       </c>
       <c r="G17" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="191" t="s">
         <v>387</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="B18" s="86" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="181" t="s">
-        <v>390</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>144</v>
       </c>
       <c r="C18" s="85">
         <v>3433</v>
@@ -6326,7 +6371,7 @@
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G18" s="85">
         <f>C18+C20+C22</f>
@@ -6338,9 +6383,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="181"/>
+      <c r="A19" s="191"/>
       <c r="B19" s="86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="85">
         <v>25</v>
@@ -6351,7 +6396,7 @@
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="86" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G19" s="85">
         <v>25</v>
@@ -6362,9 +6407,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="181"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="86" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C20" s="85">
         <v>12437</v>
@@ -6374,7 +6419,7 @@
         <v>0.73154520322333982</v>
       </c>
       <c r="F20" s="86" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G20" s="85">
         <v>10</v>
@@ -6385,9 +6430,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="181"/>
+      <c r="A21" s="191"/>
       <c r="B21" s="86" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C21" s="85">
         <v>10</v>
@@ -6400,9 +6445,9 @@
       <c r="H21" s="84"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="181"/>
+      <c r="A22" s="191"/>
       <c r="B22" s="86" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C22" s="85">
         <v>1096</v>
@@ -6417,22 +6462,17 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="7" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -6452,27 +6492,27 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.58203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="8" width="23.25" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>9</v>
@@ -6587,7 +6627,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="160" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -6615,7 +6655,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="160" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -6654,8 +6694,8 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <f>Motorbikes!$B$22</f>
-        <v>2236895</v>
+        <f>Motorbikes!D29</f>
+        <v>256111</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -6807,19 +6847,19 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.58203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="8" width="23.25" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -6939,7 +6979,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="160" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -6967,7 +7007,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="160" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -7006,7 +7046,8 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <f>Motorbikes!D28</f>
+        <v>1980784</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -7076,19 +7117,19 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="9" style="35"/>
     <col min="4" max="5" width="11.5" style="35" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="35" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.875" style="35" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.83203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.875" style="35" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.83203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.58203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.625" style="35" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="35" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
@@ -23810,24 +23851,24 @@
       <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" style="49" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
-    <col min="3" max="4" width="1.58203125" style="49" customWidth="1"/>
+    <col min="3" max="4" width="1.625" style="49" customWidth="1"/>
     <col min="5" max="5" width="23.25" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="49" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="51"/>
     </row>
@@ -23837,7 +23878,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>82</v>
@@ -23858,7 +23899,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="53"/>
       <c r="B5" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -23871,7 +23912,7 @@
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -23884,7 +23925,7 @@
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
       <c r="D7" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="54">
@@ -23897,7 +23938,7 @@
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="56">
         <v>183311</v>
@@ -23909,7 +23950,7 @@
       <c r="C9" s="53"/>
       <c r="D9" s="53"/>
       <c r="E9" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="56">
         <v>1707951</v>
@@ -23921,7 +23962,7 @@
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="56">
         <v>796964</v>
@@ -23933,7 +23974,7 @@
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="56">
         <v>6158984</v>
@@ -23945,7 +23986,7 @@
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="57">
         <v>985505</v>
@@ -23957,7 +23998,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="57">
         <v>999171</v>
@@ -23969,7 +24010,7 @@
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="57">
         <v>546579</v>
@@ -23981,7 +24022,7 @@
       <c r="C15" s="53"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="57">
         <v>219271</v>
@@ -23993,7 +24034,7 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="57">
         <v>3378</v>
@@ -24005,7 +24046,7 @@
       <c r="C17" s="53"/>
       <c r="D17" s="53"/>
       <c r="E17" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="57">
         <v>7149</v>
@@ -24017,7 +24058,7 @@
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" s="57">
         <v>17070</v>
@@ -24029,7 +24070,7 @@
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="56">
         <v>31</v>
@@ -24041,7 +24082,7 @@
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F20" s="56">
         <v>9242</v>
@@ -24052,7 +24093,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="43">
@@ -24065,7 +24106,7 @@
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F22" s="56">
         <v>2496</v>
@@ -24077,7 +24118,7 @@
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="56">
         <v>1969</v>
@@ -24089,7 +24130,7 @@
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F24" s="56">
         <v>138013</v>
@@ -24101,7 +24142,7 @@
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="56">
         <v>865470</v>
@@ -24113,7 +24154,7 @@
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="57">
         <v>273985</v>
@@ -24125,7 +24166,7 @@
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" s="57">
         <v>234898</v>
@@ -24137,7 +24178,7 @@
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" s="57">
         <v>132043</v>
@@ -24149,7 +24190,7 @@
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" s="57">
         <v>58013</v>
@@ -24161,7 +24202,7 @@
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
       <c r="E30" s="53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F30" s="57">
         <v>20953</v>
@@ -24173,7 +24214,7 @@
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="57">
         <v>23290</v>
@@ -24185,7 +24226,7 @@
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F32" s="57">
         <v>25643</v>
@@ -24197,7 +24238,7 @@
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33" s="56">
         <v>0</v>
@@ -24209,7 +24250,7 @@
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="56">
         <v>15057</v>
@@ -24219,7 +24260,7 @@
       <c r="A35" s="53"/>
       <c r="B35" s="53"/>
       <c r="C35" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
@@ -24233,7 +24274,7 @@
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F36" s="56">
         <v>68070</v>
@@ -24245,7 +24286,7 @@
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F37" s="56">
         <v>45</v>
@@ -24257,7 +24298,7 @@
       <c r="C38" s="53"/>
       <c r="D38" s="53"/>
       <c r="E38" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38" s="57">
         <v>3202</v>
@@ -24269,7 +24310,7 @@
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
       <c r="E39" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F39" s="57">
         <v>217</v>
@@ -24281,7 +24322,7 @@
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
       <c r="E40" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F40" s="57">
         <v>63</v>
@@ -24293,7 +24334,7 @@
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
       <c r="E41" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F41" s="57">
         <v>535</v>
@@ -24305,7 +24346,7 @@
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
       <c r="E42" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F42" s="56">
         <v>0</v>
@@ -24317,7 +24358,7 @@
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
       <c r="E43" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F43" s="56">
         <v>0</v>
@@ -24327,7 +24368,7 @@
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D44" s="53"/>
       <c r="E44" s="53"/>
@@ -24341,7 +24382,7 @@
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
       <c r="E45" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="56">
         <v>8413</v>
@@ -24353,7 +24394,7 @@
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
       <c r="E46" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F46" s="56">
         <v>3092398</v>
@@ -24365,7 +24406,7 @@
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
       <c r="E47" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="57">
         <v>876191</v>
@@ -24377,7 +24418,7 @@
       <c r="C48" s="53"/>
       <c r="D48" s="53"/>
       <c r="E48" s="53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48" s="57">
         <v>457486</v>
@@ -24389,7 +24430,7 @@
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F49" s="57">
         <v>38448</v>
@@ -24401,7 +24442,7 @@
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
       <c r="E50" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F50" s="57">
         <v>54690</v>
@@ -24413,7 +24454,7 @@
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
       <c r="E51" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F51" s="56">
         <v>1</v>
@@ -24425,7 +24466,7 @@
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
       <c r="E52" s="53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F52" s="56">
         <v>30223</v>
@@ -24435,7 +24476,7 @@
       <c r="A53" s="53"/>
       <c r="B53" s="53"/>
       <c r="C53" s="53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" s="53"/>
       <c r="E53" s="53"/>
@@ -24449,7 +24490,7 @@
       <c r="C54" s="53"/>
       <c r="D54" s="53"/>
       <c r="E54" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F54" s="56">
         <v>47404</v>
@@ -24461,7 +24502,7 @@
       <c r="C55" s="53"/>
       <c r="D55" s="53"/>
       <c r="E55" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F55" s="56">
         <v>563610</v>
@@ -24473,7 +24514,7 @@
       <c r="C56" s="53"/>
       <c r="D56" s="53"/>
       <c r="E56" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F56" s="57">
         <v>399136</v>
@@ -24485,7 +24526,7 @@
       <c r="C57" s="53"/>
       <c r="D57" s="53"/>
       <c r="E57" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F57" s="57">
         <v>64801</v>
@@ -24497,7 +24538,7 @@
       <c r="C58" s="53"/>
       <c r="D58" s="53"/>
       <c r="E58" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F58" s="57">
         <v>30594</v>
@@ -24509,7 +24550,7 @@
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F59" s="57">
         <v>2248</v>
@@ -24521,7 +24562,7 @@
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="53" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F60" s="56">
         <v>48</v>
@@ -24533,7 +24574,7 @@
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
       <c r="E61" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F61" s="56">
         <v>13258</v>
@@ -24542,7 +24583,7 @@
     <row r="62" spans="1:6">
       <c r="A62" s="53"/>
       <c r="B62" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" s="53"/>
       <c r="D62" s="53"/>
@@ -24555,7 +24596,7 @@
       <c r="A63" s="53"/>
       <c r="B63" s="53"/>
       <c r="C63" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D63" s="53"/>
       <c r="E63" s="53"/>
@@ -24568,7 +24609,7 @@
       <c r="B64" s="53"/>
       <c r="C64" s="53"/>
       <c r="D64" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="57">
@@ -24580,7 +24621,7 @@
       <c r="B65" s="53"/>
       <c r="C65" s="53"/>
       <c r="D65" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E65" s="53"/>
       <c r="F65" s="57">
@@ -24592,7 +24633,7 @@
       <c r="B66" s="53"/>
       <c r="C66" s="53"/>
       <c r="D66" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E66" s="53"/>
       <c r="F66" s="57">
@@ -24604,7 +24645,7 @@
       <c r="B67" s="53"/>
       <c r="C67" s="53"/>
       <c r="D67" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E67" s="53"/>
       <c r="F67" s="57">
@@ -24616,7 +24657,7 @@
       <c r="B68" s="53"/>
       <c r="C68" s="53"/>
       <c r="D68" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E68" s="53"/>
       <c r="F68" s="44">
@@ -24628,7 +24669,7 @@
       <c r="B69" s="53"/>
       <c r="C69" s="53"/>
       <c r="D69" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E69" s="53"/>
       <c r="F69" s="44">
@@ -24640,7 +24681,7 @@
       <c r="B70" s="53"/>
       <c r="C70" s="53"/>
       <c r="D70" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E70" s="53"/>
       <c r="F70" s="44">
@@ -24653,7 +24694,7 @@
       <c r="C71" s="53"/>
       <c r="D71" s="53"/>
       <c r="E71" s="53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F71" s="56">
         <v>621706</v>
@@ -24665,7 +24706,7 @@
       <c r="C72" s="53"/>
       <c r="D72" s="53"/>
       <c r="E72" s="53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F72" s="56">
         <v>15994</v>
@@ -24677,7 +24718,7 @@
       <c r="C73" s="53"/>
       <c r="D73" s="53"/>
       <c r="E73" s="53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F73" s="56">
         <v>10735</v>
@@ -24689,7 +24730,7 @@
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
       <c r="E74" s="53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F74" s="57">
         <v>19171</v>
@@ -24701,7 +24742,7 @@
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
       <c r="E75" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F75" s="57">
         <v>728</v>
@@ -24711,7 +24752,7 @@
       <c r="A76" s="53"/>
       <c r="B76" s="53"/>
       <c r="C76" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="53"/>
       <c r="E76" s="53"/>
@@ -24724,7 +24765,7 @@
       <c r="B77" s="53"/>
       <c r="C77" s="53"/>
       <c r="D77" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E77" s="53"/>
       <c r="F77" s="56">
@@ -24736,7 +24777,7 @@
       <c r="B78" s="53"/>
       <c r="C78" s="53"/>
       <c r="D78" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E78" s="53"/>
       <c r="F78" s="56">
@@ -24748,7 +24789,7 @@
       <c r="B79" s="53"/>
       <c r="C79" s="53"/>
       <c r="D79" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E79" s="53"/>
       <c r="F79" s="57">
@@ -24760,7 +24801,7 @@
       <c r="B80" s="53"/>
       <c r="C80" s="53"/>
       <c r="D80" s="53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E80" s="53"/>
       <c r="F80" s="57">
@@ -24772,7 +24813,7 @@
       <c r="B81" s="53"/>
       <c r="C81" s="53"/>
       <c r="D81" s="53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E81" s="53"/>
       <c r="F81" s="57">
@@ -24784,7 +24825,7 @@
       <c r="B82" s="53"/>
       <c r="C82" s="53"/>
       <c r="D82" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E82" s="53"/>
       <c r="F82" s="57">
@@ -24794,7 +24835,7 @@
     <row r="83" spans="1:6">
       <c r="A83" s="53"/>
       <c r="B83" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C83" s="53"/>
       <c r="D83" s="53"/>
@@ -24807,7 +24848,7 @@
       <c r="A84" s="53"/>
       <c r="B84" s="53"/>
       <c r="C84" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="53"/>
       <c r="E84" s="53"/>
@@ -24820,7 +24861,7 @@
       <c r="B85" s="53"/>
       <c r="C85" s="53"/>
       <c r="D85" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E85" s="53"/>
       <c r="F85" s="58">
@@ -24832,7 +24873,7 @@
       <c r="B86" s="53"/>
       <c r="C86" s="53"/>
       <c r="D86" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E86" s="53"/>
       <c r="F86" s="58">
@@ -24845,7 +24886,7 @@
       <c r="C87" s="53"/>
       <c r="D87" s="53"/>
       <c r="E87" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F87" s="58">
         <v>1779618</v>
@@ -24857,7 +24898,7 @@
       <c r="C88" s="53"/>
       <c r="D88" s="53"/>
       <c r="E88" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F88" s="58">
         <v>174183</v>
@@ -24869,7 +24910,7 @@
       <c r="C89" s="53"/>
       <c r="D89" s="53"/>
       <c r="E89" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F89" s="58">
         <v>131632</v>
@@ -24881,7 +24922,7 @@
       <c r="C90" s="53"/>
       <c r="D90" s="53"/>
       <c r="E90" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F90" s="59">
         <v>75068</v>
@@ -24893,7 +24934,7 @@
       <c r="C91" s="53"/>
       <c r="D91" s="53"/>
       <c r="E91" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F91" s="59">
         <v>13203</v>
@@ -24905,7 +24946,7 @@
       <c r="C92" s="53"/>
       <c r="D92" s="53"/>
       <c r="E92" s="53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F92" s="59">
         <v>7824</v>
@@ -24917,7 +24958,7 @@
       <c r="C93" s="53"/>
       <c r="D93" s="53"/>
       <c r="E93" s="53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F93" s="59">
         <v>56892</v>
@@ -24927,7 +24968,7 @@
       <c r="A94" s="53"/>
       <c r="B94" s="53"/>
       <c r="C94" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D94" s="53"/>
       <c r="E94" s="53"/>
@@ -24941,7 +24982,7 @@
       <c r="C95" s="53"/>
       <c r="D95" s="53"/>
       <c r="E95" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F95" s="58">
         <v>32396</v>
@@ -24953,7 +24994,7 @@
       <c r="C96" s="53"/>
       <c r="D96" s="53"/>
       <c r="E96" s="53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F96" s="58">
         <v>15324</v>
@@ -24965,7 +25006,7 @@
       <c r="C97" s="53"/>
       <c r="D97" s="53"/>
       <c r="E97" s="53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F97" s="59">
         <v>6967</v>
@@ -24977,7 +25018,7 @@
       <c r="C98" s="53"/>
       <c r="D98" s="53"/>
       <c r="E98" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F98" s="59">
         <v>381</v>
@@ -24987,7 +25028,7 @@
       <c r="A99" s="53"/>
       <c r="B99" s="53"/>
       <c r="C99" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D99" s="53"/>
       <c r="E99" s="53"/>
@@ -25001,7 +25042,7 @@
       <c r="C100" s="53"/>
       <c r="D100" s="53"/>
       <c r="E100" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F100" s="58">
         <v>416907</v>
@@ -25013,7 +25054,7 @@
       <c r="C101" s="53"/>
       <c r="D101" s="53"/>
       <c r="E101" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F101" s="58">
         <v>3964</v>
@@ -25025,7 +25066,7 @@
       <c r="C102" s="53"/>
       <c r="D102" s="53"/>
       <c r="E102" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F102" s="59">
         <v>210</v>
@@ -25035,7 +25076,7 @@
       <c r="A103" s="53"/>
       <c r="B103" s="53"/>
       <c r="C103" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D103" s="53"/>
       <c r="E103" s="53"/>
@@ -25048,7 +25089,7 @@
       <c r="B104" s="53"/>
       <c r="C104" s="53"/>
       <c r="D104" s="53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E104" s="53"/>
       <c r="F104" s="59">
@@ -25060,7 +25101,7 @@
       <c r="B105" s="53"/>
       <c r="C105" s="53"/>
       <c r="D105" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E105" s="53"/>
       <c r="F105" s="59">
@@ -25072,7 +25113,7 @@
       <c r="B106" s="53"/>
       <c r="C106" s="53"/>
       <c r="D106" s="53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E106" s="53"/>
       <c r="F106" s="59">
@@ -25084,7 +25125,7 @@
       <c r="B107" s="53"/>
       <c r="C107" s="53"/>
       <c r="D107" s="53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E107" s="53"/>
       <c r="F107" s="59">
@@ -25096,7 +25137,7 @@
       <c r="B108" s="53"/>
       <c r="C108" s="53"/>
       <c r="D108" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E108" s="53"/>
       <c r="F108" s="59">
@@ -25108,7 +25149,7 @@
       <c r="B109" s="53"/>
       <c r="C109" s="53"/>
       <c r="D109" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E109" s="53"/>
       <c r="F109" s="59">
@@ -25120,7 +25161,7 @@
       <c r="B110" s="53"/>
       <c r="C110" s="53"/>
       <c r="D110" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E110" s="53"/>
       <c r="F110" s="59">
@@ -25133,7 +25174,7 @@
       <c r="C111" s="53"/>
       <c r="D111" s="53"/>
       <c r="E111" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F111" s="44">
         <v>294</v>
@@ -25145,7 +25186,7 @@
       <c r="C112" s="53"/>
       <c r="D112" s="53"/>
       <c r="E112" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F112" s="44">
         <v>88</v>
@@ -25157,7 +25198,7 @@
       <c r="C113" s="53"/>
       <c r="D113" s="53"/>
       <c r="E113" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F113" s="44">
         <v>12385</v>
@@ -25169,7 +25210,7 @@
       <c r="C114" s="53"/>
       <c r="D114" s="53"/>
       <c r="E114" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F114" s="44">
         <v>44</v>
@@ -25181,7 +25222,7 @@
       <c r="C115" s="53"/>
       <c r="D115" s="53"/>
       <c r="E115" s="53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F115" s="44">
         <v>1980</v>
@@ -25192,7 +25233,7 @@
       <c r="B116" s="53"/>
       <c r="C116" s="53"/>
       <c r="D116" s="53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E116" s="53"/>
       <c r="F116" s="59">
@@ -25205,7 +25246,7 @@
       <c r="C117" s="53"/>
       <c r="D117" s="53"/>
       <c r="E117" s="53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F117" s="44">
         <v>262</v>
@@ -25217,7 +25258,7 @@
       <c r="C118" s="53"/>
       <c r="D118" s="53"/>
       <c r="E118" s="53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F118" s="44">
         <v>531</v>
@@ -25229,7 +25270,7 @@
       <c r="C119" s="53"/>
       <c r="D119" s="53"/>
       <c r="E119" s="53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F119" s="44">
         <v>213</v>
@@ -25241,7 +25282,7 @@
       <c r="C120" s="53"/>
       <c r="D120" s="53"/>
       <c r="E120" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F120" s="44">
         <v>8319</v>
@@ -25252,7 +25293,7 @@
       <c r="B121" s="53"/>
       <c r="C121" s="53"/>
       <c r="D121" s="53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E121" s="53"/>
       <c r="F121" s="59">
@@ -25265,7 +25306,7 @@
       <c r="C122" s="53"/>
       <c r="D122" s="53"/>
       <c r="E122" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F122" s="44">
         <v>8366</v>
@@ -25277,7 +25318,7 @@
       <c r="C123" s="53"/>
       <c r="D123" s="53"/>
       <c r="E123" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F123" s="44">
         <v>4034</v>
@@ -25289,7 +25330,7 @@
       <c r="C124" s="53"/>
       <c r="D124" s="53"/>
       <c r="E124" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F124" s="44">
         <v>12936</v>
@@ -25301,7 +25342,7 @@
       <c r="C125" s="53"/>
       <c r="D125" s="53"/>
       <c r="E125" s="53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F125" s="44">
         <v>30188</v>
@@ -25313,7 +25354,7 @@
       <c r="C126" s="53"/>
       <c r="D126" s="53"/>
       <c r="E126" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F126" s="44">
         <v>41115</v>
@@ -25324,7 +25365,7 @@
       <c r="B127" s="53"/>
       <c r="C127" s="53"/>
       <c r="D127" s="53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E127" s="53"/>
       <c r="F127" s="59">
@@ -25334,7 +25375,7 @@
     <row r="128" spans="1:6">
       <c r="A128" s="53"/>
       <c r="B128" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C128" s="53"/>
       <c r="D128" s="53"/>
@@ -25347,7 +25388,7 @@
       <c r="A129" s="53"/>
       <c r="B129" s="53"/>
       <c r="C129" s="53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D129" s="53"/>
       <c r="E129" s="53"/>
@@ -25361,7 +25402,7 @@
       <c r="C130" s="53"/>
       <c r="D130" s="53"/>
       <c r="E130" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F130" s="58">
         <v>11613</v>
@@ -25373,7 +25414,7 @@
       <c r="C131" s="53"/>
       <c r="D131" s="53"/>
       <c r="E131" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F131" s="58">
         <v>328</v>
@@ -25385,7 +25426,7 @@
       <c r="C132" s="53"/>
       <c r="D132" s="53"/>
       <c r="E132" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F132" s="59">
         <v>200</v>
@@ -25395,7 +25436,7 @@
       <c r="A133" s="53"/>
       <c r="B133" s="53"/>
       <c r="C133" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D133" s="53"/>
       <c r="E133" s="53"/>
@@ -25409,7 +25450,7 @@
       <c r="C134" s="53"/>
       <c r="D134" s="53"/>
       <c r="E134" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F134" s="58">
         <v>597</v>
@@ -25421,7 +25462,7 @@
       <c r="C135" s="53"/>
       <c r="D135" s="53"/>
       <c r="E135" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F135" s="58">
         <v>405</v>
@@ -25433,7 +25474,7 @@
       <c r="C136" s="53"/>
       <c r="D136" s="53"/>
       <c r="E136" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F136" s="59">
         <v>38346</v>
@@ -25443,7 +25484,7 @@
       <c r="A137" s="53"/>
       <c r="B137" s="53"/>
       <c r="C137" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D137" s="53"/>
       <c r="E137" s="53"/>
@@ -25456,7 +25497,7 @@
       <c r="B138" s="53"/>
       <c r="C138" s="53"/>
       <c r="D138" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E138" s="53"/>
       <c r="F138" s="59">
@@ -25468,7 +25509,7 @@
       <c r="B139" s="53"/>
       <c r="C139" s="53"/>
       <c r="D139" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E139" s="53"/>
       <c r="F139" s="59">
@@ -25480,7 +25521,7 @@
       <c r="B140" s="53"/>
       <c r="C140" s="53"/>
       <c r="D140" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E140" s="53"/>
       <c r="F140" s="59">
@@ -25492,7 +25533,7 @@
       <c r="B141" s="53"/>
       <c r="C141" s="53"/>
       <c r="D141" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E141" s="53"/>
       <c r="F141" s="59">
@@ -25504,35 +25545,35 @@
       <c r="B142" s="53"/>
       <c r="C142" s="53"/>
       <c r="D142" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E142" s="53"/>
       <c r="F142" s="59">
         <v>19561</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="16.5" thickBot="1"/>
-    <row r="144" spans="1:6" s="7" customFormat="1" ht="17">
+    <row r="143" spans="1:6" ht="14.25" thickBot="1"/>
+    <row r="144" spans="1:6" s="7" customFormat="1" ht="16.5">
       <c r="A144" s="146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" s="142"/>
+    </row>
+    <row r="145" spans="1:2" s="7" customFormat="1" ht="16.5">
+      <c r="A145" s="147" t="s">
         <v>299</v>
       </c>
-      <c r="B144" s="142"/>
-    </row>
-    <row r="145" spans="1:2" s="7" customFormat="1" ht="17">
-      <c r="A145" s="147" t="s">
+      <c r="B145" s="143"/>
+    </row>
+    <row r="146" spans="1:2" s="7" customFormat="1" ht="16.5">
+      <c r="A146" s="148" t="s">
         <v>300</v>
       </c>
-      <c r="B145" s="143"/>
-    </row>
-    <row r="146" spans="1:2" s="7" customFormat="1" ht="17">
-      <c r="A146" s="148" t="s">
+      <c r="B146" s="144"/>
+    </row>
+    <row r="147" spans="1:2" s="7" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A147" s="149" t="s">
         <v>301</v>
-      </c>
-      <c r="B146" s="144"/>
-    </row>
-    <row r="147" spans="1:2" s="7" customFormat="1" ht="17.5" thickBot="1">
-      <c r="A147" s="149" t="s">
-        <v>302</v>
       </c>
       <c r="B147" s="145"/>
     </row>
@@ -25547,20 +25588,20 @@
   <dimension ref="A2:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="22"/>
     <col min="2" max="2" width="25.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="21">
         <v>2019</v>
@@ -25634,7 +25675,7 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="24"/>
     </row>
@@ -25706,7 +25747,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C20" s="24"/>
     </row>
@@ -25778,7 +25819,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" s="24"/>
     </row>
@@ -25845,70 +25886,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17.5" thickBot="1">
+    <row r="38" spans="1:14" ht="17.25" thickBot="1">
       <c r="A38" s="25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="17.5" thickBot="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17.25" thickBot="1">
       <c r="A39" s="25"/>
       <c r="B39" s="119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="120" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="121" t="s">
         <v>291</v>
       </c>
-      <c r="D39" s="121" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="17.5" thickBot="1">
+    </row>
+    <row r="40" spans="1:14" ht="17.25" thickBot="1">
       <c r="A40" s="25"/>
       <c r="B40" s="119" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="120" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="121" t="s">
         <v>293</v>
-      </c>
-      <c r="D40" s="121" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="25"/>
       <c r="B41" s="28" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C41" s="117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="117"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="25"/>
       <c r="B42" s="28" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C42" s="117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D42" s="117"/>
     </row>
-    <row r="43" spans="1:14" ht="17.5" thickBot="1">
+    <row r="43" spans="1:14" ht="17.25" thickBot="1">
       <c r="D43" s="7"/>
       <c r="F43" s="117"/>
       <c r="I43" s="7"/>
       <c r="J43" s="117"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="173" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="C44" s="122" t="s">
-        <v>308</v>
-      </c>
       <c r="D44" s="123" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E44" s="123"/>
       <c r="F44" s="124"/>
@@ -25922,12 +25963,12 @@
       <c r="N44" s="125"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="B45" s="164"/>
+      <c r="B45" s="174"/>
       <c r="C45" s="126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D45" s="127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E45" s="128"/>
       <c r="F45" s="129"/>
@@ -25941,12 +25982,12 @@
       <c r="N45" s="130"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="B46" s="164"/>
+      <c r="B46" s="174"/>
       <c r="C46" s="131" t="s">
         <v>126</v>
       </c>
       <c r="D46" s="132" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E46" s="133"/>
       <c r="F46" s="129"/>
@@ -25960,12 +26001,12 @@
       <c r="N46" s="130"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="B47" s="164"/>
+      <c r="B47" s="174"/>
       <c r="C47" s="131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D47" s="127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E47" s="133"/>
       <c r="F47" s="129"/>
@@ -25978,13 +26019,13 @@
       <c r="M47" s="129"/>
       <c r="N47" s="130"/>
     </row>
-    <row r="48" spans="1:14" ht="17.5" thickBot="1">
-      <c r="B48" s="165"/>
+    <row r="48" spans="1:14" ht="17.25" thickBot="1">
+      <c r="B48" s="175"/>
       <c r="C48" s="134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D48" s="135" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E48" s="136"/>
       <c r="F48" s="137"/>
@@ -25997,21 +26038,21 @@
       <c r="M48" s="137"/>
       <c r="N48" s="138"/>
     </row>
-    <row r="49" spans="2:14" ht="17.5" thickBot="1">
+    <row r="49" spans="2:14" ht="17.25" thickBot="1">
       <c r="B49" s="7"/>
       <c r="C49" s="118"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="166" t="s">
-        <v>317</v>
+      <c r="B50" s="176" t="s">
+        <v>316</v>
       </c>
       <c r="C50" s="139" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D50" s="123" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E50" s="123"/>
       <c r="F50" s="124"/>
@@ -26025,12 +26066,12 @@
       <c r="N50" s="125"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="167"/>
+      <c r="B51" s="177"/>
       <c r="C51" s="131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D51" s="132" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E51" s="133"/>
       <c r="F51" s="129"/>
@@ -26044,12 +26085,12 @@
       <c r="N51" s="130"/>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="167"/>
+      <c r="B52" s="177"/>
       <c r="C52" s="131" t="s">
         <v>126</v>
       </c>
       <c r="D52" s="127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E52" s="133"/>
       <c r="F52" s="129"/>
@@ -26063,12 +26104,12 @@
       <c r="N52" s="130"/>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="167"/>
+      <c r="B53" s="177"/>
       <c r="C53" s="131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D53" s="132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E53" s="133"/>
       <c r="F53" s="129"/>
@@ -26081,13 +26122,13 @@
       <c r="M53" s="129"/>
       <c r="N53" s="130"/>
     </row>
-    <row r="54" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B54" s="168"/>
+    <row r="54" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B54" s="178"/>
       <c r="C54" s="134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D54" s="135" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E54" s="136"/>
       <c r="F54" s="137"/>
@@ -26100,18 +26141,18 @@
       <c r="M54" s="137"/>
       <c r="N54" s="138"/>
     </row>
-    <row r="55" spans="2:14" ht="17.5" thickBot="1">
+    <row r="55" spans="2:14" ht="17.25" thickBot="1">
       <c r="B55" s="7"/>
       <c r="C55" s="79"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="166" t="s">
-        <v>322</v>
+      <c r="B56" s="176" t="s">
+        <v>321</v>
       </c>
       <c r="C56" s="139" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D56" s="123"/>
       <c r="E56" s="123"/>
@@ -26126,12 +26167,12 @@
       <c r="N56" s="125"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="167"/>
+      <c r="B57" s="177"/>
       <c r="C57" s="131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D57" s="132" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E57" s="133"/>
       <c r="F57" s="129"/>
@@ -26145,12 +26186,12 @@
       <c r="N57" s="130"/>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="167"/>
+      <c r="B58" s="177"/>
       <c r="C58" s="131" t="s">
         <v>126</v>
       </c>
       <c r="D58" s="132" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E58" s="128"/>
       <c r="F58" s="129"/>
@@ -26164,12 +26205,12 @@
       <c r="N58" s="130"/>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="167"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D59" s="132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E59" s="133"/>
       <c r="F59" s="129"/>
@@ -26182,13 +26223,13 @@
       <c r="M59" s="129"/>
       <c r="N59" s="130"/>
     </row>
-    <row r="60" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B60" s="168"/>
+    <row r="60" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B60" s="178"/>
       <c r="C60" s="134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D60" s="135" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E60" s="136"/>
       <c r="F60" s="137"/>
@@ -26201,21 +26242,21 @@
       <c r="M60" s="137"/>
       <c r="N60" s="138"/>
     </row>
-    <row r="61" spans="2:14" ht="17.5" thickBot="1">
+    <row r="61" spans="2:14" ht="17.25" thickBot="1">
       <c r="B61" s="7"/>
       <c r="C61" s="118"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="166" t="s">
-        <v>326</v>
+      <c r="B62" s="176" t="s">
+        <v>325</v>
       </c>
       <c r="C62" s="139" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D62" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E62" s="123"/>
       <c r="F62" s="124"/>
@@ -26229,12 +26270,12 @@
       <c r="N62" s="125"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="167"/>
+      <c r="B63" s="177"/>
       <c r="C63" s="131" t="s">
         <v>126</v>
       </c>
       <c r="D63" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E63" s="133"/>
       <c r="F63" s="129"/>
@@ -26248,12 +26289,12 @@
       <c r="N63" s="130"/>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="167"/>
+      <c r="B64" s="177"/>
       <c r="C64" s="131" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D64" s="127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E64" s="133"/>
       <c r="F64" s="129"/>
@@ -26267,12 +26308,12 @@
       <c r="N64" s="130"/>
     </row>
     <row r="65" spans="2:14">
-      <c r="B65" s="167"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D65" s="127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E65" s="133"/>
       <c r="F65" s="129"/>
@@ -26285,10 +26326,10 @@
       <c r="M65" s="129"/>
       <c r="N65" s="130"/>
     </row>
-    <row r="66" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B66" s="168"/>
+    <row r="66" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B66" s="178"/>
       <c r="C66" s="141" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D66" s="136"/>
       <c r="E66" s="136"/>
@@ -26319,53 +26360,53 @@
   <dimension ref="A2:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="12" max="12" width="20.08203125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
       <c r="B2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" t="s">
         <v>438</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>439</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>440</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>441</v>
-      </c>
-      <c r="F2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="F3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B4" s="151">
         <v>10</v>
@@ -26397,18 +26438,18 @@
       <c r="J4" s="151"/>
       <c r="K4" s="151"/>
       <c r="L4" s="151" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M4" s="150" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C5" s="151">
         <v>794</v>
@@ -26436,15 +26477,15 @@
       <c r="J5" s="151"/>
       <c r="K5" s="151"/>
       <c r="L5" s="151" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M5" s="150" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B6" s="151">
         <v>10</v>
@@ -26476,15 +26517,15 @@
       <c r="J6" s="151"/>
       <c r="K6" s="151"/>
       <c r="L6" s="151" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M6" s="150" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B7" s="151">
         <v>10</v>
@@ -26516,15 +26557,15 @@
       <c r="J7" s="151"/>
       <c r="K7" s="151"/>
       <c r="L7" s="151" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B8" s="151">
         <v>8</v>
@@ -26561,7 +26602,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B9" s="151">
         <v>8</v>
@@ -26596,7 +26637,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B10" s="151">
         <v>8</v>
@@ -26630,7 +26671,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B11" s="151">
         <v>6</v>
@@ -26662,15 +26703,15 @@
       <c r="J11" s="151"/>
       <c r="K11" s="151"/>
       <c r="L11" s="151" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B12" s="151">
         <v>6</v>
@@ -26699,15 +26740,15 @@
       <c r="J12" s="151"/>
       <c r="K12" s="151"/>
       <c r="L12" s="151" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M12" s="150" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B13" s="151">
         <v>4</v>
@@ -26739,15 +26780,15 @@
       <c r="J13" s="151"/>
       <c r="K13" s="151"/>
       <c r="L13" s="151" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M13" s="150" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B14" s="151">
         <v>8</v>
@@ -26779,15 +26820,15 @@
       <c r="J14" s="151"/>
       <c r="K14" s="151"/>
       <c r="L14" s="151" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M14" s="150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B15" s="151">
         <v>6</v>
@@ -26819,15 +26860,15 @@
       <c r="J15" s="151"/>
       <c r="K15" s="151"/>
       <c r="L15" s="151" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M15" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B16" s="151">
         <v>4</v>
@@ -26862,7 +26903,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B17" s="151">
         <v>6</v>
@@ -26894,15 +26935,15 @@
       <c r="J17" s="151"/>
       <c r="K17" s="151"/>
       <c r="L17" s="151" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M17" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B18" s="151">
         <v>8</v>
@@ -26934,15 +26975,15 @@
       <c r="J18" s="151"/>
       <c r="K18" s="151"/>
       <c r="L18" s="151" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M18" s="150" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B19" s="151">
         <v>2</v>
@@ -26974,15 +27015,15 @@
       <c r="J19" s="151"/>
       <c r="K19" s="151"/>
       <c r="L19" s="151" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M19" s="150" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B20" s="151">
         <v>6</v>
@@ -27012,15 +27053,15 @@
       <c r="J20" s="151"/>
       <c r="K20" s="151"/>
       <c r="L20" s="151" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M20" s="150" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B21" s="151">
         <v>6</v>
@@ -27050,15 +27091,15 @@
       <c r="J21" s="151"/>
       <c r="K21" s="151"/>
       <c r="L21" s="151" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M21" s="150" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B22" s="151">
         <v>3</v>
@@ -27088,15 +27129,15 @@
       <c r="J22" s="151"/>
       <c r="K22" s="151"/>
       <c r="L22" s="151" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B23" s="151">
         <v>4</v>
@@ -27129,15 +27170,15 @@
       <c r="J23" s="151"/>
       <c r="K23" s="151"/>
       <c r="L23" s="151" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M23" s="150" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B24" s="151">
         <v>2</v>
@@ -27166,15 +27207,15 @@
       <c r="J24" s="151"/>
       <c r="K24" s="151"/>
       <c r="L24" s="151" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M24" s="150" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B25" s="151">
         <v>2</v>
@@ -27203,15 +27244,15 @@
       <c r="J25" s="151"/>
       <c r="K25" s="151"/>
       <c r="L25" s="151" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M25" s="150" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B26" s="151">
         <v>1</v>
@@ -27240,15 +27281,15 @@
       <c r="J26" s="151"/>
       <c r="K26" s="151"/>
       <c r="L26" s="151" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M26" s="150" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B27" s="151">
         <v>2</v>
@@ -27277,15 +27318,15 @@
       <c r="J27" s="151"/>
       <c r="K27" s="151"/>
       <c r="L27" s="151" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M27" s="150" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B28" s="151"/>
       <c r="C28">
@@ -27300,25 +27341,25 @@
         <v>2642026</v>
       </c>
       <c r="L28" s="151" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M28" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="B29" s="153" t="s">
-        <v>513</v>
-      </c>
-      <c r="C29" s="155">
+        <v>510</v>
+      </c>
+      <c r="C29" s="172">
         <f>SUMPRODUCT(D4:D27,I4:I27)/D28</f>
         <v>356.82478102755613</v>
       </c>
       <c r="L29" s="151" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M29" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -27327,23 +27368,23 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="19" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B35" s="7"/>
     </row>
@@ -27374,105 +27415,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74998EDC-2173-4F08-8F4D-1DBD92A6B41E}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.08203125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="62" customWidth="1"/>
     <col min="2" max="2" width="9" style="62"/>
     <col min="3" max="3" width="12.25" style="62" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="62" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23">
       <c r="B1" s="71" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" ht="17">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" ht="16.5">
       <c r="B2" s="72" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="D2" s="162">
+        <v>354</v>
+      </c>
+      <c r="D2" s="161">
         <v>2000</v>
       </c>
-      <c r="E2" s="162">
+      <c r="E2" s="161">
         <v>2001</v>
       </c>
-      <c r="F2" s="162">
+      <c r="F2" s="161">
         <v>2002</v>
       </c>
-      <c r="G2" s="162">
+      <c r="G2" s="161">
         <v>2003</v>
       </c>
-      <c r="H2" s="162">
+      <c r="H2" s="161">
         <v>2004</v>
       </c>
-      <c r="I2" s="162">
+      <c r="I2" s="161">
         <v>2005</v>
       </c>
-      <c r="J2" s="162">
+      <c r="J2" s="161">
         <v>2006</v>
       </c>
-      <c r="K2" s="162">
+      <c r="K2" s="161">
         <v>2007</v>
       </c>
-      <c r="L2" s="162">
+      <c r="L2" s="161">
         <v>2008</v>
       </c>
-      <c r="M2" s="162">
+      <c r="M2" s="161">
         <v>2009</v>
       </c>
-      <c r="N2" s="162">
+      <c r="N2" s="161">
         <v>2010</v>
       </c>
-      <c r="O2" s="162">
+      <c r="O2" s="161">
         <v>2011</v>
       </c>
-      <c r="P2" s="162">
+      <c r="P2" s="161">
         <v>2012</v>
       </c>
-      <c r="Q2" s="162">
+      <c r="Q2" s="161">
         <v>2013</v>
       </c>
-      <c r="R2" s="162">
+      <c r="R2" s="161">
         <v>2014</v>
       </c>
-      <c r="S2" s="162">
+      <c r="S2" s="161">
         <v>2015</v>
       </c>
-      <c r="T2" s="162">
+      <c r="T2" s="161">
         <v>2016</v>
       </c>
-      <c r="U2" s="162">
+      <c r="U2" s="161">
         <v>2017</v>
       </c>
-      <c r="V2" s="162">
+      <c r="V2" s="161">
         <v>2018</v>
       </c>
-      <c r="W2" s="162">
+      <c r="W2" s="161">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="17">
+    <row r="3" spans="2:23" ht="16.5">
       <c r="B3" s="75" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G3" s="76">
         <v>340</v>
@@ -27526,60 +27567,60 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="17">
+    <row r="4" spans="2:23" ht="16.5">
       <c r="B4" s="75" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C4" s="75" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S4" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="T4" s="76">
         <v>100</v>
@@ -27594,12 +27635,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="17">
+    <row r="5" spans="2:23" ht="16.5">
       <c r="B5" s="75" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D5" s="76">
         <v>467</v>
@@ -27662,12 +27703,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="17">
+    <row r="6" spans="2:23" ht="16.5">
       <c r="B6" s="77" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D6" s="76">
         <v>95</v>
@@ -27730,12 +27771,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="17">
+    <row r="7" spans="2:23" ht="16.5">
       <c r="B7" s="77" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D7" s="76">
         <v>1</v>
@@ -27765,45 +27806,45 @@
         <v>1</v>
       </c>
       <c r="M7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="T7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="U7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V7" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="W7" s="76" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" ht="17">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="16.5">
       <c r="B8" s="75" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D8" s="76">
         <v>615</v>
@@ -27866,12 +27907,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="17">
+    <row r="9" spans="2:23" ht="16.5">
       <c r="B9" s="77" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D9" s="76">
         <v>1674</v>
@@ -27934,107 +27975,107 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="17">
+    <row r="10" spans="2:23" ht="16.5">
       <c r="B10" s="77" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D10" s="76">
         <v>10</v>
       </c>
       <c r="E10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="M10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="N10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="O10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="P10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="R10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="S10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="T10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="U10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="V10" s="76" t="s">
+        <v>355</v>
+      </c>
+      <c r="W10" s="76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="16.5">
+      <c r="B11" s="77" t="s">
         <v>358</v>
       </c>
-      <c r="F10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="H10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="K10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="M10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="N10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="O10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="P10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="R10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="S10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="T10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="U10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="V10" s="76" t="s">
-        <v>358</v>
-      </c>
-      <c r="W10" s="76" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" ht="17">
-      <c r="B11" s="77" t="s">
-        <v>361</v>
-      </c>
       <c r="C11" s="75" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L11" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M11" s="76">
         <v>32</v>
@@ -28070,45 +28111,45 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="17">
+    <row r="12" spans="2:23" ht="16.5">
       <c r="B12" s="77" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N12" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O12" s="76">
         <v>16</v>
@@ -28138,9 +28179,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="17">
+    <row r="13" spans="2:23" ht="16.5">
       <c r="B13" s="75" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C13" s="75" t="s">
         <v>52</v>
@@ -28206,9 +28247,9 @@
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="17">
+    <row r="14" spans="2:23" ht="16.5">
       <c r="B14" s="75" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C14" s="75" t="s">
         <v>52</v>
@@ -28274,9 +28315,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="17">
+    <row r="15" spans="2:23" ht="16.5">
       <c r="B15" s="75" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C15" s="75" t="s">
         <v>52</v>
@@ -28342,77 +28383,77 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="17">
+    <row r="16" spans="2:23" ht="16.5">
       <c r="B16" s="75" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C16" s="75" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="R16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="T16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="U16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="V16" s="76" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="W16" s="76" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="17">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5">
       <c r="B17" s="78" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>52</v>
@@ -28480,95 +28521,95 @@
     </row>
     <row r="19" spans="1:23">
       <c r="B19" s="74" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="B20" s="108" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C20" s="109">
         <v>20</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E20" s="62">
         <v>920</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="B21" s="108" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C21" s="109">
         <v>10</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="B22" s="108" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C22" s="109">
         <v>10</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="B23" s="110" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C23" s="111" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D23" s="112" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E23" s="81">
         <v>4</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="B24" s="110" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C24" s="111" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D24" s="112" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E24" s="81">
         <v>6</v>
       </c>
       <c r="F24" s="81" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="111">
         <v>30</v>
       </c>
       <c r="D25" s="112" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E25" s="81"/>
       <c r="F25" s="81" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -28577,7 +28618,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="C27" s="62" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -28590,57 +28631,57 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="169" t="s">
-        <v>386</v>
+      <c r="B29" s="179" t="s">
+        <v>383</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D29" s="9">
         <f>$E$20/$C$20</f>
         <v>46</v>
       </c>
-      <c r="E29" s="169" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="171" t="s">
-        <v>398</v>
-      </c>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
+      <c r="E29" s="179" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="181" t="s">
+        <v>395</v>
+      </c>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="172"/>
-      <c r="B30" s="169"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="179"/>
       <c r="C30" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D30" s="90">
         <f>(W3-$E$20)/$C$21-22</f>
         <v>39</v>
       </c>
-      <c r="E30" s="169"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="172"/>
-      <c r="B31" s="169"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D31" s="90">
         <f>32</f>
         <v>32</v>
       </c>
-      <c r="E31" s="169"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="74" t="s">
@@ -28648,24 +28689,24 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D32" s="90">
         <f>W5</f>
         <v>254</v>
       </c>
-      <c r="E32" s="173" t="s">
-        <v>429</v>
-      </c>
-      <c r="F32" s="159" t="s">
-        <v>399</v>
-      </c>
-      <c r="G32" s="160" t="s">
-        <v>401</v>
-      </c>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
+      <c r="E32" s="183" t="s">
+        <v>426</v>
+      </c>
+      <c r="F32" s="158" t="s">
+        <v>396</v>
+      </c>
+      <c r="G32" s="159" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="74" t="s">
@@ -28673,109 +28714,109 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D33" s="90">
         <f>W6</f>
         <v>175</v>
       </c>
-      <c r="E33" s="173"/>
-      <c r="F33" s="159" t="s">
-        <v>399</v>
-      </c>
-      <c r="G33" s="160" t="s">
-        <v>400</v>
-      </c>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="158" t="s">
+        <v>396</v>
+      </c>
+      <c r="G33" s="159" t="s">
+        <v>397</v>
+      </c>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="74" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D34" s="80">
         <f>W8/$E$23</f>
         <v>30.25</v>
       </c>
-      <c r="E34" s="169" t="s">
-        <v>397</v>
-      </c>
-      <c r="F34" s="170" t="s">
-        <v>399</v>
-      </c>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
+      <c r="E34" s="179" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34" s="180" t="s">
+        <v>396</v>
+      </c>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="172" t="s">
+      <c r="A35" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="169" t="s">
-        <v>351</v>
+      <c r="B35" s="179" t="s">
+        <v>348</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D35" s="80">
         <f>W9/$E$24</f>
         <v>427</v>
       </c>
-      <c r="E35" s="169"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="172"/>
-      <c r="B36" s="169"/>
+      <c r="A36" s="182"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D36" s="80">
         <f>W11/$E$24</f>
         <v>27.666666666666668</v>
       </c>
-      <c r="E36" s="169"/>
-      <c r="F36" s="171" t="s">
-        <v>398</v>
-      </c>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="181" t="s">
+        <v>395</v>
+      </c>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="172"/>
-      <c r="B37" s="169"/>
+      <c r="A37" s="182"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D37" s="80">
         <f>W12/$E$24</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="E37" s="169"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
     </row>
     <row r="38" spans="1:10">
       <c r="B38" s="107"/>
       <c r="D38" s="73"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="169" t="s">
-        <v>391</v>
+      <c r="B39" s="179" t="s">
+        <v>388</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D39" s="80">
         <f>W13</f>
@@ -28783,9 +28824,9 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="169"/>
+      <c r="B40" s="179"/>
       <c r="C40" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D40" s="80">
         <f>W14</f>
@@ -28793,9 +28834,9 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="169"/>
+      <c r="B41" s="179"/>
       <c r="C41" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D41" s="80">
         <f>W15</f>
@@ -28803,9 +28844,9 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="169"/>
+      <c r="B42" s="179"/>
       <c r="C42" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D42" s="80">
         <f>W17</f>
@@ -28814,17 +28855,17 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="62" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="48" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -28833,41 +28874,41 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="62" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B48" s="107"/>
       <c r="C48" s="70"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="62" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B49" s="107"/>
       <c r="C49" s="70"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="62" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="62" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="62" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="62" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="62" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -28898,15 +28939,15 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="91"/>
     <col min="2" max="2" width="11.25" style="91" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="91" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="91" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="91" customWidth="1"/>
     <col min="5" max="5" width="11" style="91" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="91" customWidth="1"/>
-    <col min="7" max="10" width="9.33203125" style="91" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="91" customWidth="1"/>
+    <col min="7" max="10" width="9.375" style="91" customWidth="1"/>
     <col min="11" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
@@ -28930,23 +28971,23 @@
       <c r="H3" s="93"/>
       <c r="I3" s="94"/>
       <c r="J3" s="92" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L3" s="92" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="94" t="s">
@@ -28955,13 +28996,13 @@
       <c r="F4" s="94">
         <v>3</v>
       </c>
-      <c r="G4" s="169"/>
+      <c r="G4" s="179"/>
       <c r="H4" s="95"/>
-      <c r="I4" s="169" t="s">
-        <v>148</v>
+      <c r="I4" s="179" t="s">
+        <v>147</v>
       </c>
       <c r="J4" s="96" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K4" s="94">
         <f>SUM($F$62:$G$65)</f>
@@ -28973,20 +29014,20 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="169"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="169"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="179"/>
       <c r="E5" s="94" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="94">
         <v>10</v>
       </c>
-      <c r="G5" s="169"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="95"/>
-      <c r="I5" s="169"/>
+      <c r="I5" s="179"/>
       <c r="J5" s="96" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K5" s="94">
         <f>SUM($F$61:$G$61,$F$66:$G$66)+SUM($F$12,$F$25,$F$31,$F$34,$F$37,$F$41,$F$43,$F$45,$F$49,$F$51:$G$58)</f>
@@ -28998,20 +29039,20 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="169"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="169"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="179"/>
       <c r="E6" s="94" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="94">
         <v>44</v>
       </c>
-      <c r="G6" s="169"/>
+      <c r="G6" s="179"/>
       <c r="H6" s="95"/>
-      <c r="I6" s="169"/>
+      <c r="I6" s="179"/>
       <c r="J6" s="96" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K6" s="94">
         <f>E71</f>
@@ -29023,20 +29064,20 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="169"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="169"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="179"/>
       <c r="E7" s="94" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="94">
         <v>10</v>
       </c>
-      <c r="G7" s="169"/>
+      <c r="G7" s="179"/>
       <c r="H7" s="95"/>
-      <c r="I7" s="169"/>
+      <c r="I7" s="179"/>
       <c r="J7" s="96" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K7" s="94">
         <v>0</v>
@@ -29047,20 +29088,20 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="169"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="169"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="179"/>
       <c r="E8" s="94" t="s">
         <v>94</v>
       </c>
       <c r="F8" s="94">
         <v>31</v>
       </c>
-      <c r="G8" s="169"/>
+      <c r="G8" s="179"/>
       <c r="H8" s="95"/>
-      <c r="I8" s="169"/>
+      <c r="I8" s="179"/>
       <c r="J8" s="89" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K8" s="94">
         <f>SUM($K$4:$K$7)</f>
@@ -29069,22 +29110,22 @@
       <c r="L8" s="97"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="169"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="169"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="94" t="s">
         <v>95</v>
       </c>
       <c r="F9" s="94">
         <v>29</v>
       </c>
-      <c r="G9" s="169"/>
+      <c r="G9" s="179"/>
       <c r="H9" s="95"/>
-      <c r="I9" s="169" t="s">
-        <v>149</v>
+      <c r="I9" s="179" t="s">
+        <v>148</v>
       </c>
       <c r="J9" s="96" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K9" s="94">
         <v>0</v>
@@ -29095,20 +29136,20 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="169"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="169"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="94" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="94">
         <v>10</v>
       </c>
-      <c r="G10" s="169"/>
+      <c r="G10" s="179"/>
       <c r="H10" s="95"/>
-      <c r="I10" s="169"/>
+      <c r="I10" s="179"/>
       <c r="J10" s="96" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K10" s="94">
         <f>SUM($F$16,$F$29,$F$47)</f>
@@ -29120,20 +29161,20 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="169"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="169"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="94" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="94">
         <v>10</v>
       </c>
-      <c r="G11" s="169"/>
+      <c r="G11" s="179"/>
       <c r="H11" s="95"/>
-      <c r="I11" s="169"/>
+      <c r="I11" s="179"/>
       <c r="J11" s="96" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K11" s="94">
         <v>0</v>
@@ -29144,9 +29185,9 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="169"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="169"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="94" t="s">
         <v>98</v>
       </c>
@@ -29154,11 +29195,11 @@
         <f>SUM($F$4:$F$11)</f>
         <v>147</v>
       </c>
-      <c r="G12" s="169"/>
+      <c r="G12" s="179"/>
       <c r="H12" s="95"/>
-      <c r="I12" s="169"/>
+      <c r="I12" s="179"/>
       <c r="J12" s="96" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K12" s="94">
         <v>0</v>
@@ -29169,9 +29210,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="169"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="169" t="s">
+      <c r="B13" s="179"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="179" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="94" t="s">
@@ -29180,11 +29221,11 @@
       <c r="F13" s="94">
         <v>4</v>
       </c>
-      <c r="G13" s="169"/>
+      <c r="G13" s="179"/>
       <c r="H13" s="95"/>
-      <c r="I13" s="169"/>
+      <c r="I13" s="179"/>
       <c r="J13" s="89" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K13" s="94">
         <f>SUM($K$9:$K$12)</f>
@@ -29193,21 +29234,21 @@
       <c r="L13" s="97"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="169"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="169"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="94" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="94">
         <v>7</v>
       </c>
-      <c r="G14" s="169"/>
+      <c r="G14" s="179"/>
       <c r="H14" s="95"/>
-      <c r="I14" s="169" t="s">
-        <v>296</v>
-      </c>
-      <c r="J14" s="169"/>
+      <c r="I14" s="179" t="s">
+        <v>295</v>
+      </c>
+      <c r="J14" s="179"/>
       <c r="K14" s="98">
         <f>SUM($K$8,$K$13)</f>
         <v>858</v>
@@ -29215,24 +29256,24 @@
       <c r="L14" s="94"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="169"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="169"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="94" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="94">
         <v>12</v>
       </c>
-      <c r="G15" s="169"/>
+      <c r="G15" s="179"/>
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
       <c r="J15" s="95"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="169"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="169"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="94" t="s">
         <v>98</v>
       </c>
@@ -29240,10 +29281,10 @@
         <f>SUM($F$13:$F$15)</f>
         <v>23</v>
       </c>
-      <c r="G16" s="169"/>
+      <c r="G16" s="179"/>
       <c r="H16" s="95"/>
       <c r="I16" s="99" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J16" s="60"/>
       <c r="K16" s="60">
@@ -29251,11 +29292,11 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="169"/>
-      <c r="C17" s="177" t="s">
+      <c r="B17" s="179"/>
+      <c r="C17" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="169" t="s">
+      <c r="D17" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="94" t="s">
@@ -29264,10 +29305,10 @@
       <c r="F17" s="94">
         <v>2</v>
       </c>
-      <c r="G17" s="169"/>
+      <c r="G17" s="179"/>
       <c r="H17" s="95"/>
-      <c r="I17" s="174" t="s">
-        <v>148</v>
+      <c r="I17" s="184" t="s">
+        <v>147</v>
       </c>
       <c r="J17" s="61" t="s">
         <v>89</v>
@@ -29278,20 +29319,20 @@
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="169"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="169"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="94" t="s">
         <v>104</v>
       </c>
       <c r="F18" s="94">
         <v>9</v>
       </c>
-      <c r="G18" s="169"/>
+      <c r="G18" s="179"/>
       <c r="H18" s="95"/>
-      <c r="I18" s="174"/>
+      <c r="I18" s="184"/>
       <c r="J18" s="61" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K18" s="61">
         <f>SUM(F51:F58,F61:F66,E71)</f>
@@ -29299,20 +29340,20 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="169"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="169"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="94" t="s">
         <v>105</v>
       </c>
       <c r="F19" s="94">
         <v>6</v>
       </c>
-      <c r="G19" s="169"/>
+      <c r="G19" s="179"/>
       <c r="H19" s="95"/>
-      <c r="I19" s="174"/>
+      <c r="I19" s="184"/>
       <c r="J19" s="61" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K19" s="61">
         <f>SUM(G51:G58,G61:G66)</f>
@@ -29320,19 +29361,19 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="169"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="169"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="94" t="s">
         <v>106</v>
       </c>
       <c r="F20" s="94">
         <v>19</v>
       </c>
-      <c r="G20" s="169"/>
+      <c r="G20" s="179"/>
       <c r="H20" s="95"/>
       <c r="I20" s="89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J20" s="61" t="s">
         <v>99</v>
@@ -29343,75 +29384,75 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="169"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="169"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="94" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="94">
         <v>15</v>
       </c>
-      <c r="G21" s="169"/>
+      <c r="G21" s="179"/>
       <c r="H21" s="95"/>
-      <c r="I21" s="169" t="s">
-        <v>296</v>
-      </c>
-      <c r="J21" s="169"/>
+      <c r="I21" s="179" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="179"/>
       <c r="K21" s="100">
         <f>SUM($K$17:$K$20)</f>
         <v>858</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="169"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="169"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="94" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="94">
         <v>7</v>
       </c>
-      <c r="G22" s="169"/>
+      <c r="G22" s="179"/>
       <c r="H22" s="95"/>
       <c r="I22" s="95"/>
       <c r="J22" s="95"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="169"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="169"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="94" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="94">
         <v>6</v>
       </c>
-      <c r="G23" s="169"/>
+      <c r="G23" s="179"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="169"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="169"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="94" t="s">
         <v>109</v>
       </c>
       <c r="F24" s="94">
         <v>10</v>
       </c>
-      <c r="G24" s="169"/>
+      <c r="G24" s="179"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="169"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="169"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="179"/>
       <c r="E25" s="94" t="s">
         <v>98</v>
       </c>
@@ -29419,15 +29460,15 @@
         <f>SUM($F$17:$F$24)</f>
         <v>74</v>
       </c>
-      <c r="G25" s="169"/>
+      <c r="G25" s="179"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="169"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="169" t="s">
+      <c r="B26" s="179"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="179" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="94" t="s">
@@ -29436,45 +29477,45 @@
       <c r="F26" s="94">
         <v>9</v>
       </c>
-      <c r="G26" s="169"/>
+      <c r="G26" s="179"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="169"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="169"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="94" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="94">
         <v>1</v>
       </c>
-      <c r="G27" s="169"/>
+      <c r="G27" s="179"/>
       <c r="H27" s="95"/>
       <c r="I27" s="95"/>
       <c r="J27" s="95"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="169"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="169"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="94" t="s">
         <v>90</v>
       </c>
       <c r="F28" s="94">
         <v>2</v>
       </c>
-      <c r="G28" s="169"/>
+      <c r="G28" s="179"/>
       <c r="H28" s="95"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="169"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="169"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="94" t="s">
         <v>98</v>
       </c>
@@ -29482,17 +29523,17 @@
         <f>SUM($F$26:$F$28)</f>
         <v>12</v>
       </c>
-      <c r="G29" s="169"/>
+      <c r="G29" s="179"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="169"/>
-      <c r="C30" s="177" t="s">
+      <c r="B30" s="179"/>
+      <c r="C30" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="169" t="s">
+      <c r="D30" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E30" s="94" t="s">
@@ -29501,32 +29542,32 @@
       <c r="F30" s="94">
         <v>45</v>
       </c>
-      <c r="G30" s="169"/>
+      <c r="G30" s="179"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="169"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="169"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="179"/>
       <c r="E31" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="94">
         <v>45</v>
       </c>
-      <c r="G31" s="169"/>
+      <c r="G31" s="179"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="169"/>
-      <c r="C32" s="177" t="s">
+      <c r="B32" s="179"/>
+      <c r="C32" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="169" t="s">
+      <c r="D32" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="94" t="s">
@@ -29535,30 +29576,30 @@
       <c r="F32" s="94">
         <v>22</v>
       </c>
-      <c r="G32" s="169"/>
+      <c r="G32" s="179"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="169"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="169"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="94" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="94">
         <v>4</v>
       </c>
-      <c r="G33" s="169"/>
+      <c r="G33" s="179"/>
       <c r="H33" s="95"/>
       <c r="I33" s="95"/>
       <c r="J33" s="95"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="169"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="169"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="94" t="s">
         <v>98</v>
       </c>
@@ -29566,17 +29607,17 @@
         <f>SUM($F$32:$F$33)</f>
         <v>26</v>
       </c>
-      <c r="G34" s="169"/>
+      <c r="G34" s="179"/>
       <c r="H34" s="95"/>
       <c r="I34" s="95"/>
       <c r="J34" s="95"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="169"/>
-      <c r="C35" s="177" t="s">
+      <c r="B35" s="179"/>
+      <c r="C35" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="169" t="s">
+      <c r="D35" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E35" s="94" t="s">
@@ -29585,30 +29626,30 @@
       <c r="F35" s="94">
         <v>8</v>
       </c>
-      <c r="G35" s="169"/>
+      <c r="G35" s="179"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="169"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="169"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="94" t="s">
         <v>115</v>
       </c>
       <c r="F36" s="94">
         <v>18</v>
       </c>
-      <c r="G36" s="169"/>
+      <c r="G36" s="179"/>
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="169"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="169"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="94" t="s">
         <v>98</v>
       </c>
@@ -29616,17 +29657,17 @@
         <f>SUM($F$35:$F$36)</f>
         <v>26</v>
       </c>
-      <c r="G37" s="169"/>
+      <c r="G37" s="179"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="169"/>
-      <c r="C38" s="177" t="s">
+      <c r="B38" s="179"/>
+      <c r="C38" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="169" t="s">
+      <c r="D38" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="94" t="s">
@@ -29635,45 +29676,45 @@
       <c r="F38" s="94">
         <v>19</v>
       </c>
-      <c r="G38" s="169"/>
+      <c r="G38" s="179"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="169"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="169"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="94" t="s">
         <v>112</v>
       </c>
       <c r="F39" s="94">
         <v>2</v>
       </c>
-      <c r="G39" s="169"/>
+      <c r="G39" s="179"/>
       <c r="H39" s="95"/>
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="169"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="169"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="94" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="94">
         <v>2</v>
       </c>
-      <c r="G40" s="169"/>
+      <c r="G40" s="179"/>
       <c r="H40" s="95"/>
       <c r="I40" s="95"/>
       <c r="J40" s="95"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="169"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="169"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="94" t="s">
         <v>98</v>
       </c>
@@ -29681,17 +29722,17 @@
         <f>SUM($F$38:$F$40)</f>
         <v>23</v>
       </c>
-      <c r="G41" s="169"/>
+      <c r="G41" s="179"/>
       <c r="H41" s="95"/>
       <c r="I41" s="95"/>
       <c r="J41" s="95"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="169"/>
-      <c r="C42" s="177" t="s">
+      <c r="B42" s="179"/>
+      <c r="C42" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="169" t="s">
+      <c r="D42" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="94" t="s">
@@ -29700,32 +29741,32 @@
       <c r="F42" s="94">
         <v>28</v>
       </c>
-      <c r="G42" s="169"/>
+      <c r="G42" s="179"/>
       <c r="H42" s="95"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="169"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F43" s="94">
         <v>28</v>
       </c>
-      <c r="G43" s="169"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="95"/>
       <c r="I43" s="95"/>
       <c r="J43" s="95"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="169"/>
-      <c r="C44" s="177" t="s">
+      <c r="B44" s="179"/>
+      <c r="C44" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="169" t="s">
+      <c r="D44" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E44" s="94" t="s">
@@ -29734,32 +29775,32 @@
       <c r="F44" s="94">
         <v>7</v>
       </c>
-      <c r="G44" s="169"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="95"/>
       <c r="I44" s="95"/>
       <c r="J44" s="95"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="169"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="179"/>
       <c r="E45" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F45" s="94">
         <v>7</v>
       </c>
-      <c r="G45" s="169"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="95"/>
       <c r="I45" s="95"/>
       <c r="J45" s="95"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="169"/>
-      <c r="C46" s="177" t="s">
+      <c r="B46" s="179"/>
+      <c r="C46" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="169" t="s">
+      <c r="D46" s="179" t="s">
         <v>99</v>
       </c>
       <c r="E46" s="94" t="s">
@@ -29768,32 +29809,32 @@
       <c r="F46" s="94">
         <v>1</v>
       </c>
-      <c r="G46" s="169"/>
+      <c r="G46" s="179"/>
       <c r="H46" s="95"/>
       <c r="I46" s="95"/>
       <c r="J46" s="95"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="169"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="169"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="187"/>
+      <c r="D47" s="179"/>
       <c r="E47" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F47" s="94">
         <v>1</v>
       </c>
-      <c r="G47" s="169"/>
+      <c r="G47" s="179"/>
       <c r="H47" s="95"/>
       <c r="I47" s="95"/>
       <c r="J47" s="95"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="169"/>
-      <c r="C48" s="177" t="s">
+      <c r="B48" s="179"/>
+      <c r="C48" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="169" t="s">
+      <c r="D48" s="179" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="94" t="s">
@@ -29802,51 +29843,51 @@
       <c r="F48" s="94">
         <v>2</v>
       </c>
-      <c r="G48" s="169"/>
+      <c r="G48" s="179"/>
       <c r="H48" s="95"/>
       <c r="I48" s="95"/>
       <c r="J48" s="95"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="169"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="169"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="179"/>
       <c r="E49" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="94">
         <v>2</v>
       </c>
-      <c r="G49" s="169"/>
+      <c r="G49" s="179"/>
       <c r="H49" s="95"/>
       <c r="I49" s="95"/>
       <c r="J49" s="95"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="169"/>
-      <c r="C50" s="169" t="s">
+      <c r="B50" s="179"/>
+      <c r="C50" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="179"/>
       <c r="F50" s="94">
         <f>SUM($F$12,$F$16,$F$25,$F$29,$F$31,$F$34,$F$37,$F$41,$F$43,$F$45,$F$47,$F$49)</f>
         <v>414</v>
       </c>
-      <c r="G50" s="169"/>
+      <c r="G50" s="179"/>
       <c r="H50" s="95"/>
       <c r="I50" s="95"/>
       <c r="J50" s="95"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="169" t="s">
+      <c r="B51" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="176" t="s">
+      <c r="C51" s="186" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="186"/>
       <c r="F51" s="94">
         <v>2</v>
       </c>
@@ -29858,12 +29899,12 @@
       <c r="J51" s="95"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="169"/>
-      <c r="C52" s="176" t="s">
+      <c r="B52" s="179"/>
+      <c r="C52" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
       <c r="F52" s="94">
         <v>3</v>
       </c>
@@ -29875,12 +29916,12 @@
       <c r="J52" s="95"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="169"/>
-      <c r="C53" s="176" t="s">
+      <c r="B53" s="179"/>
+      <c r="C53" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
       <c r="F53" s="94">
         <v>2</v>
       </c>
@@ -29890,12 +29931,12 @@
       <c r="J53" s="101"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="169"/>
-      <c r="C54" s="176" t="s">
+      <c r="B54" s="179"/>
+      <c r="C54" s="186" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="186"/>
       <c r="F54" s="94">
         <v>1</v>
       </c>
@@ -29905,12 +29946,12 @@
       <c r="J54" s="101"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="169"/>
-      <c r="C55" s="176" t="s">
+      <c r="B55" s="179"/>
+      <c r="C55" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
+      <c r="D55" s="186"/>
+      <c r="E55" s="186"/>
       <c r="F55" s="94">
         <v>1</v>
       </c>
@@ -29922,12 +29963,12 @@
       <c r="J55" s="101"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="169"/>
-      <c r="C56" s="176" t="s">
+      <c r="B56" s="179"/>
+      <c r="C56" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="176"/>
-      <c r="E56" s="176"/>
+      <c r="D56" s="186"/>
+      <c r="E56" s="186"/>
       <c r="F56" s="94"/>
       <c r="G56" s="94">
         <v>4</v>
@@ -29937,12 +29978,12 @@
       <c r="J56" s="101"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="169"/>
-      <c r="C57" s="176" t="s">
+      <c r="B57" s="179"/>
+      <c r="C57" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="186"/>
       <c r="F57" s="94">
         <v>4</v>
       </c>
@@ -29954,12 +29995,12 @@
       <c r="J57" s="101"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="169"/>
-      <c r="C58" s="176" t="s">
+      <c r="B58" s="179"/>
+      <c r="C58" s="186" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="176"/>
-      <c r="E58" s="176"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="186"/>
       <c r="F58" s="94">
         <v>2</v>
       </c>
@@ -29969,12 +30010,12 @@
       <c r="J58" s="101"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="169"/>
-      <c r="C59" s="169" t="s">
+      <c r="B59" s="179"/>
+      <c r="C59" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="169"/>
-      <c r="E59" s="169"/>
+      <c r="D59" s="179"/>
+      <c r="E59" s="179"/>
       <c r="F59" s="94">
         <f>SUM($F$51:$F$58)</f>
         <v>15</v>
@@ -29988,12 +30029,12 @@
       <c r="J59" s="101"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="174" t="s">
-        <v>413</v>
-      </c>
-      <c r="C60" s="174"/>
-      <c r="D60" s="174"/>
-      <c r="E60" s="174"/>
+      <c r="B60" s="184" t="s">
+        <v>410</v>
+      </c>
+      <c r="C60" s="184"/>
+      <c r="D60" s="184"/>
+      <c r="E60" s="184"/>
       <c r="F60" s="94">
         <f>SUM($F$50,$F$59)</f>
         <v>429</v>
@@ -30008,13 +30049,13 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="C61" s="176" t="s">
-        <v>415</v>
-      </c>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
+        <v>411</v>
+      </c>
+      <c r="C61" s="186" t="s">
+        <v>412</v>
+      </c>
+      <c r="D61" s="186"/>
+      <c r="E61" s="186"/>
       <c r="F61" s="94">
         <v>83</v>
       </c>
@@ -30026,14 +30067,14 @@
       <c r="J61" s="101"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="174" t="s">
-        <v>416</v>
-      </c>
-      <c r="C62" s="175" t="s">
-        <v>417</v>
-      </c>
-      <c r="D62" s="175"/>
-      <c r="E62" s="175"/>
+      <c r="B62" s="184" t="s">
+        <v>413</v>
+      </c>
+      <c r="C62" s="185" t="s">
+        <v>414</v>
+      </c>
+      <c r="D62" s="185"/>
+      <c r="E62" s="185"/>
       <c r="F62" s="94">
         <v>111</v>
       </c>
@@ -30045,12 +30086,12 @@
       <c r="J62" s="101"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="174"/>
-      <c r="C63" s="175" t="s">
-        <v>418</v>
-      </c>
-      <c r="D63" s="175"/>
-      <c r="E63" s="175"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="185" t="s">
+        <v>415</v>
+      </c>
+      <c r="D63" s="185"/>
+      <c r="E63" s="185"/>
       <c r="F63" s="94"/>
       <c r="G63" s="94">
         <v>2</v>
@@ -30060,12 +30101,12 @@
       <c r="J63" s="101"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="174"/>
-      <c r="C64" s="175" t="s">
-        <v>419</v>
-      </c>
-      <c r="D64" s="175"/>
-      <c r="E64" s="175"/>
+      <c r="B64" s="184"/>
+      <c r="C64" s="185" t="s">
+        <v>416</v>
+      </c>
+      <c r="D64" s="185"/>
+      <c r="E64" s="185"/>
       <c r="F64" s="94">
         <v>2</v>
       </c>
@@ -30075,12 +30116,12 @@
       <c r="J64" s="101"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="B65" s="174"/>
-      <c r="C65" s="175" t="s">
-        <v>420</v>
-      </c>
-      <c r="D65" s="175"/>
-      <c r="E65" s="175"/>
+      <c r="B65" s="184"/>
+      <c r="C65" s="185" t="s">
+        <v>417</v>
+      </c>
+      <c r="D65" s="185"/>
+      <c r="E65" s="185"/>
       <c r="F65" s="94">
         <v>1</v>
       </c>
@@ -30092,12 +30133,12 @@
       <c r="J65" s="101"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="B66" s="174"/>
-      <c r="C66" s="176" t="s">
-        <v>421</v>
-      </c>
-      <c r="D66" s="176"/>
-      <c r="E66" s="176"/>
+      <c r="B66" s="184"/>
+      <c r="C66" s="186" t="s">
+        <v>418</v>
+      </c>
+      <c r="D66" s="186"/>
+      <c r="E66" s="186"/>
       <c r="F66" s="94">
         <v>19</v>
       </c>
@@ -30109,12 +30150,12 @@
       <c r="J66" s="101"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="B67" s="174"/>
-      <c r="C67" s="174" t="s">
+      <c r="B67" s="184"/>
+      <c r="C67" s="184" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="174"/>
-      <c r="E67" s="174"/>
+      <c r="D67" s="184"/>
+      <c r="E67" s="184"/>
       <c r="F67" s="94">
         <f>SUM($F$62:$F$66)</f>
         <v>133</v>
@@ -30128,12 +30169,12 @@
       <c r="J67" s="101"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="B68" s="174" t="s">
+      <c r="B68" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="174"/>
-      <c r="D68" s="174"/>
-      <c r="E68" s="174"/>
+      <c r="C68" s="184"/>
+      <c r="D68" s="184"/>
+      <c r="E68" s="184"/>
       <c r="F68" s="94">
         <f>SUM($F$67,$F$60,$F$61)</f>
         <v>645</v>
@@ -30154,10 +30195,10 @@
         <v>137</v>
       </c>
       <c r="C70" s="102" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D70" s="102" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E70" s="92" t="s">
         <v>136</v>
@@ -30166,7 +30207,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="B71" s="94" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C71" s="94">
         <v>3</v>
@@ -30182,23 +30223,23 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="71" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="91" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="104" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B75" s="104"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="105" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B76" s="105"/>
       <c r="C76" s="105"/>
@@ -30206,7 +30247,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="106" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B77" s="106"/>
     </row>
@@ -30276,7 +30317,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
@@ -30317,7 +30358,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" s="7">
         <v>1194</v>
@@ -30325,7 +30366,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="7">
         <v>1804</v>
@@ -30333,7 +30374,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="7">
         <v>4132</v>
@@ -30355,22 +30396,22 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="157" t="s">
-        <v>433</v>
+      <c r="A13" s="156" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -30383,24 +30424,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C401D476-F0CB-42EA-9C51-F86641CEEDE0}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="62" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="62" customWidth="1"/>
-    <col min="3" max="4" width="9.08203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.125" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="62" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="62" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="62" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7" style="62" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="62" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="62" customWidth="1"/>
     <col min="12" max="12" width="10.25" style="62" customWidth="1"/>
-    <col min="13" max="14" width="9.08203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.125" style="62" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="62" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.58203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="62" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
@@ -30430,27 +30473,27 @@
       <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="178" t="s">
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="188" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="178" t="s">
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="180"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="8" t="s">
@@ -31334,7 +31377,7 @@
       <c r="Q20" s="65"/>
       <c r="R20" s="65"/>
     </row>
-    <row r="21" spans="1:18" ht="16.5" thickBot="1">
+    <row r="21" spans="1:18" ht="14.25" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>42</v>
       </c>
@@ -31386,7 +31429,7 @@
       <c r="Q21" s="64"/>
       <c r="R21" s="64"/>
     </row>
-    <row r="22" spans="1:18" ht="16.5" thickBot="1">
+    <row r="22" spans="1:18" ht="14.25" thickBot="1">
       <c r="A22" s="17" t="s">
         <v>82</v>
       </c>
@@ -31463,71 +31506,105 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="14.25" thickBot="1">
       <c r="R26" s="64"/>
     </row>
     <row r="27" spans="1:18">
+      <c r="B27" s="162" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
       <c r="F27" s="67"/>
       <c r="R27" s="64"/>
     </row>
     <row r="28" spans="1:18">
+      <c r="B28" s="165" t="s">
+        <v>571</v>
+      </c>
+      <c r="C28" s="157" t="s">
+        <v>572</v>
+      </c>
+      <c r="D28" s="168">
+        <f>SUM(D22:E22)</f>
+        <v>1980784</v>
+      </c>
       <c r="R28" s="64"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="14.25" thickBot="1">
+      <c r="B29" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="C29" s="167" t="s">
+        <v>574</v>
+      </c>
+      <c r="D29" s="169">
+        <f>SUM(C22,F22)</f>
+        <v>256111</v>
+      </c>
       <c r="R29" s="64"/>
     </row>
     <row r="30" spans="1:18">
       <c r="R30" s="64"/>
     </row>
     <row r="31" spans="1:18">
+      <c r="A31" s="71" t="s">
+        <v>582</v>
+      </c>
       <c r="R31" s="64"/>
     </row>
     <row r="32" spans="1:18">
+      <c r="A32" s="62" t="s">
+        <v>583</v>
+      </c>
       <c r="R32" s="64"/>
     </row>
-    <row r="33" spans="18:18">
+    <row r="33" spans="1:18">
+      <c r="A33" s="62" t="s">
+        <v>584</v>
+      </c>
       <c r="R33" s="64"/>
     </row>
-    <row r="34" spans="18:18">
+    <row r="34" spans="1:18">
       <c r="R34" s="64"/>
     </row>
-    <row r="35" spans="18:18">
+    <row r="35" spans="1:18">
       <c r="R35" s="64"/>
     </row>
-    <row r="36" spans="18:18">
+    <row r="36" spans="1:18">
       <c r="R36" s="64"/>
     </row>
-    <row r="37" spans="18:18">
+    <row r="37" spans="1:18">
       <c r="R37" s="64"/>
     </row>
-    <row r="38" spans="18:18">
+    <row r="38" spans="1:18">
       <c r="R38" s="64"/>
     </row>
-    <row r="39" spans="18:18">
+    <row r="39" spans="1:18">
       <c r="R39" s="64"/>
     </row>
-    <row r="40" spans="18:18">
+    <row r="40" spans="1:18">
       <c r="R40" s="64"/>
     </row>
-    <row r="41" spans="18:18">
+    <row r="41" spans="1:18">
       <c r="R41" s="64"/>
     </row>
-    <row r="42" spans="18:18">
+    <row r="42" spans="1:18">
       <c r="R42" s="64"/>
     </row>
-    <row r="43" spans="18:18">
+    <row r="43" spans="1:18">
       <c r="R43" s="64"/>
     </row>
-    <row r="44" spans="18:18">
+    <row r="44" spans="1:18">
       <c r="R44" s="64"/>
     </row>
-    <row r="45" spans="18:18">
+    <row r="45" spans="1:18">
       <c r="R45" s="64"/>
     </row>
-    <row r="46" spans="18:18">
+    <row r="46" spans="1:18">
       <c r="R46" s="64"/>
     </row>
-    <row r="47" spans="18:18">
+    <row r="47" spans="1:18">
       <c r="R47" s="64"/>
     </row>
   </sheetData>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GyeHyunPark\Dropbox\Energy Innovation\InputData_Working\개인폴더-계현\trans\이륜차수정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363CA31-BCFE-44C6-9619-709236742C79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{051046B9-2B4C-4FDC-8A6B-7EFEE14D85BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="225" windowWidth="30855" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,19 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="588">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -3206,14 +3218,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>한국의 기타연료 차량의 경우 바이오디젤, 바이오가스 같은 천연연료라고 가정하여 natural gas로 분류</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>=&gt; natural gas = CNG + LNG + other fuel</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>선박 디젤, 가솔린별 비율 구분용도</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -3235,6 +3239,26 @@
   </si>
   <si>
     <t>따라서 소형, 중형 오토바이는 배달용(freight) &amp; 경형, 대형은 레저용(passenger)으로 가정하여 목록을 구체화시킴</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율이 100%가 아닌 이유는 연료별 구분 중 기타연료 차량들을 제외하고 산정하였기 때문이다.</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; natural gas = CNG + LNG</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>start year 기준, 규제로 인해 한국의 대형 천연가스 트럭은 존재하지 않는 것으로 추정된다. 2020년부터 대형트럭의 천연가스 차량 개조가 시작되었다.</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kogas.or.kr:9450/portal/selectBbsNttView.do?bbsNo=239&amp;key=2035&amp;nttNo=39355</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
@@ -3243,19 +3267,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="###0.00_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0_)"/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ "/>
+    <numFmt numFmtId="168" formatCode="0_ "/>
   </numFmts>
   <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3263,7 +3287,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3296,7 +3320,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3354,7 +3378,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3475,7 +3499,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3496,7 +3520,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3505,7 +3529,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3514,7 +3538,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3528,7 +3552,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3570,27 +3594,27 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3598,13 +3622,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3612,7 +3636,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3620,7 +3644,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4382,7 +4406,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment horizontal="left"/>
@@ -4417,28 +4441,28 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="6">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4527,7 +4551,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
@@ -4564,15 +4588,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4593,31 +4617,31 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="18" xfId="141" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="18" xfId="141" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="22" xfId="141" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="22" xfId="141" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="41" fillId="29" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="29" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4631,7 +4655,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4656,7 +4680,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="143" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="41" fillId="30" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="41" fillId="30" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4677,7 +4701,7 @@
     <xf numFmtId="0" fontId="40" fillId="27" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="27" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="52" fillId="27" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4686,19 +4710,19 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="0" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="0" borderId="18" xfId="141" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="18" xfId="141" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="0" borderId="0" xfId="141" applyFont="1" applyFill="1">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="141" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4719,22 +4743,22 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="0" borderId="18" xfId="141" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="18" xfId="141" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="0" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="33" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="52" fillId="33" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="32" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="52" fillId="32" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="34" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="52" fillId="34" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="52" fillId="30" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="52" fillId="30" borderId="18" xfId="141" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4754,7 +4778,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4802,7 +4826,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5002,12 +5026,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="143"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="42" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5045,10 +5069,10 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="30" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="30" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="40" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="40" fillId="30" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5057,7 +5081,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="142" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="143" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5091,16 +5124,16 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5145,6 +5178,7 @@
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Comma [0]" xfId="142" builtinId="6"/>
     <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
@@ -5177,9 +5211,11 @@
     <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8"/>
     <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
     <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
@@ -5231,6 +5267,7 @@
     <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
     <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Percent" xfId="140" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
     <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
@@ -5256,11 +5293,7 @@
     <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="백분율" xfId="140" builtinId="5"/>
-    <cellStyle name="쉼표 [0]" xfId="142" builtinId="6"/>
     <cellStyle name="쉼표 [0] 3" xfId="141" xr:uid="{C3AB603F-4E0B-44D4-951F-2780EE25FB00}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="143" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5361,7 +5394,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5685,7 +5718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="7" customWidth="1"/>
@@ -6064,20 +6097,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE485900-48EB-4220-ABDB-2EB75701AFAA}">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="16.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -6126,8 +6159,8 @@
         <v>88754</v>
       </c>
       <c r="D4" s="83">
-        <f>SUM('DV-per fuel'!$U$128,'DV-per fuel'!$U$131,'DV-per fuel'!$U$148,'DV-per fuel'!$U$264,'DV-per fuel'!$U$267)</f>
-        <v>52325</v>
+        <f>SUM('DV-per fuel'!$U$128,'DV-per fuel'!$U$131,'DV-per fuel'!$U$148)</f>
+        <v>36935</v>
       </c>
       <c r="E4" s="83">
         <f>SUM('DV-per fuel'!$U$9,'DV-per fuel'!$U$12)</f>
@@ -6163,8 +6196,8 @@
         <v>4.4400718864017162E-3</v>
       </c>
       <c r="D5" s="84">
-        <f>SUM('DV-per fuel'!$U$128,'DV-per fuel'!$U$131,'DV-per fuel'!$U$148,'DV-per fuel'!$U$264,'DV-per fuel'!$U$267)/$J$4</f>
-        <v>2.6176483477473667E-3</v>
+        <f>D4/$J$4</f>
+        <v>1.84773706113806E-3</v>
       </c>
       <c r="E5" s="84">
         <f>SUM('DV-per fuel'!$U$9,'DV-per fuel'!$U$12)/$J$4</f>
@@ -6188,7 +6221,7 @@
       </c>
       <c r="J5" s="84">
         <f>SUM($C$4:$I$4)/J4</f>
-        <v>1</v>
+        <v>0.9992300887133907</v>
       </c>
       <c r="K5" s="69"/>
     </row>
@@ -6230,8 +6263,8 @@
         <v>1164</v>
       </c>
       <c r="D8" s="83">
-        <f>SUM('DV-per fuel'!$U$134,'DV-per fuel'!$U$137,'DV-per fuel'!$U$151,'DV-per fuel'!$U$154,'DV-per fuel'!$U$270,'DV-per fuel'!$U$273)</f>
-        <v>100939</v>
+        <f>SUM('DV-per fuel'!$U$134,'DV-per fuel'!$U$137,'DV-per fuel'!$U$151,'DV-per fuel'!$U$154)</f>
+        <v>1217</v>
       </c>
       <c r="E8" s="83">
         <f>SUM('DV-per fuel'!$U$15,'DV-per fuel'!$U$18)</f>
@@ -6265,8 +6298,8 @@
         <v>3.1561394232724609E-4</v>
       </c>
       <c r="D9" s="84">
-        <f>SUM('DV-per fuel'!$U$134,'DV-per fuel'!$U$137,'DV-per fuel'!$U$151,'DV-per fuel'!$U$154,'DV-per fuel'!$U$270,'DV-per fuel'!$U$273)/$J$8</f>
-        <v>2.7369205948943209E-2</v>
+        <f>D8/$J$8</f>
+        <v>3.2998468025108118E-4</v>
       </c>
       <c r="E9" s="84">
         <f>SUM('DV-per fuel'!$U$15,'DV-per fuel'!$U$18)/$J$8</f>
@@ -6288,7 +6321,7 @@
       </c>
       <c r="J9" s="84">
         <f>SUM($C$8:$I$8)/$J$8</f>
-        <v>0.99999945770800291</v>
+        <v>0.97296023643931073</v>
       </c>
       <c r="K9" s="69"/>
     </row>
@@ -6315,169 +6348,169 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="171" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="31" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31" t="s">
         <v>532</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="F16" s="88" t="s">
+      <c r="B17" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F17" s="88" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86">
+    <row r="18" spans="1:8">
+      <c r="A18" s="85"/>
+      <c r="B18" s="86">
         <v>2019</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C18" s="86" t="s">
         <v>384</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D18" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F18" s="86">
         <v>2019</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G18" s="86" t="s">
         <v>384</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H18" s="86" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="191" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="194" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B19" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C19" s="85">
         <v>3433</v>
       </c>
-      <c r="D18" s="87">
-        <f>C18/SUM($C$18:$C$22)</f>
+      <c r="D19" s="87">
+        <f>C19/SUM($C$19:$C$23)</f>
         <v>0.20192929827657197</v>
-      </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="86" t="s">
-        <v>389</v>
-      </c>
-      <c r="G18" s="85">
-        <f>C18+C20+C22</f>
-        <v>16966</v>
-      </c>
-      <c r="H18" s="87">
-        <f>G18/SUM($G$18:$G$20)</f>
-        <v>0.99794129757073113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="191"/>
-      <c r="B19" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="85">
-        <v>25</v>
-      </c>
-      <c r="D19" s="87">
-        <f t="shared" ref="D19:D22" si="0">C19/SUM($C$18:$C$22)</f>
-        <v>1.4705017351920476E-3</v>
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="G19" s="85">
+        <f>C19+C21+C23</f>
+        <v>16966</v>
+      </c>
+      <c r="H19" s="87">
+        <f>G19/SUM($G$19:$G$21)</f>
+        <v>0.99794129757073113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="194"/>
+      <c r="B20" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="85">
+        <v>25</v>
+      </c>
+      <c r="D20" s="87">
+        <f t="shared" ref="D20:D23" si="0">C20/SUM($C$19:$C$23)</f>
+        <v>1.4705017351920476E-3</v>
+      </c>
+      <c r="E20" s="69"/>
+      <c r="F20" s="86" t="s">
         <v>390</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G20" s="85">
         <v>25</v>
       </c>
-      <c r="H19" s="87">
-        <f t="shared" ref="H19:H20" si="1">G19/SUM($G$18:$G$21)</f>
+      <c r="H20" s="87">
+        <f t="shared" ref="H20:H21" si="1">G20/SUM($G$19:$G$22)</f>
         <v>1.4705017351920476E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="191"/>
-      <c r="B20" s="86" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="194"/>
+      <c r="B21" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C21" s="85">
         <v>12437</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D21" s="87">
         <f t="shared" si="0"/>
         <v>0.73154520322333982</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F21" s="86" t="s">
         <v>386</v>
       </c>
-      <c r="G20" s="85">
+      <c r="G21" s="85">
         <v>10</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H21" s="87">
         <f t="shared" si="1"/>
         <v>5.8820069407681901E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="191"/>
-      <c r="B21" s="86" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="194"/>
+      <c r="B22" s="86" t="s">
         <v>386</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C22" s="85">
         <v>10</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D22" s="87">
         <f t="shared" si="0"/>
         <v>5.8820069407681901E-4</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="H21" s="84"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="191"/>
-      <c r="B22" s="86" t="s">
+      <c r="F22" s="79"/>
+      <c r="H22" s="84"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="194"/>
+      <c r="B23" s="86" t="s">
         <v>388</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C23" s="85">
         <v>1096</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D23" s="87">
         <f t="shared" si="0"/>
         <v>6.4466796070819357E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="79"/>
-    </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="31" t="s">
+      <c r="B24" s="79"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="31" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6492,22 +6525,22 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="8" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -6543,7 +6576,7 @@
       </c>
       <c r="C2" s="1">
         <f>DV!C4</f>
-        <v>37583.975094495479</v>
+        <v>26529.653513907131</v>
       </c>
       <c r="D2" s="1">
         <f>DV!C5</f>
@@ -6576,7 +6609,7 @@
       </c>
       <c r="C3" s="1">
         <f>DV!C13</f>
-        <v>14666.992574933529</v>
+        <v>10353.088786529765</v>
       </c>
       <c r="D3" s="1">
         <f>DV!C14</f>
@@ -6665,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>Ships!C$3*Cal!H19</f>
+        <f>Ships!C$3*Cal!H20</f>
         <v>0.4823245691429916</v>
       </c>
       <c r="E6" s="1">
@@ -6676,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>Ships!C$3*Cal!H20</f>
+        <f>Ships!C$3*Cal!H21</f>
         <v>0.19292982765719663</v>
       </c>
       <c r="H6" s="1">
@@ -6843,23 +6876,21 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="8" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -6895,7 +6926,7 @@
       </c>
       <c r="C2" s="1">
         <f>DV!C22</f>
-        <v>78717.804844023267</v>
+        <v>1217</v>
       </c>
       <c r="D2" s="1">
         <f>DV!C23</f>
@@ -6928,7 +6959,7 @@
       </c>
       <c r="C3" s="1">
         <f>DV!C31</f>
-        <v>22221.195155976737</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <f>DV!C32</f>
@@ -7017,18 +7048,18 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
+        <f>SUM(Ships!C4:C5)*Cal!H20</f>
+        <v>2.0689959414152108</v>
+      </c>
+      <c r="E6" s="1">
         <f>SUM(Ships!C4:C5)*Cal!H19</f>
-        <v>2.0689959414152108</v>
-      </c>
-      <c r="E6" s="1">
-        <f>SUM(Ships!C4:C5)*Cal!H18</f>
         <v>1404.1034056820188</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f>SUM(Ships!C4:C5)*Cal!H20</f>
+        <f>SUM(Ships!C4:C5)*Cal!H21</f>
         <v>0.82759837656608437</v>
       </c>
       <c r="H6" s="1">
@@ -7113,23 +7144,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B1D69A-2657-4575-BABF-8DE1CD094E48}">
   <dimension ref="A1:V294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="3" width="9" style="35"/>
-    <col min="4" max="5" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.875" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.875" style="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" style="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="35" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="9.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="35" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="9.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" style="35" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
@@ -23848,16 +23877,16 @@
   <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
-    <col min="3" max="4" width="1.625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
+    <col min="3" max="4" width="1.5703125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="49" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -25552,26 +25581,26 @@
         <v>19561</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="14.25" thickBot="1"/>
-    <row r="144" spans="1:6" s="7" customFormat="1" ht="16.5">
+    <row r="143" spans="1:6" ht="13.5" thickBot="1"/>
+    <row r="144" spans="1:6" s="7" customFormat="1" ht="15">
       <c r="A144" s="146" t="s">
         <v>298</v>
       </c>
       <c r="B144" s="142"/>
     </row>
-    <row r="145" spans="1:2" s="7" customFormat="1" ht="16.5">
+    <row r="145" spans="1:2" s="7" customFormat="1" ht="15">
       <c r="A145" s="147" t="s">
         <v>299</v>
       </c>
       <c r="B145" s="143"/>
     </row>
-    <row r="146" spans="1:2" s="7" customFormat="1" ht="16.5">
+    <row r="146" spans="1:2" s="7" customFormat="1" ht="15">
       <c r="A146" s="148" t="s">
         <v>300</v>
       </c>
       <c r="B146" s="144"/>
     </row>
-    <row r="147" spans="1:2" s="7" customFormat="1" ht="17.25" thickBot="1">
+    <row r="147" spans="1:2" s="7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A147" s="149" t="s">
         <v>301</v>
       </c>
@@ -25585,17 +25614,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC8CF2C-4D71-4580-985F-F10EA038A7D2}">
-  <dimension ref="A2:N66"/>
+  <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="25.25" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -25622,7 +25651,7 @@
       </c>
       <c r="C4" s="24">
         <f>Cal!$D$5*SUM('DV-Regis'!$F$8:$F$11,'DV-Regis'!$F$19:$F$20,'DV-Regis'!$F$22:$F$25,'DV-Regis'!$F$33:$F$34,'DV-Regis'!$F$36:$F$37,'DV-Regis'!$F$42:$F$43,'DV-Regis'!$F$45:$F$46,'DV-Regis'!$F$51:$F$52,'DV-Regis'!$F$54:$F$55,'DV-Regis'!$F$60:$F$61,'DV-Regis'!$F$71:$F$73,'DV-Regis'!$F$77:$F$78)</f>
-        <v>37583.975094495479</v>
+        <v>26529.653513907131</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -25694,7 +25723,7 @@
       </c>
       <c r="C13" s="24">
         <f>Cal!$D$5*SUM('DV-Regis'!$F$12:$F$18,'DV-Regis'!$F$26:$F$32,'DV-Regis'!$F$38:$F$41,'DV-Regis'!$F$47:$F$50,'DV-Regis'!$F$56:$F$59,'DV-Regis'!$F$64:$F$67,'DV-Regis'!$F$74:$F$75,'DV-Regis'!$F$79)</f>
-        <v>14666.992574933529</v>
+        <v>10353.088786529765</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -25764,9 +25793,9 @@
       <c r="B22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="24">
-        <f>Cal!$D$9*SUM('DV-Regis'!$F$85,'DV-Regis'!$F$87:$F$89,'DV-Regis'!$F$95:$F$96,'DV-Regis'!$F$100:$F$101,'DV-Regis'!$F$130:$F$131,'DV-Regis'!$F$134:$F$135)</f>
-        <v>78717.804844023267</v>
+      <c r="C22" s="173">
+        <f>Cal!D8</f>
+        <v>1217</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -25836,9 +25865,8 @@
       <c r="B31" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="24">
-        <f>Cal!$D$9*SUM('DV-Regis'!$F$90:$F$93,'DV-Regis'!$F$97:$F$98,'DV-Regis'!$F$102,'DV-Regis'!$F$104:$F$110,'DV-Regis'!$F$116,'DV-Regis'!$F$121,'DV-Regis'!$F$127,'DV-Regis'!$F$132,'DV-Regis'!$F$136,'DV-Regis'!$F$138:$F$142)</f>
-        <v>22221.195155976737</v>
+      <c r="C31" s="173">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -25886,192 +25914,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17.25" thickBot="1">
+    <row r="38" spans="1:14">
       <c r="A38" s="25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="119" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="120" t="s">
-        <v>290</v>
-      </c>
-      <c r="D39" s="121" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="17.25" thickBot="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="119" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="120" t="s">
-        <v>292</v>
-      </c>
-      <c r="D40" s="121" t="s">
-        <v>293</v>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="174" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="175" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="25"/>
-      <c r="B41" s="28" t="s">
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A42" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="120" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="121" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A44" s="25"/>
+      <c r="B44" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="120" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="121" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="25"/>
+      <c r="B45" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="C41" s="117" t="s">
+      <c r="C45" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="117"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="25"/>
-      <c r="B42" s="28" t="s">
+      <c r="D45" s="117"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="25"/>
+      <c r="B46" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="C42" s="117" t="s">
+      <c r="C46" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="117"/>
-    </row>
-    <row r="43" spans="1:14" ht="17.25" thickBot="1">
-      <c r="D43" s="7"/>
-      <c r="F43" s="117"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="117"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="B44" s="173" t="s">
+      <c r="D46" s="117"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1">
+      <c r="D47" s="7"/>
+      <c r="F47" s="117"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="117"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="176" t="s">
         <v>306</v>
       </c>
-      <c r="C44" s="122" t="s">
+      <c r="C48" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="D44" s="123" t="s">
+      <c r="D48" s="123" t="s">
         <v>311</v>
       </c>
-      <c r="E44" s="123"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="125"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="B45" s="174"/>
-      <c r="C45" s="126" t="s">
+      <c r="E48" s="123"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="125"/>
+    </row>
+    <row r="49" spans="2:14" ht="16.5">
+      <c r="B49" s="177"/>
+      <c r="C49" s="126" t="s">
         <v>308</v>
       </c>
-      <c r="D45" s="127" t="s">
+      <c r="D49" s="127" t="s">
         <v>313</v>
       </c>
-      <c r="E45" s="128"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="130"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="B46" s="174"/>
-      <c r="C46" s="131" t="s">
+      <c r="E49" s="128"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="130"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="177"/>
+      <c r="C50" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="132" t="s">
+      <c r="D50" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="E46" s="133"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
-      <c r="N46" s="130"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="B47" s="174"/>
-      <c r="C47" s="131" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47" s="127" t="s">
-        <v>315</v>
-      </c>
-      <c r="E47" s="133"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
-      <c r="N47" s="130"/>
-    </row>
-    <row r="48" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B48" s="175"/>
-      <c r="C48" s="134" t="s">
-        <v>310</v>
-      </c>
-      <c r="D48" s="135" t="s">
-        <v>319</v>
-      </c>
-      <c r="E48" s="136"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="137"/>
-      <c r="L48" s="137"/>
-      <c r="M48" s="137"/>
-      <c r="N48" s="138"/>
-    </row>
-    <row r="49" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B49" s="7"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="176" t="s">
-        <v>316</v>
-      </c>
-      <c r="C50" s="139" t="s">
-        <v>307</v>
-      </c>
-      <c r="D50" s="123" t="s">
-        <v>311</v>
-      </c>
-      <c r="E50" s="123"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="125"/>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="E50" s="133"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="129"/>
+      <c r="L50" s="129"/>
+      <c r="M50" s="129"/>
+      <c r="N50" s="130"/>
+    </row>
+    <row r="51" spans="2:14" ht="16.5">
       <c r="B51" s="177"/>
       <c r="C51" s="131" t="s">
-        <v>308</v>
-      </c>
-      <c r="D51" s="132" t="s">
-        <v>312</v>
+        <v>309</v>
+      </c>
+      <c r="D51" s="127" t="s">
+        <v>315</v>
       </c>
       <c r="E51" s="133"/>
       <c r="F51" s="129"/>
@@ -26084,95 +26065,97 @@
       <c r="M51" s="129"/>
       <c r="N51" s="130"/>
     </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="177"/>
-      <c r="C52" s="131" t="s">
+    <row r="52" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B52" s="178"/>
+      <c r="C52" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="D52" s="135" t="s">
+        <v>319</v>
+      </c>
+      <c r="E52" s="136"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="138"/>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B53" s="7"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="179" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" s="139" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="E54" s="123"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="124"/>
+      <c r="N54" s="125"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="180"/>
+      <c r="C55" s="131" t="s">
+        <v>308</v>
+      </c>
+      <c r="D55" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="E55" s="133"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="129"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="130"/>
+    </row>
+    <row r="56" spans="2:14" ht="16.5">
+      <c r="B56" s="180"/>
+      <c r="C56" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="127" t="s">
+      <c r="D56" s="127" t="s">
         <v>317</v>
       </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="130"/>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="177"/>
-      <c r="C53" s="131" t="s">
+      <c r="E56" s="133"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
+      <c r="N56" s="130"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="180"/>
+      <c r="C57" s="131" t="s">
         <v>309</v>
       </c>
-      <c r="D53" s="132" t="s">
+      <c r="D57" s="132" t="s">
         <v>318</v>
-      </c>
-      <c r="E53" s="133"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="130"/>
-    </row>
-    <row r="54" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B54" s="178"/>
-      <c r="C54" s="134" t="s">
-        <v>310</v>
-      </c>
-      <c r="D54" s="135" t="s">
-        <v>320</v>
-      </c>
-      <c r="E54" s="136"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="137"/>
-      <c r="L54" s="137"/>
-      <c r="M54" s="137"/>
-      <c r="N54" s="138"/>
-    </row>
-    <row r="55" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B55" s="7"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="2:14">
-      <c r="B56" s="176" t="s">
-        <v>321</v>
-      </c>
-      <c r="C56" s="139" t="s">
-        <v>307</v>
-      </c>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="125"/>
-    </row>
-    <row r="57" spans="2:14">
-      <c r="B57" s="177"/>
-      <c r="C57" s="131" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" s="132" t="s">
-        <v>312</v>
       </c>
       <c r="E57" s="133"/>
       <c r="F57" s="129"/>
@@ -26185,97 +26168,95 @@
       <c r="M57" s="129"/>
       <c r="N57" s="130"/>
     </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="177"/>
-      <c r="C58" s="131" t="s">
+    <row r="58" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B58" s="181"/>
+      <c r="C58" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="135" t="s">
+        <v>320</v>
+      </c>
+      <c r="E58" s="136"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="138"/>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B59" s="7"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="C60" s="139" t="s">
+        <v>307</v>
+      </c>
+      <c r="D60" s="123"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="124"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="124"/>
+      <c r="N60" s="125"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="180"/>
+      <c r="C61" s="131" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="E61" s="133"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="130"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="180"/>
+      <c r="C62" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="132" t="s">
+      <c r="D62" s="132" t="s">
         <v>322</v>
       </c>
-      <c r="E58" s="128"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
-      <c r="N58" s="130"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="177"/>
-      <c r="C59" s="131" t="s">
+      <c r="E62" s="128"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="129"/>
+      <c r="H62" s="129"/>
+      <c r="I62" s="129"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="129"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="129"/>
+      <c r="N62" s="130"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="180"/>
+      <c r="C63" s="131" t="s">
         <v>309</v>
       </c>
-      <c r="D59" s="132" t="s">
+      <c r="D63" s="132" t="s">
         <v>323</v>
-      </c>
-      <c r="E59" s="133"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="130"/>
-    </row>
-    <row r="60" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B60" s="178"/>
-      <c r="C60" s="134" t="s">
-        <v>310</v>
-      </c>
-      <c r="D60" s="135" t="s">
-        <v>324</v>
-      </c>
-      <c r="E60" s="136"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="137"/>
-      <c r="L60" s="137"/>
-      <c r="M60" s="137"/>
-      <c r="N60" s="138"/>
-    </row>
-    <row r="61" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B61" s="7"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="2:14">
-      <c r="B62" s="176" t="s">
-        <v>325</v>
-      </c>
-      <c r="C62" s="139" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62" s="140" t="s">
-        <v>312</v>
-      </c>
-      <c r="E62" s="123"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="125"/>
-    </row>
-    <row r="63" spans="2:14">
-      <c r="B63" s="177"/>
-      <c r="C63" s="131" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="132" t="s">
-        <v>326</v>
       </c>
       <c r="E63" s="133"/>
       <c r="F63" s="129"/>
@@ -26288,69 +26269,137 @@
       <c r="M63" s="129"/>
       <c r="N63" s="130"/>
     </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="177"/>
-      <c r="C64" s="131" t="s">
+    <row r="64" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B64" s="181"/>
+      <c r="C64" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="135" t="s">
+        <v>324</v>
+      </c>
+      <c r="E64" s="136"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="138"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B65" s="7"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="179" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" s="139" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" s="123"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="124"/>
+      <c r="N66" s="125"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="180"/>
+      <c r="C67" s="131" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="E67" s="133"/>
+      <c r="F67" s="129"/>
+      <c r="G67" s="129"/>
+      <c r="H67" s="129"/>
+      <c r="I67" s="129"/>
+      <c r="J67" s="129"/>
+      <c r="K67" s="129"/>
+      <c r="L67" s="129"/>
+      <c r="M67" s="129"/>
+      <c r="N67" s="130"/>
+    </row>
+    <row r="68" spans="2:14" ht="16.5">
+      <c r="B68" s="180"/>
+      <c r="C68" s="131" t="s">
         <v>309</v>
       </c>
-      <c r="D64" s="127" t="s">
+      <c r="D68" s="127" t="s">
         <v>327</v>
       </c>
-      <c r="E64" s="133"/>
-      <c r="F64" s="129"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="129"/>
-      <c r="K64" s="129"/>
-      <c r="L64" s="129"/>
-      <c r="M64" s="129"/>
-      <c r="N64" s="130"/>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="177"/>
-      <c r="C65" s="131" t="s">
+      <c r="E68" s="133"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="129"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="129"/>
+      <c r="M68" s="129"/>
+      <c r="N68" s="130"/>
+    </row>
+    <row r="69" spans="2:14" ht="16.5">
+      <c r="B69" s="180"/>
+      <c r="C69" s="131" t="s">
         <v>310</v>
       </c>
-      <c r="D65" s="127" t="s">
+      <c r="D69" s="127" t="s">
         <v>328</v>
       </c>
-      <c r="E65" s="133"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="129"/>
-      <c r="H65" s="129"/>
-      <c r="I65" s="129"/>
-      <c r="J65" s="129"/>
-      <c r="K65" s="129"/>
-      <c r="L65" s="129"/>
-      <c r="M65" s="129"/>
-      <c r="N65" s="130"/>
-    </row>
-    <row r="66" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B66" s="178"/>
-      <c r="C66" s="141" t="s">
+      <c r="E69" s="133"/>
+      <c r="F69" s="129"/>
+      <c r="G69" s="129"/>
+      <c r="H69" s="129"/>
+      <c r="I69" s="129"/>
+      <c r="J69" s="129"/>
+      <c r="K69" s="129"/>
+      <c r="L69" s="129"/>
+      <c r="M69" s="129"/>
+      <c r="N69" s="130"/>
+    </row>
+    <row r="70" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B70" s="181"/>
+      <c r="C70" s="141" t="s">
         <v>329</v>
       </c>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="137"/>
-      <c r="L66" s="137"/>
-      <c r="M66" s="137"/>
-      <c r="N66" s="138"/>
+      <c r="D70" s="136"/>
+      <c r="E70" s="136"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="137"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B66:B70"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A40" r:id="rId1" xr:uid="{A79990A9-6C9A-41A1-9222-9B2BC231FAE3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26363,11 +26412,11 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="12" max="12" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -27417,12 +27466,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="62" customWidth="1"/>
     <col min="2" max="2" width="9" style="62"/>
-    <col min="3" max="3" width="12.25" style="62" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="62" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
@@ -27431,7 +27480,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="16.5">
+    <row r="2" spans="2:23" ht="15">
       <c r="B2" s="72" t="s">
         <v>353</v>
       </c>
@@ -27499,7 +27548,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="16.5">
+    <row r="3" spans="2:23" ht="15">
       <c r="B3" s="75" t="s">
         <v>339</v>
       </c>
@@ -27567,7 +27616,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="16.5">
+    <row r="4" spans="2:23" ht="15">
       <c r="B4" s="75" t="s">
         <v>342</v>
       </c>
@@ -27635,7 +27684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="16.5">
+    <row r="5" spans="2:23" ht="15">
       <c r="B5" s="75" t="s">
         <v>356</v>
       </c>
@@ -27703,7 +27752,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="16.5">
+    <row r="6" spans="2:23" ht="15">
       <c r="B6" s="77" t="s">
         <v>358</v>
       </c>
@@ -27771,7 +27820,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="16.5">
+    <row r="7" spans="2:23" ht="15">
       <c r="B7" s="77" t="s">
         <v>358</v>
       </c>
@@ -27839,7 +27888,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="16.5">
+    <row r="8" spans="2:23" ht="15">
       <c r="B8" s="75" t="s">
         <v>344</v>
       </c>
@@ -27907,7 +27956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="16.5">
+    <row r="9" spans="2:23" ht="15">
       <c r="B9" s="77" t="s">
         <v>358</v>
       </c>
@@ -27975,7 +28024,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="16.5">
+    <row r="10" spans="2:23" ht="15">
       <c r="B10" s="77" t="s">
         <v>358</v>
       </c>
@@ -28043,7 +28092,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="16.5">
+    <row r="11" spans="2:23" ht="15">
       <c r="B11" s="77" t="s">
         <v>358</v>
       </c>
@@ -28111,7 +28160,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="16.5">
+    <row r="12" spans="2:23" ht="15">
       <c r="B12" s="77" t="s">
         <v>358</v>
       </c>
@@ -28179,7 +28228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="16.5">
+    <row r="13" spans="2:23" ht="15">
       <c r="B13" s="75" t="s">
         <v>365</v>
       </c>
@@ -28247,7 +28296,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="16.5">
+    <row r="14" spans="2:23" ht="15">
       <c r="B14" s="75" t="s">
         <v>366</v>
       </c>
@@ -28315,7 +28364,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="16.5">
+    <row r="15" spans="2:23" ht="15">
       <c r="B15" s="75" t="s">
         <v>367</v>
       </c>
@@ -28383,7 +28432,7 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="16.5">
+    <row r="16" spans="2:23" ht="15">
       <c r="B16" s="75" t="s">
         <v>368</v>
       </c>
@@ -28451,7 +28500,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="16.5">
+    <row r="17" spans="1:23" ht="15">
       <c r="B17" s="78" t="s">
         <v>369</v>
       </c>
@@ -28631,10 +28680,10 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="182" t="s">
         <v>383</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -28644,18 +28693,18 @@
         <f>$E$20/$C$20</f>
         <v>46</v>
       </c>
-      <c r="E29" s="179" t="s">
+      <c r="E29" s="182" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="181" t="s">
+      <c r="F29" s="184" t="s">
         <v>395</v>
       </c>
       <c r="G29" s="157"/>
       <c r="H29" s="157"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="182"/>
-      <c r="B30" s="179"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="9" t="s">
         <v>351</v>
       </c>
@@ -28663,14 +28712,14 @@
         <f>(W3-$E$20)/$C$21-22</f>
         <v>39</v>
       </c>
-      <c r="E30" s="179"/>
-      <c r="F30" s="181"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="184"/>
       <c r="G30" s="157"/>
       <c r="H30" s="157"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="182"/>
-      <c r="B31" s="179"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="9" t="s">
         <v>343</v>
       </c>
@@ -28678,8 +28727,8 @@
         <f>32</f>
         <v>32</v>
       </c>
-      <c r="E31" s="179"/>
-      <c r="F31" s="181"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="184"/>
       <c r="G31" s="157"/>
       <c r="H31" s="157"/>
     </row>
@@ -28695,7 +28744,7 @@
         <f>W5</f>
         <v>254</v>
       </c>
-      <c r="E32" s="183" t="s">
+      <c r="E32" s="186" t="s">
         <v>426</v>
       </c>
       <c r="F32" s="158" t="s">
@@ -28720,7 +28769,7 @@
         <f>W6</f>
         <v>175</v>
       </c>
-      <c r="E33" s="183"/>
+      <c r="E33" s="186"/>
       <c r="F33" s="158" t="s">
         <v>396</v>
       </c>
@@ -28745,10 +28794,10 @@
         <f>W8/$E$23</f>
         <v>30.25</v>
       </c>
-      <c r="E34" s="179" t="s">
+      <c r="E34" s="182" t="s">
         <v>394</v>
       </c>
-      <c r="F34" s="180" t="s">
+      <c r="F34" s="183" t="s">
         <v>396</v>
       </c>
       <c r="G34" s="157"/>
@@ -28757,10 +28806,10 @@
       <c r="J34" s="157"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="182" t="s">
+      <c r="A35" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="182" t="s">
         <v>348</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -28770,14 +28819,14 @@
         <f>W9/$E$24</f>
         <v>427</v>
       </c>
-      <c r="E35" s="179"/>
-      <c r="F35" s="180"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="183"/>
       <c r="G35" s="157"/>
       <c r="H35" s="157"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="182"/>
-      <c r="B36" s="179"/>
+      <c r="A36" s="185"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="9" t="s">
         <v>381</v>
       </c>
@@ -28785,16 +28834,16 @@
         <f>W11/$E$24</f>
         <v>27.666666666666668</v>
       </c>
-      <c r="E36" s="179"/>
-      <c r="F36" s="181" t="s">
+      <c r="E36" s="182"/>
+      <c r="F36" s="184" t="s">
         <v>395</v>
       </c>
       <c r="G36" s="157"/>
       <c r="H36" s="157"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="182"/>
-      <c r="B37" s="179"/>
+      <c r="A37" s="185"/>
+      <c r="B37" s="182"/>
       <c r="C37" s="9" t="s">
         <v>373</v>
       </c>
@@ -28802,8 +28851,8 @@
         <f>W12/$E$24</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="E37" s="179"/>
-      <c r="F37" s="181"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="184"/>
       <c r="G37" s="157"/>
       <c r="H37" s="157"/>
     </row>
@@ -28812,7 +28861,7 @@
       <c r="D38" s="73"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="182" t="s">
         <v>388</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -28824,7 +28873,7 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="179"/>
+      <c r="B40" s="182"/>
       <c r="C40" s="9" t="s">
         <v>375</v>
       </c>
@@ -28834,7 +28883,7 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="179"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="9" t="s">
         <v>376</v>
       </c>
@@ -28844,7 +28893,7 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="179"/>
+      <c r="B42" s="182"/>
       <c r="C42" s="9" t="s">
         <v>377</v>
       </c>
@@ -28939,15 +28988,15 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="91"/>
-    <col min="2" max="2" width="11.25" style="91" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="91" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="91" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="91" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="91" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="91" customWidth="1"/>
     <col min="5" max="5" width="11" style="91" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="91" customWidth="1"/>
-    <col min="7" max="10" width="9.375" style="91" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="91" customWidth="1"/>
+    <col min="7" max="10" width="9.42578125" style="91" customWidth="1"/>
     <col min="11" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
@@ -28981,13 +29030,13 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="182" t="s">
         <v>125</v>
       </c>
       <c r="C4" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="94" t="s">
@@ -28996,9 +29045,9 @@
       <c r="F4" s="94">
         <v>3</v>
       </c>
-      <c r="G4" s="179"/>
+      <c r="G4" s="182"/>
       <c r="H4" s="95"/>
-      <c r="I4" s="179" t="s">
+      <c r="I4" s="182" t="s">
         <v>147</v>
       </c>
       <c r="J4" s="96" t="s">
@@ -29014,18 +29063,18 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="179"/>
+      <c r="B5" s="182"/>
       <c r="C5" s="187"/>
-      <c r="D5" s="179"/>
+      <c r="D5" s="182"/>
       <c r="E5" s="94" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="94">
         <v>10</v>
       </c>
-      <c r="G5" s="179"/>
+      <c r="G5" s="182"/>
       <c r="H5" s="95"/>
-      <c r="I5" s="179"/>
+      <c r="I5" s="182"/>
       <c r="J5" s="96" t="s">
         <v>403</v>
       </c>
@@ -29039,18 +29088,18 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="179"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="187"/>
-      <c r="D6" s="179"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="94" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="94">
         <v>44</v>
       </c>
-      <c r="G6" s="179"/>
+      <c r="G6" s="182"/>
       <c r="H6" s="95"/>
-      <c r="I6" s="179"/>
+      <c r="I6" s="182"/>
       <c r="J6" s="96" t="s">
         <v>404</v>
       </c>
@@ -29064,18 +29113,18 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="179"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="187"/>
-      <c r="D7" s="179"/>
+      <c r="D7" s="182"/>
       <c r="E7" s="94" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="94">
         <v>10</v>
       </c>
-      <c r="G7" s="179"/>
+      <c r="G7" s="182"/>
       <c r="H7" s="95"/>
-      <c r="I7" s="179"/>
+      <c r="I7" s="182"/>
       <c r="J7" s="96" t="s">
         <v>405</v>
       </c>
@@ -29088,18 +29137,18 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="179"/>
+      <c r="B8" s="182"/>
       <c r="C8" s="187"/>
-      <c r="D8" s="179"/>
+      <c r="D8" s="182"/>
       <c r="E8" s="94" t="s">
         <v>94</v>
       </c>
       <c r="F8" s="94">
         <v>31</v>
       </c>
-      <c r="G8" s="179"/>
+      <c r="G8" s="182"/>
       <c r="H8" s="95"/>
-      <c r="I8" s="179"/>
+      <c r="I8" s="182"/>
       <c r="J8" s="89" t="s">
         <v>406</v>
       </c>
@@ -29110,18 +29159,18 @@
       <c r="L8" s="97"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="179"/>
+      <c r="B9" s="182"/>
       <c r="C9" s="187"/>
-      <c r="D9" s="179"/>
+      <c r="D9" s="182"/>
       <c r="E9" s="94" t="s">
         <v>95</v>
       </c>
       <c r="F9" s="94">
         <v>29</v>
       </c>
-      <c r="G9" s="179"/>
+      <c r="G9" s="182"/>
       <c r="H9" s="95"/>
-      <c r="I9" s="179" t="s">
+      <c r="I9" s="182" t="s">
         <v>148</v>
       </c>
       <c r="J9" s="96" t="s">
@@ -29136,18 +29185,18 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="179"/>
+      <c r="B10" s="182"/>
       <c r="C10" s="187"/>
-      <c r="D10" s="179"/>
+      <c r="D10" s="182"/>
       <c r="E10" s="94" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="94">
         <v>10</v>
       </c>
-      <c r="G10" s="179"/>
+      <c r="G10" s="182"/>
       <c r="H10" s="95"/>
-      <c r="I10" s="179"/>
+      <c r="I10" s="182"/>
       <c r="J10" s="96" t="s">
         <v>403</v>
       </c>
@@ -29161,18 +29210,18 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="179"/>
+      <c r="B11" s="182"/>
       <c r="C11" s="187"/>
-      <c r="D11" s="179"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="94" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="94">
         <v>10</v>
       </c>
-      <c r="G11" s="179"/>
+      <c r="G11" s="182"/>
       <c r="H11" s="95"/>
-      <c r="I11" s="179"/>
+      <c r="I11" s="182"/>
       <c r="J11" s="96" t="s">
         <v>404</v>
       </c>
@@ -29185,9 +29234,9 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="179"/>
+      <c r="B12" s="182"/>
       <c r="C12" s="187"/>
-      <c r="D12" s="179"/>
+      <c r="D12" s="182"/>
       <c r="E12" s="94" t="s">
         <v>98</v>
       </c>
@@ -29195,9 +29244,9 @@
         <f>SUM($F$4:$F$11)</f>
         <v>147</v>
       </c>
-      <c r="G12" s="179"/>
+      <c r="G12" s="182"/>
       <c r="H12" s="95"/>
-      <c r="I12" s="179"/>
+      <c r="I12" s="182"/>
       <c r="J12" s="96" t="s">
         <v>405</v>
       </c>
@@ -29210,9 +29259,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="179"/>
+      <c r="B13" s="182"/>
       <c r="C13" s="187"/>
-      <c r="D13" s="179" t="s">
+      <c r="D13" s="182" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="94" t="s">
@@ -29221,9 +29270,9 @@
       <c r="F13" s="94">
         <v>4</v>
       </c>
-      <c r="G13" s="179"/>
+      <c r="G13" s="182"/>
       <c r="H13" s="95"/>
-      <c r="I13" s="179"/>
+      <c r="I13" s="182"/>
       <c r="J13" s="89" t="s">
         <v>406</v>
       </c>
@@ -29234,21 +29283,21 @@
       <c r="L13" s="97"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="179"/>
+      <c r="B14" s="182"/>
       <c r="C14" s="187"/>
-      <c r="D14" s="179"/>
+      <c r="D14" s="182"/>
       <c r="E14" s="94" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="94">
         <v>7</v>
       </c>
-      <c r="G14" s="179"/>
+      <c r="G14" s="182"/>
       <c r="H14" s="95"/>
-      <c r="I14" s="179" t="s">
+      <c r="I14" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="J14" s="179"/>
+      <c r="J14" s="182"/>
       <c r="K14" s="98">
         <f>SUM($K$8,$K$13)</f>
         <v>858</v>
@@ -29256,24 +29305,24 @@
       <c r="L14" s="94"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="179"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="187"/>
-      <c r="D15" s="179"/>
+      <c r="D15" s="182"/>
       <c r="E15" s="94" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="94">
         <v>12</v>
       </c>
-      <c r="G15" s="179"/>
+      <c r="G15" s="182"/>
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
       <c r="J15" s="95"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="179"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="187"/>
-      <c r="D16" s="179"/>
+      <c r="D16" s="182"/>
       <c r="E16" s="94" t="s">
         <v>98</v>
       </c>
@@ -29281,7 +29330,7 @@
         <f>SUM($F$13:$F$15)</f>
         <v>23</v>
       </c>
-      <c r="G16" s="179"/>
+      <c r="G16" s="182"/>
       <c r="H16" s="95"/>
       <c r="I16" s="99" t="s">
         <v>407</v>
@@ -29292,11 +29341,11 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="179"/>
+      <c r="B17" s="182"/>
       <c r="C17" s="187" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="179" t="s">
+      <c r="D17" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="94" t="s">
@@ -29305,9 +29354,9 @@
       <c r="F17" s="94">
         <v>2</v>
       </c>
-      <c r="G17" s="179"/>
+      <c r="G17" s="182"/>
       <c r="H17" s="95"/>
-      <c r="I17" s="184" t="s">
+      <c r="I17" s="188" t="s">
         <v>147</v>
       </c>
       <c r="J17" s="61" t="s">
@@ -29319,18 +29368,18 @@
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="179"/>
+      <c r="B18" s="182"/>
       <c r="C18" s="187"/>
-      <c r="D18" s="179"/>
+      <c r="D18" s="182"/>
       <c r="E18" s="94" t="s">
         <v>104</v>
       </c>
       <c r="F18" s="94">
         <v>9</v>
       </c>
-      <c r="G18" s="179"/>
+      <c r="G18" s="182"/>
       <c r="H18" s="95"/>
-      <c r="I18" s="184"/>
+      <c r="I18" s="188"/>
       <c r="J18" s="61" t="s">
         <v>408</v>
       </c>
@@ -29340,18 +29389,18 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="179"/>
+      <c r="B19" s="182"/>
       <c r="C19" s="187"/>
-      <c r="D19" s="179"/>
+      <c r="D19" s="182"/>
       <c r="E19" s="94" t="s">
         <v>105</v>
       </c>
       <c r="F19" s="94">
         <v>6</v>
       </c>
-      <c r="G19" s="179"/>
+      <c r="G19" s="182"/>
       <c r="H19" s="95"/>
-      <c r="I19" s="184"/>
+      <c r="I19" s="188"/>
       <c r="J19" s="61" t="s">
         <v>409</v>
       </c>
@@ -29361,16 +29410,16 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="179"/>
+      <c r="B20" s="182"/>
       <c r="C20" s="187"/>
-      <c r="D20" s="179"/>
+      <c r="D20" s="182"/>
       <c r="E20" s="94" t="s">
         <v>106</v>
       </c>
       <c r="F20" s="94">
         <v>19</v>
       </c>
-      <c r="G20" s="179"/>
+      <c r="G20" s="182"/>
       <c r="H20" s="95"/>
       <c r="I20" s="89" t="s">
         <v>148</v>
@@ -29384,75 +29433,75 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="179"/>
+      <c r="B21" s="182"/>
       <c r="C21" s="187"/>
-      <c r="D21" s="179"/>
+      <c r="D21" s="182"/>
       <c r="E21" s="94" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="94">
         <v>15</v>
       </c>
-      <c r="G21" s="179"/>
+      <c r="G21" s="182"/>
       <c r="H21" s="95"/>
-      <c r="I21" s="179" t="s">
+      <c r="I21" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="J21" s="179"/>
+      <c r="J21" s="182"/>
       <c r="K21" s="100">
         <f>SUM($K$17:$K$20)</f>
         <v>858</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="179"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="187"/>
-      <c r="D22" s="179"/>
+      <c r="D22" s="182"/>
       <c r="E22" s="94" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="94">
         <v>7</v>
       </c>
-      <c r="G22" s="179"/>
+      <c r="G22" s="182"/>
       <c r="H22" s="95"/>
       <c r="I22" s="95"/>
       <c r="J22" s="95"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="179"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="187"/>
-      <c r="D23" s="179"/>
+      <c r="D23" s="182"/>
       <c r="E23" s="94" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="94">
         <v>6</v>
       </c>
-      <c r="G23" s="179"/>
+      <c r="G23" s="182"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="179"/>
+      <c r="B24" s="182"/>
       <c r="C24" s="187"/>
-      <c r="D24" s="179"/>
+      <c r="D24" s="182"/>
       <c r="E24" s="94" t="s">
         <v>109</v>
       </c>
       <c r="F24" s="94">
         <v>10</v>
       </c>
-      <c r="G24" s="179"/>
+      <c r="G24" s="182"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="179"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="187"/>
-      <c r="D25" s="179"/>
+      <c r="D25" s="182"/>
       <c r="E25" s="94" t="s">
         <v>98</v>
       </c>
@@ -29460,15 +29509,15 @@
         <f>SUM($F$17:$F$24)</f>
         <v>74</v>
       </c>
-      <c r="G25" s="179"/>
+      <c r="G25" s="182"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="179"/>
+      <c r="B26" s="182"/>
       <c r="C26" s="187"/>
-      <c r="D26" s="179" t="s">
+      <c r="D26" s="182" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="94" t="s">
@@ -29477,45 +29526,45 @@
       <c r="F26" s="94">
         <v>9</v>
       </c>
-      <c r="G26" s="179"/>
+      <c r="G26" s="182"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="179"/>
+      <c r="B27" s="182"/>
       <c r="C27" s="187"/>
-      <c r="D27" s="179"/>
+      <c r="D27" s="182"/>
       <c r="E27" s="94" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="94">
         <v>1</v>
       </c>
-      <c r="G27" s="179"/>
+      <c r="G27" s="182"/>
       <c r="H27" s="95"/>
       <c r="I27" s="95"/>
       <c r="J27" s="95"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="179"/>
+      <c r="B28" s="182"/>
       <c r="C28" s="187"/>
-      <c r="D28" s="179"/>
+      <c r="D28" s="182"/>
       <c r="E28" s="94" t="s">
         <v>90</v>
       </c>
       <c r="F28" s="94">
         <v>2</v>
       </c>
-      <c r="G28" s="179"/>
+      <c r="G28" s="182"/>
       <c r="H28" s="95"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="179"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="187"/>
-      <c r="D29" s="179"/>
+      <c r="D29" s="182"/>
       <c r="E29" s="94" t="s">
         <v>98</v>
       </c>
@@ -29523,17 +29572,17 @@
         <f>SUM($F$26:$F$28)</f>
         <v>12</v>
       </c>
-      <c r="G29" s="179"/>
+      <c r="G29" s="182"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="179"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="179" t="s">
+      <c r="D30" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E30" s="94" t="s">
@@ -29542,32 +29591,32 @@
       <c r="F30" s="94">
         <v>45</v>
       </c>
-      <c r="G30" s="179"/>
+      <c r="G30" s="182"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="179"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="187"/>
-      <c r="D31" s="179"/>
+      <c r="D31" s="182"/>
       <c r="E31" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="94">
         <v>45</v>
       </c>
-      <c r="G31" s="179"/>
+      <c r="G31" s="182"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="179"/>
+      <c r="B32" s="182"/>
       <c r="C32" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="179" t="s">
+      <c r="D32" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="94" t="s">
@@ -29576,30 +29625,30 @@
       <c r="F32" s="94">
         <v>22</v>
       </c>
-      <c r="G32" s="179"/>
+      <c r="G32" s="182"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="179"/>
+      <c r="B33" s="182"/>
       <c r="C33" s="187"/>
-      <c r="D33" s="179"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="94" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="94">
         <v>4</v>
       </c>
-      <c r="G33" s="179"/>
+      <c r="G33" s="182"/>
       <c r="H33" s="95"/>
       <c r="I33" s="95"/>
       <c r="J33" s="95"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="179"/>
+      <c r="B34" s="182"/>
       <c r="C34" s="187"/>
-      <c r="D34" s="179"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="94" t="s">
         <v>98</v>
       </c>
@@ -29607,17 +29656,17 @@
         <f>SUM($F$32:$F$33)</f>
         <v>26</v>
       </c>
-      <c r="G34" s="179"/>
+      <c r="G34" s="182"/>
       <c r="H34" s="95"/>
       <c r="I34" s="95"/>
       <c r="J34" s="95"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="179"/>
+      <c r="B35" s="182"/>
       <c r="C35" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="179" t="s">
+      <c r="D35" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E35" s="94" t="s">
@@ -29626,30 +29675,30 @@
       <c r="F35" s="94">
         <v>8</v>
       </c>
-      <c r="G35" s="179"/>
+      <c r="G35" s="182"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="179"/>
+      <c r="B36" s="182"/>
       <c r="C36" s="187"/>
-      <c r="D36" s="179"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="94" t="s">
         <v>115</v>
       </c>
       <c r="F36" s="94">
         <v>18</v>
       </c>
-      <c r="G36" s="179"/>
+      <c r="G36" s="182"/>
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="179"/>
+      <c r="B37" s="182"/>
       <c r="C37" s="187"/>
-      <c r="D37" s="179"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="94" t="s">
         <v>98</v>
       </c>
@@ -29657,17 +29706,17 @@
         <f>SUM($F$35:$F$36)</f>
         <v>26</v>
       </c>
-      <c r="G37" s="179"/>
+      <c r="G37" s="182"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="179"/>
+      <c r="B38" s="182"/>
       <c r="C38" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="179" t="s">
+      <c r="D38" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="94" t="s">
@@ -29676,45 +29725,45 @@
       <c r="F38" s="94">
         <v>19</v>
       </c>
-      <c r="G38" s="179"/>
+      <c r="G38" s="182"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="179"/>
+      <c r="B39" s="182"/>
       <c r="C39" s="187"/>
-      <c r="D39" s="179"/>
+      <c r="D39" s="182"/>
       <c r="E39" s="94" t="s">
         <v>112</v>
       </c>
       <c r="F39" s="94">
         <v>2</v>
       </c>
-      <c r="G39" s="179"/>
+      <c r="G39" s="182"/>
       <c r="H39" s="95"/>
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="179"/>
+      <c r="B40" s="182"/>
       <c r="C40" s="187"/>
-      <c r="D40" s="179"/>
+      <c r="D40" s="182"/>
       <c r="E40" s="94" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="94">
         <v>2</v>
       </c>
-      <c r="G40" s="179"/>
+      <c r="G40" s="182"/>
       <c r="H40" s="95"/>
       <c r="I40" s="95"/>
       <c r="J40" s="95"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="179"/>
+      <c r="B41" s="182"/>
       <c r="C41" s="187"/>
-      <c r="D41" s="179"/>
+      <c r="D41" s="182"/>
       <c r="E41" s="94" t="s">
         <v>98</v>
       </c>
@@ -29722,17 +29771,17 @@
         <f>SUM($F$38:$F$40)</f>
         <v>23</v>
       </c>
-      <c r="G41" s="179"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="95"/>
       <c r="I41" s="95"/>
       <c r="J41" s="95"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="179"/>
+      <c r="B42" s="182"/>
       <c r="C42" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="179" t="s">
+      <c r="D42" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="94" t="s">
@@ -29741,32 +29790,32 @@
       <c r="F42" s="94">
         <v>28</v>
       </c>
-      <c r="G42" s="179"/>
+      <c r="G42" s="182"/>
       <c r="H42" s="95"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="179"/>
+      <c r="B43" s="182"/>
       <c r="C43" s="187"/>
-      <c r="D43" s="179"/>
+      <c r="D43" s="182"/>
       <c r="E43" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F43" s="94">
         <v>28</v>
       </c>
-      <c r="G43" s="179"/>
+      <c r="G43" s="182"/>
       <c r="H43" s="95"/>
       <c r="I43" s="95"/>
       <c r="J43" s="95"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="179"/>
+      <c r="B44" s="182"/>
       <c r="C44" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="179" t="s">
+      <c r="D44" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E44" s="94" t="s">
@@ -29775,32 +29824,32 @@
       <c r="F44" s="94">
         <v>7</v>
       </c>
-      <c r="G44" s="179"/>
+      <c r="G44" s="182"/>
       <c r="H44" s="95"/>
       <c r="I44" s="95"/>
       <c r="J44" s="95"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="179"/>
+      <c r="B45" s="182"/>
       <c r="C45" s="187"/>
-      <c r="D45" s="179"/>
+      <c r="D45" s="182"/>
       <c r="E45" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F45" s="94">
         <v>7</v>
       </c>
-      <c r="G45" s="179"/>
+      <c r="G45" s="182"/>
       <c r="H45" s="95"/>
       <c r="I45" s="95"/>
       <c r="J45" s="95"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="179"/>
+      <c r="B46" s="182"/>
       <c r="C46" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="179" t="s">
+      <c r="D46" s="182" t="s">
         <v>99</v>
       </c>
       <c r="E46" s="94" t="s">
@@ -29809,32 +29858,32 @@
       <c r="F46" s="94">
         <v>1</v>
       </c>
-      <c r="G46" s="179"/>
+      <c r="G46" s="182"/>
       <c r="H46" s="95"/>
       <c r="I46" s="95"/>
       <c r="J46" s="95"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="179"/>
+      <c r="B47" s="182"/>
       <c r="C47" s="187"/>
-      <c r="D47" s="179"/>
+      <c r="D47" s="182"/>
       <c r="E47" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F47" s="94">
         <v>1</v>
       </c>
-      <c r="G47" s="179"/>
+      <c r="G47" s="182"/>
       <c r="H47" s="95"/>
       <c r="I47" s="95"/>
       <c r="J47" s="95"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="179"/>
+      <c r="B48" s="182"/>
       <c r="C48" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="182" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="94" t="s">
@@ -29843,51 +29892,51 @@
       <c r="F48" s="94">
         <v>2</v>
       </c>
-      <c r="G48" s="179"/>
+      <c r="G48" s="182"/>
       <c r="H48" s="95"/>
       <c r="I48" s="95"/>
       <c r="J48" s="95"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="179"/>
+      <c r="B49" s="182"/>
       <c r="C49" s="187"/>
-      <c r="D49" s="179"/>
+      <c r="D49" s="182"/>
       <c r="E49" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="94">
         <v>2</v>
       </c>
-      <c r="G49" s="179"/>
+      <c r="G49" s="182"/>
       <c r="H49" s="95"/>
       <c r="I49" s="95"/>
       <c r="J49" s="95"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="179"/>
-      <c r="C50" s="179" t="s">
+      <c r="B50" s="182"/>
+      <c r="C50" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="179"/>
-      <c r="E50" s="179"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
       <c r="F50" s="94">
         <f>SUM($F$12,$F$16,$F$25,$F$29,$F$31,$F$34,$F$37,$F$41,$F$43,$F$45,$F$47,$F$49)</f>
         <v>414</v>
       </c>
-      <c r="G50" s="179"/>
+      <c r="G50" s="182"/>
       <c r="H50" s="95"/>
       <c r="I50" s="95"/>
       <c r="J50" s="95"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="179" t="s">
+      <c r="B51" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="186" t="s">
+      <c r="C51" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="189"/>
       <c r="F51" s="94">
         <v>2</v>
       </c>
@@ -29899,12 +29948,12 @@
       <c r="J51" s="95"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="179"/>
-      <c r="C52" s="186" t="s">
+      <c r="B52" s="182"/>
+      <c r="C52" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189"/>
       <c r="F52" s="94">
         <v>3</v>
       </c>
@@ -29916,12 +29965,12 @@
       <c r="J52" s="95"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="179"/>
-      <c r="C53" s="186" t="s">
+      <c r="B53" s="182"/>
+      <c r="C53" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="186"/>
-      <c r="E53" s="186"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="189"/>
       <c r="F53" s="94">
         <v>2</v>
       </c>
@@ -29931,12 +29980,12 @@
       <c r="J53" s="101"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="179"/>
-      <c r="C54" s="186" t="s">
+      <c r="B54" s="182"/>
+      <c r="C54" s="189" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="186"/>
-      <c r="E54" s="186"/>
+      <c r="D54" s="189"/>
+      <c r="E54" s="189"/>
       <c r="F54" s="94">
         <v>1</v>
       </c>
@@ -29946,12 +29995,12 @@
       <c r="J54" s="101"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="179"/>
-      <c r="C55" s="186" t="s">
+      <c r="B55" s="182"/>
+      <c r="C55" s="189" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="186"/>
-      <c r="E55" s="186"/>
+      <c r="D55" s="189"/>
+      <c r="E55" s="189"/>
       <c r="F55" s="94">
         <v>1</v>
       </c>
@@ -29963,12 +30012,12 @@
       <c r="J55" s="101"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="179"/>
-      <c r="C56" s="186" t="s">
+      <c r="B56" s="182"/>
+      <c r="C56" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="186"/>
-      <c r="E56" s="186"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="189"/>
       <c r="F56" s="94"/>
       <c r="G56" s="94">
         <v>4</v>
@@ -29978,12 +30027,12 @@
       <c r="J56" s="101"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="179"/>
-      <c r="C57" s="186" t="s">
+      <c r="B57" s="182"/>
+      <c r="C57" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="186"/>
-      <c r="E57" s="186"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="189"/>
       <c r="F57" s="94">
         <v>4</v>
       </c>
@@ -29995,12 +30044,12 @@
       <c r="J57" s="101"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="179"/>
-      <c r="C58" s="186" t="s">
+      <c r="B58" s="182"/>
+      <c r="C58" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="186"/>
-      <c r="E58" s="186"/>
+      <c r="D58" s="189"/>
+      <c r="E58" s="189"/>
       <c r="F58" s="94">
         <v>2</v>
       </c>
@@ -30010,12 +30059,12 @@
       <c r="J58" s="101"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="179"/>
-      <c r="C59" s="179" t="s">
+      <c r="B59" s="182"/>
+      <c r="C59" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="179"/>
-      <c r="E59" s="179"/>
+      <c r="D59" s="182"/>
+      <c r="E59" s="182"/>
       <c r="F59" s="94">
         <f>SUM($F$51:$F$58)</f>
         <v>15</v>
@@ -30029,12 +30078,12 @@
       <c r="J59" s="101"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="184" t="s">
+      <c r="B60" s="188" t="s">
         <v>410</v>
       </c>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
+      <c r="C60" s="188"/>
+      <c r="D60" s="188"/>
+      <c r="E60" s="188"/>
       <c r="F60" s="94">
         <f>SUM($F$50,$F$59)</f>
         <v>429</v>
@@ -30051,11 +30100,11 @@
       <c r="B61" s="92" t="s">
         <v>411</v>
       </c>
-      <c r="C61" s="186" t="s">
+      <c r="C61" s="189" t="s">
         <v>412</v>
       </c>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="189"/>
       <c r="F61" s="94">
         <v>83</v>
       </c>
@@ -30067,14 +30116,14 @@
       <c r="J61" s="101"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="184" t="s">
+      <c r="B62" s="188" t="s">
         <v>413</v>
       </c>
-      <c r="C62" s="185" t="s">
+      <c r="C62" s="190" t="s">
         <v>414</v>
       </c>
-      <c r="D62" s="185"/>
-      <c r="E62" s="185"/>
+      <c r="D62" s="190"/>
+      <c r="E62" s="190"/>
       <c r="F62" s="94">
         <v>111</v>
       </c>
@@ -30086,12 +30135,12 @@
       <c r="J62" s="101"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="184"/>
-      <c r="C63" s="185" t="s">
+      <c r="B63" s="188"/>
+      <c r="C63" s="190" t="s">
         <v>415</v>
       </c>
-      <c r="D63" s="185"/>
-      <c r="E63" s="185"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="190"/>
       <c r="F63" s="94"/>
       <c r="G63" s="94">
         <v>2</v>
@@ -30101,12 +30150,12 @@
       <c r="J63" s="101"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="184"/>
-      <c r="C64" s="185" t="s">
+      <c r="B64" s="188"/>
+      <c r="C64" s="190" t="s">
         <v>416</v>
       </c>
-      <c r="D64" s="185"/>
-      <c r="E64" s="185"/>
+      <c r="D64" s="190"/>
+      <c r="E64" s="190"/>
       <c r="F64" s="94">
         <v>2</v>
       </c>
@@ -30116,12 +30165,12 @@
       <c r="J64" s="101"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="B65" s="184"/>
-      <c r="C65" s="185" t="s">
+      <c r="B65" s="188"/>
+      <c r="C65" s="190" t="s">
         <v>417</v>
       </c>
-      <c r="D65" s="185"/>
-      <c r="E65" s="185"/>
+      <c r="D65" s="190"/>
+      <c r="E65" s="190"/>
       <c r="F65" s="94">
         <v>1</v>
       </c>
@@ -30133,12 +30182,12 @@
       <c r="J65" s="101"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="B66" s="184"/>
-      <c r="C66" s="186" t="s">
+      <c r="B66" s="188"/>
+      <c r="C66" s="189" t="s">
         <v>418</v>
       </c>
-      <c r="D66" s="186"/>
-      <c r="E66" s="186"/>
+      <c r="D66" s="189"/>
+      <c r="E66" s="189"/>
       <c r="F66" s="94">
         <v>19</v>
       </c>
@@ -30150,12 +30199,12 @@
       <c r="J66" s="101"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="B67" s="184"/>
-      <c r="C67" s="184" t="s">
+      <c r="B67" s="188"/>
+      <c r="C67" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="184"/>
-      <c r="E67" s="184"/>
+      <c r="D67" s="188"/>
+      <c r="E67" s="188"/>
       <c r="F67" s="94">
         <f>SUM($F$62:$F$66)</f>
         <v>133</v>
@@ -30169,12 +30218,12 @@
       <c r="J67" s="101"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="B68" s="184" t="s">
+      <c r="B68" s="188" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="184"/>
-      <c r="D68" s="184"/>
-      <c r="E68" s="184"/>
+      <c r="C68" s="188"/>
+      <c r="D68" s="188"/>
+      <c r="E68" s="188"/>
       <c r="F68" s="94">
         <f>SUM($F$67,$F$60,$F$61)</f>
         <v>645</v>
@@ -30253,17 +30302,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="C17:C29"/>
-    <mergeCell ref="D4:D12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="B4:B50"/>
     <mergeCell ref="G4:G50"/>
@@ -30280,29 +30341,17 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="D4:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="D26:D29"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30317,7 +30366,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
@@ -30428,22 +30477,22 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="62" customWidth="1"/>
-    <col min="3" max="4" width="9.125" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="62" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="62" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="62" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7" style="62" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="62" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="62" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="62" customWidth="1"/>
-    <col min="13" max="14" width="9.125" style="62" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="62" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.625" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="62" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="62" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
@@ -30473,27 +30522,27 @@
       <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="190"/>
-      <c r="G3" s="188" t="s">
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="188" t="s">
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="191" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="190"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="8" t="s">
@@ -31377,7 +31426,7 @@
       <c r="Q20" s="65"/>
       <c r="R20" s="65"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" thickBot="1">
+    <row r="21" spans="1:18" ht="13.5" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>42</v>
       </c>
@@ -31429,7 +31478,7 @@
       <c r="Q21" s="64"/>
       <c r="R21" s="64"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25" thickBot="1">
+    <row r="22" spans="1:18" ht="13.5" thickBot="1">
       <c r="A22" s="17" t="s">
         <v>82</v>
       </c>
@@ -31506,7 +31555,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="14.25" thickBot="1">
+    <row r="26" spans="1:18" ht="13.5" thickBot="1">
       <c r="R26" s="64"/>
     </row>
     <row r="27" spans="1:18">
@@ -31531,7 +31580,7 @@
       </c>
       <c r="R28" s="64"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25" thickBot="1">
+    <row r="29" spans="1:18" ht="13.5" thickBot="1">
       <c r="B29" s="166" t="s">
         <v>573</v>
       </c>
@@ -31549,19 +31598,19 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="71" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="R31" s="64"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="62" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="R32" s="64"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="62" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="R33" s="64"/>
     </row>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{051046B9-2B4C-4FDC-8A6B-7EFEE14D85BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE7681-5905-4CCB-A05A-636433AE53DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="DV-per fuel" sheetId="16" r:id="rId2"/>
-    <sheet name="DV-Regis" sheetId="23" r:id="rId3"/>
-    <sheet name="DV" sheetId="27" r:id="rId4"/>
-    <sheet name="Rail-subway" sheetId="29" r:id="rId5"/>
-    <sheet name="Rail" sheetId="21" r:id="rId6"/>
-    <sheet name="Aircraft" sheetId="19" r:id="rId7"/>
-    <sheet name="Ships" sheetId="20" r:id="rId8"/>
-    <sheet name="Motorbikes" sheetId="17" r:id="rId9"/>
-    <sheet name="Cal" sheetId="22" r:id="rId10"/>
-    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId11"/>
-    <sheet name="SYVbT-freight" sheetId="4" r:id="rId12"/>
+    <sheet name="ships multiplier" sheetId="30" r:id="rId2"/>
+    <sheet name="DV-per fuel" sheetId="16" r:id="rId3"/>
+    <sheet name="DV-Regis" sheetId="23" r:id="rId4"/>
+    <sheet name="DV" sheetId="27" r:id="rId5"/>
+    <sheet name="Rail-subway" sheetId="29" r:id="rId6"/>
+    <sheet name="Rail" sheetId="21" r:id="rId7"/>
+    <sheet name="Aircraft" sheetId="19" r:id="rId8"/>
+    <sheet name="Ships" sheetId="20" r:id="rId9"/>
+    <sheet name="Motorbikes" sheetId="17" r:id="rId10"/>
+    <sheet name="Cal" sheetId="22" r:id="rId11"/>
+    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId12"/>
+    <sheet name="SYVbT-freight" sheetId="4" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_12" localSheetId="1">'DV-per fuel'!$U$276:$U$562</definedName>
+    <definedName name="_12" localSheetId="2">'DV-per fuel'!$U$276:$U$562</definedName>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -38,7 +39,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="645">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -3261,12 +3262,183 @@
     <t>https://www.kogas.or.kr:9450/portal/selectBbsNttView.do?bbsNo=239&amp;key=2035&amp;nttNo=39355</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
+  <si>
+    <t>Domestic Shipping Emissions (MMT CO2e)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of 1990</t>
+  </si>
+  <si>
+    <t>Sum of 2005</t>
+  </si>
+  <si>
+    <t>Sum of 2010</t>
+  </si>
+  <si>
+    <t>Sum of 2015</t>
+  </si>
+  <si>
+    <t>Sum of 2020</t>
+  </si>
+  <si>
+    <t>Sum of 2025</t>
+  </si>
+  <si>
+    <t>Sum of 2030</t>
+  </si>
+  <si>
+    <t>Sum of 2035</t>
+  </si>
+  <si>
+    <t>Sum of 2040</t>
+  </si>
+  <si>
+    <t>Sum of 2045</t>
+  </si>
+  <si>
+    <t>Sum of 2050</t>
+  </si>
+  <si>
+    <t>Africa_Eastern</t>
+  </si>
+  <si>
+    <t>Africa_Northern</t>
+  </si>
+  <si>
+    <t>Africa_Southern</t>
+  </si>
+  <si>
+    <t>Africa_Western</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Australia_NZ</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Central America and Caribbean</t>
+  </si>
+  <si>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>EU-12</t>
+  </si>
+  <si>
+    <t>EU-15</t>
+  </si>
+  <si>
+    <t>Europe_Eastern</t>
+  </si>
+  <si>
+    <t>Europe_Non_EU</t>
+  </si>
+  <si>
+    <t>European Free Trade Association</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South America_Northern</t>
+  </si>
+  <si>
+    <t>South America_Southern</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>EU Total</t>
+  </si>
+  <si>
+    <t>International Shipping Emissions (MMT CO2e)</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>EU + USA Shipping Emissions (MMT CO2e)</t>
+  </si>
+  <si>
+    <t>EU Domestic</t>
+  </si>
+  <si>
+    <t>USA Domestic</t>
+  </si>
+  <si>
+    <t>EU+US Domestic Total</t>
+  </si>
+  <si>
+    <t>Global Total</t>
+  </si>
+  <si>
+    <t>EU+US Domestic  Share of Global</t>
+  </si>
+  <si>
+    <t>Multiplier of NEXT SYVBT to GCAM Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The original SYVBT values from NEXT seem to reflect domestic shipping emissions (compared to GCAM shipping emissions). </t>
+  </si>
+  <si>
+    <t>To estimate the additional international shipping emissions, we applied a multiplier based on GCAM data. See ships multiplier tab for GCAM emissions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -3274,6 +3446,7 @@
     <numFmt numFmtId="166" formatCode="#,##0_)"/>
     <numFmt numFmtId="167" formatCode="#,##0_ "/>
     <numFmt numFmtId="168" formatCode="0_ "/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -3650,7 +3823,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3865,8 +4038,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -4381,8 +4566,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="144">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -4595,8 +4789,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5124,16 +5319,16 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5148,8 +5343,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="42" borderId="0" xfId="140" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="30" borderId="0" xfId="144" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="144">
+  <cellStyles count="145">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -5178,6 +5405,7 @@
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Comma" xfId="144" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="142" builtinId="6"/>
     <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
@@ -5714,11 +5942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="9" style="7" customWidth="1"/>
@@ -6073,6 +6303,16 @@
       </c>
       <c r="B56" s="7">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -6096,6 +6336,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C401D476-F0CB-42EA-9C51-F86641CEEDE0}">
+  <dimension ref="A1:R47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="7.81640625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="62" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="62" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" style="62" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" style="62" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.453125" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.54296875" style="62" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="D1" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="191" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="191" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="191" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="193"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10">
+        <v>449549</v>
+      </c>
+      <c r="C5" s="11">
+        <v>19855</v>
+      </c>
+      <c r="D5" s="11">
+        <v>146965</v>
+      </c>
+      <c r="E5" s="11">
+        <v>252816</v>
+      </c>
+      <c r="F5" s="11">
+        <v>29913</v>
+      </c>
+      <c r="G5" s="11">
+        <v>4560</v>
+      </c>
+      <c r="H5" s="11">
+        <v>299</v>
+      </c>
+      <c r="I5" s="11">
+        <v>933</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3173</v>
+      </c>
+      <c r="K5" s="11">
+        <v>155</v>
+      </c>
+      <c r="L5" s="11">
+        <v>444989</v>
+      </c>
+      <c r="M5" s="11">
+        <v>19556</v>
+      </c>
+      <c r="N5" s="11">
+        <v>146032</v>
+      </c>
+      <c r="O5" s="11">
+        <v>249643</v>
+      </c>
+      <c r="P5" s="11">
+        <v>29758</v>
+      </c>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10">
+        <v>132571</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5788</v>
+      </c>
+      <c r="D6" s="11">
+        <v>37451</v>
+      </c>
+      <c r="E6" s="11">
+        <v>82300</v>
+      </c>
+      <c r="F6" s="11">
+        <v>7032</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1439</v>
+      </c>
+      <c r="H6" s="11">
+        <v>103</v>
+      </c>
+      <c r="I6" s="11">
+        <v>179</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1114</v>
+      </c>
+      <c r="K6" s="11">
+        <v>43</v>
+      </c>
+      <c r="L6" s="11">
+        <v>131132</v>
+      </c>
+      <c r="M6" s="11">
+        <v>5685</v>
+      </c>
+      <c r="N6" s="11">
+        <v>37272</v>
+      </c>
+      <c r="O6" s="11">
+        <v>81186</v>
+      </c>
+      <c r="P6" s="11">
+        <v>6989</v>
+      </c>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10">
+        <v>132716</v>
+      </c>
+      <c r="C7" s="11">
+        <v>9915</v>
+      </c>
+      <c r="D7" s="11">
+        <v>58400</v>
+      </c>
+      <c r="E7" s="11">
+        <v>58937</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5464</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1246</v>
+      </c>
+      <c r="H7" s="11">
+        <v>171</v>
+      </c>
+      <c r="I7" s="11">
+        <v>202</v>
+      </c>
+      <c r="J7" s="11">
+        <v>839</v>
+      </c>
+      <c r="K7" s="11">
+        <v>34</v>
+      </c>
+      <c r="L7" s="11">
+        <v>131470</v>
+      </c>
+      <c r="M7" s="11">
+        <v>9744</v>
+      </c>
+      <c r="N7" s="11">
+        <v>58198</v>
+      </c>
+      <c r="O7" s="11">
+        <v>58098</v>
+      </c>
+      <c r="P7" s="11">
+        <v>5430</v>
+      </c>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10">
+        <v>75874</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3639</v>
+      </c>
+      <c r="D8" s="11">
+        <v>29356</v>
+      </c>
+      <c r="E8" s="11">
+        <v>37797</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5082</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1026</v>
+      </c>
+      <c r="H8" s="11">
+        <v>15</v>
+      </c>
+      <c r="I8" s="11">
+        <v>187</v>
+      </c>
+      <c r="J8" s="11">
+        <v>792</v>
+      </c>
+      <c r="K8" s="11">
+        <v>32</v>
+      </c>
+      <c r="L8" s="11">
+        <v>74848</v>
+      </c>
+      <c r="M8" s="11">
+        <v>3624</v>
+      </c>
+      <c r="N8" s="11">
+        <v>29169</v>
+      </c>
+      <c r="O8" s="11">
+        <v>37005</v>
+      </c>
+      <c r="P8" s="11">
+        <v>5050</v>
+      </c>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10">
+        <v>39914</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2003</v>
+      </c>
+      <c r="D9" s="11">
+        <v>15889</v>
+      </c>
+      <c r="E9" s="11">
+        <v>20230</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1792</v>
+      </c>
+      <c r="G9" s="11">
+        <v>511</v>
+      </c>
+      <c r="H9" s="11">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11">
+        <v>46</v>
+      </c>
+      <c r="J9" s="11">
+        <v>434</v>
+      </c>
+      <c r="K9" s="11">
+        <v>10</v>
+      </c>
+      <c r="L9" s="11">
+        <v>39403</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1982</v>
+      </c>
+      <c r="N9" s="11">
+        <v>15843</v>
+      </c>
+      <c r="O9" s="11">
+        <v>19796</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1782</v>
+      </c>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10">
+        <v>38183</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3482</v>
+      </c>
+      <c r="D10" s="11">
+        <v>11473</v>
+      </c>
+      <c r="E10" s="11">
+        <v>20414</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2814</v>
+      </c>
+      <c r="G10" s="11">
+        <v>504</v>
+      </c>
+      <c r="H10" s="11">
+        <v>38</v>
+      </c>
+      <c r="I10" s="11">
+        <v>67</v>
+      </c>
+      <c r="J10" s="11">
+        <v>381</v>
+      </c>
+      <c r="K10" s="11">
+        <v>18</v>
+      </c>
+      <c r="L10" s="11">
+        <v>37679</v>
+      </c>
+      <c r="M10" s="11">
+        <v>3444</v>
+      </c>
+      <c r="N10" s="11">
+        <v>11406</v>
+      </c>
+      <c r="O10" s="11">
+        <v>20033</v>
+      </c>
+      <c r="P10" s="11">
+        <v>2796</v>
+      </c>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10">
+        <v>63407</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3702</v>
+      </c>
+      <c r="D11" s="11">
+        <v>12033</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45045</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2627</v>
+      </c>
+      <c r="G11" s="11">
+        <v>498</v>
+      </c>
+      <c r="H11" s="11">
+        <v>98</v>
+      </c>
+      <c r="I11" s="11">
+        <v>48</v>
+      </c>
+      <c r="J11" s="11">
+        <v>340</v>
+      </c>
+      <c r="K11" s="11">
+        <v>12</v>
+      </c>
+      <c r="L11" s="11">
+        <v>62909</v>
+      </c>
+      <c r="M11" s="11">
+        <v>3604</v>
+      </c>
+      <c r="N11" s="11">
+        <v>11985</v>
+      </c>
+      <c r="O11" s="11">
+        <v>44705</v>
+      </c>
+      <c r="P11" s="11">
+        <v>2615</v>
+      </c>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11414</v>
+      </c>
+      <c r="C12" s="11">
+        <v>871</v>
+      </c>
+      <c r="D12" s="11">
+        <v>5296</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4685</v>
+      </c>
+      <c r="F12" s="11">
+        <v>562</v>
+      </c>
+      <c r="G12" s="11">
+        <v>147</v>
+      </c>
+      <c r="H12" s="11">
+        <v>8</v>
+      </c>
+      <c r="I12" s="11">
+        <v>11</v>
+      </c>
+      <c r="J12" s="11">
+        <v>122</v>
+      </c>
+      <c r="K12" s="11">
+        <v>6</v>
+      </c>
+      <c r="L12" s="11">
+        <v>11267</v>
+      </c>
+      <c r="M12" s="11">
+        <v>863</v>
+      </c>
+      <c r="N12" s="11">
+        <v>5285</v>
+      </c>
+      <c r="O12" s="11">
+        <v>4563</v>
+      </c>
+      <c r="P12" s="11">
+        <v>556</v>
+      </c>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="10">
+        <v>395670</v>
+      </c>
+      <c r="C13" s="11">
+        <v>18938</v>
+      </c>
+      <c r="D13" s="11">
+        <v>151538</v>
+      </c>
+      <c r="E13" s="11">
+        <v>197206</v>
+      </c>
+      <c r="F13" s="11">
+        <v>27988</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4938</v>
+      </c>
+      <c r="H13" s="11">
+        <v>170</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1012</v>
+      </c>
+      <c r="J13" s="11">
+        <v>3646</v>
+      </c>
+      <c r="K13" s="11">
+        <v>110</v>
+      </c>
+      <c r="L13" s="11">
+        <v>390732</v>
+      </c>
+      <c r="M13" s="11">
+        <v>18768</v>
+      </c>
+      <c r="N13" s="11">
+        <v>150526</v>
+      </c>
+      <c r="O13" s="11">
+        <v>193560</v>
+      </c>
+      <c r="P13" s="11">
+        <v>27878</v>
+      </c>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="10">
+        <v>65635</v>
+      </c>
+      <c r="C14" s="11">
+        <v>5868</v>
+      </c>
+      <c r="D14" s="11">
+        <v>24279</v>
+      </c>
+      <c r="E14" s="11">
+        <v>32340</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3148</v>
+      </c>
+      <c r="G14" s="11">
+        <v>990</v>
+      </c>
+      <c r="H14" s="11">
+        <v>51</v>
+      </c>
+      <c r="I14" s="11">
+        <v>51</v>
+      </c>
+      <c r="J14" s="11">
+        <v>854</v>
+      </c>
+      <c r="K14" s="11">
+        <v>34</v>
+      </c>
+      <c r="L14" s="11">
+        <v>64645</v>
+      </c>
+      <c r="M14" s="11">
+        <v>5817</v>
+      </c>
+      <c r="N14" s="11">
+        <v>24228</v>
+      </c>
+      <c r="O14" s="11">
+        <v>31486</v>
+      </c>
+      <c r="P14" s="11">
+        <v>3114</v>
+      </c>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10">
+        <v>91678</v>
+      </c>
+      <c r="C15" s="11">
+        <v>7584</v>
+      </c>
+      <c r="D15" s="11">
+        <v>40566</v>
+      </c>
+      <c r="E15" s="11">
+        <v>40153</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3375</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1199</v>
+      </c>
+      <c r="H15" s="11">
+        <v>73</v>
+      </c>
+      <c r="I15" s="11">
+        <v>268</v>
+      </c>
+      <c r="J15" s="11">
+        <v>823</v>
+      </c>
+      <c r="K15" s="11">
+        <v>35</v>
+      </c>
+      <c r="L15" s="11">
+        <v>90479</v>
+      </c>
+      <c r="M15" s="11">
+        <v>7511</v>
+      </c>
+      <c r="N15" s="11">
+        <v>40298</v>
+      </c>
+      <c r="O15" s="11">
+        <v>39330</v>
+      </c>
+      <c r="P15" s="11">
+        <v>3340</v>
+      </c>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="10">
+        <v>135311</v>
+      </c>
+      <c r="C16" s="11">
+        <v>9796</v>
+      </c>
+      <c r="D16" s="11">
+        <v>64655</v>
+      </c>
+      <c r="E16" s="11">
+        <v>56193</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4667</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1769</v>
+      </c>
+      <c r="H16" s="11">
+        <v>182</v>
+      </c>
+      <c r="I16" s="11">
+        <v>403</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1149</v>
+      </c>
+      <c r="K16" s="11">
+        <v>35</v>
+      </c>
+      <c r="L16" s="11">
+        <v>133542</v>
+      </c>
+      <c r="M16" s="11">
+        <v>9614</v>
+      </c>
+      <c r="N16" s="11">
+        <v>64252</v>
+      </c>
+      <c r="O16" s="11">
+        <v>55044</v>
+      </c>
+      <c r="P16" s="11">
+        <v>4632</v>
+      </c>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="10">
+        <v>100987</v>
+      </c>
+      <c r="C17" s="11">
+        <v>7682</v>
+      </c>
+      <c r="D17" s="11">
+        <v>50195</v>
+      </c>
+      <c r="E17" s="11">
+        <v>40451</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2659</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1383</v>
+      </c>
+      <c r="H17" s="11">
+        <v>91</v>
+      </c>
+      <c r="I17" s="11">
+        <v>303</v>
+      </c>
+      <c r="J17" s="11">
+        <v>966</v>
+      </c>
+      <c r="K17" s="11">
+        <v>23</v>
+      </c>
+      <c r="L17" s="11">
+        <v>99604</v>
+      </c>
+      <c r="M17" s="11">
+        <v>7591</v>
+      </c>
+      <c r="N17" s="11">
+        <v>49892</v>
+      </c>
+      <c r="O17" s="11">
+        <v>39485</v>
+      </c>
+      <c r="P17" s="11">
+        <v>2636</v>
+      </c>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="10">
+        <v>118666</v>
+      </c>
+      <c r="C18" s="11">
+        <v>7792</v>
+      </c>
+      <c r="D18" s="11">
+        <v>59184</v>
+      </c>
+      <c r="E18" s="11">
+        <v>48966</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2724</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2072</v>
+      </c>
+      <c r="H18" s="11">
+        <v>121</v>
+      </c>
+      <c r="I18" s="11">
+        <v>597</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1318</v>
+      </c>
+      <c r="K18" s="11">
+        <v>36</v>
+      </c>
+      <c r="L18" s="11">
+        <v>116594</v>
+      </c>
+      <c r="M18" s="11">
+        <v>7671</v>
+      </c>
+      <c r="N18" s="11">
+        <v>58587</v>
+      </c>
+      <c r="O18" s="11">
+        <v>47648</v>
+      </c>
+      <c r="P18" s="11">
+        <v>2688</v>
+      </c>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="10">
+        <v>188706</v>
+      </c>
+      <c r="C19" s="11">
+        <v>16568</v>
+      </c>
+      <c r="D19" s="11">
+        <v>86149</v>
+      </c>
+      <c r="E19" s="11">
+        <v>80548</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5441</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2097</v>
+      </c>
+      <c r="H19" s="11">
+        <v>97</v>
+      </c>
+      <c r="I19" s="11">
+        <v>507</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1435</v>
+      </c>
+      <c r="K19" s="11">
+        <v>58</v>
+      </c>
+      <c r="L19" s="11">
+        <v>186609</v>
+      </c>
+      <c r="M19" s="11">
+        <v>16471</v>
+      </c>
+      <c r="N19" s="11">
+        <v>85642</v>
+      </c>
+      <c r="O19" s="11">
+        <v>79113</v>
+      </c>
+      <c r="P19" s="11">
+        <v>5383</v>
+      </c>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+    </row>
+    <row r="20" spans="1:18" s="35" customFormat="1">
+      <c r="A20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="13">
+        <v>163968</v>
+      </c>
+      <c r="C20" s="11">
+        <v>12418</v>
+      </c>
+      <c r="D20" s="11">
+        <v>59025</v>
+      </c>
+      <c r="E20" s="11">
+        <v>86060</v>
+      </c>
+      <c r="F20" s="11">
+        <v>6465</v>
+      </c>
+      <c r="G20" s="11">
+        <v>2188</v>
+      </c>
+      <c r="H20" s="11">
+        <v>143</v>
+      </c>
+      <c r="I20" s="11">
+        <v>415</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1596</v>
+      </c>
+      <c r="K20" s="11">
+        <v>34</v>
+      </c>
+      <c r="L20" s="11">
+        <v>161780</v>
+      </c>
+      <c r="M20" s="11">
+        <v>12275</v>
+      </c>
+      <c r="N20" s="11">
+        <v>58610</v>
+      </c>
+      <c r="O20" s="11">
+        <v>84464</v>
+      </c>
+      <c r="P20" s="11">
+        <v>6431</v>
+      </c>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+    </row>
+    <row r="21" spans="1:18" ht="13.5" thickBot="1">
+      <c r="A21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="15">
+        <v>32646</v>
+      </c>
+      <c r="C21" s="16">
+        <v>7092</v>
+      </c>
+      <c r="D21" s="16">
+        <v>10468</v>
+      </c>
+      <c r="E21" s="16">
+        <v>13721</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1365</v>
+      </c>
+      <c r="G21" s="16">
+        <v>516</v>
+      </c>
+      <c r="H21" s="16">
+        <v>132</v>
+      </c>
+      <c r="I21" s="16">
+        <v>80</v>
+      </c>
+      <c r="J21" s="16">
+        <v>281</v>
+      </c>
+      <c r="K21" s="16">
+        <v>23</v>
+      </c>
+      <c r="L21" s="16">
+        <v>32130</v>
+      </c>
+      <c r="M21" s="16">
+        <v>6960</v>
+      </c>
+      <c r="N21" s="16">
+        <v>10388</v>
+      </c>
+      <c r="O21" s="16">
+        <v>13440</v>
+      </c>
+      <c r="P21" s="16">
+        <v>1342</v>
+      </c>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+    </row>
+    <row r="22" spans="1:18" ht="13.5" thickBot="1">
+      <c r="A22" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="33">
+        <f>SUM(B5:B21)</f>
+        <v>2236895</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" ref="C22:P22" si="0">SUM(C5:C21)</f>
+        <v>142993</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="0"/>
+        <v>862922</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="0"/>
+        <v>1117862</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>113118</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
+        <v>27083</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>1813</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="0"/>
+        <v>5309</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="0"/>
+        <v>19263</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="0"/>
+        <v>698</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="0"/>
+        <v>2209812</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="0"/>
+        <v>141180</v>
+      </c>
+      <c r="N22" s="18">
+        <f t="shared" si="0"/>
+        <v>857613</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="0"/>
+        <v>1098599</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="0"/>
+        <v>112420</v>
+      </c>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="13.5" thickBot="1">
+      <c r="R26" s="64"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="162" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="F27" s="67"/>
+      <c r="R27" s="64"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" s="165" t="s">
+        <v>571</v>
+      </c>
+      <c r="C28" s="157" t="s">
+        <v>572</v>
+      </c>
+      <c r="D28" s="168">
+        <f>SUM(D22:E22)</f>
+        <v>1980784</v>
+      </c>
+      <c r="R28" s="64"/>
+    </row>
+    <row r="29" spans="1:18" ht="13.5" thickBot="1">
+      <c r="B29" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="C29" s="167" t="s">
+        <v>574</v>
+      </c>
+      <c r="D29" s="169">
+        <f>SUM(C22,F22)</f>
+        <v>256111</v>
+      </c>
+      <c r="R29" s="64"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="R30" s="64"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="71" t="s">
+        <v>580</v>
+      </c>
+      <c r="R31" s="64"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="62" t="s">
+        <v>581</v>
+      </c>
+      <c r="R32" s="64"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="62" t="s">
+        <v>582</v>
+      </c>
+      <c r="R33" s="64"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="R34" s="64"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="R35" s="64"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="R36" s="64"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="R37" s="64"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="R38" s="64"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="R39" s="64"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="R40" s="64"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="R41" s="64"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="R42" s="64"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="R43" s="64"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="R44" s="64"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="R45" s="64"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="R46" s="64"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="R47" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:P3"/>
+  </mergeCells>
+  <phoneticPr fontId="37" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE485900-48EB-4220-ABDB-2EB75701AFAA}">
   <dimension ref="A2:K27"/>
   <sheetViews>
@@ -6103,14 +7541,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -6517,7 +7955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -6525,22 +7963,22 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -6702,8 +8140,8 @@
         <v>0.4823245691429916</v>
       </c>
       <c r="E6" s="1">
-        <f>Ships!C$3</f>
-        <v>328</v>
+        <f>Ships!C$3*'ships multiplier'!$C$2</f>
+        <v>1142.4230101631761</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -6869,28 +8307,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -7052,8 +8492,8 @@
         <v>2.0689959414152108</v>
       </c>
       <c r="E6" s="1">
-        <f>SUM(Ships!C4:C5)*Cal!H19</f>
-        <v>1404.1034056820188</v>
+        <f>SUM(Ships!C4:C5)*Cal!H19*'ships multiplier'!C2</f>
+        <v>4890.4879246939608</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -7135,30 +8575,3037 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D6:E6 G6" formulaRange="1"/>
+    <ignoredError sqref="D6 G6" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3218950D-C1F1-4220-826C-93B74C3EB972}">
+  <dimension ref="B2:N87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="39.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="196" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" s="208">
+        <v>3.482996982204805</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="195" t="s">
+        <v>588</v>
+      </c>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="196" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" s="197" t="s">
+        <v>590</v>
+      </c>
+      <c r="D5" s="197" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" s="197" t="s">
+        <v>592</v>
+      </c>
+      <c r="F5" s="197" t="s">
+        <v>593</v>
+      </c>
+      <c r="G5" s="197" t="s">
+        <v>594</v>
+      </c>
+      <c r="H5" s="197" t="s">
+        <v>595</v>
+      </c>
+      <c r="I5" s="197" t="s">
+        <v>596</v>
+      </c>
+      <c r="J5" s="197" t="s">
+        <v>597</v>
+      </c>
+      <c r="K5" s="197" t="s">
+        <v>598</v>
+      </c>
+      <c r="L5" s="197" t="s">
+        <v>599</v>
+      </c>
+      <c r="M5" s="197" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C6" s="198">
+        <v>0.10779634342643334</v>
+      </c>
+      <c r="D6" s="198">
+        <v>0.13375321864953335</v>
+      </c>
+      <c r="E6" s="198">
+        <v>0.18111372968286671</v>
+      </c>
+      <c r="F6" s="198">
+        <v>0.20764281125286665</v>
+      </c>
+      <c r="G6" s="198">
+        <v>0.24931859825199995</v>
+      </c>
+      <c r="H6" s="198">
+        <v>0.3132222161130333</v>
+      </c>
+      <c r="I6" s="198">
+        <v>0.40663055681304999</v>
+      </c>
+      <c r="J6" s="198">
+        <v>0.53048127465200012</v>
+      </c>
+      <c r="K6" s="198">
+        <v>0.67997046112250015</v>
+      </c>
+      <c r="L6" s="198">
+        <v>0.84980086036083335</v>
+      </c>
+      <c r="M6" s="198">
+        <v>1.0329628982223333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="198">
+        <v>0.39519166259999994</v>
+      </c>
+      <c r="D7" s="198">
+        <v>3.2846102556666663</v>
+      </c>
+      <c r="E7" s="198">
+        <v>3.2435801440000001</v>
+      </c>
+      <c r="F7" s="198">
+        <v>3.3528250030000004</v>
+      </c>
+      <c r="G7" s="198">
+        <v>3.6826248110000002</v>
+      </c>
+      <c r="H7" s="198">
+        <v>4.1250017979999996</v>
+      </c>
+      <c r="I7" s="198">
+        <v>4.6159290366666665</v>
+      </c>
+      <c r="J7" s="198">
+        <v>5.1379789790000006</v>
+      </c>
+      <c r="K7" s="198">
+        <v>5.6843872979999999</v>
+      </c>
+      <c r="L7" s="198">
+        <v>6.2042112983333331</v>
+      </c>
+      <c r="M7" s="198">
+        <v>6.651951935333333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="198">
+        <v>0.61873203333333338</v>
+      </c>
+      <c r="D8" s="198">
+        <v>0.55465697508666667</v>
+      </c>
+      <c r="E8" s="198">
+        <v>0.69659499420000004</v>
+      </c>
+      <c r="F8" s="198">
+        <v>0.76325194163333332</v>
+      </c>
+      <c r="G8" s="198">
+        <v>0.86894996928333335</v>
+      </c>
+      <c r="H8" s="198">
+        <v>1.03219748755</v>
+      </c>
+      <c r="I8" s="198">
+        <v>1.2439040098166667</v>
+      </c>
+      <c r="J8" s="198">
+        <v>1.5049628347166668</v>
+      </c>
+      <c r="K8" s="198">
+        <v>1.8197188686166668</v>
+      </c>
+      <c r="L8" s="198">
+        <v>2.1797221572500001</v>
+      </c>
+      <c r="M8" s="198">
+        <v>2.5724072436666665</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C9" s="198">
+        <v>0.64800551241833326</v>
+      </c>
+      <c r="D9" s="198">
+        <v>1.0254131176666668</v>
+      </c>
+      <c r="E9" s="198">
+        <v>1.0030117009999999</v>
+      </c>
+      <c r="F9" s="198">
+        <v>1.1423200566666665</v>
+      </c>
+      <c r="G9" s="198">
+        <v>1.3047679698333332</v>
+      </c>
+      <c r="H9" s="198">
+        <v>1.6381323241666665</v>
+      </c>
+      <c r="I9" s="198">
+        <v>2.0995788291666666</v>
+      </c>
+      <c r="J9" s="198">
+        <v>2.6883379284999998</v>
+      </c>
+      <c r="K9" s="198">
+        <v>3.3958801986666667</v>
+      </c>
+      <c r="L9" s="198">
+        <v>4.2037127196666662</v>
+      </c>
+      <c r="M9" s="198">
+        <v>5.0858771061666666</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C10" s="198">
+        <v>0.49988798360000003</v>
+      </c>
+      <c r="D10" s="198">
+        <v>1.4536615757333333</v>
+      </c>
+      <c r="E10" s="198">
+        <v>3.0882005916999997</v>
+      </c>
+      <c r="F10" s="198">
+        <v>2.7609918232166666</v>
+      </c>
+      <c r="G10" s="198">
+        <v>2.8411827287166669</v>
+      </c>
+      <c r="H10" s="198">
+        <v>2.7120023882333331</v>
+      </c>
+      <c r="I10" s="198">
+        <v>2.6633296441666667</v>
+      </c>
+      <c r="J10" s="198">
+        <v>2.6235375257333331</v>
+      </c>
+      <c r="K10" s="198">
+        <v>2.6061476457500001</v>
+      </c>
+      <c r="L10" s="198">
+        <v>2.5980354240999999</v>
+      </c>
+      <c r="M10" s="198">
+        <v>2.5887974186166667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>606</v>
+      </c>
+      <c r="C11" s="198">
+        <v>4.2239957148333334</v>
+      </c>
+      <c r="D11" s="198">
+        <v>4.1863157996666658</v>
+      </c>
+      <c r="E11" s="198">
+        <v>5.5198300158333327</v>
+      </c>
+      <c r="F11" s="198">
+        <v>4.9527488449999995</v>
+      </c>
+      <c r="G11" s="198">
+        <v>5.3137280408333334</v>
+      </c>
+      <c r="H11" s="198">
+        <v>5.6932676031666665</v>
+      </c>
+      <c r="I11" s="198">
+        <v>6.1621122318333335</v>
+      </c>
+      <c r="J11" s="198">
+        <v>6.6768642943499996</v>
+      </c>
+      <c r="K11" s="198">
+        <v>7.2899966849499993</v>
+      </c>
+      <c r="L11" s="198">
+        <v>7.9717027629166655</v>
+      </c>
+      <c r="M11" s="198">
+        <v>8.7106017209499988</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C12" s="198">
+        <v>9.1502827350249998</v>
+      </c>
+      <c r="D12" s="198">
+        <v>10.934353289999999</v>
+      </c>
+      <c r="E12" s="198">
+        <v>13.761931316666669</v>
+      </c>
+      <c r="F12" s="198">
+        <v>14.536374884166666</v>
+      </c>
+      <c r="G12" s="198">
+        <v>14.343852390999999</v>
+      </c>
+      <c r="H12" s="198">
+        <v>14.099019324999999</v>
+      </c>
+      <c r="I12" s="198">
+        <v>13.938252775999999</v>
+      </c>
+      <c r="J12" s="198">
+        <v>13.771438242999999</v>
+      </c>
+      <c r="K12" s="198">
+        <v>13.675503369333333</v>
+      </c>
+      <c r="L12" s="198">
+        <v>13.563932428499999</v>
+      </c>
+      <c r="M12" s="198">
+        <v>13.372134914</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" s="198">
+        <v>9.2764701094999999</v>
+      </c>
+      <c r="D13" s="198">
+        <v>12.207637515000002</v>
+      </c>
+      <c r="E13" s="198">
+        <v>13.264790684999999</v>
+      </c>
+      <c r="F13" s="198">
+        <v>13.145055753999999</v>
+      </c>
+      <c r="G13" s="198">
+        <v>13.912396447333332</v>
+      </c>
+      <c r="H13" s="198">
+        <v>14.567373463166664</v>
+      </c>
+      <c r="I13" s="198">
+        <v>15.362230210333333</v>
+      </c>
+      <c r="J13" s="198">
+        <v>16.298895473166663</v>
+      </c>
+      <c r="K13" s="198">
+        <v>17.394755984333333</v>
+      </c>
+      <c r="L13" s="198">
+        <v>18.564776669833336</v>
+      </c>
+      <c r="M13" s="198">
+        <v>19.763882098333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>609</v>
+      </c>
+      <c r="C14" s="198">
+        <v>1.3601016458650002</v>
+      </c>
+      <c r="D14" s="198">
+        <v>0.58996836970499988</v>
+      </c>
+      <c r="E14" s="198">
+        <v>0.82593028797166657</v>
+      </c>
+      <c r="F14" s="198">
+        <v>0.85933911132499996</v>
+      </c>
+      <c r="G14" s="198">
+        <v>0.91729392199333337</v>
+      </c>
+      <c r="H14" s="198">
+        <v>0.99747031302666656</v>
+      </c>
+      <c r="I14" s="198">
+        <v>1.0932993681683332</v>
+      </c>
+      <c r="J14" s="198">
+        <v>1.2026177601499999</v>
+      </c>
+      <c r="K14" s="198">
+        <v>1.3186281215783333</v>
+      </c>
+      <c r="L14" s="198">
+        <v>1.4334456918833334</v>
+      </c>
+      <c r="M14" s="198">
+        <v>1.5360084035000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C15" s="198">
+        <v>2.3608556247283334</v>
+      </c>
+      <c r="D15" s="198">
+        <v>1.5288746160999998</v>
+      </c>
+      <c r="E15" s="198">
+        <v>2.1246040519833329</v>
+      </c>
+      <c r="F15" s="198">
+        <v>2.4728968987499993</v>
+      </c>
+      <c r="G15" s="198">
+        <v>2.8893801432833328</v>
+      </c>
+      <c r="H15" s="198">
+        <v>3.5395402863333332</v>
+      </c>
+      <c r="I15" s="198">
+        <v>4.2709470809833334</v>
+      </c>
+      <c r="J15" s="198">
+        <v>5.0191502873666662</v>
+      </c>
+      <c r="K15" s="198">
+        <v>5.7594296331833315</v>
+      </c>
+      <c r="L15" s="198">
+        <v>6.4092500502166656</v>
+      </c>
+      <c r="M15" s="198">
+        <v>6.9123771565499998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>611</v>
+      </c>
+      <c r="C16" s="198">
+        <v>50.909886507716678</v>
+      </c>
+      <c r="D16" s="198">
+        <v>113.92612275423333</v>
+      </c>
+      <c r="E16" s="198">
+        <v>131.96073516861668</v>
+      </c>
+      <c r="F16" s="198">
+        <v>138.80498325871665</v>
+      </c>
+      <c r="G16" s="198">
+        <v>162.52133445776667</v>
+      </c>
+      <c r="H16" s="198">
+        <v>182.47826128351667</v>
+      </c>
+      <c r="I16" s="198">
+        <v>199.28936720453331</v>
+      </c>
+      <c r="J16" s="198">
+        <v>213.36351435738331</v>
+      </c>
+      <c r="K16" s="198">
+        <v>225.53655913309998</v>
+      </c>
+      <c r="L16" s="198">
+        <v>235.60313610801668</v>
+      </c>
+      <c r="M16" s="198">
+        <v>244.2412635309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="s">
+        <v>612</v>
+      </c>
+      <c r="C17" s="198">
+        <v>0.70890358647450002</v>
+      </c>
+      <c r="D17" s="198">
+        <v>1.1670480966235</v>
+      </c>
+      <c r="E17" s="198">
+        <v>1.3245748465921667</v>
+      </c>
+      <c r="F17" s="198">
+        <v>1.3757498405666666</v>
+      </c>
+      <c r="G17" s="198">
+        <v>1.4343152043333331</v>
+      </c>
+      <c r="H17" s="198">
+        <v>1.47775853565</v>
+      </c>
+      <c r="I17" s="198">
+        <v>1.5148502134499999</v>
+      </c>
+      <c r="J17" s="198">
+        <v>1.5387730492333334</v>
+      </c>
+      <c r="K17" s="198">
+        <v>1.5630180937166667</v>
+      </c>
+      <c r="L17" s="198">
+        <v>1.5817900201499997</v>
+      </c>
+      <c r="M17" s="198">
+        <v>1.5897710248499999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="s">
+        <v>613</v>
+      </c>
+      <c r="C18" s="198">
+        <v>5.3847691736666663</v>
+      </c>
+      <c r="D18" s="198">
+        <v>2.334955718051666</v>
+      </c>
+      <c r="E18" s="198">
+        <v>2.7338559920333334</v>
+      </c>
+      <c r="F18" s="198">
+        <v>2.6328062270499997</v>
+      </c>
+      <c r="G18" s="198">
+        <v>2.621456578383333</v>
+      </c>
+      <c r="H18" s="198">
+        <v>2.6780984541499997</v>
+      </c>
+      <c r="I18" s="198">
+        <v>2.7618601871833337</v>
+      </c>
+      <c r="J18" s="198">
+        <v>2.8416479063633333</v>
+      </c>
+      <c r="K18" s="198">
+        <v>2.9211852943499994</v>
+      </c>
+      <c r="L18" s="198">
+        <v>2.9919182367416668</v>
+      </c>
+      <c r="M18" s="198">
+        <v>3.0514202258316665</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
+        <v>614</v>
+      </c>
+      <c r="C19" s="198">
+        <v>28.17349367366667</v>
+      </c>
+      <c r="D19" s="198">
+        <v>32.488787026814997</v>
+      </c>
+      <c r="E19" s="198">
+        <v>29.612212248299997</v>
+      </c>
+      <c r="F19" s="198">
+        <v>26.400996445000004</v>
+      </c>
+      <c r="G19" s="198">
+        <v>25.541079378999999</v>
+      </c>
+      <c r="H19" s="198">
+        <v>25.36300921116667</v>
+      </c>
+      <c r="I19" s="198">
+        <v>25.514986564666664</v>
+      </c>
+      <c r="J19" s="198">
+        <v>25.963659771333326</v>
+      </c>
+      <c r="K19" s="198">
+        <v>26.862649335833332</v>
+      </c>
+      <c r="L19" s="198">
+        <v>28.066486752833335</v>
+      </c>
+      <c r="M19" s="198">
+        <v>29.504399943999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" t="s">
+        <v>615</v>
+      </c>
+      <c r="C20" s="198">
+        <v>4.1353906334249997</v>
+      </c>
+      <c r="D20" s="198">
+        <v>1.9644705994999998</v>
+      </c>
+      <c r="E20" s="198">
+        <v>3.3043180997166672</v>
+      </c>
+      <c r="F20" s="198">
+        <v>3.1713931949999998</v>
+      </c>
+      <c r="G20" s="198">
+        <v>3.2173509781666665</v>
+      </c>
+      <c r="H20" s="198">
+        <v>3.4322150618333338</v>
+      </c>
+      <c r="I20" s="198">
+        <v>3.6013650646666671</v>
+      </c>
+      <c r="J20" s="198">
+        <v>3.9115340209999996</v>
+      </c>
+      <c r="K20" s="198">
+        <v>4.236645025833333</v>
+      </c>
+      <c r="L20" s="198">
+        <v>4.5423834108333336</v>
+      </c>
+      <c r="M20" s="198">
+        <v>4.8144941463333328</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" t="s">
+        <v>616</v>
+      </c>
+      <c r="C21" s="198">
+        <v>2.0002361101166666</v>
+      </c>
+      <c r="D21" s="198">
+        <v>2.8578914348333333</v>
+      </c>
+      <c r="E21" s="198">
+        <v>3.8645842721666668</v>
+      </c>
+      <c r="F21" s="198">
+        <v>3.4561136733333333</v>
+      </c>
+      <c r="G21" s="198">
+        <v>3.6685402563333334</v>
+      </c>
+      <c r="H21" s="198">
+        <v>3.9734048045000003</v>
+      </c>
+      <c r="I21" s="198">
+        <v>4.2553385329999998</v>
+      </c>
+      <c r="J21" s="198">
+        <v>4.5383495723333329</v>
+      </c>
+      <c r="K21" s="198">
+        <v>4.8742507793166663</v>
+      </c>
+      <c r="L21" s="198">
+        <v>5.2596941744666665</v>
+      </c>
+      <c r="M21" s="198">
+        <v>5.6584536740999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" t="s">
+        <v>617</v>
+      </c>
+      <c r="C22" s="198">
+        <v>2.1559296796499998</v>
+      </c>
+      <c r="D22" s="198">
+        <v>3.0979406789683335</v>
+      </c>
+      <c r="E22" s="198">
+        <v>3.0990242755816668</v>
+      </c>
+      <c r="F22" s="198">
+        <v>2.7274046910516665</v>
+      </c>
+      <c r="G22" s="198">
+        <v>2.6748403678883332</v>
+      </c>
+      <c r="H22" s="198">
+        <v>2.7547120650516668</v>
+      </c>
+      <c r="I22" s="198">
+        <v>2.8524958989066662</v>
+      </c>
+      <c r="J22" s="198">
+        <v>2.964569301573333</v>
+      </c>
+      <c r="K22" s="198">
+        <v>3.1263921079266659</v>
+      </c>
+      <c r="L22" s="198">
+        <v>3.3271772993933331</v>
+      </c>
+      <c r="M22" s="198">
+        <v>3.5505705450200002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" t="s">
+        <v>618</v>
+      </c>
+      <c r="C23" s="198">
+        <v>15.27909251</v>
+      </c>
+      <c r="D23" s="198">
+        <v>8.2251680013333335</v>
+      </c>
+      <c r="E23" s="198">
+        <v>14.706472114333334</v>
+      </c>
+      <c r="F23" s="198">
+        <v>17.709831407000003</v>
+      </c>
+      <c r="G23" s="198">
+        <v>22.003958183333332</v>
+      </c>
+      <c r="H23" s="198">
+        <v>26.222951680000001</v>
+      </c>
+      <c r="I23" s="198">
+        <v>30.17606137833333</v>
+      </c>
+      <c r="J23" s="198">
+        <v>33.95951997666667</v>
+      </c>
+      <c r="K23" s="198">
+        <v>37.777009716666669</v>
+      </c>
+      <c r="L23" s="198">
+        <v>41.537015358333335</v>
+      </c>
+      <c r="M23" s="198">
+        <v>45.13411713666666</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" t="s">
+        <v>619</v>
+      </c>
+      <c r="C24" s="198">
+        <v>4.5804049046666666</v>
+      </c>
+      <c r="D24" s="198">
+        <v>8.0449675903333322</v>
+      </c>
+      <c r="E24" s="198">
+        <v>11.936610554666668</v>
+      </c>
+      <c r="F24" s="198">
+        <v>11.794296159333332</v>
+      </c>
+      <c r="G24" s="198">
+        <v>12.574965941</v>
+      </c>
+      <c r="H24" s="198">
+        <v>13.033553231666666</v>
+      </c>
+      <c r="I24" s="198">
+        <v>13.365143739000001</v>
+      </c>
+      <c r="J24" s="198">
+        <v>13.596920015666665</v>
+      </c>
+      <c r="K24" s="198">
+        <v>13.882169605</v>
+      </c>
+      <c r="L24" s="198">
+        <v>14.145391360000001</v>
+      </c>
+      <c r="M24" s="198">
+        <v>14.312183402333334</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" t="s">
+        <v>620</v>
+      </c>
+      <c r="C25" s="198">
+        <v>15.953402909066666</v>
+      </c>
+      <c r="D25" s="198">
+        <v>15.265169956100001</v>
+      </c>
+      <c r="E25" s="198">
+        <v>12.865838161033334</v>
+      </c>
+      <c r="F25" s="198">
+        <v>12.31737129135</v>
+      </c>
+      <c r="G25" s="198">
+        <v>12.074879310433335</v>
+      </c>
+      <c r="H25" s="198">
+        <v>11.900705802933333</v>
+      </c>
+      <c r="I25" s="198">
+        <v>11.871764195683333</v>
+      </c>
+      <c r="J25" s="198">
+        <v>11.909312371933332</v>
+      </c>
+      <c r="K25" s="198">
+        <v>12.049309859633333</v>
+      </c>
+      <c r="L25" s="198">
+        <v>12.322307750449999</v>
+      </c>
+      <c r="M25" s="198">
+        <v>12.647914839616668</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
+        <v>621</v>
+      </c>
+      <c r="C26" s="198">
+        <v>2.9534848766666668</v>
+      </c>
+      <c r="D26" s="198">
+        <v>5.3835424500000002</v>
+      </c>
+      <c r="E26" s="198">
+        <v>5.0371310133333331</v>
+      </c>
+      <c r="F26" s="198">
+        <v>5.4039576766666668</v>
+      </c>
+      <c r="G26" s="198">
+        <v>5.6945038633333338</v>
+      </c>
+      <c r="H26" s="198">
+        <v>5.850311603333334</v>
+      </c>
+      <c r="I26" s="198">
+        <v>6.0022840866666662</v>
+      </c>
+      <c r="J26" s="198">
+        <v>6.1609569866666671</v>
+      </c>
+      <c r="K26" s="198">
+        <v>6.3556058433333327</v>
+      </c>
+      <c r="L26" s="198">
+        <v>6.5409205566666664</v>
+      </c>
+      <c r="M26" s="198">
+        <v>6.6833158133333335</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" t="s">
+        <v>622</v>
+      </c>
+      <c r="C27" s="198">
+        <v>0.15347539756666667</v>
+      </c>
+      <c r="D27" s="198">
+        <v>0.33142136150000001</v>
+      </c>
+      <c r="E27" s="198">
+        <v>0.36522880150000003</v>
+      </c>
+      <c r="F27" s="198">
+        <v>0.3970743796666667</v>
+      </c>
+      <c r="G27" s="198">
+        <v>0.451935527</v>
+      </c>
+      <c r="H27" s="198">
+        <v>0.51926630233333326</v>
+      </c>
+      <c r="I27" s="198">
+        <v>0.60891598650000001</v>
+      </c>
+      <c r="J27" s="198">
+        <v>0.71480024366666672</v>
+      </c>
+      <c r="K27" s="198">
+        <v>0.83069477366666655</v>
+      </c>
+      <c r="L27" s="198">
+        <v>0.94586220099999996</v>
+      </c>
+      <c r="M27" s="198">
+        <v>1.049725518</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" t="s">
+        <v>623</v>
+      </c>
+      <c r="C28" s="198">
+        <v>23.115810581666665</v>
+      </c>
+      <c r="D28" s="198">
+        <v>10.294895964166665</v>
+      </c>
+      <c r="E28" s="198">
+        <v>9.578889973499999</v>
+      </c>
+      <c r="F28" s="198">
+        <v>10.112706990166666</v>
+      </c>
+      <c r="G28" s="198">
+        <v>10.338787809166664</v>
+      </c>
+      <c r="H28" s="198">
+        <v>10.317364383333336</v>
+      </c>
+      <c r="I28" s="198">
+        <v>10.303339526833334</v>
+      </c>
+      <c r="J28" s="198">
+        <v>10.35894915416667</v>
+      </c>
+      <c r="K28" s="198">
+        <v>10.473718639999998</v>
+      </c>
+      <c r="L28" s="198">
+        <v>10.600633043499998</v>
+      </c>
+      <c r="M28" s="198">
+        <v>10.730038218666664</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" t="s">
+        <v>624</v>
+      </c>
+      <c r="C29" s="198">
+        <v>0.38472736689999998</v>
+      </c>
+      <c r="D29" s="198">
+        <v>0.25581065566666666</v>
+      </c>
+      <c r="E29" s="198">
+        <v>0.2284030878333333</v>
+      </c>
+      <c r="F29" s="198">
+        <v>0.24965604399999999</v>
+      </c>
+      <c r="G29" s="198">
+        <v>0.26700375716666669</v>
+      </c>
+      <c r="H29" s="198">
+        <v>0.29511758216666667</v>
+      </c>
+      <c r="I29" s="198">
+        <v>0.30771495966666673</v>
+      </c>
+      <c r="J29" s="198">
+        <v>0.32597774750000003</v>
+      </c>
+      <c r="K29" s="198">
+        <v>0.3490394175</v>
+      </c>
+      <c r="L29" s="198">
+        <v>0.37287723299999997</v>
+      </c>
+      <c r="M29" s="198">
+        <v>0.3960810136666667</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" t="s">
+        <v>625</v>
+      </c>
+      <c r="C30" s="198">
+        <v>0.25939794727333337</v>
+      </c>
+      <c r="D30" s="198">
+        <v>0.39968039549999995</v>
+      </c>
+      <c r="E30" s="198">
+        <v>0.46145888396666662</v>
+      </c>
+      <c r="F30" s="198">
+        <v>0.44661095813333329</v>
+      </c>
+      <c r="G30" s="198">
+        <v>0.3940768090666667</v>
+      </c>
+      <c r="H30" s="198">
+        <v>0.4461997846666666</v>
+      </c>
+      <c r="I30" s="198">
+        <v>0.49741574699999996</v>
+      </c>
+      <c r="J30" s="198">
+        <v>0.53539244190000002</v>
+      </c>
+      <c r="K30" s="198">
+        <v>0.58553345029999981</v>
+      </c>
+      <c r="L30" s="198">
+        <v>0.64074160453333329</v>
+      </c>
+      <c r="M30" s="198">
+        <v>0.69376109766666683</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C31" s="198">
+        <v>4.3152404802833333</v>
+      </c>
+      <c r="D31" s="198">
+        <v>6.8388833456166669</v>
+      </c>
+      <c r="E31" s="198">
+        <v>7.0814690856000002</v>
+      </c>
+      <c r="F31" s="198">
+        <v>6.8485616415333332</v>
+      </c>
+      <c r="G31" s="198">
+        <v>7.0687010096166665</v>
+      </c>
+      <c r="H31" s="198">
+        <v>7.3983877304666663</v>
+      </c>
+      <c r="I31" s="198">
+        <v>7.7576683394166661</v>
+      </c>
+      <c r="J31" s="198">
+        <v>8.1274784163166665</v>
+      </c>
+      <c r="K31" s="198">
+        <v>8.5494118174500002</v>
+      </c>
+      <c r="L31" s="198">
+        <v>8.9880111197500003</v>
+      </c>
+      <c r="M31" s="198">
+        <v>9.3890841793166668</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C32" s="198">
+        <v>1.0405825577666665</v>
+      </c>
+      <c r="D32" s="198">
+        <v>2.9515737926833334</v>
+      </c>
+      <c r="E32" s="198">
+        <v>3.5259570749</v>
+      </c>
+      <c r="F32" s="198">
+        <v>4.0570243973000002</v>
+      </c>
+      <c r="G32" s="198">
+        <v>4.8459628973333331</v>
+      </c>
+      <c r="H32" s="198">
+        <v>5.8619678541666662</v>
+      </c>
+      <c r="I32" s="198">
+        <v>7.074762514333333</v>
+      </c>
+      <c r="J32" s="198">
+        <v>8.3884902483333335</v>
+      </c>
+      <c r="K32" s="198">
+        <v>9.7256399004999992</v>
+      </c>
+      <c r="L32" s="198">
+        <v>10.993575975166667</v>
+      </c>
+      <c r="M32" s="198">
+        <v>12.124517662833334</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="199" t="s">
+        <v>628</v>
+      </c>
+      <c r="C33" s="200">
+        <v>8.1487214065</v>
+      </c>
+      <c r="D33" s="200">
+        <v>4.7513248678166669</v>
+      </c>
+      <c r="E33" s="200">
+        <v>3.7653160225666671</v>
+      </c>
+      <c r="F33" s="200">
+        <v>3.02121407445</v>
+      </c>
+      <c r="G33" s="200">
+        <v>3.0395000413833326</v>
+      </c>
+      <c r="H33" s="200">
+        <v>3.1783165933999995</v>
+      </c>
+      <c r="I33" s="200">
+        <v>3.3243592638999999</v>
+      </c>
+      <c r="J33" s="200">
+        <v>3.4571241792833334</v>
+      </c>
+      <c r="K33" s="200">
+        <v>3.5828047960333329</v>
+      </c>
+      <c r="L33" s="200">
+        <v>3.7104965344833336</v>
+      </c>
+      <c r="M33" s="200">
+        <v>3.8379710542499996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" t="s">
+        <v>629</v>
+      </c>
+      <c r="C34" s="198">
+        <v>6.5676923550000001</v>
+      </c>
+      <c r="D34" s="198">
+        <v>9.8446765716666658</v>
+      </c>
+      <c r="E34" s="198">
+        <v>10.360615464999999</v>
+      </c>
+      <c r="F34" s="198">
+        <v>11.074993838333333</v>
+      </c>
+      <c r="G34" s="198">
+        <v>12.422994015</v>
+      </c>
+      <c r="H34" s="198">
+        <v>13.732146598333333</v>
+      </c>
+      <c r="I34" s="198">
+        <v>15.067560226666668</v>
+      </c>
+      <c r="J34" s="198">
+        <v>16.375476561666662</v>
+      </c>
+      <c r="K34" s="198">
+        <v>17.779998088333333</v>
+      </c>
+      <c r="L34" s="198">
+        <v>19.163610915</v>
+      </c>
+      <c r="M34" s="198">
+        <v>20.466879204999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" t="s">
+        <v>630</v>
+      </c>
+      <c r="C35" s="198">
+        <v>0.94177497846666669</v>
+      </c>
+      <c r="D35" s="198">
+        <v>1.5740688571333332</v>
+      </c>
+      <c r="E35" s="198">
+        <v>1.2572300087166668</v>
+      </c>
+      <c r="F35" s="198">
+        <v>1.2363740400666665</v>
+      </c>
+      <c r="G35" s="198">
+        <v>1.2786329271616665</v>
+      </c>
+      <c r="H35" s="198">
+        <v>1.3128132159950001</v>
+      </c>
+      <c r="I35" s="198">
+        <v>1.3272802846816667</v>
+      </c>
+      <c r="J35" s="198">
+        <v>1.3100237754483333</v>
+      </c>
+      <c r="K35" s="198">
+        <v>1.2768949868933333</v>
+      </c>
+      <c r="L35" s="198">
+        <v>1.2373798786533334</v>
+      </c>
+      <c r="M35" s="198">
+        <v>1.1899016176816668</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" t="s">
+        <v>631</v>
+      </c>
+      <c r="C36" s="198">
+        <v>37.9512695148033</v>
+      </c>
+      <c r="D36" s="198">
+        <v>47.330626608833292</v>
+      </c>
+      <c r="E36" s="198">
+        <v>44.108954556333295</v>
+      </c>
+      <c r="F36" s="198">
+        <v>46.824942431666663</v>
+      </c>
+      <c r="G36" s="198">
+        <v>50.779045650666298</v>
+      </c>
+      <c r="H36" s="198">
+        <v>54.396357671333341</v>
+      </c>
+      <c r="I36" s="198">
+        <v>57.980670480332961</v>
+      </c>
+      <c r="J36" s="198">
+        <v>61.452733338333331</v>
+      </c>
+      <c r="K36" s="198">
+        <v>65.640781161999996</v>
+      </c>
+      <c r="L36" s="198">
+        <v>69.70458003299963</v>
+      </c>
+      <c r="M36" s="198">
+        <v>74.380681532666628</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="201" t="s">
+        <v>632</v>
+      </c>
+      <c r="C37" s="202">
+        <v>243.75500651667255</v>
+      </c>
+      <c r="D37" s="202">
+        <v>315.22827146064969</v>
+      </c>
+      <c r="E37" s="202">
+        <v>344.88846722432834</v>
+      </c>
+      <c r="F37" s="202">
+        <v>354.25750978939607</v>
+      </c>
+      <c r="G37" s="202">
+        <v>391.23735998506169</v>
+      </c>
+      <c r="H37" s="202">
+        <v>425.34014665475291</v>
+      </c>
+      <c r="I37" s="202">
+        <v>457.31141813936932</v>
+      </c>
+      <c r="J37" s="202">
+        <v>487.24946803740363</v>
+      </c>
+      <c r="K37" s="202">
+        <v>517.60373009292084</v>
+      </c>
+      <c r="L37" s="202">
+        <v>546.25457962903215</v>
+      </c>
+      <c r="M37" s="202">
+        <v>573.67354627807219</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="196"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="203"/>
+      <c r="H38" s="203"/>
+      <c r="I38" s="203"/>
+      <c r="J38" s="203"/>
+      <c r="K38" s="203"/>
+      <c r="L38" s="203"/>
+      <c r="M38" s="203"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="196" t="s">
+        <v>633</v>
+      </c>
+      <c r="C39" s="203">
+        <f>SUM(C18:C19,C22)</f>
+        <v>35.714192526983339</v>
+      </c>
+      <c r="D39" s="203">
+        <f t="shared" ref="D39:L39" si="0">SUM(D18:D19,D22)</f>
+        <v>37.921683423834999</v>
+      </c>
+      <c r="E39" s="203">
+        <f t="shared" si="0"/>
+        <v>35.445092515915</v>
+      </c>
+      <c r="F39" s="203">
+        <f t="shared" si="0"/>
+        <v>31.761207363101672</v>
+      </c>
+      <c r="G39" s="203">
+        <f t="shared" si="0"/>
+        <v>30.837376325271666</v>
+      </c>
+      <c r="H39" s="203">
+        <f t="shared" si="0"/>
+        <v>30.795819730368336</v>
+      </c>
+      <c r="I39" s="203">
+        <f t="shared" si="0"/>
+        <v>31.129342650756666</v>
+      </c>
+      <c r="J39" s="203">
+        <f t="shared" si="0"/>
+        <v>31.769876979269995</v>
+      </c>
+      <c r="K39" s="203">
+        <f t="shared" si="0"/>
+        <v>32.910226738109998</v>
+      </c>
+      <c r="L39" s="203">
+        <f t="shared" si="0"/>
+        <v>34.385582288968337</v>
+      </c>
+      <c r="M39" s="203">
+        <f>SUM(M18:M19,M22)</f>
+        <v>36.106390714851663</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="204"/>
+      <c r="J40" s="204"/>
+      <c r="K40" s="204"/>
+      <c r="L40" s="204"/>
+      <c r="M40" s="204"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="195" t="s">
+        <v>634</v>
+      </c>
+      <c r="C41" s="205"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="205"/>
+      <c r="H41" s="205"/>
+      <c r="I41" s="205"/>
+      <c r="J41" s="205"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="205"/>
+      <c r="M41" s="205"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="196" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42" s="197" t="s">
+        <v>590</v>
+      </c>
+      <c r="D42" s="197" t="s">
+        <v>591</v>
+      </c>
+      <c r="E42" s="197" t="s">
+        <v>592</v>
+      </c>
+      <c r="F42" s="197" t="s">
+        <v>593</v>
+      </c>
+      <c r="G42" s="197" t="s">
+        <v>594</v>
+      </c>
+      <c r="H42" s="197" t="s">
+        <v>595</v>
+      </c>
+      <c r="I42" s="197" t="s">
+        <v>596</v>
+      </c>
+      <c r="J42" s="197" t="s">
+        <v>597</v>
+      </c>
+      <c r="K42" s="197" t="s">
+        <v>598</v>
+      </c>
+      <c r="L42" s="197" t="s">
+        <v>599</v>
+      </c>
+      <c r="M42" s="197" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" t="s">
+        <v>601</v>
+      </c>
+      <c r="C43" s="198">
+        <v>4.7900283226666662</v>
+      </c>
+      <c r="D43" s="198">
+        <v>5.1338612375000006</v>
+      </c>
+      <c r="E43" s="198">
+        <v>9.5059100416666666</v>
+      </c>
+      <c r="F43" s="198">
+        <v>10.182268078333333</v>
+      </c>
+      <c r="G43" s="198">
+        <v>11.172939335000001</v>
+      </c>
+      <c r="H43" s="198">
+        <v>12.561137788333333</v>
+      </c>
+      <c r="I43" s="198">
+        <v>14.316511375000001</v>
+      </c>
+      <c r="J43" s="198">
+        <v>16.331905605000003</v>
+      </c>
+      <c r="K43" s="198">
+        <v>18.45268582166667</v>
+      </c>
+      <c r="L43" s="198">
+        <v>20.580227463333333</v>
+      </c>
+      <c r="M43" s="198">
+        <v>22.648448803333338</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" t="s">
+        <v>602</v>
+      </c>
+      <c r="C44" s="198">
+        <v>17.181575770000002</v>
+      </c>
+      <c r="D44" s="198">
+        <v>15.344723051666666</v>
+      </c>
+      <c r="E44" s="198">
+        <v>17.428211559999998</v>
+      </c>
+      <c r="F44" s="198">
+        <v>17.761619033333336</v>
+      </c>
+      <c r="G44" s="198">
+        <v>18.560720506666669</v>
+      </c>
+      <c r="H44" s="198">
+        <v>19.391383968333333</v>
+      </c>
+      <c r="I44" s="198">
+        <v>20.258362496666667</v>
+      </c>
+      <c r="J44" s="198">
+        <v>21.197152701666663</v>
+      </c>
+      <c r="K44" s="198">
+        <v>22.202836621666663</v>
+      </c>
+      <c r="L44" s="198">
+        <v>23.188956656666665</v>
+      </c>
+      <c r="M44" s="198">
+        <v>24.07625951833333</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" t="s">
+        <v>603</v>
+      </c>
+      <c r="C45" s="198">
+        <v>5.1272487916666662</v>
+      </c>
+      <c r="D45" s="198">
+        <v>2.5544195836666668</v>
+      </c>
+      <c r="E45" s="198">
+        <v>3.193585348</v>
+      </c>
+      <c r="F45" s="198">
+        <v>3.4227820031666667</v>
+      </c>
+      <c r="G45" s="198">
+        <v>3.6763862511666661</v>
+      </c>
+      <c r="H45" s="198">
+        <v>4.0221450193333332</v>
+      </c>
+      <c r="I45" s="198">
+        <v>4.4259630259999998</v>
+      </c>
+      <c r="J45" s="198">
+        <v>4.8762704875000003</v>
+      </c>
+      <c r="K45" s="198">
+        <v>5.3600369804999994</v>
+      </c>
+      <c r="L45" s="198">
+        <v>5.8611868998333332</v>
+      </c>
+      <c r="M45" s="198">
+        <v>6.3659224448333331</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" t="s">
+        <v>604</v>
+      </c>
+      <c r="C46" s="198">
+        <v>6.8541543715</v>
+      </c>
+      <c r="D46" s="198">
+        <v>8.5412839516666672</v>
+      </c>
+      <c r="E46" s="198">
+        <v>10.400163876666667</v>
+      </c>
+      <c r="F46" s="198">
+        <v>11.179083881666667</v>
+      </c>
+      <c r="G46" s="198">
+        <v>12.036575878333334</v>
+      </c>
+      <c r="H46" s="198">
+        <v>13.53534281</v>
+      </c>
+      <c r="I46" s="198">
+        <v>15.35438634</v>
+      </c>
+      <c r="J46" s="198">
+        <v>17.411600969999999</v>
+      </c>
+      <c r="K46" s="198">
+        <v>19.60704935</v>
+      </c>
+      <c r="L46" s="198">
+        <v>21.883203026666664</v>
+      </c>
+      <c r="M46" s="198">
+        <v>24.191319018333331</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" t="s">
+        <v>605</v>
+      </c>
+      <c r="C47" s="198">
+        <v>4.4195199894999995</v>
+      </c>
+      <c r="D47" s="198">
+        <v>4.7743891203333328</v>
+      </c>
+      <c r="E47" s="198">
+        <v>12.759372303333334</v>
+      </c>
+      <c r="F47" s="198">
+        <v>11.735927848833335</v>
+      </c>
+      <c r="G47" s="198">
+        <v>12.279592350833331</v>
+      </c>
+      <c r="H47" s="198">
+        <v>11.311997008666665</v>
+      </c>
+      <c r="I47" s="198">
+        <v>10.927045069166667</v>
+      </c>
+      <c r="J47" s="198">
+        <v>10.671467162666666</v>
+      </c>
+      <c r="K47" s="198">
+        <v>10.519783812</v>
+      </c>
+      <c r="L47" s="198">
+        <v>10.418960739166666</v>
+      </c>
+      <c r="M47" s="198">
+        <v>10.333642251999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" t="s">
+        <v>606</v>
+      </c>
+      <c r="C48" s="198">
+        <v>3.120506747166667</v>
+      </c>
+      <c r="D48" s="198">
+        <v>3.8935502471666661</v>
+      </c>
+      <c r="E48" s="198">
+        <v>3.3383390481666666</v>
+      </c>
+      <c r="F48" s="198">
+        <v>3.1819086946666668</v>
+      </c>
+      <c r="G48" s="198">
+        <v>3.2252321531666666</v>
+      </c>
+      <c r="H48" s="198">
+        <v>3.2934804573333336</v>
+      </c>
+      <c r="I48" s="198">
+        <v>3.3964879966666666</v>
+      </c>
+      <c r="J48" s="198">
+        <v>3.5142102314999999</v>
+      </c>
+      <c r="K48" s="198">
+        <v>3.6561094015166669</v>
+      </c>
+      <c r="L48" s="198">
+        <v>3.8061740305666665</v>
+      </c>
+      <c r="M48" s="198">
+        <v>3.9586724667166666</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" t="s">
+        <v>607</v>
+      </c>
+      <c r="C49" s="198">
+        <v>6.4811863920000006</v>
+      </c>
+      <c r="D49" s="198">
+        <v>29.731488561666666</v>
+      </c>
+      <c r="E49" s="198">
+        <v>38.795064898333337</v>
+      </c>
+      <c r="F49" s="198">
+        <v>39.769377861666669</v>
+      </c>
+      <c r="G49" s="198">
+        <v>38.706502746666665</v>
+      </c>
+      <c r="H49" s="198">
+        <v>36.540992109999998</v>
+      </c>
+      <c r="I49" s="198">
+        <v>35.444830561666663</v>
+      </c>
+      <c r="J49" s="198">
+        <v>34.582909496666666</v>
+      </c>
+      <c r="K49" s="198">
+        <v>33.926762313333327</v>
+      </c>
+      <c r="L49" s="198">
+        <v>33.362083720000001</v>
+      </c>
+      <c r="M49" s="198">
+        <v>32.797305969999996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" t="s">
+        <v>608</v>
+      </c>
+      <c r="C50" s="198">
+        <v>2.0775455808333332</v>
+      </c>
+      <c r="D50" s="198">
+        <v>2.3842458408333331</v>
+      </c>
+      <c r="E50" s="198">
+        <v>1.7934974670000001</v>
+      </c>
+      <c r="F50" s="198">
+        <v>1.7267828903333333</v>
+      </c>
+      <c r="G50" s="198">
+        <v>1.7442037545</v>
+      </c>
+      <c r="H50" s="198">
+        <v>1.7647451376666665</v>
+      </c>
+      <c r="I50" s="198">
+        <v>1.7935297236666665</v>
+      </c>
+      <c r="J50" s="198">
+        <v>1.8317605633666667</v>
+      </c>
+      <c r="K50" s="198">
+        <v>1.8784295383333334</v>
+      </c>
+      <c r="L50" s="198">
+        <v>1.9266924388166666</v>
+      </c>
+      <c r="M50" s="198">
+        <v>1.9721495930333328</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" t="s">
+        <v>609</v>
+      </c>
+      <c r="C51" s="198">
+        <v>13.089611108333333</v>
+      </c>
+      <c r="D51" s="198">
+        <v>26.354853718333331</v>
+      </c>
+      <c r="E51" s="198">
+        <v>31.707643498333333</v>
+      </c>
+      <c r="F51" s="198">
+        <v>31.880190888333331</v>
+      </c>
+      <c r="G51" s="198">
+        <v>32.799152631666665</v>
+      </c>
+      <c r="H51" s="198">
+        <v>34.030648446666667</v>
+      </c>
+      <c r="I51" s="198">
+        <v>35.466355523333334</v>
+      </c>
+      <c r="J51" s="198">
+        <v>37.134046656666662</v>
+      </c>
+      <c r="K51" s="198">
+        <v>38.954338248333329</v>
+      </c>
+      <c r="L51" s="198">
+        <v>40.790569211666664</v>
+      </c>
+      <c r="M51" s="198">
+        <v>42.498058654999994</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" t="s">
+        <v>610</v>
+      </c>
+      <c r="C52" s="198">
+        <v>0</v>
+      </c>
+      <c r="D52" s="198">
+        <v>0.15457741874999997</v>
+      </c>
+      <c r="E52" s="198">
+        <v>2.3568738756666661</v>
+      </c>
+      <c r="F52" s="198">
+        <v>2.6962345048333334</v>
+      </c>
+      <c r="G52" s="198">
+        <v>3.0017868015000002</v>
+      </c>
+      <c r="H52" s="198">
+        <v>3.4678470523333331</v>
+      </c>
+      <c r="I52" s="198">
+        <v>3.9478987013333331</v>
+      </c>
+      <c r="J52" s="198">
+        <v>4.4145259370000005</v>
+      </c>
+      <c r="K52" s="198">
+        <v>4.8219642418333333</v>
+      </c>
+      <c r="L52" s="198">
+        <v>5.1451338621666673</v>
+      </c>
+      <c r="M52" s="198">
+        <v>5.3718986009999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" t="s">
+        <v>611</v>
+      </c>
+      <c r="C53" s="198">
+        <v>17.762011599999997</v>
+      </c>
+      <c r="D53" s="198">
+        <v>62.37878654666666</v>
+      </c>
+      <c r="E53" s="198">
+        <v>114.0078982</v>
+      </c>
+      <c r="F53" s="198">
+        <v>119.73919268333333</v>
+      </c>
+      <c r="G53" s="198">
+        <v>127.68766648333332</v>
+      </c>
+      <c r="H53" s="198">
+        <v>133.91004973333335</v>
+      </c>
+      <c r="I53" s="198">
+        <v>138.96957858666664</v>
+      </c>
+      <c r="J53" s="198">
+        <v>143.01417725499999</v>
+      </c>
+      <c r="K53" s="198">
+        <v>146.25805259500001</v>
+      </c>
+      <c r="L53" s="198">
+        <v>148.63544733833334</v>
+      </c>
+      <c r="M53" s="198">
+        <v>150.35724127166665</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" t="s">
+        <v>612</v>
+      </c>
+      <c r="C54" s="198">
+        <v>0.51952242058333331</v>
+      </c>
+      <c r="D54" s="198">
+        <v>2.9707581043333331</v>
+      </c>
+      <c r="E54" s="198">
+        <v>5.6153231266666666</v>
+      </c>
+      <c r="F54" s="198">
+        <v>5.6921283484999998</v>
+      </c>
+      <c r="G54" s="198">
+        <v>5.8229581423333325</v>
+      </c>
+      <c r="H54" s="198">
+        <v>5.9208894418333333</v>
+      </c>
+      <c r="I54" s="198">
+        <v>6.0227541028333338</v>
+      </c>
+      <c r="J54" s="198">
+        <v>6.1174184078333331</v>
+      </c>
+      <c r="K54" s="198">
+        <v>6.2127828081666667</v>
+      </c>
+      <c r="L54" s="198">
+        <v>6.295671005</v>
+      </c>
+      <c r="M54" s="198">
+        <v>6.3569147568333317</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" t="s">
+        <v>613</v>
+      </c>
+      <c r="C55" s="198">
+        <v>4.7098596703333335</v>
+      </c>
+      <c r="D55" s="198">
+        <v>10.011073018666666</v>
+      </c>
+      <c r="E55" s="198">
+        <v>19.205826675000001</v>
+      </c>
+      <c r="F55" s="198">
+        <v>17.259189171666669</v>
+      </c>
+      <c r="G55" s="198">
+        <v>16.123672460000002</v>
+      </c>
+      <c r="H55" s="198">
+        <v>15.589243531166666</v>
+      </c>
+      <c r="I55" s="198">
+        <v>15.261529170166668</v>
+      </c>
+      <c r="J55" s="198">
+        <v>15.069154009999998</v>
+      </c>
+      <c r="K55" s="198">
+        <v>14.969772847</v>
+      </c>
+      <c r="L55" s="198">
+        <v>14.901857265666667</v>
+      </c>
+      <c r="M55" s="198">
+        <v>14.824415200166666</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" t="s">
+        <v>614</v>
+      </c>
+      <c r="C56" s="198">
+        <v>138.56297291666667</v>
+      </c>
+      <c r="D56" s="198">
+        <v>218.27396785000002</v>
+      </c>
+      <c r="E56" s="198">
+        <v>199.20166956666668</v>
+      </c>
+      <c r="F56" s="198">
+        <v>185.47399138333333</v>
+      </c>
+      <c r="G56" s="198">
+        <v>173.23272144999999</v>
+      </c>
+      <c r="H56" s="198">
+        <v>167.65671888333333</v>
+      </c>
+      <c r="I56" s="198">
+        <v>164.29476519999997</v>
+      </c>
+      <c r="J56" s="198">
+        <v>162.93364781499997</v>
+      </c>
+      <c r="K56" s="198">
+        <v>163.30549297666664</v>
+      </c>
+      <c r="L56" s="198">
+        <v>164.75838271166666</v>
+      </c>
+      <c r="M56" s="198">
+        <v>166.84075260833336</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" t="s">
+        <v>615</v>
+      </c>
+      <c r="C57" s="198">
+        <v>0</v>
+      </c>
+      <c r="D57" s="198">
+        <v>0.83887463066666668</v>
+      </c>
+      <c r="E57" s="198">
+        <v>0.68144071116666671</v>
+      </c>
+      <c r="F57" s="198">
+        <v>0.67240834783333336</v>
+      </c>
+      <c r="G57" s="198">
+        <v>0.69626560966666662</v>
+      </c>
+      <c r="H57" s="198">
+        <v>0.77963973516666674</v>
+      </c>
+      <c r="I57" s="198">
+        <v>0.86434070016666653</v>
+      </c>
+      <c r="J57" s="198">
+        <v>0.97216863173333323</v>
+      </c>
+      <c r="K57" s="198">
+        <v>1.0701457507333334</v>
+      </c>
+      <c r="L57" s="198">
+        <v>1.1532866200166667</v>
+      </c>
+      <c r="M57" s="198">
+        <v>1.2208879523499998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" t="s">
+        <v>616</v>
+      </c>
+      <c r="C58" s="198">
+        <v>0.57538143379999995</v>
+      </c>
+      <c r="D58" s="198">
+        <v>5.4858728708333331</v>
+      </c>
+      <c r="E58" s="198">
+        <v>1.2649056123333333</v>
+      </c>
+      <c r="F58" s="198">
+        <v>1.1781525138333335</v>
+      </c>
+      <c r="G58" s="198">
+        <v>1.1777151815</v>
+      </c>
+      <c r="H58" s="198">
+        <v>1.1736404297333334</v>
+      </c>
+      <c r="I58" s="198">
+        <v>1.1855722670166666</v>
+      </c>
+      <c r="J58" s="198">
+        <v>1.2045133330666666</v>
+      </c>
+      <c r="K58" s="198">
+        <v>1.2297341678166667</v>
+      </c>
+      <c r="L58" s="198">
+        <v>1.2595733917</v>
+      </c>
+      <c r="M58" s="198">
+        <v>1.2891852479333332</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" t="s">
+        <v>617</v>
+      </c>
+      <c r="C59" s="198">
+        <v>1.6112158839999999</v>
+      </c>
+      <c r="D59" s="198">
+        <v>2.415477292166667</v>
+      </c>
+      <c r="E59" s="198">
+        <v>1.2816632935000001</v>
+      </c>
+      <c r="F59" s="198">
+        <v>1.2047107880000001</v>
+      </c>
+      <c r="G59" s="198">
+        <v>1.1604072644999999</v>
+      </c>
+      <c r="H59" s="198">
+        <v>1.1555598778666665</v>
+      </c>
+      <c r="I59" s="198">
+        <v>1.1619704550333332</v>
+      </c>
+      <c r="J59" s="198">
+        <v>1.1753662668666667</v>
+      </c>
+      <c r="K59" s="198">
+        <v>1.19808437105</v>
+      </c>
+      <c r="L59" s="198">
+        <v>1.2272775036166668</v>
+      </c>
+      <c r="M59" s="198">
+        <v>1.2586092167666665</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" t="s">
+        <v>618</v>
+      </c>
+      <c r="C60" s="198">
+        <v>5.8630464115000001</v>
+      </c>
+      <c r="D60" s="198">
+        <v>5.6828911463333327</v>
+      </c>
+      <c r="E60" s="198">
+        <v>25.996580548333334</v>
+      </c>
+      <c r="F60" s="198">
+        <v>27.93682071166667</v>
+      </c>
+      <c r="G60" s="198">
+        <v>30.319006895000001</v>
+      </c>
+      <c r="H60" s="198">
+        <v>32.210338631666666</v>
+      </c>
+      <c r="I60" s="198">
+        <v>33.678038898333334</v>
+      </c>
+      <c r="J60" s="198">
+        <v>34.891830286666661</v>
+      </c>
+      <c r="K60" s="198">
+        <v>35.986266088333338</v>
+      </c>
+      <c r="L60" s="198">
+        <v>36.928258954999997</v>
+      </c>
+      <c r="M60" s="198">
+        <v>37.700335196666671</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" t="s">
+        <v>619</v>
+      </c>
+      <c r="C61" s="198">
+        <v>4.7882984469999998</v>
+      </c>
+      <c r="D61" s="198">
+        <v>5.4311105614999997</v>
+      </c>
+      <c r="E61" s="198">
+        <v>5.0945413933333334</v>
+      </c>
+      <c r="F61" s="198">
+        <v>5.1853559896666663</v>
+      </c>
+      <c r="G61" s="198">
+        <v>5.4238987220000006</v>
+      </c>
+      <c r="H61" s="198">
+        <v>5.5998435486666667</v>
+      </c>
+      <c r="I61" s="198">
+        <v>5.7556236460000001</v>
+      </c>
+      <c r="J61" s="198">
+        <v>5.9020871064999998</v>
+      </c>
+      <c r="K61" s="198">
+        <v>6.0570630771666654</v>
+      </c>
+      <c r="L61" s="198">
+        <v>6.2089725831666662</v>
+      </c>
+      <c r="M61" s="198">
+        <v>6.3437580036666663</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" t="s">
+        <v>620</v>
+      </c>
+      <c r="C62" s="198">
+        <v>19.950182783333332</v>
+      </c>
+      <c r="D62" s="198">
+        <v>22.475845671666665</v>
+      </c>
+      <c r="E62" s="198">
+        <v>17.656741211666667</v>
+      </c>
+      <c r="F62" s="198">
+        <v>16.662776143333332</v>
+      </c>
+      <c r="G62" s="198">
+        <v>15.977969053333332</v>
+      </c>
+      <c r="H62" s="198">
+        <v>15.503144086666666</v>
+      </c>
+      <c r="I62" s="198">
+        <v>15.188785831999999</v>
+      </c>
+      <c r="J62" s="198">
+        <v>15.06363176</v>
+      </c>
+      <c r="K62" s="198">
+        <v>15.064807468666666</v>
+      </c>
+      <c r="L62" s="198">
+        <v>15.121996930166667</v>
+      </c>
+      <c r="M62" s="198">
+        <v>15.193435608</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" t="s">
+        <v>621</v>
+      </c>
+      <c r="C63" s="198">
+        <v>2.5918672959999998</v>
+      </c>
+      <c r="D63" s="198">
+        <v>3.528499636666667</v>
+      </c>
+      <c r="E63" s="198">
+        <v>3.2788271726666665</v>
+      </c>
+      <c r="F63" s="198">
+        <v>3.3747222738333331</v>
+      </c>
+      <c r="G63" s="198">
+        <v>3.4431580121666663</v>
+      </c>
+      <c r="H63" s="198">
+        <v>3.4884161674999996</v>
+      </c>
+      <c r="I63" s="198">
+        <v>3.5375448968333334</v>
+      </c>
+      <c r="J63" s="198">
+        <v>3.6008100169999997</v>
+      </c>
+      <c r="K63" s="198">
+        <v>3.6785748355000001</v>
+      </c>
+      <c r="L63" s="198">
+        <v>3.7571948703333335</v>
+      </c>
+      <c r="M63" s="198">
+        <v>3.8281283005</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" t="s">
+        <v>635</v>
+      </c>
+      <c r="C64" s="198">
+        <v>63.533254083333333</v>
+      </c>
+      <c r="D64" s="198">
+        <v>72.120344516666663</v>
+      </c>
+      <c r="E64" s="198">
+        <v>123.79302005000001</v>
+      </c>
+      <c r="F64" s="198">
+        <v>129.71364361666667</v>
+      </c>
+      <c r="G64" s="198">
+        <v>133.66639895</v>
+      </c>
+      <c r="H64" s="198">
+        <v>139.11671851666665</v>
+      </c>
+      <c r="I64" s="198">
+        <v>145.03653883333334</v>
+      </c>
+      <c r="J64" s="198">
+        <v>152.00243510000001</v>
+      </c>
+      <c r="K64" s="198">
+        <v>159.73230134999997</v>
+      </c>
+      <c r="L64" s="198">
+        <v>167.37854268999999</v>
+      </c>
+      <c r="M64" s="198">
+        <v>174.27375374833332</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" t="s">
+        <v>622</v>
+      </c>
+      <c r="C65" s="198">
+        <v>1.2045933995833333</v>
+      </c>
+      <c r="D65" s="198">
+        <v>1.3751476576833332</v>
+      </c>
+      <c r="E65" s="198">
+        <v>9.4988068476666676</v>
+      </c>
+      <c r="F65" s="198">
+        <v>9.9733257835</v>
+      </c>
+      <c r="G65" s="198">
+        <v>10.667660947499998</v>
+      </c>
+      <c r="H65" s="198">
+        <v>11.441073273000001</v>
+      </c>
+      <c r="I65" s="198">
+        <v>12.3298065415</v>
+      </c>
+      <c r="J65" s="198">
+        <v>13.233334133333333</v>
+      </c>
+      <c r="K65" s="198">
+        <v>14.066892845833333</v>
+      </c>
+      <c r="L65" s="198">
+        <v>14.783967823833333</v>
+      </c>
+      <c r="M65" s="198">
+        <v>15.362527464333334</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" t="s">
+        <v>623</v>
+      </c>
+      <c r="C66" s="198">
+        <v>14.642096103333332</v>
+      </c>
+      <c r="D66" s="198">
+        <v>85.351767733333332</v>
+      </c>
+      <c r="E66" s="198">
+        <v>85.351767733333332</v>
+      </c>
+      <c r="F66" s="198">
+        <v>86.447277433333326</v>
+      </c>
+      <c r="G66" s="198">
+        <v>86.337754916666654</v>
+      </c>
+      <c r="H66" s="198">
+        <v>85.467365533333322</v>
+      </c>
+      <c r="I66" s="198">
+        <v>84.54561154999999</v>
+      </c>
+      <c r="J66" s="198">
+        <v>83.917157860000003</v>
+      </c>
+      <c r="K66" s="198">
+        <v>83.662775486666675</v>
+      </c>
+      <c r="L66" s="198">
+        <v>83.47783918333333</v>
+      </c>
+      <c r="M66" s="198">
+        <v>83.284885551666648</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" t="s">
+        <v>624</v>
+      </c>
+      <c r="C67" s="198">
+        <v>12.325250191666665</v>
+      </c>
+      <c r="D67" s="198">
+        <v>12.293103908333332</v>
+      </c>
+      <c r="E67" s="198">
+        <v>14.24168659</v>
+      </c>
+      <c r="F67" s="198">
+        <v>15.670085898333333</v>
+      </c>
+      <c r="G67" s="198">
+        <v>15.921837333333333</v>
+      </c>
+      <c r="H67" s="198">
+        <v>16.284495251666666</v>
+      </c>
+      <c r="I67" s="198">
+        <v>16.587491791666668</v>
+      </c>
+      <c r="J67" s="198">
+        <v>16.929997476666667</v>
+      </c>
+      <c r="K67" s="198">
+        <v>17.354962935</v>
+      </c>
+      <c r="L67" s="198">
+        <v>17.807512005</v>
+      </c>
+      <c r="M67" s="198">
+        <v>18.242388553333328</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" t="s">
+        <v>625</v>
+      </c>
+      <c r="C68" s="198">
+        <v>2.6269564821666664</v>
+      </c>
+      <c r="D68" s="198">
+        <v>2.4443879943333333</v>
+      </c>
+      <c r="E68" s="198">
+        <v>4.8598746188333335</v>
+      </c>
+      <c r="F68" s="198">
+        <v>5.0062356134999995</v>
+      </c>
+      <c r="G68" s="198">
+        <v>4.6805593061666677</v>
+      </c>
+      <c r="H68" s="198">
+        <v>5.000623379666667</v>
+      </c>
+      <c r="I68" s="198">
+        <v>5.3247129491666669</v>
+      </c>
+      <c r="J68" s="198">
+        <v>5.6105279071666665</v>
+      </c>
+      <c r="K68" s="198">
+        <v>5.9597537354999996</v>
+      </c>
+      <c r="L68" s="198">
+        <v>6.3267513341666666</v>
+      </c>
+      <c r="M68" s="198">
+        <v>6.674586251</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" t="s">
+        <v>626</v>
+      </c>
+      <c r="C69" s="198">
+        <v>2.0656489979999999</v>
+      </c>
+      <c r="D69" s="198">
+        <v>13.04152088</v>
+      </c>
+      <c r="E69" s="198">
+        <v>21.329731385000002</v>
+      </c>
+      <c r="F69" s="198">
+        <v>20.389017185</v>
+      </c>
+      <c r="G69" s="198">
+        <v>20.431920224999999</v>
+      </c>
+      <c r="H69" s="198">
+        <v>20.44842061833333</v>
+      </c>
+      <c r="I69" s="198">
+        <v>20.559785276666666</v>
+      </c>
+      <c r="J69" s="198">
+        <v>20.774395325</v>
+      </c>
+      <c r="K69" s="198">
+        <v>21.088629619999999</v>
+      </c>
+      <c r="L69" s="198">
+        <v>21.450844078333333</v>
+      </c>
+      <c r="M69" s="198">
+        <v>21.805729996</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" t="s">
+        <v>627</v>
+      </c>
+      <c r="C70" s="198">
+        <v>2.6662052696666669</v>
+      </c>
+      <c r="D70" s="198">
+        <v>2.2236018003333333</v>
+      </c>
+      <c r="E70" s="198">
+        <v>3.8661187693333332</v>
+      </c>
+      <c r="F70" s="198">
+        <v>4.162884142666667</v>
+      </c>
+      <c r="G70" s="198">
+        <v>4.5371041443333331</v>
+      </c>
+      <c r="H70" s="198">
+        <v>4.9591319851666666</v>
+      </c>
+      <c r="I70" s="198">
+        <v>5.3885503176666667</v>
+      </c>
+      <c r="J70" s="198">
+        <v>5.7849822866666667</v>
+      </c>
+      <c r="K70" s="198">
+        <v>6.1260737768333335</v>
+      </c>
+      <c r="L70" s="198">
+        <v>6.4100179916666669</v>
+      </c>
+      <c r="M70" s="198">
+        <v>6.6417012019999984</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="199" t="s">
+        <v>628</v>
+      </c>
+      <c r="C71" s="200">
+        <v>7.8939462233333328</v>
+      </c>
+      <c r="D71" s="200">
+        <v>50.310800874999998</v>
+      </c>
+      <c r="E71" s="200">
+        <v>43.137356525000001</v>
+      </c>
+      <c r="F71" s="200">
+        <v>36.853526563333332</v>
+      </c>
+      <c r="G71" s="200">
+        <v>34.813101618333334</v>
+      </c>
+      <c r="H71" s="200">
+        <v>34.411547234999993</v>
+      </c>
+      <c r="I71" s="200">
+        <v>34.446132911666666</v>
+      </c>
+      <c r="J71" s="200">
+        <v>34.590148608333337</v>
+      </c>
+      <c r="K71" s="200">
+        <v>34.770404626833333</v>
+      </c>
+      <c r="L71" s="200">
+        <v>34.896638621666668</v>
+      </c>
+      <c r="M71" s="200">
+        <v>34.952150722333336</v>
+      </c>
+      <c r="N71" s="199">
+        <f>G71/G74</f>
+        <v>0.3326353134463732</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" t="s">
+        <v>629</v>
+      </c>
+      <c r="C72" s="198">
+        <v>61.442780348333329</v>
+      </c>
+      <c r="D72" s="198">
+        <v>134.38455828333332</v>
+      </c>
+      <c r="E72" s="198">
+        <v>264.37113043333335</v>
+      </c>
+      <c r="F72" s="198">
+        <v>270.39838459999999</v>
+      </c>
+      <c r="G72" s="198">
+        <v>283.20440413333336</v>
+      </c>
+      <c r="H72" s="198">
+        <v>295.17223963333333</v>
+      </c>
+      <c r="I72" s="198">
+        <v>307.07710318333329</v>
+      </c>
+      <c r="J72" s="198">
+        <v>319.0911448833333</v>
+      </c>
+      <c r="K72" s="198">
+        <v>331.85216123333328</v>
+      </c>
+      <c r="L72" s="198">
+        <v>344.53261908333337</v>
+      </c>
+      <c r="M72" s="198">
+        <v>356.41985093333341</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" t="s">
+        <v>630</v>
+      </c>
+      <c r="C73" s="198">
+        <v>6.2778683233333341</v>
+      </c>
+      <c r="D73" s="198">
+        <v>9.6598225233333324</v>
+      </c>
+      <c r="E73" s="198">
+        <v>14.335448490000001</v>
+      </c>
+      <c r="F73" s="198">
+        <v>13.663320681666665</v>
+      </c>
+      <c r="G73" s="198">
+        <v>13.623789056666666</v>
+      </c>
+      <c r="H73" s="198">
+        <v>13.727485473666666</v>
+      </c>
+      <c r="I73" s="198">
+        <v>13.796418716666665</v>
+      </c>
+      <c r="J73" s="198">
+        <v>13.800157952833333</v>
+      </c>
+      <c r="K73" s="198">
+        <v>13.774485304833334</v>
+      </c>
+      <c r="L73" s="198">
+        <v>13.695653499499999</v>
+      </c>
+      <c r="M73" s="198">
+        <v>13.575119099333335</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" t="s">
+        <v>631</v>
+      </c>
+      <c r="C74" s="198">
+        <v>93.825785369800002</v>
+      </c>
+      <c r="D74" s="198">
+        <v>93.396367423333331</v>
+      </c>
+      <c r="E74" s="198">
+        <v>98.67649414333296</v>
+      </c>
+      <c r="F74" s="198">
+        <v>100.63622205999964</v>
+      </c>
+      <c r="G74" s="198">
+        <v>104.65846592666666</v>
+      </c>
+      <c r="H74" s="198">
+        <v>108.08546415333333</v>
+      </c>
+      <c r="I74" s="198">
+        <v>111.3703662866663</v>
+      </c>
+      <c r="J74" s="198">
+        <v>114.49876764333334</v>
+      </c>
+      <c r="K74" s="198">
+        <v>118.26915631666667</v>
+      </c>
+      <c r="L74" s="198">
+        <v>121.77961678666667</v>
+      </c>
+      <c r="M74" s="198">
+        <v>125.71437438999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="201" t="s">
+        <v>632</v>
+      </c>
+      <c r="C75" s="202">
+        <v>528.58012072943336</v>
+      </c>
+      <c r="D75" s="202">
+        <v>914.96197365676665</v>
+      </c>
+      <c r="E75" s="202">
+        <v>1208.025515014333</v>
+      </c>
+      <c r="F75" s="202">
+        <v>1210.8295476181661</v>
+      </c>
+      <c r="G75" s="202">
+        <v>1230.8115282413335</v>
+      </c>
+      <c r="H75" s="202">
+        <v>1257.0217689187666</v>
+      </c>
+      <c r="I75" s="202">
+        <v>1287.7143929268827</v>
+      </c>
+      <c r="J75" s="202">
+        <v>1322.1437038783668</v>
+      </c>
+      <c r="K75" s="202">
+        <v>1361.0683705467829</v>
+      </c>
+      <c r="L75" s="202">
+        <v>1399.75111032105</v>
+      </c>
+      <c r="M75" s="202">
+        <v>1436.3744085971334</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="C76" s="204"/>
+      <c r="D76" s="204"/>
+      <c r="E76" s="204"/>
+      <c r="F76" s="204"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
+      <c r="I76" s="204"/>
+      <c r="J76" s="204"/>
+      <c r="K76" s="204"/>
+      <c r="L76" s="204"/>
+      <c r="M76" s="204"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="196" t="s">
+        <v>633</v>
+      </c>
+      <c r="C77" s="203">
+        <f>SUM(C55:C56,C59)</f>
+        <v>144.884048471</v>
+      </c>
+      <c r="D77" s="203">
+        <f t="shared" ref="D77:L77" si="1">SUM(D55:D56,D59)</f>
+        <v>230.70051816083335</v>
+      </c>
+      <c r="E77" s="203">
+        <f t="shared" si="1"/>
+        <v>219.68915953516668</v>
+      </c>
+      <c r="F77" s="203">
+        <f t="shared" si="1"/>
+        <v>203.93789134299999</v>
+      </c>
+      <c r="G77" s="203">
+        <f t="shared" si="1"/>
+        <v>190.51680117449999</v>
+      </c>
+      <c r="H77" s="203">
+        <f t="shared" si="1"/>
+        <v>184.40152229236665</v>
+      </c>
+      <c r="I77" s="203">
+        <f t="shared" si="1"/>
+        <v>180.71826482519998</v>
+      </c>
+      <c r="J77" s="203">
+        <f t="shared" si="1"/>
+        <v>179.17816809186664</v>
+      </c>
+      <c r="K77" s="203">
+        <f t="shared" si="1"/>
+        <v>179.47335019471663</v>
+      </c>
+      <c r="L77" s="203">
+        <f t="shared" si="1"/>
+        <v>180.88751748095001</v>
+      </c>
+      <c r="M77" s="203">
+        <f>SUM(M55:M56,M59)</f>
+        <v>182.9237770252667</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="195" t="s">
+        <v>636</v>
+      </c>
+      <c r="C79" s="205"/>
+      <c r="D79" s="205"/>
+      <c r="E79" s="205"/>
+      <c r="F79" s="205"/>
+      <c r="G79" s="205"/>
+      <c r="H79" s="205"/>
+      <c r="I79" s="205"/>
+      <c r="J79" s="205"/>
+      <c r="K79" s="205"/>
+      <c r="L79" s="205"/>
+      <c r="M79" s="205"/>
+    </row>
+    <row r="81" spans="2:13">
+      <c r="B81" t="s">
+        <v>637</v>
+      </c>
+      <c r="C81" s="198">
+        <f>C39</f>
+        <v>35.714192526983339</v>
+      </c>
+      <c r="D81" s="198">
+        <f t="shared" ref="D81:M81" si="2">D39</f>
+        <v>37.921683423834999</v>
+      </c>
+      <c r="E81" s="198">
+        <f t="shared" si="2"/>
+        <v>35.445092515915</v>
+      </c>
+      <c r="F81" s="198">
+        <f t="shared" si="2"/>
+        <v>31.761207363101672</v>
+      </c>
+      <c r="G81" s="198">
+        <f t="shared" si="2"/>
+        <v>30.837376325271666</v>
+      </c>
+      <c r="H81" s="198">
+        <f t="shared" si="2"/>
+        <v>30.795819730368336</v>
+      </c>
+      <c r="I81" s="198">
+        <f t="shared" si="2"/>
+        <v>31.129342650756666</v>
+      </c>
+      <c r="J81" s="198">
+        <f t="shared" si="2"/>
+        <v>31.769876979269995</v>
+      </c>
+      <c r="K81" s="198">
+        <f t="shared" si="2"/>
+        <v>32.910226738109998</v>
+      </c>
+      <c r="L81" s="198">
+        <f t="shared" si="2"/>
+        <v>34.385582288968337</v>
+      </c>
+      <c r="M81" s="198">
+        <f t="shared" si="2"/>
+        <v>36.106390714851663</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
+      <c r="B82" t="s">
+        <v>638</v>
+      </c>
+      <c r="C82" s="198">
+        <f>C36</f>
+        <v>37.9512695148033</v>
+      </c>
+      <c r="D82" s="198">
+        <f t="shared" ref="D82:M82" si="3">D36</f>
+        <v>47.330626608833292</v>
+      </c>
+      <c r="E82" s="198">
+        <f t="shared" si="3"/>
+        <v>44.108954556333295</v>
+      </c>
+      <c r="F82" s="198">
+        <f t="shared" si="3"/>
+        <v>46.824942431666663</v>
+      </c>
+      <c r="G82" s="198">
+        <f t="shared" si="3"/>
+        <v>50.779045650666298</v>
+      </c>
+      <c r="H82" s="198">
+        <f t="shared" si="3"/>
+        <v>54.396357671333341</v>
+      </c>
+      <c r="I82" s="198">
+        <f t="shared" si="3"/>
+        <v>57.980670480332961</v>
+      </c>
+      <c r="J82" s="198">
+        <f t="shared" si="3"/>
+        <v>61.452733338333331</v>
+      </c>
+      <c r="K82" s="198">
+        <f t="shared" si="3"/>
+        <v>65.640781161999996</v>
+      </c>
+      <c r="L82" s="198">
+        <f t="shared" si="3"/>
+        <v>69.70458003299963</v>
+      </c>
+      <c r="M82" s="198">
+        <f t="shared" si="3"/>
+        <v>74.380681532666628</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
+      <c r="B83" s="201" t="s">
+        <v>639</v>
+      </c>
+      <c r="C83" s="202">
+        <f>SUM(C81:C82)</f>
+        <v>73.66546204178664</v>
+      </c>
+      <c r="D83" s="202">
+        <f t="shared" ref="D83:M83" si="4">SUM(D81:D82)</f>
+        <v>85.252310032668291</v>
+      </c>
+      <c r="E83" s="202">
+        <f t="shared" si="4"/>
+        <v>79.554047072248295</v>
+      </c>
+      <c r="F83" s="202">
+        <f t="shared" si="4"/>
+        <v>78.586149794768332</v>
+      </c>
+      <c r="G83" s="202">
+        <f t="shared" si="4"/>
+        <v>81.616421975937968</v>
+      </c>
+      <c r="H83" s="202">
+        <f t="shared" si="4"/>
+        <v>85.192177401701684</v>
+      </c>
+      <c r="I83" s="202">
+        <f t="shared" si="4"/>
+        <v>89.11001313108963</v>
+      </c>
+      <c r="J83" s="202">
+        <f t="shared" si="4"/>
+        <v>93.222610317603326</v>
+      </c>
+      <c r="K83" s="202">
+        <f t="shared" si="4"/>
+        <v>98.551007900109994</v>
+      </c>
+      <c r="L83" s="202">
+        <f t="shared" si="4"/>
+        <v>104.09016232196797</v>
+      </c>
+      <c r="M83" s="202">
+        <f t="shared" si="4"/>
+        <v>110.48707224751828</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="B85" s="196" t="s">
+        <v>640</v>
+      </c>
+      <c r="C85" s="203">
+        <f>SUM(C37,C75)</f>
+        <v>772.33512724610591</v>
+      </c>
+      <c r="D85" s="203">
+        <f t="shared" ref="D85:L85" si="5">SUM(D37,D75)</f>
+        <v>1230.1902451174165</v>
+      </c>
+      <c r="E85" s="203">
+        <f t="shared" si="5"/>
+        <v>1552.9139822386614</v>
+      </c>
+      <c r="F85" s="203">
+        <f t="shared" si="5"/>
+        <v>1565.087057407562</v>
+      </c>
+      <c r="G85" s="203">
+        <f t="shared" si="5"/>
+        <v>1622.0488882263951</v>
+      </c>
+      <c r="H85" s="203">
+        <f t="shared" si="5"/>
+        <v>1682.3619155735196</v>
+      </c>
+      <c r="I85" s="203">
+        <f t="shared" si="5"/>
+        <v>1745.0258110662521</v>
+      </c>
+      <c r="J85" s="203">
+        <f t="shared" si="5"/>
+        <v>1809.3931719157704</v>
+      </c>
+      <c r="K85" s="203">
+        <f t="shared" si="5"/>
+        <v>1878.6721006397038</v>
+      </c>
+      <c r="L85" s="203">
+        <f t="shared" si="5"/>
+        <v>1946.0056899500821</v>
+      </c>
+      <c r="M85" s="203">
+        <f>SUM(M37,M75)</f>
+        <v>2010.0479548752055</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
+      <c r="B87" s="206" t="s">
+        <v>641</v>
+      </c>
+      <c r="C87" s="207">
+        <f>C83/C85</f>
+        <v>9.5380178167544377E-2</v>
+      </c>
+      <c r="D87" s="207">
+        <f t="shared" ref="D87:M87" si="6">D83/D85</f>
+        <v>6.9300102460600574E-2</v>
+      </c>
+      <c r="E87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.1228881948479958E-2</v>
+      </c>
+      <c r="F87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.0211999021281171E-2</v>
+      </c>
+      <c r="G87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.0316869342440236E-2</v>
+      </c>
+      <c r="H87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.0638436719877569E-2</v>
+      </c>
+      <c r="I87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.1065154776502301E-2</v>
+      </c>
+      <c r="J87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.1521477899079286E-2</v>
+      </c>
+      <c r="K87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.2457801372869983E-2</v>
+      </c>
+      <c r="L87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.3489135648230317E-2</v>
+      </c>
+      <c r="M87" s="207">
+        <f t="shared" si="6"/>
+        <v>5.4967381240602249E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B1D69A-2657-4575-BABF-8DE1CD094E48}">
   <dimension ref="A1:V294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="9" style="35"/>
-    <col min="4" max="5" width="11.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="9.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="13" max="17" width="9.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="11.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.453125" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="35" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="9.81640625" style="35" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="11.453125" style="35" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="9.81640625" style="35" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="11.453125" style="35" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" style="35" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" style="35" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
@@ -23872,7 +28319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52495A87-6488-457B-8B59-DEC53F183A70}">
   <dimension ref="A1:F147"/>
   <sheetViews>
@@ -23880,13 +28327,13 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
-    <col min="3" max="4" width="1.5703125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" style="49" customWidth="1"/>
+    <col min="3" max="4" width="1.54296875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="49" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
@@ -25582,25 +30029,25 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.5" thickBot="1"/>
-    <row r="144" spans="1:6" s="7" customFormat="1" ht="15">
+    <row r="144" spans="1:6" s="7" customFormat="1" ht="14.5">
       <c r="A144" s="146" t="s">
         <v>298</v>
       </c>
       <c r="B144" s="142"/>
     </row>
-    <row r="145" spans="1:2" s="7" customFormat="1" ht="15">
+    <row r="145" spans="1:2" s="7" customFormat="1" ht="14.5">
       <c r="A145" s="147" t="s">
         <v>299</v>
       </c>
       <c r="B145" s="143"/>
     </row>
-    <row r="146" spans="1:2" s="7" customFormat="1" ht="15">
+    <row r="146" spans="1:2" s="7" customFormat="1" ht="14.5">
       <c r="A146" s="148" t="s">
         <v>300</v>
       </c>
       <c r="B146" s="144"/>
     </row>
-    <row r="147" spans="1:2" s="7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="147" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1">
       <c r="A147" s="149" t="s">
         <v>301</v>
       </c>
@@ -25612,7 +30059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC8CF2C-4D71-4580-985F-F10EA038A7D2}">
   <dimension ref="A2:N70"/>
   <sheetViews>
@@ -25620,11 +30067,11 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="25.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
@@ -25932,12 +30379,12 @@
     <row r="41" spans="1:14">
       <c r="A41" s="25"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1">
+    <row r="42" spans="1:14" ht="15" thickBot="1">
       <c r="A42" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1">
+    <row r="43" spans="1:14" ht="15" thickBot="1">
       <c r="A43" s="25"/>
       <c r="B43" s="119" t="s">
         <v>147</v>
@@ -25949,7 +30396,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1">
+    <row r="44" spans="1:14" ht="15" thickBot="1">
       <c r="A44" s="25"/>
       <c r="B44" s="119" t="s">
         <v>148</v>
@@ -25981,7 +30428,7 @@
       </c>
       <c r="D46" s="117"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1">
+    <row r="47" spans="1:14" ht="15" thickBot="1">
       <c r="D47" s="7"/>
       <c r="F47" s="117"/>
       <c r="I47" s="7"/>
@@ -26008,7 +30455,7 @@
       <c r="M48" s="124"/>
       <c r="N48" s="125"/>
     </row>
-    <row r="49" spans="2:14" ht="16.5">
+    <row r="49" spans="2:14" ht="17">
       <c r="B49" s="177"/>
       <c r="C49" s="126" t="s">
         <v>308</v>
@@ -26046,7 +30493,7 @@
       <c r="M50" s="129"/>
       <c r="N50" s="130"/>
     </row>
-    <row r="51" spans="2:14" ht="16.5">
+    <row r="51" spans="2:14" ht="17">
       <c r="B51" s="177"/>
       <c r="C51" s="131" t="s">
         <v>309</v>
@@ -26065,7 +30512,7 @@
       <c r="M51" s="129"/>
       <c r="N51" s="130"/>
     </row>
-    <row r="52" spans="2:14" ht="17.25" thickBot="1">
+    <row r="52" spans="2:14" ht="17.5" thickBot="1">
       <c r="B52" s="178"/>
       <c r="C52" s="134" t="s">
         <v>310</v>
@@ -26084,7 +30531,7 @@
       <c r="M52" s="137"/>
       <c r="N52" s="138"/>
     </row>
-    <row r="53" spans="2:14" ht="15.75" thickBot="1">
+    <row r="53" spans="2:14" ht="15" thickBot="1">
       <c r="B53" s="7"/>
       <c r="C53" s="118"/>
       <c r="D53" s="7"/>
@@ -26130,7 +30577,7 @@
       <c r="M55" s="129"/>
       <c r="N55" s="130"/>
     </row>
-    <row r="56" spans="2:14" ht="16.5">
+    <row r="56" spans="2:14" ht="17">
       <c r="B56" s="180"/>
       <c r="C56" s="131" t="s">
         <v>126</v>
@@ -26168,7 +30615,7 @@
       <c r="M57" s="129"/>
       <c r="N57" s="130"/>
     </row>
-    <row r="58" spans="2:14" ht="17.25" thickBot="1">
+    <row r="58" spans="2:14" ht="17.5" thickBot="1">
       <c r="B58" s="181"/>
       <c r="C58" s="134" t="s">
         <v>310</v>
@@ -26187,7 +30634,7 @@
       <c r="M58" s="137"/>
       <c r="N58" s="138"/>
     </row>
-    <row r="59" spans="2:14" ht="15.75" thickBot="1">
+    <row r="59" spans="2:14" ht="15" thickBot="1">
       <c r="B59" s="7"/>
       <c r="C59" s="79"/>
       <c r="D59" s="7"/>
@@ -26269,7 +30716,7 @@
       <c r="M63" s="129"/>
       <c r="N63" s="130"/>
     </row>
-    <row r="64" spans="2:14" ht="17.25" thickBot="1">
+    <row r="64" spans="2:14" ht="17.5" thickBot="1">
       <c r="B64" s="181"/>
       <c r="C64" s="134" t="s">
         <v>310</v>
@@ -26288,7 +30735,7 @@
       <c r="M64" s="137"/>
       <c r="N64" s="138"/>
     </row>
-    <row r="65" spans="2:14" ht="15.75" thickBot="1">
+    <row r="65" spans="2:14" ht="15" thickBot="1">
       <c r="B65" s="7"/>
       <c r="C65" s="118"/>
       <c r="D65" s="7"/>
@@ -26334,7 +30781,7 @@
       <c r="M67" s="129"/>
       <c r="N67" s="130"/>
     </row>
-    <row r="68" spans="2:14" ht="16.5">
+    <row r="68" spans="2:14" ht="17">
       <c r="B68" s="180"/>
       <c r="C68" s="131" t="s">
         <v>309</v>
@@ -26353,7 +30800,7 @@
       <c r="M68" s="129"/>
       <c r="N68" s="130"/>
     </row>
-    <row r="69" spans="2:14" ht="16.5">
+    <row r="69" spans="2:14" ht="17">
       <c r="B69" s="180"/>
       <c r="C69" s="131" t="s">
         <v>310</v>
@@ -26372,7 +30819,7 @@
       <c r="M69" s="129"/>
       <c r="N69" s="130"/>
     </row>
-    <row r="70" spans="2:14" ht="15.75" thickBot="1">
+    <row r="70" spans="2:14" ht="15" thickBot="1">
       <c r="B70" s="181"/>
       <c r="C70" s="141" t="s">
         <v>329</v>
@@ -26404,7 +30851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E86FE7-B24A-49FF-9E8E-F2443844584B}">
   <dimension ref="A2:M35"/>
   <sheetViews>
@@ -26412,11 +30859,11 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -27460,18 +31907,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74998EDC-2173-4F08-8F4D-1DBD92A6B41E}">
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="62" customWidth="1"/>
     <col min="2" max="2" width="9" style="62"/>
-    <col min="3" max="3" width="12.28515625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" style="62" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
@@ -27480,7 +31927,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="15">
+    <row r="2" spans="2:23" ht="14.5">
       <c r="B2" s="72" t="s">
         <v>353</v>
       </c>
@@ -27548,7 +31995,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="15">
+    <row r="3" spans="2:23" ht="14.5">
       <c r="B3" s="75" t="s">
         <v>339</v>
       </c>
@@ -27616,7 +32063,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="15">
+    <row r="4" spans="2:23" ht="14.5">
       <c r="B4" s="75" t="s">
         <v>342</v>
       </c>
@@ -27684,7 +32131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15">
+    <row r="5" spans="2:23" ht="14.5">
       <c r="B5" s="75" t="s">
         <v>356</v>
       </c>
@@ -27752,7 +32199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="15">
+    <row r="6" spans="2:23" ht="14.5">
       <c r="B6" s="77" t="s">
         <v>358</v>
       </c>
@@ -27820,7 +32267,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="15">
+    <row r="7" spans="2:23" ht="14.5">
       <c r="B7" s="77" t="s">
         <v>358</v>
       </c>
@@ -27888,7 +32335,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="2:23" ht="15">
+    <row r="8" spans="2:23" ht="14.5">
       <c r="B8" s="75" t="s">
         <v>344</v>
       </c>
@@ -27956,7 +32403,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15">
+    <row r="9" spans="2:23" ht="14.5">
       <c r="B9" s="77" t="s">
         <v>358</v>
       </c>
@@ -28024,7 +32471,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="15">
+    <row r="10" spans="2:23" ht="14.5">
       <c r="B10" s="77" t="s">
         <v>358</v>
       </c>
@@ -28092,7 +32539,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15">
+    <row r="11" spans="2:23" ht="14.5">
       <c r="B11" s="77" t="s">
         <v>358</v>
       </c>
@@ -28160,7 +32607,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15">
+    <row r="12" spans="2:23" ht="14.5">
       <c r="B12" s="77" t="s">
         <v>358</v>
       </c>
@@ -28228,7 +32675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="15">
+    <row r="13" spans="2:23" ht="14.5">
       <c r="B13" s="75" t="s">
         <v>365</v>
       </c>
@@ -28296,7 +32743,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="15">
+    <row r="14" spans="2:23" ht="14.5">
       <c r="B14" s="75" t="s">
         <v>366</v>
       </c>
@@ -28364,7 +32811,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="15">
+    <row r="15" spans="2:23" ht="14.5">
       <c r="B15" s="75" t="s">
         <v>367</v>
       </c>
@@ -28432,7 +32879,7 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="15">
+    <row r="16" spans="2:23" ht="14.5">
       <c r="B16" s="75" t="s">
         <v>368</v>
       </c>
@@ -28500,7 +32947,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15">
+    <row r="17" spans="1:23" ht="14.5">
       <c r="B17" s="78" t="s">
         <v>369</v>
       </c>
@@ -28980,7 +33427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B87FF1F-3A3C-4D72-B711-48B5D7119FCE}">
   <dimension ref="A3:L77"/>
   <sheetViews>
@@ -28988,15 +33435,15 @@
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" style="91"/>
-    <col min="2" max="2" width="11.28515625" style="91" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="91" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="91" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="91" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="91" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="91" customWidth="1"/>
     <col min="5" max="5" width="11" style="91" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="91" customWidth="1"/>
-    <col min="7" max="10" width="9.42578125" style="91" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="91" customWidth="1"/>
+    <col min="7" max="10" width="9.453125" style="91" customWidth="1"/>
     <col min="11" max="16384" width="9" style="91"/>
   </cols>
   <sheetData>
@@ -29033,7 +33480,7 @@
       <c r="B4" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="190" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="182" t="s">
@@ -29064,7 +33511,7 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="182"/>
-      <c r="C5" s="187"/>
+      <c r="C5" s="190"/>
       <c r="D5" s="182"/>
       <c r="E5" s="94" t="s">
         <v>91</v>
@@ -29089,7 +33536,7 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="182"/>
-      <c r="C6" s="187"/>
+      <c r="C6" s="190"/>
       <c r="D6" s="182"/>
       <c r="E6" s="94" t="s">
         <v>92</v>
@@ -29114,7 +33561,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="182"/>
-      <c r="C7" s="187"/>
+      <c r="C7" s="190"/>
       <c r="D7" s="182"/>
       <c r="E7" s="94" t="s">
         <v>93</v>
@@ -29138,7 +33585,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="182"/>
-      <c r="C8" s="187"/>
+      <c r="C8" s="190"/>
       <c r="D8" s="182"/>
       <c r="E8" s="94" t="s">
         <v>94</v>
@@ -29160,7 +33607,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="182"/>
-      <c r="C9" s="187"/>
+      <c r="C9" s="190"/>
       <c r="D9" s="182"/>
       <c r="E9" s="94" t="s">
         <v>95</v>
@@ -29186,7 +33633,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="182"/>
-      <c r="C10" s="187"/>
+      <c r="C10" s="190"/>
       <c r="D10" s="182"/>
       <c r="E10" s="94" t="s">
         <v>96</v>
@@ -29211,7 +33658,7 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="182"/>
-      <c r="C11" s="187"/>
+      <c r="C11" s="190"/>
       <c r="D11" s="182"/>
       <c r="E11" s="94" t="s">
         <v>97</v>
@@ -29235,7 +33682,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="182"/>
-      <c r="C12" s="187"/>
+      <c r="C12" s="190"/>
       <c r="D12" s="182"/>
       <c r="E12" s="94" t="s">
         <v>98</v>
@@ -29260,7 +33707,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="182"/>
-      <c r="C13" s="187"/>
+      <c r="C13" s="190"/>
       <c r="D13" s="182" t="s">
         <v>99</v>
       </c>
@@ -29284,7 +33731,7 @@
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
       <c r="B14" s="182"/>
-      <c r="C14" s="187"/>
+      <c r="C14" s="190"/>
       <c r="D14" s="182"/>
       <c r="E14" s="94" t="s">
         <v>101</v>
@@ -29306,7 +33753,7 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="182"/>
-      <c r="C15" s="187"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="182"/>
       <c r="E15" s="94" t="s">
         <v>102</v>
@@ -29321,7 +33768,7 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="182"/>
-      <c r="C16" s="187"/>
+      <c r="C16" s="190"/>
       <c r="D16" s="182"/>
       <c r="E16" s="94" t="s">
         <v>98</v>
@@ -29342,7 +33789,7 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="182"/>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="190" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="182" t="s">
@@ -29356,7 +33803,7 @@
       </c>
       <c r="G17" s="182"/>
       <c r="H17" s="95"/>
-      <c r="I17" s="188" t="s">
+      <c r="I17" s="187" t="s">
         <v>147</v>
       </c>
       <c r="J17" s="61" t="s">
@@ -29369,7 +33816,7 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="182"/>
-      <c r="C18" s="187"/>
+      <c r="C18" s="190"/>
       <c r="D18" s="182"/>
       <c r="E18" s="94" t="s">
         <v>104</v>
@@ -29379,7 +33826,7 @@
       </c>
       <c r="G18" s="182"/>
       <c r="H18" s="95"/>
-      <c r="I18" s="188"/>
+      <c r="I18" s="187"/>
       <c r="J18" s="61" t="s">
         <v>408</v>
       </c>
@@ -29390,7 +33837,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="182"/>
-      <c r="C19" s="187"/>
+      <c r="C19" s="190"/>
       <c r="D19" s="182"/>
       <c r="E19" s="94" t="s">
         <v>105</v>
@@ -29400,7 +33847,7 @@
       </c>
       <c r="G19" s="182"/>
       <c r="H19" s="95"/>
-      <c r="I19" s="188"/>
+      <c r="I19" s="187"/>
       <c r="J19" s="61" t="s">
         <v>409</v>
       </c>
@@ -29411,7 +33858,7 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="182"/>
-      <c r="C20" s="187"/>
+      <c r="C20" s="190"/>
       <c r="D20" s="182"/>
       <c r="E20" s="94" t="s">
         <v>106</v>
@@ -29434,7 +33881,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="182"/>
-      <c r="C21" s="187"/>
+      <c r="C21" s="190"/>
       <c r="D21" s="182"/>
       <c r="E21" s="94" t="s">
         <v>107</v>
@@ -29455,7 +33902,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="182"/>
-      <c r="C22" s="187"/>
+      <c r="C22" s="190"/>
       <c r="D22" s="182"/>
       <c r="E22" s="94" t="s">
         <v>108</v>
@@ -29470,7 +33917,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="182"/>
-      <c r="C23" s="187"/>
+      <c r="C23" s="190"/>
       <c r="D23" s="182"/>
       <c r="E23" s="94" t="s">
         <v>96</v>
@@ -29485,7 +33932,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="182"/>
-      <c r="C24" s="187"/>
+      <c r="C24" s="190"/>
       <c r="D24" s="182"/>
       <c r="E24" s="94" t="s">
         <v>109</v>
@@ -29500,7 +33947,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="182"/>
-      <c r="C25" s="187"/>
+      <c r="C25" s="190"/>
       <c r="D25" s="182"/>
       <c r="E25" s="94" t="s">
         <v>98</v>
@@ -29516,7 +33963,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="182"/>
-      <c r="C26" s="187"/>
+      <c r="C26" s="190"/>
       <c r="D26" s="182" t="s">
         <v>99</v>
       </c>
@@ -29533,7 +33980,7 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="182"/>
-      <c r="C27" s="187"/>
+      <c r="C27" s="190"/>
       <c r="D27" s="182"/>
       <c r="E27" s="94" t="s">
         <v>110</v>
@@ -29548,7 +33995,7 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="182"/>
-      <c r="C28" s="187"/>
+      <c r="C28" s="190"/>
       <c r="D28" s="182"/>
       <c r="E28" s="94" t="s">
         <v>90</v>
@@ -29563,7 +34010,7 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="182"/>
-      <c r="C29" s="187"/>
+      <c r="C29" s="190"/>
       <c r="D29" s="182"/>
       <c r="E29" s="94" t="s">
         <v>98</v>
@@ -29579,7 +34026,7 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="182"/>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="190" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="182" t="s">
@@ -29598,7 +34045,7 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="182"/>
-      <c r="C31" s="187"/>
+      <c r="C31" s="190"/>
       <c r="D31" s="182"/>
       <c r="E31" s="94" t="s">
         <v>98</v>
@@ -29613,7 +34060,7 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="182"/>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="190" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="182" t="s">
@@ -29632,7 +34079,7 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="182"/>
-      <c r="C33" s="187"/>
+      <c r="C33" s="190"/>
       <c r="D33" s="182"/>
       <c r="E33" s="94" t="s">
         <v>104</v>
@@ -29647,7 +34094,7 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="182"/>
-      <c r="C34" s="187"/>
+      <c r="C34" s="190"/>
       <c r="D34" s="182"/>
       <c r="E34" s="94" t="s">
         <v>98</v>
@@ -29663,7 +34110,7 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="182"/>
-      <c r="C35" s="187" t="s">
+      <c r="C35" s="190" t="s">
         <v>114</v>
       </c>
       <c r="D35" s="182" t="s">
@@ -29682,7 +34129,7 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="182"/>
-      <c r="C36" s="187"/>
+      <c r="C36" s="190"/>
       <c r="D36" s="182"/>
       <c r="E36" s="94" t="s">
         <v>115</v>
@@ -29697,7 +34144,7 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="182"/>
-      <c r="C37" s="187"/>
+      <c r="C37" s="190"/>
       <c r="D37" s="182"/>
       <c r="E37" s="94" t="s">
         <v>98</v>
@@ -29713,7 +34160,7 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="182"/>
-      <c r="C38" s="187" t="s">
+      <c r="C38" s="190" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="182" t="s">
@@ -29732,7 +34179,7 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="182"/>
-      <c r="C39" s="187"/>
+      <c r="C39" s="190"/>
       <c r="D39" s="182"/>
       <c r="E39" s="94" t="s">
         <v>112</v>
@@ -29747,7 +34194,7 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="182"/>
-      <c r="C40" s="187"/>
+      <c r="C40" s="190"/>
       <c r="D40" s="182"/>
       <c r="E40" s="94" t="s">
         <v>118</v>
@@ -29762,7 +34209,7 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="182"/>
-      <c r="C41" s="187"/>
+      <c r="C41" s="190"/>
       <c r="D41" s="182"/>
       <c r="E41" s="94" t="s">
         <v>98</v>
@@ -29778,7 +34225,7 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="182"/>
-      <c r="C42" s="187" t="s">
+      <c r="C42" s="190" t="s">
         <v>119</v>
       </c>
       <c r="D42" s="182" t="s">
@@ -29797,7 +34244,7 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="182"/>
-      <c r="C43" s="187"/>
+      <c r="C43" s="190"/>
       <c r="D43" s="182"/>
       <c r="E43" s="94" t="s">
         <v>98</v>
@@ -29812,7 +34259,7 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="182"/>
-      <c r="C44" s="187" t="s">
+      <c r="C44" s="190" t="s">
         <v>120</v>
       </c>
       <c r="D44" s="182" t="s">
@@ -29831,7 +34278,7 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="182"/>
-      <c r="C45" s="187"/>
+      <c r="C45" s="190"/>
       <c r="D45" s="182"/>
       <c r="E45" s="94" t="s">
         <v>98</v>
@@ -29846,7 +34293,7 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="182"/>
-      <c r="C46" s="187" t="s">
+      <c r="C46" s="190" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="182" t="s">
@@ -29865,7 +34312,7 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="182"/>
-      <c r="C47" s="187"/>
+      <c r="C47" s="190"/>
       <c r="D47" s="182"/>
       <c r="E47" s="94" t="s">
         <v>98</v>
@@ -29880,7 +34327,7 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="182"/>
-      <c r="C48" s="187" t="s">
+      <c r="C48" s="190" t="s">
         <v>123</v>
       </c>
       <c r="D48" s="182" t="s">
@@ -29899,7 +34346,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="182"/>
-      <c r="C49" s="187"/>
+      <c r="C49" s="190"/>
       <c r="D49" s="182"/>
       <c r="E49" s="94" t="s">
         <v>98</v>
@@ -30078,12 +34525,12 @@
       <c r="J59" s="101"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="188" t="s">
+      <c r="B60" s="187" t="s">
         <v>410</v>
       </c>
-      <c r="C60" s="188"/>
-      <c r="D60" s="188"/>
-      <c r="E60" s="188"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="187"/>
+      <c r="E60" s="187"/>
       <c r="F60" s="94">
         <f>SUM($F$50,$F$59)</f>
         <v>429</v>
@@ -30116,14 +34563,14 @@
       <c r="J61" s="101"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="188" t="s">
+      <c r="B62" s="187" t="s">
         <v>413</v>
       </c>
-      <c r="C62" s="190" t="s">
+      <c r="C62" s="188" t="s">
         <v>414</v>
       </c>
-      <c r="D62" s="190"/>
-      <c r="E62" s="190"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="188"/>
       <c r="F62" s="94">
         <v>111</v>
       </c>
@@ -30135,12 +34582,12 @@
       <c r="J62" s="101"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="188"/>
-      <c r="C63" s="190" t="s">
+      <c r="B63" s="187"/>
+      <c r="C63" s="188" t="s">
         <v>415</v>
       </c>
-      <c r="D63" s="190"/>
-      <c r="E63" s="190"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="188"/>
       <c r="F63" s="94"/>
       <c r="G63" s="94">
         <v>2</v>
@@ -30150,12 +34597,12 @@
       <c r="J63" s="101"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="188"/>
-      <c r="C64" s="190" t="s">
+      <c r="B64" s="187"/>
+      <c r="C64" s="188" t="s">
         <v>416</v>
       </c>
-      <c r="D64" s="190"/>
-      <c r="E64" s="190"/>
+      <c r="D64" s="188"/>
+      <c r="E64" s="188"/>
       <c r="F64" s="94">
         <v>2</v>
       </c>
@@ -30165,12 +34612,12 @@
       <c r="J64" s="101"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="B65" s="188"/>
-      <c r="C65" s="190" t="s">
+      <c r="B65" s="187"/>
+      <c r="C65" s="188" t="s">
         <v>417</v>
       </c>
-      <c r="D65" s="190"/>
-      <c r="E65" s="190"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="188"/>
       <c r="F65" s="94">
         <v>1</v>
       </c>
@@ -30182,7 +34629,7 @@
       <c r="J65" s="101"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="B66" s="188"/>
+      <c r="B66" s="187"/>
       <c r="C66" s="189" t="s">
         <v>418</v>
       </c>
@@ -30199,12 +34646,12 @@
       <c r="J66" s="101"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="B67" s="188"/>
-      <c r="C67" s="188" t="s">
+      <c r="B67" s="187"/>
+      <c r="C67" s="187" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="188"/>
-      <c r="E67" s="188"/>
+      <c r="D67" s="187"/>
+      <c r="E67" s="187"/>
       <c r="F67" s="94">
         <f>SUM($F$62:$F$66)</f>
         <v>133</v>
@@ -30218,12 +34665,12 @@
       <c r="J67" s="101"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="B68" s="188" t="s">
+      <c r="B68" s="187" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="188"/>
-      <c r="D68" s="188"/>
-      <c r="E68" s="188"/>
+      <c r="C68" s="187"/>
+      <c r="D68" s="187"/>
+      <c r="E68" s="187"/>
       <c r="F68" s="94">
         <f>SUM($F$67,$F$60,$F$61)</f>
         <v>645</v>
@@ -30302,29 +34749,17 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="D4:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="B4:B50"/>
     <mergeCell ref="G4:G50"/>
@@ -30341,24 +34776,36 @@
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="C17:C29"/>
-    <mergeCell ref="D4:D12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B9AB7A-990B-4FF3-BB53-4B6A092AC7D1}">
   <dimension ref="A2:C16"/>
   <sheetViews>
@@ -30366,7 +34813,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
@@ -30467,1202 +34914,4 @@
   <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C401D476-F0CB-42EA-9C51-F86641CEEDE0}">
-  <dimension ref="A1:R47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="62" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="62" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="62" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="62" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="62" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="62"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="D1" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="191" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="191" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="191" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10">
-        <v>449549</v>
-      </c>
-      <c r="C5" s="11">
-        <v>19855</v>
-      </c>
-      <c r="D5" s="11">
-        <v>146965</v>
-      </c>
-      <c r="E5" s="11">
-        <v>252816</v>
-      </c>
-      <c r="F5" s="11">
-        <v>29913</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4560</v>
-      </c>
-      <c r="H5" s="11">
-        <v>299</v>
-      </c>
-      <c r="I5" s="11">
-        <v>933</v>
-      </c>
-      <c r="J5" s="11">
-        <v>3173</v>
-      </c>
-      <c r="K5" s="11">
-        <v>155</v>
-      </c>
-      <c r="L5" s="11">
-        <v>444989</v>
-      </c>
-      <c r="M5" s="11">
-        <v>19556</v>
-      </c>
-      <c r="N5" s="11">
-        <v>146032</v>
-      </c>
-      <c r="O5" s="11">
-        <v>249643</v>
-      </c>
-      <c r="P5" s="11">
-        <v>29758</v>
-      </c>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10">
-        <v>132571</v>
-      </c>
-      <c r="C6" s="11">
-        <v>5788</v>
-      </c>
-      <c r="D6" s="11">
-        <v>37451</v>
-      </c>
-      <c r="E6" s="11">
-        <v>82300</v>
-      </c>
-      <c r="F6" s="11">
-        <v>7032</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1439</v>
-      </c>
-      <c r="H6" s="11">
-        <v>103</v>
-      </c>
-      <c r="I6" s="11">
-        <v>179</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1114</v>
-      </c>
-      <c r="K6" s="11">
-        <v>43</v>
-      </c>
-      <c r="L6" s="11">
-        <v>131132</v>
-      </c>
-      <c r="M6" s="11">
-        <v>5685</v>
-      </c>
-      <c r="N6" s="11">
-        <v>37272</v>
-      </c>
-      <c r="O6" s="11">
-        <v>81186</v>
-      </c>
-      <c r="P6" s="11">
-        <v>6989</v>
-      </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="10">
-        <v>132716</v>
-      </c>
-      <c r="C7" s="11">
-        <v>9915</v>
-      </c>
-      <c r="D7" s="11">
-        <v>58400</v>
-      </c>
-      <c r="E7" s="11">
-        <v>58937</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5464</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1246</v>
-      </c>
-      <c r="H7" s="11">
-        <v>171</v>
-      </c>
-      <c r="I7" s="11">
-        <v>202</v>
-      </c>
-      <c r="J7" s="11">
-        <v>839</v>
-      </c>
-      <c r="K7" s="11">
-        <v>34</v>
-      </c>
-      <c r="L7" s="11">
-        <v>131470</v>
-      </c>
-      <c r="M7" s="11">
-        <v>9744</v>
-      </c>
-      <c r="N7" s="11">
-        <v>58198</v>
-      </c>
-      <c r="O7" s="11">
-        <v>58098</v>
-      </c>
-      <c r="P7" s="11">
-        <v>5430</v>
-      </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10">
-        <v>75874</v>
-      </c>
-      <c r="C8" s="11">
-        <v>3639</v>
-      </c>
-      <c r="D8" s="11">
-        <v>29356</v>
-      </c>
-      <c r="E8" s="11">
-        <v>37797</v>
-      </c>
-      <c r="F8" s="11">
-        <v>5082</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1026</v>
-      </c>
-      <c r="H8" s="11">
-        <v>15</v>
-      </c>
-      <c r="I8" s="11">
-        <v>187</v>
-      </c>
-      <c r="J8" s="11">
-        <v>792</v>
-      </c>
-      <c r="K8" s="11">
-        <v>32</v>
-      </c>
-      <c r="L8" s="11">
-        <v>74848</v>
-      </c>
-      <c r="M8" s="11">
-        <v>3624</v>
-      </c>
-      <c r="N8" s="11">
-        <v>29169</v>
-      </c>
-      <c r="O8" s="11">
-        <v>37005</v>
-      </c>
-      <c r="P8" s="11">
-        <v>5050</v>
-      </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10">
-        <v>39914</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2003</v>
-      </c>
-      <c r="D9" s="11">
-        <v>15889</v>
-      </c>
-      <c r="E9" s="11">
-        <v>20230</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1792</v>
-      </c>
-      <c r="G9" s="11">
-        <v>511</v>
-      </c>
-      <c r="H9" s="11">
-        <v>21</v>
-      </c>
-      <c r="I9" s="11">
-        <v>46</v>
-      </c>
-      <c r="J9" s="11">
-        <v>434</v>
-      </c>
-      <c r="K9" s="11">
-        <v>10</v>
-      </c>
-      <c r="L9" s="11">
-        <v>39403</v>
-      </c>
-      <c r="M9" s="11">
-        <v>1982</v>
-      </c>
-      <c r="N9" s="11">
-        <v>15843</v>
-      </c>
-      <c r="O9" s="11">
-        <v>19796</v>
-      </c>
-      <c r="P9" s="11">
-        <v>1782</v>
-      </c>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10">
-        <v>38183</v>
-      </c>
-      <c r="C10" s="11">
-        <v>3482</v>
-      </c>
-      <c r="D10" s="11">
-        <v>11473</v>
-      </c>
-      <c r="E10" s="11">
-        <v>20414</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2814</v>
-      </c>
-      <c r="G10" s="11">
-        <v>504</v>
-      </c>
-      <c r="H10" s="11">
-        <v>38</v>
-      </c>
-      <c r="I10" s="11">
-        <v>67</v>
-      </c>
-      <c r="J10" s="11">
-        <v>381</v>
-      </c>
-      <c r="K10" s="11">
-        <v>18</v>
-      </c>
-      <c r="L10" s="11">
-        <v>37679</v>
-      </c>
-      <c r="M10" s="11">
-        <v>3444</v>
-      </c>
-      <c r="N10" s="11">
-        <v>11406</v>
-      </c>
-      <c r="O10" s="11">
-        <v>20033</v>
-      </c>
-      <c r="P10" s="11">
-        <v>2796</v>
-      </c>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="10">
-        <v>63407</v>
-      </c>
-      <c r="C11" s="11">
-        <v>3702</v>
-      </c>
-      <c r="D11" s="11">
-        <v>12033</v>
-      </c>
-      <c r="E11" s="11">
-        <v>45045</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2627</v>
-      </c>
-      <c r="G11" s="11">
-        <v>498</v>
-      </c>
-      <c r="H11" s="11">
-        <v>98</v>
-      </c>
-      <c r="I11" s="11">
-        <v>48</v>
-      </c>
-      <c r="J11" s="11">
-        <v>340</v>
-      </c>
-      <c r="K11" s="11">
-        <v>12</v>
-      </c>
-      <c r="L11" s="11">
-        <v>62909</v>
-      </c>
-      <c r="M11" s="11">
-        <v>3604</v>
-      </c>
-      <c r="N11" s="11">
-        <v>11985</v>
-      </c>
-      <c r="O11" s="11">
-        <v>44705</v>
-      </c>
-      <c r="P11" s="11">
-        <v>2615</v>
-      </c>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="10">
-        <v>11414</v>
-      </c>
-      <c r="C12" s="11">
-        <v>871</v>
-      </c>
-      <c r="D12" s="11">
-        <v>5296</v>
-      </c>
-      <c r="E12" s="11">
-        <v>4685</v>
-      </c>
-      <c r="F12" s="11">
-        <v>562</v>
-      </c>
-      <c r="G12" s="11">
-        <v>147</v>
-      </c>
-      <c r="H12" s="11">
-        <v>8</v>
-      </c>
-      <c r="I12" s="11">
-        <v>11</v>
-      </c>
-      <c r="J12" s="11">
-        <v>122</v>
-      </c>
-      <c r="K12" s="11">
-        <v>6</v>
-      </c>
-      <c r="L12" s="11">
-        <v>11267</v>
-      </c>
-      <c r="M12" s="11">
-        <v>863</v>
-      </c>
-      <c r="N12" s="11">
-        <v>5285</v>
-      </c>
-      <c r="O12" s="11">
-        <v>4563</v>
-      </c>
-      <c r="P12" s="11">
-        <v>556</v>
-      </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="10">
-        <v>395670</v>
-      </c>
-      <c r="C13" s="11">
-        <v>18938</v>
-      </c>
-      <c r="D13" s="11">
-        <v>151538</v>
-      </c>
-      <c r="E13" s="11">
-        <v>197206</v>
-      </c>
-      <c r="F13" s="11">
-        <v>27988</v>
-      </c>
-      <c r="G13" s="11">
-        <v>4938</v>
-      </c>
-      <c r="H13" s="11">
-        <v>170</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1012</v>
-      </c>
-      <c r="J13" s="11">
-        <v>3646</v>
-      </c>
-      <c r="K13" s="11">
-        <v>110</v>
-      </c>
-      <c r="L13" s="11">
-        <v>390732</v>
-      </c>
-      <c r="M13" s="11">
-        <v>18768</v>
-      </c>
-      <c r="N13" s="11">
-        <v>150526</v>
-      </c>
-      <c r="O13" s="11">
-        <v>193560</v>
-      </c>
-      <c r="P13" s="11">
-        <v>27878</v>
-      </c>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10">
-        <v>65635</v>
-      </c>
-      <c r="C14" s="11">
-        <v>5868</v>
-      </c>
-      <c r="D14" s="11">
-        <v>24279</v>
-      </c>
-      <c r="E14" s="11">
-        <v>32340</v>
-      </c>
-      <c r="F14" s="11">
-        <v>3148</v>
-      </c>
-      <c r="G14" s="11">
-        <v>990</v>
-      </c>
-      <c r="H14" s="11">
-        <v>51</v>
-      </c>
-      <c r="I14" s="11">
-        <v>51</v>
-      </c>
-      <c r="J14" s="11">
-        <v>854</v>
-      </c>
-      <c r="K14" s="11">
-        <v>34</v>
-      </c>
-      <c r="L14" s="11">
-        <v>64645</v>
-      </c>
-      <c r="M14" s="11">
-        <v>5817</v>
-      </c>
-      <c r="N14" s="11">
-        <v>24228</v>
-      </c>
-      <c r="O14" s="11">
-        <v>31486</v>
-      </c>
-      <c r="P14" s="11">
-        <v>3114</v>
-      </c>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10">
-        <v>91678</v>
-      </c>
-      <c r="C15" s="11">
-        <v>7584</v>
-      </c>
-      <c r="D15" s="11">
-        <v>40566</v>
-      </c>
-      <c r="E15" s="11">
-        <v>40153</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3375</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1199</v>
-      </c>
-      <c r="H15" s="11">
-        <v>73</v>
-      </c>
-      <c r="I15" s="11">
-        <v>268</v>
-      </c>
-      <c r="J15" s="11">
-        <v>823</v>
-      </c>
-      <c r="K15" s="11">
-        <v>35</v>
-      </c>
-      <c r="L15" s="11">
-        <v>90479</v>
-      </c>
-      <c r="M15" s="11">
-        <v>7511</v>
-      </c>
-      <c r="N15" s="11">
-        <v>40298</v>
-      </c>
-      <c r="O15" s="11">
-        <v>39330</v>
-      </c>
-      <c r="P15" s="11">
-        <v>3340</v>
-      </c>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="10">
-        <v>135311</v>
-      </c>
-      <c r="C16" s="11">
-        <v>9796</v>
-      </c>
-      <c r="D16" s="11">
-        <v>64655</v>
-      </c>
-      <c r="E16" s="11">
-        <v>56193</v>
-      </c>
-      <c r="F16" s="11">
-        <v>4667</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1769</v>
-      </c>
-      <c r="H16" s="11">
-        <v>182</v>
-      </c>
-      <c r="I16" s="11">
-        <v>403</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1149</v>
-      </c>
-      <c r="K16" s="11">
-        <v>35</v>
-      </c>
-      <c r="L16" s="11">
-        <v>133542</v>
-      </c>
-      <c r="M16" s="11">
-        <v>9614</v>
-      </c>
-      <c r="N16" s="11">
-        <v>64252</v>
-      </c>
-      <c r="O16" s="11">
-        <v>55044</v>
-      </c>
-      <c r="P16" s="11">
-        <v>4632</v>
-      </c>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="10">
-        <v>100987</v>
-      </c>
-      <c r="C17" s="11">
-        <v>7682</v>
-      </c>
-      <c r="D17" s="11">
-        <v>50195</v>
-      </c>
-      <c r="E17" s="11">
-        <v>40451</v>
-      </c>
-      <c r="F17" s="11">
-        <v>2659</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1383</v>
-      </c>
-      <c r="H17" s="11">
-        <v>91</v>
-      </c>
-      <c r="I17" s="11">
-        <v>303</v>
-      </c>
-      <c r="J17" s="11">
-        <v>966</v>
-      </c>
-      <c r="K17" s="11">
-        <v>23</v>
-      </c>
-      <c r="L17" s="11">
-        <v>99604</v>
-      </c>
-      <c r="M17" s="11">
-        <v>7591</v>
-      </c>
-      <c r="N17" s="11">
-        <v>49892</v>
-      </c>
-      <c r="O17" s="11">
-        <v>39485</v>
-      </c>
-      <c r="P17" s="11">
-        <v>2636</v>
-      </c>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="10">
-        <v>118666</v>
-      </c>
-      <c r="C18" s="11">
-        <v>7792</v>
-      </c>
-      <c r="D18" s="11">
-        <v>59184</v>
-      </c>
-      <c r="E18" s="11">
-        <v>48966</v>
-      </c>
-      <c r="F18" s="11">
-        <v>2724</v>
-      </c>
-      <c r="G18" s="11">
-        <v>2072</v>
-      </c>
-      <c r="H18" s="11">
-        <v>121</v>
-      </c>
-      <c r="I18" s="11">
-        <v>597</v>
-      </c>
-      <c r="J18" s="11">
-        <v>1318</v>
-      </c>
-      <c r="K18" s="11">
-        <v>36</v>
-      </c>
-      <c r="L18" s="11">
-        <v>116594</v>
-      </c>
-      <c r="M18" s="11">
-        <v>7671</v>
-      </c>
-      <c r="N18" s="11">
-        <v>58587</v>
-      </c>
-      <c r="O18" s="11">
-        <v>47648</v>
-      </c>
-      <c r="P18" s="11">
-        <v>2688</v>
-      </c>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="10">
-        <v>188706</v>
-      </c>
-      <c r="C19" s="11">
-        <v>16568</v>
-      </c>
-      <c r="D19" s="11">
-        <v>86149</v>
-      </c>
-      <c r="E19" s="11">
-        <v>80548</v>
-      </c>
-      <c r="F19" s="11">
-        <v>5441</v>
-      </c>
-      <c r="G19" s="11">
-        <v>2097</v>
-      </c>
-      <c r="H19" s="11">
-        <v>97</v>
-      </c>
-      <c r="I19" s="11">
-        <v>507</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1435</v>
-      </c>
-      <c r="K19" s="11">
-        <v>58</v>
-      </c>
-      <c r="L19" s="11">
-        <v>186609</v>
-      </c>
-      <c r="M19" s="11">
-        <v>16471</v>
-      </c>
-      <c r="N19" s="11">
-        <v>85642</v>
-      </c>
-      <c r="O19" s="11">
-        <v>79113</v>
-      </c>
-      <c r="P19" s="11">
-        <v>5383</v>
-      </c>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-    </row>
-    <row r="20" spans="1:18" s="35" customFormat="1">
-      <c r="A20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="13">
-        <v>163968</v>
-      </c>
-      <c r="C20" s="11">
-        <v>12418</v>
-      </c>
-      <c r="D20" s="11">
-        <v>59025</v>
-      </c>
-      <c r="E20" s="11">
-        <v>86060</v>
-      </c>
-      <c r="F20" s="11">
-        <v>6465</v>
-      </c>
-      <c r="G20" s="11">
-        <v>2188</v>
-      </c>
-      <c r="H20" s="11">
-        <v>143</v>
-      </c>
-      <c r="I20" s="11">
-        <v>415</v>
-      </c>
-      <c r="J20" s="11">
-        <v>1596</v>
-      </c>
-      <c r="K20" s="11">
-        <v>34</v>
-      </c>
-      <c r="L20" s="11">
-        <v>161780</v>
-      </c>
-      <c r="M20" s="11">
-        <v>12275</v>
-      </c>
-      <c r="N20" s="11">
-        <v>58610</v>
-      </c>
-      <c r="O20" s="11">
-        <v>84464</v>
-      </c>
-      <c r="P20" s="11">
-        <v>6431</v>
-      </c>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-    </row>
-    <row r="21" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A21" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="15">
-        <v>32646</v>
-      </c>
-      <c r="C21" s="16">
-        <v>7092</v>
-      </c>
-      <c r="D21" s="16">
-        <v>10468</v>
-      </c>
-      <c r="E21" s="16">
-        <v>13721</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1365</v>
-      </c>
-      <c r="G21" s="16">
-        <v>516</v>
-      </c>
-      <c r="H21" s="16">
-        <v>132</v>
-      </c>
-      <c r="I21" s="16">
-        <v>80</v>
-      </c>
-      <c r="J21" s="16">
-        <v>281</v>
-      </c>
-      <c r="K21" s="16">
-        <v>23</v>
-      </c>
-      <c r="L21" s="16">
-        <v>32130</v>
-      </c>
-      <c r="M21" s="16">
-        <v>6960</v>
-      </c>
-      <c r="N21" s="16">
-        <v>10388</v>
-      </c>
-      <c r="O21" s="16">
-        <v>13440</v>
-      </c>
-      <c r="P21" s="16">
-        <v>1342</v>
-      </c>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-    </row>
-    <row r="22" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A22" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="33">
-        <f>SUM(B5:B21)</f>
-        <v>2236895</v>
-      </c>
-      <c r="C22" s="18">
-        <f t="shared" ref="C22:P22" si="0">SUM(C5:C21)</f>
-        <v>142993</v>
-      </c>
-      <c r="D22" s="18">
-        <f t="shared" si="0"/>
-        <v>862922</v>
-      </c>
-      <c r="E22" s="18">
-        <f t="shared" si="0"/>
-        <v>1117862</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="0"/>
-        <v>113118</v>
-      </c>
-      <c r="G22" s="18">
-        <f t="shared" si="0"/>
-        <v>27083</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="0"/>
-        <v>1813</v>
-      </c>
-      <c r="I22" s="18">
-        <f t="shared" si="0"/>
-        <v>5309</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="0"/>
-        <v>19263</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="0"/>
-        <v>698</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="0"/>
-        <v>2209812</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" si="0"/>
-        <v>141180</v>
-      </c>
-      <c r="N22" s="18">
-        <f t="shared" si="0"/>
-        <v>857613</v>
-      </c>
-      <c r="O22" s="18">
-        <f t="shared" si="0"/>
-        <v>1098599</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" si="0"/>
-        <v>112420</v>
-      </c>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="13.5" thickBot="1">
-      <c r="R26" s="64"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="B27" s="162" t="s">
-        <v>575</v>
-      </c>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="F27" s="67"/>
-      <c r="R27" s="64"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="B28" s="165" t="s">
-        <v>571</v>
-      </c>
-      <c r="C28" s="157" t="s">
-        <v>572</v>
-      </c>
-      <c r="D28" s="168">
-        <f>SUM(D22:E22)</f>
-        <v>1980784</v>
-      </c>
-      <c r="R28" s="64"/>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" thickBot="1">
-      <c r="B29" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="C29" s="167" t="s">
-        <v>574</v>
-      </c>
-      <c r="D29" s="169">
-        <f>SUM(C22,F22)</f>
-        <v>256111</v>
-      </c>
-      <c r="R29" s="64"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="R30" s="64"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="71" t="s">
-        <v>580</v>
-      </c>
-      <c r="R31" s="64"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="62" t="s">
-        <v>581</v>
-      </c>
-      <c r="R32" s="64"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="62" t="s">
-        <v>582</v>
-      </c>
-      <c r="R33" s="64"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="R34" s="64"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="R35" s="64"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="R36" s="64"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="R37" s="64"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="R38" s="64"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="R39" s="64"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="R40" s="64"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="R41" s="64"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="R42" s="64"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="R43" s="64"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="R44" s="64"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="R45" s="64"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="R46" s="64"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="R47" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-  </mergeCells>
-  <phoneticPr fontId="37" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE7681-5905-4CCB-A05A-636433AE53DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D4ED1-1203-4936-BBF6-96B362C24296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="594">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -3263,182 +3263,29 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>Domestic Shipping Emissions (MMT CO2e)</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Sum of 1990</t>
-  </si>
-  <si>
-    <t>Sum of 2005</t>
-  </si>
-  <si>
-    <t>Sum of 2010</t>
-  </si>
-  <si>
-    <t>Sum of 2015</t>
-  </si>
-  <si>
-    <t>Sum of 2020</t>
-  </si>
-  <si>
-    <t>Sum of 2025</t>
-  </si>
-  <si>
-    <t>Sum of 2030</t>
-  </si>
-  <si>
-    <t>Sum of 2035</t>
-  </si>
-  <si>
-    <t>Sum of 2040</t>
-  </si>
-  <si>
-    <t>Sum of 2045</t>
-  </si>
-  <si>
-    <t>Sum of 2050</t>
-  </si>
-  <si>
-    <t>Africa_Eastern</t>
-  </si>
-  <si>
-    <t>Africa_Northern</t>
-  </si>
-  <si>
-    <t>Africa_Southern</t>
-  </si>
-  <si>
-    <t>Africa_Western</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Australia_NZ</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Central America and Caribbean</t>
-  </si>
-  <si>
-    <t>Central Asia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>EU-12</t>
-  </si>
-  <si>
-    <t>EU-15</t>
-  </si>
-  <si>
-    <t>Europe_Eastern</t>
-  </si>
-  <si>
-    <t>Europe_Non_EU</t>
-  </si>
-  <si>
-    <t>European Free Trade Association</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South America_Northern</t>
-  </si>
-  <si>
-    <t>South America_Southern</t>
-  </si>
-  <si>
-    <t>South Asia</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southeast Asia</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>EU Total</t>
-  </si>
-  <si>
-    <t>International Shipping Emissions (MMT CO2e)</t>
-  </si>
-  <si>
-    <t>Middle East</t>
-  </si>
-  <si>
-    <t>EU + USA Shipping Emissions (MMT CO2e)</t>
-  </si>
-  <si>
-    <t>EU Domestic</t>
-  </si>
-  <si>
-    <t>USA Domestic</t>
-  </si>
-  <si>
-    <t>EU+US Domestic Total</t>
-  </si>
-  <si>
-    <t>Global Total</t>
-  </si>
-  <si>
-    <t>EU+US Domestic  Share of Global</t>
-  </si>
-  <si>
-    <t>Multiplier of NEXT SYVBT to GCAM Emissions</t>
-  </si>
-  <si>
     <t xml:space="preserve">The original SYVBT values from NEXT seem to reflect domestic shipping emissions (compared to GCAM shipping emissions). </t>
   </si>
   <si>
     <t>To estimate the additional international shipping emissions, we applied a multiplier based on GCAM data. See ships multiplier tab for GCAM emissions</t>
+  </si>
+  <si>
+    <t>Multiplier of NEXT SYVBT to UNFCC Emissions</t>
+  </si>
+  <si>
+    <t>UNFCCC</t>
+  </si>
+  <si>
+    <t>https://unfccc.int/sites/default/files/resource/Third%20Biennial%20Update%20Report%20of%20the%20ROK%20under%20the%20UNFCCC.pdf</t>
+  </si>
+  <si>
+    <t>To modify the start year vehicles to account for both domestic and international shipping emissions, we use the above multipler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -3446,7 +3293,6 @@
     <numFmt numFmtId="166" formatCode="#,##0_)"/>
     <numFmt numFmtId="167" formatCode="#,##0_ "/>
     <numFmt numFmtId="168" formatCode="0_ "/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -3823,7 +3669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4038,20 +3884,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -4566,15 +4400,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4791,7 +4616,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5286,6 +5111,8 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="143" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="30" borderId="0" xfId="144" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5343,38 +5170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="42" borderId="0" xfId="140" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="30" borderId="0" xfId="144" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="145">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5944,7 +5739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -6307,12 +6102,12 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>643</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
-        <v>644</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -6388,27 +6183,27 @@
       <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="191" t="s">
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="191" t="s">
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="195"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="8" t="s">
@@ -7827,7 +7622,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="196" t="s">
         <v>387</v>
       </c>
       <c r="B19" s="86" t="s">
@@ -7854,7 +7649,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="194"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="86" t="s">
         <v>144</v>
       </c>
@@ -7878,7 +7673,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="194"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="86" t="s">
         <v>385</v>
       </c>
@@ -7901,7 +7696,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="194"/>
+      <c r="A22" s="196"/>
       <c r="B22" s="86" t="s">
         <v>386</v>
       </c>
@@ -7916,7 +7711,7 @@
       <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="194"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="86" t="s">
         <v>388</v>
       </c>
@@ -8141,7 +7936,7 @@
       </c>
       <c r="E6" s="1">
         <f>Ships!C$3*'ships multiplier'!$C$2</f>
-        <v>1142.4230101631761</v>
+        <v>1318.56</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -8493,7 +8288,7 @@
       </c>
       <c r="E6" s="1">
         <f>SUM(Ships!C4:C5)*Cal!H19*'ships multiplier'!C2</f>
-        <v>4890.4879246939608</v>
+        <v>5644.4956908417153</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -8582,10 +8377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3218950D-C1F1-4220-826C-93B74C3EB972}">
-  <dimension ref="B2:N87"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8593,2993 +8388,25 @@
     <col min="2" max="2" width="39.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="196" t="s">
-        <v>642</v>
-      </c>
-      <c r="C2" s="208">
-        <v>3.482996982204805</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="195" t="s">
-        <v>588</v>
-      </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="196" t="s">
-        <v>589</v>
-      </c>
-      <c r="C5" s="197" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="176" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="176" t="s">
         <v>590</v>
       </c>
-      <c r="D5" s="197" t="s">
-        <v>591</v>
-      </c>
-      <c r="E5" s="197" t="s">
-        <v>592</v>
-      </c>
-      <c r="F5" s="197" t="s">
+      <c r="C2" s="177">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
         <v>593</v>
-      </c>
-      <c r="G5" s="197" t="s">
-        <v>594</v>
-      </c>
-      <c r="H5" s="197" t="s">
-        <v>595</v>
-      </c>
-      <c r="I5" s="197" t="s">
-        <v>596</v>
-      </c>
-      <c r="J5" s="197" t="s">
-        <v>597</v>
-      </c>
-      <c r="K5" s="197" t="s">
-        <v>598</v>
-      </c>
-      <c r="L5" s="197" t="s">
-        <v>599</v>
-      </c>
-      <c r="M5" s="197" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C6" s="198">
-        <v>0.10779634342643334</v>
-      </c>
-      <c r="D6" s="198">
-        <v>0.13375321864953335</v>
-      </c>
-      <c r="E6" s="198">
-        <v>0.18111372968286671</v>
-      </c>
-      <c r="F6" s="198">
-        <v>0.20764281125286665</v>
-      </c>
-      <c r="G6" s="198">
-        <v>0.24931859825199995</v>
-      </c>
-      <c r="H6" s="198">
-        <v>0.3132222161130333</v>
-      </c>
-      <c r="I6" s="198">
-        <v>0.40663055681304999</v>
-      </c>
-      <c r="J6" s="198">
-        <v>0.53048127465200012</v>
-      </c>
-      <c r="K6" s="198">
-        <v>0.67997046112250015</v>
-      </c>
-      <c r="L6" s="198">
-        <v>0.84980086036083335</v>
-      </c>
-      <c r="M6" s="198">
-        <v>1.0329628982223333</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C7" s="198">
-        <v>0.39519166259999994</v>
-      </c>
-      <c r="D7" s="198">
-        <v>3.2846102556666663</v>
-      </c>
-      <c r="E7" s="198">
-        <v>3.2435801440000001</v>
-      </c>
-      <c r="F7" s="198">
-        <v>3.3528250030000004</v>
-      </c>
-      <c r="G7" s="198">
-        <v>3.6826248110000002</v>
-      </c>
-      <c r="H7" s="198">
-        <v>4.1250017979999996</v>
-      </c>
-      <c r="I7" s="198">
-        <v>4.6159290366666665</v>
-      </c>
-      <c r="J7" s="198">
-        <v>5.1379789790000006</v>
-      </c>
-      <c r="K7" s="198">
-        <v>5.6843872979999999</v>
-      </c>
-      <c r="L7" s="198">
-        <v>6.2042112983333331</v>
-      </c>
-      <c r="M7" s="198">
-        <v>6.651951935333333</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C8" s="198">
-        <v>0.61873203333333338</v>
-      </c>
-      <c r="D8" s="198">
-        <v>0.55465697508666667</v>
-      </c>
-      <c r="E8" s="198">
-        <v>0.69659499420000004</v>
-      </c>
-      <c r="F8" s="198">
-        <v>0.76325194163333332</v>
-      </c>
-      <c r="G8" s="198">
-        <v>0.86894996928333335</v>
-      </c>
-      <c r="H8" s="198">
-        <v>1.03219748755</v>
-      </c>
-      <c r="I8" s="198">
-        <v>1.2439040098166667</v>
-      </c>
-      <c r="J8" s="198">
-        <v>1.5049628347166668</v>
-      </c>
-      <c r="K8" s="198">
-        <v>1.8197188686166668</v>
-      </c>
-      <c r="L8" s="198">
-        <v>2.1797221572500001</v>
-      </c>
-      <c r="M8" s="198">
-        <v>2.5724072436666665</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" t="s">
-        <v>604</v>
-      </c>
-      <c r="C9" s="198">
-        <v>0.64800551241833326</v>
-      </c>
-      <c r="D9" s="198">
-        <v>1.0254131176666668</v>
-      </c>
-      <c r="E9" s="198">
-        <v>1.0030117009999999</v>
-      </c>
-      <c r="F9" s="198">
-        <v>1.1423200566666665</v>
-      </c>
-      <c r="G9" s="198">
-        <v>1.3047679698333332</v>
-      </c>
-      <c r="H9" s="198">
-        <v>1.6381323241666665</v>
-      </c>
-      <c r="I9" s="198">
-        <v>2.0995788291666666</v>
-      </c>
-      <c r="J9" s="198">
-        <v>2.6883379284999998</v>
-      </c>
-      <c r="K9" s="198">
-        <v>3.3958801986666667</v>
-      </c>
-      <c r="L9" s="198">
-        <v>4.2037127196666662</v>
-      </c>
-      <c r="M9" s="198">
-        <v>5.0858771061666666</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C10" s="198">
-        <v>0.49988798360000003</v>
-      </c>
-      <c r="D10" s="198">
-        <v>1.4536615757333333</v>
-      </c>
-      <c r="E10" s="198">
-        <v>3.0882005916999997</v>
-      </c>
-      <c r="F10" s="198">
-        <v>2.7609918232166666</v>
-      </c>
-      <c r="G10" s="198">
-        <v>2.8411827287166669</v>
-      </c>
-      <c r="H10" s="198">
-        <v>2.7120023882333331</v>
-      </c>
-      <c r="I10" s="198">
-        <v>2.6633296441666667</v>
-      </c>
-      <c r="J10" s="198">
-        <v>2.6235375257333331</v>
-      </c>
-      <c r="K10" s="198">
-        <v>2.6061476457500001</v>
-      </c>
-      <c r="L10" s="198">
-        <v>2.5980354240999999</v>
-      </c>
-      <c r="M10" s="198">
-        <v>2.5887974186166667</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" t="s">
-        <v>606</v>
-      </c>
-      <c r="C11" s="198">
-        <v>4.2239957148333334</v>
-      </c>
-      <c r="D11" s="198">
-        <v>4.1863157996666658</v>
-      </c>
-      <c r="E11" s="198">
-        <v>5.5198300158333327</v>
-      </c>
-      <c r="F11" s="198">
-        <v>4.9527488449999995</v>
-      </c>
-      <c r="G11" s="198">
-        <v>5.3137280408333334</v>
-      </c>
-      <c r="H11" s="198">
-        <v>5.6932676031666665</v>
-      </c>
-      <c r="I11" s="198">
-        <v>6.1621122318333335</v>
-      </c>
-      <c r="J11" s="198">
-        <v>6.6768642943499996</v>
-      </c>
-      <c r="K11" s="198">
-        <v>7.2899966849499993</v>
-      </c>
-      <c r="L11" s="198">
-        <v>7.9717027629166655</v>
-      </c>
-      <c r="M11" s="198">
-        <v>8.7106017209499988</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" t="s">
-        <v>607</v>
-      </c>
-      <c r="C12" s="198">
-        <v>9.1502827350249998</v>
-      </c>
-      <c r="D12" s="198">
-        <v>10.934353289999999</v>
-      </c>
-      <c r="E12" s="198">
-        <v>13.761931316666669</v>
-      </c>
-      <c r="F12" s="198">
-        <v>14.536374884166666</v>
-      </c>
-      <c r="G12" s="198">
-        <v>14.343852390999999</v>
-      </c>
-      <c r="H12" s="198">
-        <v>14.099019324999999</v>
-      </c>
-      <c r="I12" s="198">
-        <v>13.938252775999999</v>
-      </c>
-      <c r="J12" s="198">
-        <v>13.771438242999999</v>
-      </c>
-      <c r="K12" s="198">
-        <v>13.675503369333333</v>
-      </c>
-      <c r="L12" s="198">
-        <v>13.563932428499999</v>
-      </c>
-      <c r="M12" s="198">
-        <v>13.372134914</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" t="s">
-        <v>608</v>
-      </c>
-      <c r="C13" s="198">
-        <v>9.2764701094999999</v>
-      </c>
-      <c r="D13" s="198">
-        <v>12.207637515000002</v>
-      </c>
-      <c r="E13" s="198">
-        <v>13.264790684999999</v>
-      </c>
-      <c r="F13" s="198">
-        <v>13.145055753999999</v>
-      </c>
-      <c r="G13" s="198">
-        <v>13.912396447333332</v>
-      </c>
-      <c r="H13" s="198">
-        <v>14.567373463166664</v>
-      </c>
-      <c r="I13" s="198">
-        <v>15.362230210333333</v>
-      </c>
-      <c r="J13" s="198">
-        <v>16.298895473166663</v>
-      </c>
-      <c r="K13" s="198">
-        <v>17.394755984333333</v>
-      </c>
-      <c r="L13" s="198">
-        <v>18.564776669833336</v>
-      </c>
-      <c r="M13" s="198">
-        <v>19.763882098333333</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" t="s">
-        <v>609</v>
-      </c>
-      <c r="C14" s="198">
-        <v>1.3601016458650002</v>
-      </c>
-      <c r="D14" s="198">
-        <v>0.58996836970499988</v>
-      </c>
-      <c r="E14" s="198">
-        <v>0.82593028797166657</v>
-      </c>
-      <c r="F14" s="198">
-        <v>0.85933911132499996</v>
-      </c>
-      <c r="G14" s="198">
-        <v>0.91729392199333337</v>
-      </c>
-      <c r="H14" s="198">
-        <v>0.99747031302666656</v>
-      </c>
-      <c r="I14" s="198">
-        <v>1.0932993681683332</v>
-      </c>
-      <c r="J14" s="198">
-        <v>1.2026177601499999</v>
-      </c>
-      <c r="K14" s="198">
-        <v>1.3186281215783333</v>
-      </c>
-      <c r="L14" s="198">
-        <v>1.4334456918833334</v>
-      </c>
-      <c r="M14" s="198">
-        <v>1.5360084035000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" t="s">
-        <v>610</v>
-      </c>
-      <c r="C15" s="198">
-        <v>2.3608556247283334</v>
-      </c>
-      <c r="D15" s="198">
-        <v>1.5288746160999998</v>
-      </c>
-      <c r="E15" s="198">
-        <v>2.1246040519833329</v>
-      </c>
-      <c r="F15" s="198">
-        <v>2.4728968987499993</v>
-      </c>
-      <c r="G15" s="198">
-        <v>2.8893801432833328</v>
-      </c>
-      <c r="H15" s="198">
-        <v>3.5395402863333332</v>
-      </c>
-      <c r="I15" s="198">
-        <v>4.2709470809833334</v>
-      </c>
-      <c r="J15" s="198">
-        <v>5.0191502873666662</v>
-      </c>
-      <c r="K15" s="198">
-        <v>5.7594296331833315</v>
-      </c>
-      <c r="L15" s="198">
-        <v>6.4092500502166656</v>
-      </c>
-      <c r="M15" s="198">
-        <v>6.9123771565499998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" t="s">
-        <v>611</v>
-      </c>
-      <c r="C16" s="198">
-        <v>50.909886507716678</v>
-      </c>
-      <c r="D16" s="198">
-        <v>113.92612275423333</v>
-      </c>
-      <c r="E16" s="198">
-        <v>131.96073516861668</v>
-      </c>
-      <c r="F16" s="198">
-        <v>138.80498325871665</v>
-      </c>
-      <c r="G16" s="198">
-        <v>162.52133445776667</v>
-      </c>
-      <c r="H16" s="198">
-        <v>182.47826128351667</v>
-      </c>
-      <c r="I16" s="198">
-        <v>199.28936720453331</v>
-      </c>
-      <c r="J16" s="198">
-        <v>213.36351435738331</v>
-      </c>
-      <c r="K16" s="198">
-        <v>225.53655913309998</v>
-      </c>
-      <c r="L16" s="198">
-        <v>235.60313610801668</v>
-      </c>
-      <c r="M16" s="198">
-        <v>244.2412635309</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" t="s">
-        <v>612</v>
-      </c>
-      <c r="C17" s="198">
-        <v>0.70890358647450002</v>
-      </c>
-      <c r="D17" s="198">
-        <v>1.1670480966235</v>
-      </c>
-      <c r="E17" s="198">
-        <v>1.3245748465921667</v>
-      </c>
-      <c r="F17" s="198">
-        <v>1.3757498405666666</v>
-      </c>
-      <c r="G17" s="198">
-        <v>1.4343152043333331</v>
-      </c>
-      <c r="H17" s="198">
-        <v>1.47775853565</v>
-      </c>
-      <c r="I17" s="198">
-        <v>1.5148502134499999</v>
-      </c>
-      <c r="J17" s="198">
-        <v>1.5387730492333334</v>
-      </c>
-      <c r="K17" s="198">
-        <v>1.5630180937166667</v>
-      </c>
-      <c r="L17" s="198">
-        <v>1.5817900201499997</v>
-      </c>
-      <c r="M17" s="198">
-        <v>1.5897710248499999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" t="s">
-        <v>613</v>
-      </c>
-      <c r="C18" s="198">
-        <v>5.3847691736666663</v>
-      </c>
-      <c r="D18" s="198">
-        <v>2.334955718051666</v>
-      </c>
-      <c r="E18" s="198">
-        <v>2.7338559920333334</v>
-      </c>
-      <c r="F18" s="198">
-        <v>2.6328062270499997</v>
-      </c>
-      <c r="G18" s="198">
-        <v>2.621456578383333</v>
-      </c>
-      <c r="H18" s="198">
-        <v>2.6780984541499997</v>
-      </c>
-      <c r="I18" s="198">
-        <v>2.7618601871833337</v>
-      </c>
-      <c r="J18" s="198">
-        <v>2.8416479063633333</v>
-      </c>
-      <c r="K18" s="198">
-        <v>2.9211852943499994</v>
-      </c>
-      <c r="L18" s="198">
-        <v>2.9919182367416668</v>
-      </c>
-      <c r="M18" s="198">
-        <v>3.0514202258316665</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" t="s">
-        <v>614</v>
-      </c>
-      <c r="C19" s="198">
-        <v>28.17349367366667</v>
-      </c>
-      <c r="D19" s="198">
-        <v>32.488787026814997</v>
-      </c>
-      <c r="E19" s="198">
-        <v>29.612212248299997</v>
-      </c>
-      <c r="F19" s="198">
-        <v>26.400996445000004</v>
-      </c>
-      <c r="G19" s="198">
-        <v>25.541079378999999</v>
-      </c>
-      <c r="H19" s="198">
-        <v>25.36300921116667</v>
-      </c>
-      <c r="I19" s="198">
-        <v>25.514986564666664</v>
-      </c>
-      <c r="J19" s="198">
-        <v>25.963659771333326</v>
-      </c>
-      <c r="K19" s="198">
-        <v>26.862649335833332</v>
-      </c>
-      <c r="L19" s="198">
-        <v>28.066486752833335</v>
-      </c>
-      <c r="M19" s="198">
-        <v>29.504399943999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" t="s">
-        <v>615</v>
-      </c>
-      <c r="C20" s="198">
-        <v>4.1353906334249997</v>
-      </c>
-      <c r="D20" s="198">
-        <v>1.9644705994999998</v>
-      </c>
-      <c r="E20" s="198">
-        <v>3.3043180997166672</v>
-      </c>
-      <c r="F20" s="198">
-        <v>3.1713931949999998</v>
-      </c>
-      <c r="G20" s="198">
-        <v>3.2173509781666665</v>
-      </c>
-      <c r="H20" s="198">
-        <v>3.4322150618333338</v>
-      </c>
-      <c r="I20" s="198">
-        <v>3.6013650646666671</v>
-      </c>
-      <c r="J20" s="198">
-        <v>3.9115340209999996</v>
-      </c>
-      <c r="K20" s="198">
-        <v>4.236645025833333</v>
-      </c>
-      <c r="L20" s="198">
-        <v>4.5423834108333336</v>
-      </c>
-      <c r="M20" s="198">
-        <v>4.8144941463333328</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" t="s">
-        <v>616</v>
-      </c>
-      <c r="C21" s="198">
-        <v>2.0002361101166666</v>
-      </c>
-      <c r="D21" s="198">
-        <v>2.8578914348333333</v>
-      </c>
-      <c r="E21" s="198">
-        <v>3.8645842721666668</v>
-      </c>
-      <c r="F21" s="198">
-        <v>3.4561136733333333</v>
-      </c>
-      <c r="G21" s="198">
-        <v>3.6685402563333334</v>
-      </c>
-      <c r="H21" s="198">
-        <v>3.9734048045000003</v>
-      </c>
-      <c r="I21" s="198">
-        <v>4.2553385329999998</v>
-      </c>
-      <c r="J21" s="198">
-        <v>4.5383495723333329</v>
-      </c>
-      <c r="K21" s="198">
-        <v>4.8742507793166663</v>
-      </c>
-      <c r="L21" s="198">
-        <v>5.2596941744666665</v>
-      </c>
-      <c r="M21" s="198">
-        <v>5.6584536740999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" t="s">
-        <v>617</v>
-      </c>
-      <c r="C22" s="198">
-        <v>2.1559296796499998</v>
-      </c>
-      <c r="D22" s="198">
-        <v>3.0979406789683335</v>
-      </c>
-      <c r="E22" s="198">
-        <v>3.0990242755816668</v>
-      </c>
-      <c r="F22" s="198">
-        <v>2.7274046910516665</v>
-      </c>
-      <c r="G22" s="198">
-        <v>2.6748403678883332</v>
-      </c>
-      <c r="H22" s="198">
-        <v>2.7547120650516668</v>
-      </c>
-      <c r="I22" s="198">
-        <v>2.8524958989066662</v>
-      </c>
-      <c r="J22" s="198">
-        <v>2.964569301573333</v>
-      </c>
-      <c r="K22" s="198">
-        <v>3.1263921079266659</v>
-      </c>
-      <c r="L22" s="198">
-        <v>3.3271772993933331</v>
-      </c>
-      <c r="M22" s="198">
-        <v>3.5505705450200002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" t="s">
-        <v>618</v>
-      </c>
-      <c r="C23" s="198">
-        <v>15.27909251</v>
-      </c>
-      <c r="D23" s="198">
-        <v>8.2251680013333335</v>
-      </c>
-      <c r="E23" s="198">
-        <v>14.706472114333334</v>
-      </c>
-      <c r="F23" s="198">
-        <v>17.709831407000003</v>
-      </c>
-      <c r="G23" s="198">
-        <v>22.003958183333332</v>
-      </c>
-      <c r="H23" s="198">
-        <v>26.222951680000001</v>
-      </c>
-      <c r="I23" s="198">
-        <v>30.17606137833333</v>
-      </c>
-      <c r="J23" s="198">
-        <v>33.95951997666667</v>
-      </c>
-      <c r="K23" s="198">
-        <v>37.777009716666669</v>
-      </c>
-      <c r="L23" s="198">
-        <v>41.537015358333335</v>
-      </c>
-      <c r="M23" s="198">
-        <v>45.13411713666666</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" t="s">
-        <v>619</v>
-      </c>
-      <c r="C24" s="198">
-        <v>4.5804049046666666</v>
-      </c>
-      <c r="D24" s="198">
-        <v>8.0449675903333322</v>
-      </c>
-      <c r="E24" s="198">
-        <v>11.936610554666668</v>
-      </c>
-      <c r="F24" s="198">
-        <v>11.794296159333332</v>
-      </c>
-      <c r="G24" s="198">
-        <v>12.574965941</v>
-      </c>
-      <c r="H24" s="198">
-        <v>13.033553231666666</v>
-      </c>
-      <c r="I24" s="198">
-        <v>13.365143739000001</v>
-      </c>
-      <c r="J24" s="198">
-        <v>13.596920015666665</v>
-      </c>
-      <c r="K24" s="198">
-        <v>13.882169605</v>
-      </c>
-      <c r="L24" s="198">
-        <v>14.145391360000001</v>
-      </c>
-      <c r="M24" s="198">
-        <v>14.312183402333334</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" t="s">
-        <v>620</v>
-      </c>
-      <c r="C25" s="198">
-        <v>15.953402909066666</v>
-      </c>
-      <c r="D25" s="198">
-        <v>15.265169956100001</v>
-      </c>
-      <c r="E25" s="198">
-        <v>12.865838161033334</v>
-      </c>
-      <c r="F25" s="198">
-        <v>12.31737129135</v>
-      </c>
-      <c r="G25" s="198">
-        <v>12.074879310433335</v>
-      </c>
-      <c r="H25" s="198">
-        <v>11.900705802933333</v>
-      </c>
-      <c r="I25" s="198">
-        <v>11.871764195683333</v>
-      </c>
-      <c r="J25" s="198">
-        <v>11.909312371933332</v>
-      </c>
-      <c r="K25" s="198">
-        <v>12.049309859633333</v>
-      </c>
-      <c r="L25" s="198">
-        <v>12.322307750449999</v>
-      </c>
-      <c r="M25" s="198">
-        <v>12.647914839616668</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" t="s">
-        <v>621</v>
-      </c>
-      <c r="C26" s="198">
-        <v>2.9534848766666668</v>
-      </c>
-      <c r="D26" s="198">
-        <v>5.3835424500000002</v>
-      </c>
-      <c r="E26" s="198">
-        <v>5.0371310133333331</v>
-      </c>
-      <c r="F26" s="198">
-        <v>5.4039576766666668</v>
-      </c>
-      <c r="G26" s="198">
-        <v>5.6945038633333338</v>
-      </c>
-      <c r="H26" s="198">
-        <v>5.850311603333334</v>
-      </c>
-      <c r="I26" s="198">
-        <v>6.0022840866666662</v>
-      </c>
-      <c r="J26" s="198">
-        <v>6.1609569866666671</v>
-      </c>
-      <c r="K26" s="198">
-        <v>6.3556058433333327</v>
-      </c>
-      <c r="L26" s="198">
-        <v>6.5409205566666664</v>
-      </c>
-      <c r="M26" s="198">
-        <v>6.6833158133333335</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" t="s">
-        <v>622</v>
-      </c>
-      <c r="C27" s="198">
-        <v>0.15347539756666667</v>
-      </c>
-      <c r="D27" s="198">
-        <v>0.33142136150000001</v>
-      </c>
-      <c r="E27" s="198">
-        <v>0.36522880150000003</v>
-      </c>
-      <c r="F27" s="198">
-        <v>0.3970743796666667</v>
-      </c>
-      <c r="G27" s="198">
-        <v>0.451935527</v>
-      </c>
-      <c r="H27" s="198">
-        <v>0.51926630233333326</v>
-      </c>
-      <c r="I27" s="198">
-        <v>0.60891598650000001</v>
-      </c>
-      <c r="J27" s="198">
-        <v>0.71480024366666672</v>
-      </c>
-      <c r="K27" s="198">
-        <v>0.83069477366666655</v>
-      </c>
-      <c r="L27" s="198">
-        <v>0.94586220099999996</v>
-      </c>
-      <c r="M27" s="198">
-        <v>1.049725518</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" t="s">
-        <v>623</v>
-      </c>
-      <c r="C28" s="198">
-        <v>23.115810581666665</v>
-      </c>
-      <c r="D28" s="198">
-        <v>10.294895964166665</v>
-      </c>
-      <c r="E28" s="198">
-        <v>9.578889973499999</v>
-      </c>
-      <c r="F28" s="198">
-        <v>10.112706990166666</v>
-      </c>
-      <c r="G28" s="198">
-        <v>10.338787809166664</v>
-      </c>
-      <c r="H28" s="198">
-        <v>10.317364383333336</v>
-      </c>
-      <c r="I28" s="198">
-        <v>10.303339526833334</v>
-      </c>
-      <c r="J28" s="198">
-        <v>10.35894915416667</v>
-      </c>
-      <c r="K28" s="198">
-        <v>10.473718639999998</v>
-      </c>
-      <c r="L28" s="198">
-        <v>10.600633043499998</v>
-      </c>
-      <c r="M28" s="198">
-        <v>10.730038218666664</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" t="s">
-        <v>624</v>
-      </c>
-      <c r="C29" s="198">
-        <v>0.38472736689999998</v>
-      </c>
-      <c r="D29" s="198">
-        <v>0.25581065566666666</v>
-      </c>
-      <c r="E29" s="198">
-        <v>0.2284030878333333</v>
-      </c>
-      <c r="F29" s="198">
-        <v>0.24965604399999999</v>
-      </c>
-      <c r="G29" s="198">
-        <v>0.26700375716666669</v>
-      </c>
-      <c r="H29" s="198">
-        <v>0.29511758216666667</v>
-      </c>
-      <c r="I29" s="198">
-        <v>0.30771495966666673</v>
-      </c>
-      <c r="J29" s="198">
-        <v>0.32597774750000003</v>
-      </c>
-      <c r="K29" s="198">
-        <v>0.3490394175</v>
-      </c>
-      <c r="L29" s="198">
-        <v>0.37287723299999997</v>
-      </c>
-      <c r="M29" s="198">
-        <v>0.3960810136666667</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" t="s">
-        <v>625</v>
-      </c>
-      <c r="C30" s="198">
-        <v>0.25939794727333337</v>
-      </c>
-      <c r="D30" s="198">
-        <v>0.39968039549999995</v>
-      </c>
-      <c r="E30" s="198">
-        <v>0.46145888396666662</v>
-      </c>
-      <c r="F30" s="198">
-        <v>0.44661095813333329</v>
-      </c>
-      <c r="G30" s="198">
-        <v>0.3940768090666667</v>
-      </c>
-      <c r="H30" s="198">
-        <v>0.4461997846666666</v>
-      </c>
-      <c r="I30" s="198">
-        <v>0.49741574699999996</v>
-      </c>
-      <c r="J30" s="198">
-        <v>0.53539244190000002</v>
-      </c>
-      <c r="K30" s="198">
-        <v>0.58553345029999981</v>
-      </c>
-      <c r="L30" s="198">
-        <v>0.64074160453333329</v>
-      </c>
-      <c r="M30" s="198">
-        <v>0.69376109766666683</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" t="s">
-        <v>626</v>
-      </c>
-      <c r="C31" s="198">
-        <v>4.3152404802833333</v>
-      </c>
-      <c r="D31" s="198">
-        <v>6.8388833456166669</v>
-      </c>
-      <c r="E31" s="198">
-        <v>7.0814690856000002</v>
-      </c>
-      <c r="F31" s="198">
-        <v>6.8485616415333332</v>
-      </c>
-      <c r="G31" s="198">
-        <v>7.0687010096166665</v>
-      </c>
-      <c r="H31" s="198">
-        <v>7.3983877304666663</v>
-      </c>
-      <c r="I31" s="198">
-        <v>7.7576683394166661</v>
-      </c>
-      <c r="J31" s="198">
-        <v>8.1274784163166665</v>
-      </c>
-      <c r="K31" s="198">
-        <v>8.5494118174500002</v>
-      </c>
-      <c r="L31" s="198">
-        <v>8.9880111197500003</v>
-      </c>
-      <c r="M31" s="198">
-        <v>9.3890841793166668</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" t="s">
-        <v>627</v>
-      </c>
-      <c r="C32" s="198">
-        <v>1.0405825577666665</v>
-      </c>
-      <c r="D32" s="198">
-        <v>2.9515737926833334</v>
-      </c>
-      <c r="E32" s="198">
-        <v>3.5259570749</v>
-      </c>
-      <c r="F32" s="198">
-        <v>4.0570243973000002</v>
-      </c>
-      <c r="G32" s="198">
-        <v>4.8459628973333331</v>
-      </c>
-      <c r="H32" s="198">
-        <v>5.8619678541666662</v>
-      </c>
-      <c r="I32" s="198">
-        <v>7.074762514333333</v>
-      </c>
-      <c r="J32" s="198">
-        <v>8.3884902483333335</v>
-      </c>
-      <c r="K32" s="198">
-        <v>9.7256399004999992</v>
-      </c>
-      <c r="L32" s="198">
-        <v>10.993575975166667</v>
-      </c>
-      <c r="M32" s="198">
-        <v>12.124517662833334</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="199" t="s">
-        <v>628</v>
-      </c>
-      <c r="C33" s="200">
-        <v>8.1487214065</v>
-      </c>
-      <c r="D33" s="200">
-        <v>4.7513248678166669</v>
-      </c>
-      <c r="E33" s="200">
-        <v>3.7653160225666671</v>
-      </c>
-      <c r="F33" s="200">
-        <v>3.02121407445</v>
-      </c>
-      <c r="G33" s="200">
-        <v>3.0395000413833326</v>
-      </c>
-      <c r="H33" s="200">
-        <v>3.1783165933999995</v>
-      </c>
-      <c r="I33" s="200">
-        <v>3.3243592638999999</v>
-      </c>
-      <c r="J33" s="200">
-        <v>3.4571241792833334</v>
-      </c>
-      <c r="K33" s="200">
-        <v>3.5828047960333329</v>
-      </c>
-      <c r="L33" s="200">
-        <v>3.7104965344833336</v>
-      </c>
-      <c r="M33" s="200">
-        <v>3.8379710542499996</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" t="s">
-        <v>629</v>
-      </c>
-      <c r="C34" s="198">
-        <v>6.5676923550000001</v>
-      </c>
-      <c r="D34" s="198">
-        <v>9.8446765716666658</v>
-      </c>
-      <c r="E34" s="198">
-        <v>10.360615464999999</v>
-      </c>
-      <c r="F34" s="198">
-        <v>11.074993838333333</v>
-      </c>
-      <c r="G34" s="198">
-        <v>12.422994015</v>
-      </c>
-      <c r="H34" s="198">
-        <v>13.732146598333333</v>
-      </c>
-      <c r="I34" s="198">
-        <v>15.067560226666668</v>
-      </c>
-      <c r="J34" s="198">
-        <v>16.375476561666662</v>
-      </c>
-      <c r="K34" s="198">
-        <v>17.779998088333333</v>
-      </c>
-      <c r="L34" s="198">
-        <v>19.163610915</v>
-      </c>
-      <c r="M34" s="198">
-        <v>20.466879204999998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" t="s">
-        <v>630</v>
-      </c>
-      <c r="C35" s="198">
-        <v>0.94177497846666669</v>
-      </c>
-      <c r="D35" s="198">
-        <v>1.5740688571333332</v>
-      </c>
-      <c r="E35" s="198">
-        <v>1.2572300087166668</v>
-      </c>
-      <c r="F35" s="198">
-        <v>1.2363740400666665</v>
-      </c>
-      <c r="G35" s="198">
-        <v>1.2786329271616665</v>
-      </c>
-      <c r="H35" s="198">
-        <v>1.3128132159950001</v>
-      </c>
-      <c r="I35" s="198">
-        <v>1.3272802846816667</v>
-      </c>
-      <c r="J35" s="198">
-        <v>1.3100237754483333</v>
-      </c>
-      <c r="K35" s="198">
-        <v>1.2768949868933333</v>
-      </c>
-      <c r="L35" s="198">
-        <v>1.2373798786533334</v>
-      </c>
-      <c r="M35" s="198">
-        <v>1.1899016176816668</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" t="s">
-        <v>631</v>
-      </c>
-      <c r="C36" s="198">
-        <v>37.9512695148033</v>
-      </c>
-      <c r="D36" s="198">
-        <v>47.330626608833292</v>
-      </c>
-      <c r="E36" s="198">
-        <v>44.108954556333295</v>
-      </c>
-      <c r="F36" s="198">
-        <v>46.824942431666663</v>
-      </c>
-      <c r="G36" s="198">
-        <v>50.779045650666298</v>
-      </c>
-      <c r="H36" s="198">
-        <v>54.396357671333341</v>
-      </c>
-      <c r="I36" s="198">
-        <v>57.980670480332961</v>
-      </c>
-      <c r="J36" s="198">
-        <v>61.452733338333331</v>
-      </c>
-      <c r="K36" s="198">
-        <v>65.640781161999996</v>
-      </c>
-      <c r="L36" s="198">
-        <v>69.70458003299963</v>
-      </c>
-      <c r="M36" s="198">
-        <v>74.380681532666628</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="201" t="s">
-        <v>632</v>
-      </c>
-      <c r="C37" s="202">
-        <v>243.75500651667255</v>
-      </c>
-      <c r="D37" s="202">
-        <v>315.22827146064969</v>
-      </c>
-      <c r="E37" s="202">
-        <v>344.88846722432834</v>
-      </c>
-      <c r="F37" s="202">
-        <v>354.25750978939607</v>
-      </c>
-      <c r="G37" s="202">
-        <v>391.23735998506169</v>
-      </c>
-      <c r="H37" s="202">
-        <v>425.34014665475291</v>
-      </c>
-      <c r="I37" s="202">
-        <v>457.31141813936932</v>
-      </c>
-      <c r="J37" s="202">
-        <v>487.24946803740363</v>
-      </c>
-      <c r="K37" s="202">
-        <v>517.60373009292084</v>
-      </c>
-      <c r="L37" s="202">
-        <v>546.25457962903215</v>
-      </c>
-      <c r="M37" s="202">
-        <v>573.67354627807219</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="196"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="203"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="203"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="203"/>
-      <c r="J38" s="203"/>
-      <c r="K38" s="203"/>
-      <c r="L38" s="203"/>
-      <c r="M38" s="203"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="196" t="s">
-        <v>633</v>
-      </c>
-      <c r="C39" s="203">
-        <f>SUM(C18:C19,C22)</f>
-        <v>35.714192526983339</v>
-      </c>
-      <c r="D39" s="203">
-        <f t="shared" ref="D39:L39" si="0">SUM(D18:D19,D22)</f>
-        <v>37.921683423834999</v>
-      </c>
-      <c r="E39" s="203">
-        <f t="shared" si="0"/>
-        <v>35.445092515915</v>
-      </c>
-      <c r="F39" s="203">
-        <f t="shared" si="0"/>
-        <v>31.761207363101672</v>
-      </c>
-      <c r="G39" s="203">
-        <f t="shared" si="0"/>
-        <v>30.837376325271666</v>
-      </c>
-      <c r="H39" s="203">
-        <f t="shared" si="0"/>
-        <v>30.795819730368336</v>
-      </c>
-      <c r="I39" s="203">
-        <f t="shared" si="0"/>
-        <v>31.129342650756666</v>
-      </c>
-      <c r="J39" s="203">
-        <f t="shared" si="0"/>
-        <v>31.769876979269995</v>
-      </c>
-      <c r="K39" s="203">
-        <f t="shared" si="0"/>
-        <v>32.910226738109998</v>
-      </c>
-      <c r="L39" s="203">
-        <f t="shared" si="0"/>
-        <v>34.385582288968337</v>
-      </c>
-      <c r="M39" s="203">
-        <f>SUM(M18:M19,M22)</f>
-        <v>36.106390714851663</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="204"/>
-      <c r="J40" s="204"/>
-      <c r="K40" s="204"/>
-      <c r="L40" s="204"/>
-      <c r="M40" s="204"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="195" t="s">
-        <v>634</v>
-      </c>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="205"/>
-      <c r="G41" s="205"/>
-      <c r="H41" s="205"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="205"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="205"/>
-      <c r="M41" s="205"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="196" t="s">
-        <v>589</v>
-      </c>
-      <c r="C42" s="197" t="s">
-        <v>590</v>
-      </c>
-      <c r="D42" s="197" t="s">
-        <v>591</v>
-      </c>
-      <c r="E42" s="197" t="s">
-        <v>592</v>
-      </c>
-      <c r="F42" s="197" t="s">
-        <v>593</v>
-      </c>
-      <c r="G42" s="197" t="s">
-        <v>594</v>
-      </c>
-      <c r="H42" s="197" t="s">
-        <v>595</v>
-      </c>
-      <c r="I42" s="197" t="s">
-        <v>596</v>
-      </c>
-      <c r="J42" s="197" t="s">
-        <v>597</v>
-      </c>
-      <c r="K42" s="197" t="s">
-        <v>598</v>
-      </c>
-      <c r="L42" s="197" t="s">
-        <v>599</v>
-      </c>
-      <c r="M42" s="197" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" t="s">
-        <v>601</v>
-      </c>
-      <c r="C43" s="198">
-        <v>4.7900283226666662</v>
-      </c>
-      <c r="D43" s="198">
-        <v>5.1338612375000006</v>
-      </c>
-      <c r="E43" s="198">
-        <v>9.5059100416666666</v>
-      </c>
-      <c r="F43" s="198">
-        <v>10.182268078333333</v>
-      </c>
-      <c r="G43" s="198">
-        <v>11.172939335000001</v>
-      </c>
-      <c r="H43" s="198">
-        <v>12.561137788333333</v>
-      </c>
-      <c r="I43" s="198">
-        <v>14.316511375000001</v>
-      </c>
-      <c r="J43" s="198">
-        <v>16.331905605000003</v>
-      </c>
-      <c r="K43" s="198">
-        <v>18.45268582166667</v>
-      </c>
-      <c r="L43" s="198">
-        <v>20.580227463333333</v>
-      </c>
-      <c r="M43" s="198">
-        <v>22.648448803333338</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" t="s">
-        <v>602</v>
-      </c>
-      <c r="C44" s="198">
-        <v>17.181575770000002</v>
-      </c>
-      <c r="D44" s="198">
-        <v>15.344723051666666</v>
-      </c>
-      <c r="E44" s="198">
-        <v>17.428211559999998</v>
-      </c>
-      <c r="F44" s="198">
-        <v>17.761619033333336</v>
-      </c>
-      <c r="G44" s="198">
-        <v>18.560720506666669</v>
-      </c>
-      <c r="H44" s="198">
-        <v>19.391383968333333</v>
-      </c>
-      <c r="I44" s="198">
-        <v>20.258362496666667</v>
-      </c>
-      <c r="J44" s="198">
-        <v>21.197152701666663</v>
-      </c>
-      <c r="K44" s="198">
-        <v>22.202836621666663</v>
-      </c>
-      <c r="L44" s="198">
-        <v>23.188956656666665</v>
-      </c>
-      <c r="M44" s="198">
-        <v>24.07625951833333</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" t="s">
-        <v>603</v>
-      </c>
-      <c r="C45" s="198">
-        <v>5.1272487916666662</v>
-      </c>
-      <c r="D45" s="198">
-        <v>2.5544195836666668</v>
-      </c>
-      <c r="E45" s="198">
-        <v>3.193585348</v>
-      </c>
-      <c r="F45" s="198">
-        <v>3.4227820031666667</v>
-      </c>
-      <c r="G45" s="198">
-        <v>3.6763862511666661</v>
-      </c>
-      <c r="H45" s="198">
-        <v>4.0221450193333332</v>
-      </c>
-      <c r="I45" s="198">
-        <v>4.4259630259999998</v>
-      </c>
-      <c r="J45" s="198">
-        <v>4.8762704875000003</v>
-      </c>
-      <c r="K45" s="198">
-        <v>5.3600369804999994</v>
-      </c>
-      <c r="L45" s="198">
-        <v>5.8611868998333332</v>
-      </c>
-      <c r="M45" s="198">
-        <v>6.3659224448333331</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" t="s">
-        <v>604</v>
-      </c>
-      <c r="C46" s="198">
-        <v>6.8541543715</v>
-      </c>
-      <c r="D46" s="198">
-        <v>8.5412839516666672</v>
-      </c>
-      <c r="E46" s="198">
-        <v>10.400163876666667</v>
-      </c>
-      <c r="F46" s="198">
-        <v>11.179083881666667</v>
-      </c>
-      <c r="G46" s="198">
-        <v>12.036575878333334</v>
-      </c>
-      <c r="H46" s="198">
-        <v>13.53534281</v>
-      </c>
-      <c r="I46" s="198">
-        <v>15.35438634</v>
-      </c>
-      <c r="J46" s="198">
-        <v>17.411600969999999</v>
-      </c>
-      <c r="K46" s="198">
-        <v>19.60704935</v>
-      </c>
-      <c r="L46" s="198">
-        <v>21.883203026666664</v>
-      </c>
-      <c r="M46" s="198">
-        <v>24.191319018333331</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" t="s">
-        <v>605</v>
-      </c>
-      <c r="C47" s="198">
-        <v>4.4195199894999995</v>
-      </c>
-      <c r="D47" s="198">
-        <v>4.7743891203333328</v>
-      </c>
-      <c r="E47" s="198">
-        <v>12.759372303333334</v>
-      </c>
-      <c r="F47" s="198">
-        <v>11.735927848833335</v>
-      </c>
-      <c r="G47" s="198">
-        <v>12.279592350833331</v>
-      </c>
-      <c r="H47" s="198">
-        <v>11.311997008666665</v>
-      </c>
-      <c r="I47" s="198">
-        <v>10.927045069166667</v>
-      </c>
-      <c r="J47" s="198">
-        <v>10.671467162666666</v>
-      </c>
-      <c r="K47" s="198">
-        <v>10.519783812</v>
-      </c>
-      <c r="L47" s="198">
-        <v>10.418960739166666</v>
-      </c>
-      <c r="M47" s="198">
-        <v>10.333642251999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" t="s">
-        <v>606</v>
-      </c>
-      <c r="C48" s="198">
-        <v>3.120506747166667</v>
-      </c>
-      <c r="D48" s="198">
-        <v>3.8935502471666661</v>
-      </c>
-      <c r="E48" s="198">
-        <v>3.3383390481666666</v>
-      </c>
-      <c r="F48" s="198">
-        <v>3.1819086946666668</v>
-      </c>
-      <c r="G48" s="198">
-        <v>3.2252321531666666</v>
-      </c>
-      <c r="H48" s="198">
-        <v>3.2934804573333336</v>
-      </c>
-      <c r="I48" s="198">
-        <v>3.3964879966666666</v>
-      </c>
-      <c r="J48" s="198">
-        <v>3.5142102314999999</v>
-      </c>
-      <c r="K48" s="198">
-        <v>3.6561094015166669</v>
-      </c>
-      <c r="L48" s="198">
-        <v>3.8061740305666665</v>
-      </c>
-      <c r="M48" s="198">
-        <v>3.9586724667166666</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" t="s">
-        <v>607</v>
-      </c>
-      <c r="C49" s="198">
-        <v>6.4811863920000006</v>
-      </c>
-      <c r="D49" s="198">
-        <v>29.731488561666666</v>
-      </c>
-      <c r="E49" s="198">
-        <v>38.795064898333337</v>
-      </c>
-      <c r="F49" s="198">
-        <v>39.769377861666669</v>
-      </c>
-      <c r="G49" s="198">
-        <v>38.706502746666665</v>
-      </c>
-      <c r="H49" s="198">
-        <v>36.540992109999998</v>
-      </c>
-      <c r="I49" s="198">
-        <v>35.444830561666663</v>
-      </c>
-      <c r="J49" s="198">
-        <v>34.582909496666666</v>
-      </c>
-      <c r="K49" s="198">
-        <v>33.926762313333327</v>
-      </c>
-      <c r="L49" s="198">
-        <v>33.362083720000001</v>
-      </c>
-      <c r="M49" s="198">
-        <v>32.797305969999996</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" t="s">
-        <v>608</v>
-      </c>
-      <c r="C50" s="198">
-        <v>2.0775455808333332</v>
-      </c>
-      <c r="D50" s="198">
-        <v>2.3842458408333331</v>
-      </c>
-      <c r="E50" s="198">
-        <v>1.7934974670000001</v>
-      </c>
-      <c r="F50" s="198">
-        <v>1.7267828903333333</v>
-      </c>
-      <c r="G50" s="198">
-        <v>1.7442037545</v>
-      </c>
-      <c r="H50" s="198">
-        <v>1.7647451376666665</v>
-      </c>
-      <c r="I50" s="198">
-        <v>1.7935297236666665</v>
-      </c>
-      <c r="J50" s="198">
-        <v>1.8317605633666667</v>
-      </c>
-      <c r="K50" s="198">
-        <v>1.8784295383333334</v>
-      </c>
-      <c r="L50" s="198">
-        <v>1.9266924388166666</v>
-      </c>
-      <c r="M50" s="198">
-        <v>1.9721495930333328</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" t="s">
-        <v>609</v>
-      </c>
-      <c r="C51" s="198">
-        <v>13.089611108333333</v>
-      </c>
-      <c r="D51" s="198">
-        <v>26.354853718333331</v>
-      </c>
-      <c r="E51" s="198">
-        <v>31.707643498333333</v>
-      </c>
-      <c r="F51" s="198">
-        <v>31.880190888333331</v>
-      </c>
-      <c r="G51" s="198">
-        <v>32.799152631666665</v>
-      </c>
-      <c r="H51" s="198">
-        <v>34.030648446666667</v>
-      </c>
-      <c r="I51" s="198">
-        <v>35.466355523333334</v>
-      </c>
-      <c r="J51" s="198">
-        <v>37.134046656666662</v>
-      </c>
-      <c r="K51" s="198">
-        <v>38.954338248333329</v>
-      </c>
-      <c r="L51" s="198">
-        <v>40.790569211666664</v>
-      </c>
-      <c r="M51" s="198">
-        <v>42.498058654999994</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" t="s">
-        <v>610</v>
-      </c>
-      <c r="C52" s="198">
-        <v>0</v>
-      </c>
-      <c r="D52" s="198">
-        <v>0.15457741874999997</v>
-      </c>
-      <c r="E52" s="198">
-        <v>2.3568738756666661</v>
-      </c>
-      <c r="F52" s="198">
-        <v>2.6962345048333334</v>
-      </c>
-      <c r="G52" s="198">
-        <v>3.0017868015000002</v>
-      </c>
-      <c r="H52" s="198">
-        <v>3.4678470523333331</v>
-      </c>
-      <c r="I52" s="198">
-        <v>3.9478987013333331</v>
-      </c>
-      <c r="J52" s="198">
-        <v>4.4145259370000005</v>
-      </c>
-      <c r="K52" s="198">
-        <v>4.8219642418333333</v>
-      </c>
-      <c r="L52" s="198">
-        <v>5.1451338621666673</v>
-      </c>
-      <c r="M52" s="198">
-        <v>5.3718986009999998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" t="s">
-        <v>611</v>
-      </c>
-      <c r="C53" s="198">
-        <v>17.762011599999997</v>
-      </c>
-      <c r="D53" s="198">
-        <v>62.37878654666666</v>
-      </c>
-      <c r="E53" s="198">
-        <v>114.0078982</v>
-      </c>
-      <c r="F53" s="198">
-        <v>119.73919268333333</v>
-      </c>
-      <c r="G53" s="198">
-        <v>127.68766648333332</v>
-      </c>
-      <c r="H53" s="198">
-        <v>133.91004973333335</v>
-      </c>
-      <c r="I53" s="198">
-        <v>138.96957858666664</v>
-      </c>
-      <c r="J53" s="198">
-        <v>143.01417725499999</v>
-      </c>
-      <c r="K53" s="198">
-        <v>146.25805259500001</v>
-      </c>
-      <c r="L53" s="198">
-        <v>148.63544733833334</v>
-      </c>
-      <c r="M53" s="198">
-        <v>150.35724127166665</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" t="s">
-        <v>612</v>
-      </c>
-      <c r="C54" s="198">
-        <v>0.51952242058333331</v>
-      </c>
-      <c r="D54" s="198">
-        <v>2.9707581043333331</v>
-      </c>
-      <c r="E54" s="198">
-        <v>5.6153231266666666</v>
-      </c>
-      <c r="F54" s="198">
-        <v>5.6921283484999998</v>
-      </c>
-      <c r="G54" s="198">
-        <v>5.8229581423333325</v>
-      </c>
-      <c r="H54" s="198">
-        <v>5.9208894418333333</v>
-      </c>
-      <c r="I54" s="198">
-        <v>6.0227541028333338</v>
-      </c>
-      <c r="J54" s="198">
-        <v>6.1174184078333331</v>
-      </c>
-      <c r="K54" s="198">
-        <v>6.2127828081666667</v>
-      </c>
-      <c r="L54" s="198">
-        <v>6.295671005</v>
-      </c>
-      <c r="M54" s="198">
-        <v>6.3569147568333317</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" t="s">
-        <v>613</v>
-      </c>
-      <c r="C55" s="198">
-        <v>4.7098596703333335</v>
-      </c>
-      <c r="D55" s="198">
-        <v>10.011073018666666</v>
-      </c>
-      <c r="E55" s="198">
-        <v>19.205826675000001</v>
-      </c>
-      <c r="F55" s="198">
-        <v>17.259189171666669</v>
-      </c>
-      <c r="G55" s="198">
-        <v>16.123672460000002</v>
-      </c>
-      <c r="H55" s="198">
-        <v>15.589243531166666</v>
-      </c>
-      <c r="I55" s="198">
-        <v>15.261529170166668</v>
-      </c>
-      <c r="J55" s="198">
-        <v>15.069154009999998</v>
-      </c>
-      <c r="K55" s="198">
-        <v>14.969772847</v>
-      </c>
-      <c r="L55" s="198">
-        <v>14.901857265666667</v>
-      </c>
-      <c r="M55" s="198">
-        <v>14.824415200166666</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" t="s">
-        <v>614</v>
-      </c>
-      <c r="C56" s="198">
-        <v>138.56297291666667</v>
-      </c>
-      <c r="D56" s="198">
-        <v>218.27396785000002</v>
-      </c>
-      <c r="E56" s="198">
-        <v>199.20166956666668</v>
-      </c>
-      <c r="F56" s="198">
-        <v>185.47399138333333</v>
-      </c>
-      <c r="G56" s="198">
-        <v>173.23272144999999</v>
-      </c>
-      <c r="H56" s="198">
-        <v>167.65671888333333</v>
-      </c>
-      <c r="I56" s="198">
-        <v>164.29476519999997</v>
-      </c>
-      <c r="J56" s="198">
-        <v>162.93364781499997</v>
-      </c>
-      <c r="K56" s="198">
-        <v>163.30549297666664</v>
-      </c>
-      <c r="L56" s="198">
-        <v>164.75838271166666</v>
-      </c>
-      <c r="M56" s="198">
-        <v>166.84075260833336</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="B57" t="s">
-        <v>615</v>
-      </c>
-      <c r="C57" s="198">
-        <v>0</v>
-      </c>
-      <c r="D57" s="198">
-        <v>0.83887463066666668</v>
-      </c>
-      <c r="E57" s="198">
-        <v>0.68144071116666671</v>
-      </c>
-      <c r="F57" s="198">
-        <v>0.67240834783333336</v>
-      </c>
-      <c r="G57" s="198">
-        <v>0.69626560966666662</v>
-      </c>
-      <c r="H57" s="198">
-        <v>0.77963973516666674</v>
-      </c>
-      <c r="I57" s="198">
-        <v>0.86434070016666653</v>
-      </c>
-      <c r="J57" s="198">
-        <v>0.97216863173333323</v>
-      </c>
-      <c r="K57" s="198">
-        <v>1.0701457507333334</v>
-      </c>
-      <c r="L57" s="198">
-        <v>1.1532866200166667</v>
-      </c>
-      <c r="M57" s="198">
-        <v>1.2208879523499998</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58" t="s">
-        <v>616</v>
-      </c>
-      <c r="C58" s="198">
-        <v>0.57538143379999995</v>
-      </c>
-      <c r="D58" s="198">
-        <v>5.4858728708333331</v>
-      </c>
-      <c r="E58" s="198">
-        <v>1.2649056123333333</v>
-      </c>
-      <c r="F58" s="198">
-        <v>1.1781525138333335</v>
-      </c>
-      <c r="G58" s="198">
-        <v>1.1777151815</v>
-      </c>
-      <c r="H58" s="198">
-        <v>1.1736404297333334</v>
-      </c>
-      <c r="I58" s="198">
-        <v>1.1855722670166666</v>
-      </c>
-      <c r="J58" s="198">
-        <v>1.2045133330666666</v>
-      </c>
-      <c r="K58" s="198">
-        <v>1.2297341678166667</v>
-      </c>
-      <c r="L58" s="198">
-        <v>1.2595733917</v>
-      </c>
-      <c r="M58" s="198">
-        <v>1.2891852479333332</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" t="s">
-        <v>617</v>
-      </c>
-      <c r="C59" s="198">
-        <v>1.6112158839999999</v>
-      </c>
-      <c r="D59" s="198">
-        <v>2.415477292166667</v>
-      </c>
-      <c r="E59" s="198">
-        <v>1.2816632935000001</v>
-      </c>
-      <c r="F59" s="198">
-        <v>1.2047107880000001</v>
-      </c>
-      <c r="G59" s="198">
-        <v>1.1604072644999999</v>
-      </c>
-      <c r="H59" s="198">
-        <v>1.1555598778666665</v>
-      </c>
-      <c r="I59" s="198">
-        <v>1.1619704550333332</v>
-      </c>
-      <c r="J59" s="198">
-        <v>1.1753662668666667</v>
-      </c>
-      <c r="K59" s="198">
-        <v>1.19808437105</v>
-      </c>
-      <c r="L59" s="198">
-        <v>1.2272775036166668</v>
-      </c>
-      <c r="M59" s="198">
-        <v>1.2586092167666665</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" t="s">
-        <v>618</v>
-      </c>
-      <c r="C60" s="198">
-        <v>5.8630464115000001</v>
-      </c>
-      <c r="D60" s="198">
-        <v>5.6828911463333327</v>
-      </c>
-      <c r="E60" s="198">
-        <v>25.996580548333334</v>
-      </c>
-      <c r="F60" s="198">
-        <v>27.93682071166667</v>
-      </c>
-      <c r="G60" s="198">
-        <v>30.319006895000001</v>
-      </c>
-      <c r="H60" s="198">
-        <v>32.210338631666666</v>
-      </c>
-      <c r="I60" s="198">
-        <v>33.678038898333334</v>
-      </c>
-      <c r="J60" s="198">
-        <v>34.891830286666661</v>
-      </c>
-      <c r="K60" s="198">
-        <v>35.986266088333338</v>
-      </c>
-      <c r="L60" s="198">
-        <v>36.928258954999997</v>
-      </c>
-      <c r="M60" s="198">
-        <v>37.700335196666671</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13">
-      <c r="B61" t="s">
-        <v>619</v>
-      </c>
-      <c r="C61" s="198">
-        <v>4.7882984469999998</v>
-      </c>
-      <c r="D61" s="198">
-        <v>5.4311105614999997</v>
-      </c>
-      <c r="E61" s="198">
-        <v>5.0945413933333334</v>
-      </c>
-      <c r="F61" s="198">
-        <v>5.1853559896666663</v>
-      </c>
-      <c r="G61" s="198">
-        <v>5.4238987220000006</v>
-      </c>
-      <c r="H61" s="198">
-        <v>5.5998435486666667</v>
-      </c>
-      <c r="I61" s="198">
-        <v>5.7556236460000001</v>
-      </c>
-      <c r="J61" s="198">
-        <v>5.9020871064999998</v>
-      </c>
-      <c r="K61" s="198">
-        <v>6.0570630771666654</v>
-      </c>
-      <c r="L61" s="198">
-        <v>6.2089725831666662</v>
-      </c>
-      <c r="M61" s="198">
-        <v>6.3437580036666663</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13">
-      <c r="B62" t="s">
-        <v>620</v>
-      </c>
-      <c r="C62" s="198">
-        <v>19.950182783333332</v>
-      </c>
-      <c r="D62" s="198">
-        <v>22.475845671666665</v>
-      </c>
-      <c r="E62" s="198">
-        <v>17.656741211666667</v>
-      </c>
-      <c r="F62" s="198">
-        <v>16.662776143333332</v>
-      </c>
-      <c r="G62" s="198">
-        <v>15.977969053333332</v>
-      </c>
-      <c r="H62" s="198">
-        <v>15.503144086666666</v>
-      </c>
-      <c r="I62" s="198">
-        <v>15.188785831999999</v>
-      </c>
-      <c r="J62" s="198">
-        <v>15.06363176</v>
-      </c>
-      <c r="K62" s="198">
-        <v>15.064807468666666</v>
-      </c>
-      <c r="L62" s="198">
-        <v>15.121996930166667</v>
-      </c>
-      <c r="M62" s="198">
-        <v>15.193435608</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63" t="s">
-        <v>621</v>
-      </c>
-      <c r="C63" s="198">
-        <v>2.5918672959999998</v>
-      </c>
-      <c r="D63" s="198">
-        <v>3.528499636666667</v>
-      </c>
-      <c r="E63" s="198">
-        <v>3.2788271726666665</v>
-      </c>
-      <c r="F63" s="198">
-        <v>3.3747222738333331</v>
-      </c>
-      <c r="G63" s="198">
-        <v>3.4431580121666663</v>
-      </c>
-      <c r="H63" s="198">
-        <v>3.4884161674999996</v>
-      </c>
-      <c r="I63" s="198">
-        <v>3.5375448968333334</v>
-      </c>
-      <c r="J63" s="198">
-        <v>3.6008100169999997</v>
-      </c>
-      <c r="K63" s="198">
-        <v>3.6785748355000001</v>
-      </c>
-      <c r="L63" s="198">
-        <v>3.7571948703333335</v>
-      </c>
-      <c r="M63" s="198">
-        <v>3.8281283005</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13">
-      <c r="B64" t="s">
-        <v>635</v>
-      </c>
-      <c r="C64" s="198">
-        <v>63.533254083333333</v>
-      </c>
-      <c r="D64" s="198">
-        <v>72.120344516666663</v>
-      </c>
-      <c r="E64" s="198">
-        <v>123.79302005000001</v>
-      </c>
-      <c r="F64" s="198">
-        <v>129.71364361666667</v>
-      </c>
-      <c r="G64" s="198">
-        <v>133.66639895</v>
-      </c>
-      <c r="H64" s="198">
-        <v>139.11671851666665</v>
-      </c>
-      <c r="I64" s="198">
-        <v>145.03653883333334</v>
-      </c>
-      <c r="J64" s="198">
-        <v>152.00243510000001</v>
-      </c>
-      <c r="K64" s="198">
-        <v>159.73230134999997</v>
-      </c>
-      <c r="L64" s="198">
-        <v>167.37854268999999</v>
-      </c>
-      <c r="M64" s="198">
-        <v>174.27375374833332</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" t="s">
-        <v>622</v>
-      </c>
-      <c r="C65" s="198">
-        <v>1.2045933995833333</v>
-      </c>
-      <c r="D65" s="198">
-        <v>1.3751476576833332</v>
-      </c>
-      <c r="E65" s="198">
-        <v>9.4988068476666676</v>
-      </c>
-      <c r="F65" s="198">
-        <v>9.9733257835</v>
-      </c>
-      <c r="G65" s="198">
-        <v>10.667660947499998</v>
-      </c>
-      <c r="H65" s="198">
-        <v>11.441073273000001</v>
-      </c>
-      <c r="I65" s="198">
-        <v>12.3298065415</v>
-      </c>
-      <c r="J65" s="198">
-        <v>13.233334133333333</v>
-      </c>
-      <c r="K65" s="198">
-        <v>14.066892845833333</v>
-      </c>
-      <c r="L65" s="198">
-        <v>14.783967823833333</v>
-      </c>
-      <c r="M65" s="198">
-        <v>15.362527464333334</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" t="s">
-        <v>623</v>
-      </c>
-      <c r="C66" s="198">
-        <v>14.642096103333332</v>
-      </c>
-      <c r="D66" s="198">
-        <v>85.351767733333332</v>
-      </c>
-      <c r="E66" s="198">
-        <v>85.351767733333332</v>
-      </c>
-      <c r="F66" s="198">
-        <v>86.447277433333326</v>
-      </c>
-      <c r="G66" s="198">
-        <v>86.337754916666654</v>
-      </c>
-      <c r="H66" s="198">
-        <v>85.467365533333322</v>
-      </c>
-      <c r="I66" s="198">
-        <v>84.54561154999999</v>
-      </c>
-      <c r="J66" s="198">
-        <v>83.917157860000003</v>
-      </c>
-      <c r="K66" s="198">
-        <v>83.662775486666675</v>
-      </c>
-      <c r="L66" s="198">
-        <v>83.47783918333333</v>
-      </c>
-      <c r="M66" s="198">
-        <v>83.284885551666648</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14">
-      <c r="B67" t="s">
-        <v>624</v>
-      </c>
-      <c r="C67" s="198">
-        <v>12.325250191666665</v>
-      </c>
-      <c r="D67" s="198">
-        <v>12.293103908333332</v>
-      </c>
-      <c r="E67" s="198">
-        <v>14.24168659</v>
-      </c>
-      <c r="F67" s="198">
-        <v>15.670085898333333</v>
-      </c>
-      <c r="G67" s="198">
-        <v>15.921837333333333</v>
-      </c>
-      <c r="H67" s="198">
-        <v>16.284495251666666</v>
-      </c>
-      <c r="I67" s="198">
-        <v>16.587491791666668</v>
-      </c>
-      <c r="J67" s="198">
-        <v>16.929997476666667</v>
-      </c>
-      <c r="K67" s="198">
-        <v>17.354962935</v>
-      </c>
-      <c r="L67" s="198">
-        <v>17.807512005</v>
-      </c>
-      <c r="M67" s="198">
-        <v>18.242388553333328</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14">
-      <c r="B68" t="s">
-        <v>625</v>
-      </c>
-      <c r="C68" s="198">
-        <v>2.6269564821666664</v>
-      </c>
-      <c r="D68" s="198">
-        <v>2.4443879943333333</v>
-      </c>
-      <c r="E68" s="198">
-        <v>4.8598746188333335</v>
-      </c>
-      <c r="F68" s="198">
-        <v>5.0062356134999995</v>
-      </c>
-      <c r="G68" s="198">
-        <v>4.6805593061666677</v>
-      </c>
-      <c r="H68" s="198">
-        <v>5.000623379666667</v>
-      </c>
-      <c r="I68" s="198">
-        <v>5.3247129491666669</v>
-      </c>
-      <c r="J68" s="198">
-        <v>5.6105279071666665</v>
-      </c>
-      <c r="K68" s="198">
-        <v>5.9597537354999996</v>
-      </c>
-      <c r="L68" s="198">
-        <v>6.3267513341666666</v>
-      </c>
-      <c r="M68" s="198">
-        <v>6.674586251</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14">
-      <c r="B69" t="s">
-        <v>626</v>
-      </c>
-      <c r="C69" s="198">
-        <v>2.0656489979999999</v>
-      </c>
-      <c r="D69" s="198">
-        <v>13.04152088</v>
-      </c>
-      <c r="E69" s="198">
-        <v>21.329731385000002</v>
-      </c>
-      <c r="F69" s="198">
-        <v>20.389017185</v>
-      </c>
-      <c r="G69" s="198">
-        <v>20.431920224999999</v>
-      </c>
-      <c r="H69" s="198">
-        <v>20.44842061833333</v>
-      </c>
-      <c r="I69" s="198">
-        <v>20.559785276666666</v>
-      </c>
-      <c r="J69" s="198">
-        <v>20.774395325</v>
-      </c>
-      <c r="K69" s="198">
-        <v>21.088629619999999</v>
-      </c>
-      <c r="L69" s="198">
-        <v>21.450844078333333</v>
-      </c>
-      <c r="M69" s="198">
-        <v>21.805729996</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" t="s">
-        <v>627</v>
-      </c>
-      <c r="C70" s="198">
-        <v>2.6662052696666669</v>
-      </c>
-      <c r="D70" s="198">
-        <v>2.2236018003333333</v>
-      </c>
-      <c r="E70" s="198">
-        <v>3.8661187693333332</v>
-      </c>
-      <c r="F70" s="198">
-        <v>4.162884142666667</v>
-      </c>
-      <c r="G70" s="198">
-        <v>4.5371041443333331</v>
-      </c>
-      <c r="H70" s="198">
-        <v>4.9591319851666666</v>
-      </c>
-      <c r="I70" s="198">
-        <v>5.3885503176666667</v>
-      </c>
-      <c r="J70" s="198">
-        <v>5.7849822866666667</v>
-      </c>
-      <c r="K70" s="198">
-        <v>6.1260737768333335</v>
-      </c>
-      <c r="L70" s="198">
-        <v>6.4100179916666669</v>
-      </c>
-      <c r="M70" s="198">
-        <v>6.6417012019999984</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="199" t="s">
-        <v>628</v>
-      </c>
-      <c r="C71" s="200">
-        <v>7.8939462233333328</v>
-      </c>
-      <c r="D71" s="200">
-        <v>50.310800874999998</v>
-      </c>
-      <c r="E71" s="200">
-        <v>43.137356525000001</v>
-      </c>
-      <c r="F71" s="200">
-        <v>36.853526563333332</v>
-      </c>
-      <c r="G71" s="200">
-        <v>34.813101618333334</v>
-      </c>
-      <c r="H71" s="200">
-        <v>34.411547234999993</v>
-      </c>
-      <c r="I71" s="200">
-        <v>34.446132911666666</v>
-      </c>
-      <c r="J71" s="200">
-        <v>34.590148608333337</v>
-      </c>
-      <c r="K71" s="200">
-        <v>34.770404626833333</v>
-      </c>
-      <c r="L71" s="200">
-        <v>34.896638621666668</v>
-      </c>
-      <c r="M71" s="200">
-        <v>34.952150722333336</v>
-      </c>
-      <c r="N71" s="199">
-        <f>G71/G74</f>
-        <v>0.3326353134463732</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" t="s">
-        <v>629</v>
-      </c>
-      <c r="C72" s="198">
-        <v>61.442780348333329</v>
-      </c>
-      <c r="D72" s="198">
-        <v>134.38455828333332</v>
-      </c>
-      <c r="E72" s="198">
-        <v>264.37113043333335</v>
-      </c>
-      <c r="F72" s="198">
-        <v>270.39838459999999</v>
-      </c>
-      <c r="G72" s="198">
-        <v>283.20440413333336</v>
-      </c>
-      <c r="H72" s="198">
-        <v>295.17223963333333</v>
-      </c>
-      <c r="I72" s="198">
-        <v>307.07710318333329</v>
-      </c>
-      <c r="J72" s="198">
-        <v>319.0911448833333</v>
-      </c>
-      <c r="K72" s="198">
-        <v>331.85216123333328</v>
-      </c>
-      <c r="L72" s="198">
-        <v>344.53261908333337</v>
-      </c>
-      <c r="M72" s="198">
-        <v>356.41985093333341</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" t="s">
-        <v>630</v>
-      </c>
-      <c r="C73" s="198">
-        <v>6.2778683233333341</v>
-      </c>
-      <c r="D73" s="198">
-        <v>9.6598225233333324</v>
-      </c>
-      <c r="E73" s="198">
-        <v>14.335448490000001</v>
-      </c>
-      <c r="F73" s="198">
-        <v>13.663320681666665</v>
-      </c>
-      <c r="G73" s="198">
-        <v>13.623789056666666</v>
-      </c>
-      <c r="H73" s="198">
-        <v>13.727485473666666</v>
-      </c>
-      <c r="I73" s="198">
-        <v>13.796418716666665</v>
-      </c>
-      <c r="J73" s="198">
-        <v>13.800157952833333</v>
-      </c>
-      <c r="K73" s="198">
-        <v>13.774485304833334</v>
-      </c>
-      <c r="L73" s="198">
-        <v>13.695653499499999</v>
-      </c>
-      <c r="M73" s="198">
-        <v>13.575119099333335</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" t="s">
-        <v>631</v>
-      </c>
-      <c r="C74" s="198">
-        <v>93.825785369800002</v>
-      </c>
-      <c r="D74" s="198">
-        <v>93.396367423333331</v>
-      </c>
-      <c r="E74" s="198">
-        <v>98.67649414333296</v>
-      </c>
-      <c r="F74" s="198">
-        <v>100.63622205999964</v>
-      </c>
-      <c r="G74" s="198">
-        <v>104.65846592666666</v>
-      </c>
-      <c r="H74" s="198">
-        <v>108.08546415333333</v>
-      </c>
-      <c r="I74" s="198">
-        <v>111.3703662866663</v>
-      </c>
-      <c r="J74" s="198">
-        <v>114.49876764333334</v>
-      </c>
-      <c r="K74" s="198">
-        <v>118.26915631666667</v>
-      </c>
-      <c r="L74" s="198">
-        <v>121.77961678666667</v>
-      </c>
-      <c r="M74" s="198">
-        <v>125.71437438999999</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="201" t="s">
-        <v>632</v>
-      </c>
-      <c r="C75" s="202">
-        <v>528.58012072943336</v>
-      </c>
-      <c r="D75" s="202">
-        <v>914.96197365676665</v>
-      </c>
-      <c r="E75" s="202">
-        <v>1208.025515014333</v>
-      </c>
-      <c r="F75" s="202">
-        <v>1210.8295476181661</v>
-      </c>
-      <c r="G75" s="202">
-        <v>1230.8115282413335</v>
-      </c>
-      <c r="H75" s="202">
-        <v>1257.0217689187666</v>
-      </c>
-      <c r="I75" s="202">
-        <v>1287.7143929268827</v>
-      </c>
-      <c r="J75" s="202">
-        <v>1322.1437038783668</v>
-      </c>
-      <c r="K75" s="202">
-        <v>1361.0683705467829</v>
-      </c>
-      <c r="L75" s="202">
-        <v>1399.75111032105</v>
-      </c>
-      <c r="M75" s="202">
-        <v>1436.3744085971334</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14">
-      <c r="C76" s="204"/>
-      <c r="D76" s="204"/>
-      <c r="E76" s="204"/>
-      <c r="F76" s="204"/>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
-      <c r="I76" s="204"/>
-      <c r="J76" s="204"/>
-      <c r="K76" s="204"/>
-      <c r="L76" s="204"/>
-      <c r="M76" s="204"/>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="B77" s="196" t="s">
-        <v>633</v>
-      </c>
-      <c r="C77" s="203">
-        <f>SUM(C55:C56,C59)</f>
-        <v>144.884048471</v>
-      </c>
-      <c r="D77" s="203">
-        <f t="shared" ref="D77:L77" si="1">SUM(D55:D56,D59)</f>
-        <v>230.70051816083335</v>
-      </c>
-      <c r="E77" s="203">
-        <f t="shared" si="1"/>
-        <v>219.68915953516668</v>
-      </c>
-      <c r="F77" s="203">
-        <f t="shared" si="1"/>
-        <v>203.93789134299999</v>
-      </c>
-      <c r="G77" s="203">
-        <f t="shared" si="1"/>
-        <v>190.51680117449999</v>
-      </c>
-      <c r="H77" s="203">
-        <f t="shared" si="1"/>
-        <v>184.40152229236665</v>
-      </c>
-      <c r="I77" s="203">
-        <f t="shared" si="1"/>
-        <v>180.71826482519998</v>
-      </c>
-      <c r="J77" s="203">
-        <f t="shared" si="1"/>
-        <v>179.17816809186664</v>
-      </c>
-      <c r="K77" s="203">
-        <f t="shared" si="1"/>
-        <v>179.47335019471663</v>
-      </c>
-      <c r="L77" s="203">
-        <f t="shared" si="1"/>
-        <v>180.88751748095001</v>
-      </c>
-      <c r="M77" s="203">
-        <f>SUM(M55:M56,M59)</f>
-        <v>182.9237770252667</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14">
-      <c r="B79" s="195" t="s">
-        <v>636</v>
-      </c>
-      <c r="C79" s="205"/>
-      <c r="D79" s="205"/>
-      <c r="E79" s="205"/>
-      <c r="F79" s="205"/>
-      <c r="G79" s="205"/>
-      <c r="H79" s="205"/>
-      <c r="I79" s="205"/>
-      <c r="J79" s="205"/>
-      <c r="K79" s="205"/>
-      <c r="L79" s="205"/>
-      <c r="M79" s="205"/>
-    </row>
-    <row r="81" spans="2:13">
-      <c r="B81" t="s">
-        <v>637</v>
-      </c>
-      <c r="C81" s="198">
-        <f>C39</f>
-        <v>35.714192526983339</v>
-      </c>
-      <c r="D81" s="198">
-        <f t="shared" ref="D81:M81" si="2">D39</f>
-        <v>37.921683423834999</v>
-      </c>
-      <c r="E81" s="198">
-        <f t="shared" si="2"/>
-        <v>35.445092515915</v>
-      </c>
-      <c r="F81" s="198">
-        <f t="shared" si="2"/>
-        <v>31.761207363101672</v>
-      </c>
-      <c r="G81" s="198">
-        <f t="shared" si="2"/>
-        <v>30.837376325271666</v>
-      </c>
-      <c r="H81" s="198">
-        <f t="shared" si="2"/>
-        <v>30.795819730368336</v>
-      </c>
-      <c r="I81" s="198">
-        <f t="shared" si="2"/>
-        <v>31.129342650756666</v>
-      </c>
-      <c r="J81" s="198">
-        <f t="shared" si="2"/>
-        <v>31.769876979269995</v>
-      </c>
-      <c r="K81" s="198">
-        <f t="shared" si="2"/>
-        <v>32.910226738109998</v>
-      </c>
-      <c r="L81" s="198">
-        <f t="shared" si="2"/>
-        <v>34.385582288968337</v>
-      </c>
-      <c r="M81" s="198">
-        <f t="shared" si="2"/>
-        <v>36.106390714851663</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13">
-      <c r="B82" t="s">
-        <v>638</v>
-      </c>
-      <c r="C82" s="198">
-        <f>C36</f>
-        <v>37.9512695148033</v>
-      </c>
-      <c r="D82" s="198">
-        <f t="shared" ref="D82:M82" si="3">D36</f>
-        <v>47.330626608833292</v>
-      </c>
-      <c r="E82" s="198">
-        <f t="shared" si="3"/>
-        <v>44.108954556333295</v>
-      </c>
-      <c r="F82" s="198">
-        <f t="shared" si="3"/>
-        <v>46.824942431666663</v>
-      </c>
-      <c r="G82" s="198">
-        <f t="shared" si="3"/>
-        <v>50.779045650666298</v>
-      </c>
-      <c r="H82" s="198">
-        <f t="shared" si="3"/>
-        <v>54.396357671333341</v>
-      </c>
-      <c r="I82" s="198">
-        <f t="shared" si="3"/>
-        <v>57.980670480332961</v>
-      </c>
-      <c r="J82" s="198">
-        <f t="shared" si="3"/>
-        <v>61.452733338333331</v>
-      </c>
-      <c r="K82" s="198">
-        <f t="shared" si="3"/>
-        <v>65.640781161999996</v>
-      </c>
-      <c r="L82" s="198">
-        <f t="shared" si="3"/>
-        <v>69.70458003299963</v>
-      </c>
-      <c r="M82" s="198">
-        <f t="shared" si="3"/>
-        <v>74.380681532666628</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13">
-      <c r="B83" s="201" t="s">
-        <v>639</v>
-      </c>
-      <c r="C83" s="202">
-        <f>SUM(C81:C82)</f>
-        <v>73.66546204178664</v>
-      </c>
-      <c r="D83" s="202">
-        <f t="shared" ref="D83:M83" si="4">SUM(D81:D82)</f>
-        <v>85.252310032668291</v>
-      </c>
-      <c r="E83" s="202">
-        <f t="shared" si="4"/>
-        <v>79.554047072248295</v>
-      </c>
-      <c r="F83" s="202">
-        <f t="shared" si="4"/>
-        <v>78.586149794768332</v>
-      </c>
-      <c r="G83" s="202">
-        <f t="shared" si="4"/>
-        <v>81.616421975937968</v>
-      </c>
-      <c r="H83" s="202">
-        <f t="shared" si="4"/>
-        <v>85.192177401701684</v>
-      </c>
-      <c r="I83" s="202">
-        <f t="shared" si="4"/>
-        <v>89.11001313108963</v>
-      </c>
-      <c r="J83" s="202">
-        <f t="shared" si="4"/>
-        <v>93.222610317603326</v>
-      </c>
-      <c r="K83" s="202">
-        <f t="shared" si="4"/>
-        <v>98.551007900109994</v>
-      </c>
-      <c r="L83" s="202">
-        <f t="shared" si="4"/>
-        <v>104.09016232196797</v>
-      </c>
-      <c r="M83" s="202">
-        <f t="shared" si="4"/>
-        <v>110.48707224751828</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13">
-      <c r="B85" s="196" t="s">
-        <v>640</v>
-      </c>
-      <c r="C85" s="203">
-        <f>SUM(C37,C75)</f>
-        <v>772.33512724610591</v>
-      </c>
-      <c r="D85" s="203">
-        <f t="shared" ref="D85:L85" si="5">SUM(D37,D75)</f>
-        <v>1230.1902451174165</v>
-      </c>
-      <c r="E85" s="203">
-        <f t="shared" si="5"/>
-        <v>1552.9139822386614</v>
-      </c>
-      <c r="F85" s="203">
-        <f t="shared" si="5"/>
-        <v>1565.087057407562</v>
-      </c>
-      <c r="G85" s="203">
-        <f t="shared" si="5"/>
-        <v>1622.0488882263951</v>
-      </c>
-      <c r="H85" s="203">
-        <f t="shared" si="5"/>
-        <v>1682.3619155735196</v>
-      </c>
-      <c r="I85" s="203">
-        <f t="shared" si="5"/>
-        <v>1745.0258110662521</v>
-      </c>
-      <c r="J85" s="203">
-        <f t="shared" si="5"/>
-        <v>1809.3931719157704</v>
-      </c>
-      <c r="K85" s="203">
-        <f t="shared" si="5"/>
-        <v>1878.6721006397038</v>
-      </c>
-      <c r="L85" s="203">
-        <f t="shared" si="5"/>
-        <v>1946.0056899500821</v>
-      </c>
-      <c r="M85" s="203">
-        <f>SUM(M37,M75)</f>
-        <v>2010.0479548752055</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13">
-      <c r="B87" s="206" t="s">
-        <v>641</v>
-      </c>
-      <c r="C87" s="207">
-        <f>C83/C85</f>
-        <v>9.5380178167544377E-2</v>
-      </c>
-      <c r="D87" s="207">
-        <f t="shared" ref="D87:M87" si="6">D83/D85</f>
-        <v>6.9300102460600574E-2</v>
-      </c>
-      <c r="E87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.1228881948479958E-2</v>
-      </c>
-      <c r="F87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.0211999021281171E-2</v>
-      </c>
-      <c r="G87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.0316869342440236E-2</v>
-      </c>
-      <c r="H87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.0638436719877569E-2</v>
-      </c>
-      <c r="I87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.1065154776502301E-2</v>
-      </c>
-      <c r="J87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.1521477899079286E-2</v>
-      </c>
-      <c r="K87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.2457801372869983E-2</v>
-      </c>
-      <c r="L87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.3489135648230317E-2</v>
-      </c>
-      <c r="M87" s="207">
-        <f t="shared" si="6"/>
-        <v>5.4967381240602249E-2</v>
       </c>
     </row>
   </sheetData>
@@ -30435,7 +27262,7 @@
       <c r="J47" s="117"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="B48" s="176" t="s">
+      <c r="B48" s="178" t="s">
         <v>306</v>
       </c>
       <c r="C48" s="122" t="s">
@@ -30456,7 +27283,7 @@
       <c r="N48" s="125"/>
     </row>
     <row r="49" spans="2:14" ht="17">
-      <c r="B49" s="177"/>
+      <c r="B49" s="179"/>
       <c r="C49" s="126" t="s">
         <v>308</v>
       </c>
@@ -30475,7 +27302,7 @@
       <c r="N49" s="130"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="177"/>
+      <c r="B50" s="179"/>
       <c r="C50" s="131" t="s">
         <v>126</v>
       </c>
@@ -30494,7 +27321,7 @@
       <c r="N50" s="130"/>
     </row>
     <row r="51" spans="2:14" ht="17">
-      <c r="B51" s="177"/>
+      <c r="B51" s="179"/>
       <c r="C51" s="131" t="s">
         <v>309</v>
       </c>
@@ -30513,7 +27340,7 @@
       <c r="N51" s="130"/>
     </row>
     <row r="52" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B52" s="178"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="134" t="s">
         <v>310</v>
       </c>
@@ -30538,7 +27365,7 @@
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="179" t="s">
+      <c r="B54" s="181" t="s">
         <v>316</v>
       </c>
       <c r="C54" s="139" t="s">
@@ -30559,7 +27386,7 @@
       <c r="N54" s="125"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="180"/>
+      <c r="B55" s="182"/>
       <c r="C55" s="131" t="s">
         <v>308</v>
       </c>
@@ -30578,7 +27405,7 @@
       <c r="N55" s="130"/>
     </row>
     <row r="56" spans="2:14" ht="17">
-      <c r="B56" s="180"/>
+      <c r="B56" s="182"/>
       <c r="C56" s="131" t="s">
         <v>126</v>
       </c>
@@ -30597,7 +27424,7 @@
       <c r="N56" s="130"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="180"/>
+      <c r="B57" s="182"/>
       <c r="C57" s="131" t="s">
         <v>309</v>
       </c>
@@ -30616,7 +27443,7 @@
       <c r="N57" s="130"/>
     </row>
     <row r="58" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B58" s="181"/>
+      <c r="B58" s="183"/>
       <c r="C58" s="134" t="s">
         <v>310</v>
       </c>
@@ -30641,7 +27468,7 @@
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="179" t="s">
+      <c r="B60" s="181" t="s">
         <v>321</v>
       </c>
       <c r="C60" s="139" t="s">
@@ -30660,7 +27487,7 @@
       <c r="N60" s="125"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="180"/>
+      <c r="B61" s="182"/>
       <c r="C61" s="131" t="s">
         <v>308</v>
       </c>
@@ -30679,7 +27506,7 @@
       <c r="N61" s="130"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="180"/>
+      <c r="B62" s="182"/>
       <c r="C62" s="131" t="s">
         <v>126</v>
       </c>
@@ -30698,7 +27525,7 @@
       <c r="N62" s="130"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="180"/>
+      <c r="B63" s="182"/>
       <c r="C63" s="131" t="s">
         <v>309</v>
       </c>
@@ -30717,7 +27544,7 @@
       <c r="N63" s="130"/>
     </row>
     <row r="64" spans="2:14" ht="17.5" thickBot="1">
-      <c r="B64" s="181"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="134" t="s">
         <v>310</v>
       </c>
@@ -30742,7 +27569,7 @@
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="179" t="s">
+      <c r="B66" s="181" t="s">
         <v>325</v>
       </c>
       <c r="C66" s="139" t="s">
@@ -30763,7 +27590,7 @@
       <c r="N66" s="125"/>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="180"/>
+      <c r="B67" s="182"/>
       <c r="C67" s="131" t="s">
         <v>126</v>
       </c>
@@ -30782,7 +27609,7 @@
       <c r="N67" s="130"/>
     </row>
     <row r="68" spans="2:14" ht="17">
-      <c r="B68" s="180"/>
+      <c r="B68" s="182"/>
       <c r="C68" s="131" t="s">
         <v>309</v>
       </c>
@@ -30801,7 +27628,7 @@
       <c r="N68" s="130"/>
     </row>
     <row r="69" spans="2:14" ht="17">
-      <c r="B69" s="180"/>
+      <c r="B69" s="182"/>
       <c r="C69" s="131" t="s">
         <v>310</v>
       </c>
@@ -30820,7 +27647,7 @@
       <c r="N69" s="130"/>
     </row>
     <row r="70" spans="2:14" ht="15" thickBot="1">
-      <c r="B70" s="181"/>
+      <c r="B70" s="183"/>
       <c r="C70" s="141" t="s">
         <v>329</v>
       </c>
@@ -33127,10 +29954,10 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="185" t="s">
+      <c r="A29" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="182" t="s">
+      <c r="B29" s="184" t="s">
         <v>383</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -33140,18 +29967,18 @@
         <f>$E$20/$C$20</f>
         <v>46</v>
       </c>
-      <c r="E29" s="182" t="s">
+      <c r="E29" s="184" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="184" t="s">
+      <c r="F29" s="186" t="s">
         <v>395</v>
       </c>
       <c r="G29" s="157"/>
       <c r="H29" s="157"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="185"/>
-      <c r="B30" s="182"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="184"/>
       <c r="C30" s="9" t="s">
         <v>351</v>
       </c>
@@ -33159,14 +29986,14 @@
         <f>(W3-$E$20)/$C$21-22</f>
         <v>39</v>
       </c>
-      <c r="E30" s="182"/>
-      <c r="F30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="186"/>
       <c r="G30" s="157"/>
       <c r="H30" s="157"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="185"/>
-      <c r="B31" s="182"/>
+      <c r="A31" s="187"/>
+      <c r="B31" s="184"/>
       <c r="C31" s="9" t="s">
         <v>343</v>
       </c>
@@ -33174,8 +30001,8 @@
         <f>32</f>
         <v>32</v>
       </c>
-      <c r="E31" s="182"/>
-      <c r="F31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="186"/>
       <c r="G31" s="157"/>
       <c r="H31" s="157"/>
     </row>
@@ -33191,7 +30018,7 @@
         <f>W5</f>
         <v>254</v>
       </c>
-      <c r="E32" s="186" t="s">
+      <c r="E32" s="188" t="s">
         <v>426</v>
       </c>
       <c r="F32" s="158" t="s">
@@ -33216,7 +30043,7 @@
         <f>W6</f>
         <v>175</v>
       </c>
-      <c r="E33" s="186"/>
+      <c r="E33" s="188"/>
       <c r="F33" s="158" t="s">
         <v>396</v>
       </c>
@@ -33241,10 +30068,10 @@
         <f>W8/$E$23</f>
         <v>30.25</v>
       </c>
-      <c r="E34" s="182" t="s">
+      <c r="E34" s="184" t="s">
         <v>394</v>
       </c>
-      <c r="F34" s="183" t="s">
+      <c r="F34" s="185" t="s">
         <v>396</v>
       </c>
       <c r="G34" s="157"/>
@@ -33253,10 +30080,10 @@
       <c r="J34" s="157"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="185" t="s">
+      <c r="A35" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="184" t="s">
         <v>348</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -33266,14 +30093,14 @@
         <f>W9/$E$24</f>
         <v>427</v>
       </c>
-      <c r="E35" s="182"/>
-      <c r="F35" s="183"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="185"/>
       <c r="G35" s="157"/>
       <c r="H35" s="157"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="185"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="187"/>
+      <c r="B36" s="184"/>
       <c r="C36" s="9" t="s">
         <v>381</v>
       </c>
@@ -33281,16 +30108,16 @@
         <f>W11/$E$24</f>
         <v>27.666666666666668</v>
       </c>
-      <c r="E36" s="182"/>
-      <c r="F36" s="184" t="s">
+      <c r="E36" s="184"/>
+      <c r="F36" s="186" t="s">
         <v>395</v>
       </c>
       <c r="G36" s="157"/>
       <c r="H36" s="157"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="185"/>
-      <c r="B37" s="182"/>
+      <c r="A37" s="187"/>
+      <c r="B37" s="184"/>
       <c r="C37" s="9" t="s">
         <v>373</v>
       </c>
@@ -33298,8 +30125,8 @@
         <f>W12/$E$24</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="E37" s="182"/>
-      <c r="F37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="186"/>
       <c r="G37" s="157"/>
       <c r="H37" s="157"/>
     </row>
@@ -33308,7 +30135,7 @@
       <c r="D38" s="73"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="182" t="s">
+      <c r="B39" s="184" t="s">
         <v>388</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -33320,7 +30147,7 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="182"/>
+      <c r="B40" s="184"/>
       <c r="C40" s="9" t="s">
         <v>375</v>
       </c>
@@ -33330,7 +30157,7 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="182"/>
+      <c r="B41" s="184"/>
       <c r="C41" s="9" t="s">
         <v>376</v>
       </c>
@@ -33340,7 +30167,7 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="182"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="9" t="s">
         <v>377</v>
       </c>
@@ -33477,13 +30304,13 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="94" t="s">
@@ -33492,9 +30319,9 @@
       <c r="F4" s="94">
         <v>3</v>
       </c>
-      <c r="G4" s="182"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="95"/>
-      <c r="I4" s="182" t="s">
+      <c r="I4" s="184" t="s">
         <v>147</v>
       </c>
       <c r="J4" s="96" t="s">
@@ -33510,18 +30337,18 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="182"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="182"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="94" t="s">
         <v>91</v>
       </c>
       <c r="F5" s="94">
         <v>10</v>
       </c>
-      <c r="G5" s="182"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="95"/>
-      <c r="I5" s="182"/>
+      <c r="I5" s="184"/>
       <c r="J5" s="96" t="s">
         <v>403</v>
       </c>
@@ -33535,18 +30362,18 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="182"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="182"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="94" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="94">
         <v>44</v>
       </c>
-      <c r="G6" s="182"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="95"/>
-      <c r="I6" s="182"/>
+      <c r="I6" s="184"/>
       <c r="J6" s="96" t="s">
         <v>404</v>
       </c>
@@ -33560,18 +30387,18 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="182"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="182"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="184"/>
       <c r="E7" s="94" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="94">
         <v>10</v>
       </c>
-      <c r="G7" s="182"/>
+      <c r="G7" s="184"/>
       <c r="H7" s="95"/>
-      <c r="I7" s="182"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="96" t="s">
         <v>405</v>
       </c>
@@ -33584,18 +30411,18 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="182"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="182"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="94" t="s">
         <v>94</v>
       </c>
       <c r="F8" s="94">
         <v>31</v>
       </c>
-      <c r="G8" s="182"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="95"/>
-      <c r="I8" s="182"/>
+      <c r="I8" s="184"/>
       <c r="J8" s="89" t="s">
         <v>406</v>
       </c>
@@ -33606,18 +30433,18 @@
       <c r="L8" s="97"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="182"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="182"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="184"/>
       <c r="E9" s="94" t="s">
         <v>95</v>
       </c>
       <c r="F9" s="94">
         <v>29</v>
       </c>
-      <c r="G9" s="182"/>
+      <c r="G9" s="184"/>
       <c r="H9" s="95"/>
-      <c r="I9" s="182" t="s">
+      <c r="I9" s="184" t="s">
         <v>148</v>
       </c>
       <c r="J9" s="96" t="s">
@@ -33632,18 +30459,18 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="182"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="182"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="184"/>
       <c r="E10" s="94" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="94">
         <v>10</v>
       </c>
-      <c r="G10" s="182"/>
+      <c r="G10" s="184"/>
       <c r="H10" s="95"/>
-      <c r="I10" s="182"/>
+      <c r="I10" s="184"/>
       <c r="J10" s="96" t="s">
         <v>403</v>
       </c>
@@ -33657,18 +30484,18 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="182"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="182"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="184"/>
       <c r="E11" s="94" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="94">
         <v>10</v>
       </c>
-      <c r="G11" s="182"/>
+      <c r="G11" s="184"/>
       <c r="H11" s="95"/>
-      <c r="I11" s="182"/>
+      <c r="I11" s="184"/>
       <c r="J11" s="96" t="s">
         <v>404</v>
       </c>
@@ -33681,9 +30508,9 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="182"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="182"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="184"/>
       <c r="E12" s="94" t="s">
         <v>98</v>
       </c>
@@ -33691,9 +30518,9 @@
         <f>SUM($F$4:$F$11)</f>
         <v>147</v>
       </c>
-      <c r="G12" s="182"/>
+      <c r="G12" s="184"/>
       <c r="H12" s="95"/>
-      <c r="I12" s="182"/>
+      <c r="I12" s="184"/>
       <c r="J12" s="96" t="s">
         <v>405</v>
       </c>
@@ -33706,9 +30533,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="182"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="182" t="s">
+      <c r="B13" s="184"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="184" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="94" t="s">
@@ -33717,9 +30544,9 @@
       <c r="F13" s="94">
         <v>4</v>
       </c>
-      <c r="G13" s="182"/>
+      <c r="G13" s="184"/>
       <c r="H13" s="95"/>
-      <c r="I13" s="182"/>
+      <c r="I13" s="184"/>
       <c r="J13" s="89" t="s">
         <v>406</v>
       </c>
@@ -33730,21 +30557,21 @@
       <c r="L13" s="97"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="182"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="182"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="184"/>
       <c r="E14" s="94" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="94">
         <v>7</v>
       </c>
-      <c r="G14" s="182"/>
+      <c r="G14" s="184"/>
       <c r="H14" s="95"/>
-      <c r="I14" s="182" t="s">
+      <c r="I14" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="J14" s="182"/>
+      <c r="J14" s="184"/>
       <c r="K14" s="98">
         <f>SUM($K$8,$K$13)</f>
         <v>858</v>
@@ -33752,24 +30579,24 @@
       <c r="L14" s="94"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="182"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="182"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="184"/>
       <c r="E15" s="94" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="94">
         <v>12</v>
       </c>
-      <c r="G15" s="182"/>
+      <c r="G15" s="184"/>
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
       <c r="J15" s="95"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="182"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="182"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="184"/>
       <c r="E16" s="94" t="s">
         <v>98</v>
       </c>
@@ -33777,7 +30604,7 @@
         <f>SUM($F$13:$F$15)</f>
         <v>23</v>
       </c>
-      <c r="G16" s="182"/>
+      <c r="G16" s="184"/>
       <c r="H16" s="95"/>
       <c r="I16" s="99" t="s">
         <v>407</v>
@@ -33788,11 +30615,11 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="182"/>
-      <c r="C17" s="190" t="s">
+      <c r="B17" s="184"/>
+      <c r="C17" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="182" t="s">
+      <c r="D17" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="94" t="s">
@@ -33801,9 +30628,9 @@
       <c r="F17" s="94">
         <v>2</v>
       </c>
-      <c r="G17" s="182"/>
+      <c r="G17" s="184"/>
       <c r="H17" s="95"/>
-      <c r="I17" s="187" t="s">
+      <c r="I17" s="189" t="s">
         <v>147</v>
       </c>
       <c r="J17" s="61" t="s">
@@ -33815,18 +30642,18 @@
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="182"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="182"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="184"/>
       <c r="E18" s="94" t="s">
         <v>104</v>
       </c>
       <c r="F18" s="94">
         <v>9</v>
       </c>
-      <c r="G18" s="182"/>
+      <c r="G18" s="184"/>
       <c r="H18" s="95"/>
-      <c r="I18" s="187"/>
+      <c r="I18" s="189"/>
       <c r="J18" s="61" t="s">
         <v>408</v>
       </c>
@@ -33836,18 +30663,18 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="182"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="182"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="184"/>
       <c r="E19" s="94" t="s">
         <v>105</v>
       </c>
       <c r="F19" s="94">
         <v>6</v>
       </c>
-      <c r="G19" s="182"/>
+      <c r="G19" s="184"/>
       <c r="H19" s="95"/>
-      <c r="I19" s="187"/>
+      <c r="I19" s="189"/>
       <c r="J19" s="61" t="s">
         <v>409</v>
       </c>
@@ -33857,16 +30684,16 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="182"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="182"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="184"/>
       <c r="E20" s="94" t="s">
         <v>106</v>
       </c>
       <c r="F20" s="94">
         <v>19</v>
       </c>
-      <c r="G20" s="182"/>
+      <c r="G20" s="184"/>
       <c r="H20" s="95"/>
       <c r="I20" s="89" t="s">
         <v>148</v>
@@ -33880,75 +30707,75 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="182"/>
-      <c r="C21" s="190"/>
-      <c r="D21" s="182"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="184"/>
       <c r="E21" s="94" t="s">
         <v>107</v>
       </c>
       <c r="F21" s="94">
         <v>15</v>
       </c>
-      <c r="G21" s="182"/>
+      <c r="G21" s="184"/>
       <c r="H21" s="95"/>
-      <c r="I21" s="182" t="s">
+      <c r="I21" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="J21" s="182"/>
+      <c r="J21" s="184"/>
       <c r="K21" s="100">
         <f>SUM($K$17:$K$20)</f>
         <v>858</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="182"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="182"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="184"/>
       <c r="E22" s="94" t="s">
         <v>108</v>
       </c>
       <c r="F22" s="94">
         <v>7</v>
       </c>
-      <c r="G22" s="182"/>
+      <c r="G22" s="184"/>
       <c r="H22" s="95"/>
       <c r="I22" s="95"/>
       <c r="J22" s="95"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="182"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="182"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="184"/>
       <c r="E23" s="94" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="94">
         <v>6</v>
       </c>
-      <c r="G23" s="182"/>
+      <c r="G23" s="184"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="182"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="182"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="184"/>
       <c r="E24" s="94" t="s">
         <v>109</v>
       </c>
       <c r="F24" s="94">
         <v>10</v>
       </c>
-      <c r="G24" s="182"/>
+      <c r="G24" s="184"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="182"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="182"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="184"/>
       <c r="E25" s="94" t="s">
         <v>98</v>
       </c>
@@ -33956,15 +30783,15 @@
         <f>SUM($F$17:$F$24)</f>
         <v>74</v>
       </c>
-      <c r="G25" s="182"/>
+      <c r="G25" s="184"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="182"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="182" t="s">
+      <c r="B26" s="184"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="184" t="s">
         <v>99</v>
       </c>
       <c r="E26" s="94" t="s">
@@ -33973,45 +30800,45 @@
       <c r="F26" s="94">
         <v>9</v>
       </c>
-      <c r="G26" s="182"/>
+      <c r="G26" s="184"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="182"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="182"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="184"/>
       <c r="E27" s="94" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="94">
         <v>1</v>
       </c>
-      <c r="G27" s="182"/>
+      <c r="G27" s="184"/>
       <c r="H27" s="95"/>
       <c r="I27" s="95"/>
       <c r="J27" s="95"/>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="182"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="182"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="184"/>
       <c r="E28" s="94" t="s">
         <v>90</v>
       </c>
       <c r="F28" s="94">
         <v>2</v>
       </c>
-      <c r="G28" s="182"/>
+      <c r="G28" s="184"/>
       <c r="H28" s="95"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="182"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="182"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="184"/>
       <c r="E29" s="94" t="s">
         <v>98</v>
       </c>
@@ -34019,17 +30846,17 @@
         <f>SUM($F$26:$F$28)</f>
         <v>12</v>
       </c>
-      <c r="G29" s="182"/>
+      <c r="G29" s="184"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="182"/>
-      <c r="C30" s="190" t="s">
+      <c r="B30" s="184"/>
+      <c r="C30" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E30" s="94" t="s">
@@ -34038,32 +30865,32 @@
       <c r="F30" s="94">
         <v>45</v>
       </c>
-      <c r="G30" s="182"/>
+      <c r="G30" s="184"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="182"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="182"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="184"/>
       <c r="E31" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F31" s="94">
         <v>45</v>
       </c>
-      <c r="G31" s="182"/>
+      <c r="G31" s="184"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="182"/>
-      <c r="C32" s="190" t="s">
+      <c r="B32" s="184"/>
+      <c r="C32" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="182" t="s">
+      <c r="D32" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="94" t="s">
@@ -34072,30 +30899,30 @@
       <c r="F32" s="94">
         <v>22</v>
       </c>
-      <c r="G32" s="182"/>
+      <c r="G32" s="184"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="182"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="182"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="184"/>
       <c r="E33" s="94" t="s">
         <v>104</v>
       </c>
       <c r="F33" s="94">
         <v>4</v>
       </c>
-      <c r="G33" s="182"/>
+      <c r="G33" s="184"/>
       <c r="H33" s="95"/>
       <c r="I33" s="95"/>
       <c r="J33" s="95"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="182"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="182"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="184"/>
       <c r="E34" s="94" t="s">
         <v>98</v>
       </c>
@@ -34103,17 +30930,17 @@
         <f>SUM($F$32:$F$33)</f>
         <v>26</v>
       </c>
-      <c r="G34" s="182"/>
+      <c r="G34" s="184"/>
       <c r="H34" s="95"/>
       <c r="I34" s="95"/>
       <c r="J34" s="95"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="182"/>
-      <c r="C35" s="190" t="s">
+      <c r="B35" s="184"/>
+      <c r="C35" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="182" t="s">
+      <c r="D35" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E35" s="94" t="s">
@@ -34122,30 +30949,30 @@
       <c r="F35" s="94">
         <v>8</v>
       </c>
-      <c r="G35" s="182"/>
+      <c r="G35" s="184"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="182"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="182"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="184"/>
       <c r="E36" s="94" t="s">
         <v>115</v>
       </c>
       <c r="F36" s="94">
         <v>18</v>
       </c>
-      <c r="G36" s="182"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="182"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="182"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="184"/>
       <c r="E37" s="94" t="s">
         <v>98</v>
       </c>
@@ -34153,17 +30980,17 @@
         <f>SUM($F$35:$F$36)</f>
         <v>26</v>
       </c>
-      <c r="G37" s="182"/>
+      <c r="G37" s="184"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="182"/>
-      <c r="C38" s="190" t="s">
+      <c r="B38" s="184"/>
+      <c r="C38" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="182" t="s">
+      <c r="D38" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E38" s="94" t="s">
@@ -34172,45 +30999,45 @@
       <c r="F38" s="94">
         <v>19</v>
       </c>
-      <c r="G38" s="182"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="182"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="182"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="184"/>
       <c r="E39" s="94" t="s">
         <v>112</v>
       </c>
       <c r="F39" s="94">
         <v>2</v>
       </c>
-      <c r="G39" s="182"/>
+      <c r="G39" s="184"/>
       <c r="H39" s="95"/>
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="182"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="182"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="184"/>
       <c r="E40" s="94" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="94">
         <v>2</v>
       </c>
-      <c r="G40" s="182"/>
+      <c r="G40" s="184"/>
       <c r="H40" s="95"/>
       <c r="I40" s="95"/>
       <c r="J40" s="95"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="182"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="182"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="184"/>
       <c r="E41" s="94" t="s">
         <v>98</v>
       </c>
@@ -34218,17 +31045,17 @@
         <f>SUM($F$38:$F$40)</f>
         <v>23</v>
       </c>
-      <c r="G41" s="182"/>
+      <c r="G41" s="184"/>
       <c r="H41" s="95"/>
       <c r="I41" s="95"/>
       <c r="J41" s="95"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="182"/>
-      <c r="C42" s="190" t="s">
+      <c r="B42" s="184"/>
+      <c r="C42" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E42" s="94" t="s">
@@ -34237,32 +31064,32 @@
       <c r="F42" s="94">
         <v>28</v>
       </c>
-      <c r="G42" s="182"/>
+      <c r="G42" s="184"/>
       <c r="H42" s="95"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="182"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="182"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="184"/>
       <c r="E43" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F43" s="94">
         <v>28</v>
       </c>
-      <c r="G43" s="182"/>
+      <c r="G43" s="184"/>
       <c r="H43" s="95"/>
       <c r="I43" s="95"/>
       <c r="J43" s="95"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="182"/>
-      <c r="C44" s="190" t="s">
+      <c r="B44" s="184"/>
+      <c r="C44" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E44" s="94" t="s">
@@ -34271,32 +31098,32 @@
       <c r="F44" s="94">
         <v>7</v>
       </c>
-      <c r="G44" s="182"/>
+      <c r="G44" s="184"/>
       <c r="H44" s="95"/>
       <c r="I44" s="95"/>
       <c r="J44" s="95"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="182"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="182"/>
+      <c r="B45" s="184"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="184"/>
       <c r="E45" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F45" s="94">
         <v>7</v>
       </c>
-      <c r="G45" s="182"/>
+      <c r="G45" s="184"/>
       <c r="H45" s="95"/>
       <c r="I45" s="95"/>
       <c r="J45" s="95"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="182"/>
-      <c r="C46" s="190" t="s">
+      <c r="B46" s="184"/>
+      <c r="C46" s="192" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="184" t="s">
         <v>99</v>
       </c>
       <c r="E46" s="94" t="s">
@@ -34305,32 +31132,32 @@
       <c r="F46" s="94">
         <v>1</v>
       </c>
-      <c r="G46" s="182"/>
+      <c r="G46" s="184"/>
       <c r="H46" s="95"/>
       <c r="I46" s="95"/>
       <c r="J46" s="95"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="182"/>
-      <c r="C47" s="190"/>
-      <c r="D47" s="182"/>
+      <c r="B47" s="184"/>
+      <c r="C47" s="192"/>
+      <c r="D47" s="184"/>
       <c r="E47" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F47" s="94">
         <v>1</v>
       </c>
-      <c r="G47" s="182"/>
+      <c r="G47" s="184"/>
       <c r="H47" s="95"/>
       <c r="I47" s="95"/>
       <c r="J47" s="95"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="182"/>
-      <c r="C48" s="190" t="s">
+      <c r="B48" s="184"/>
+      <c r="C48" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="182" t="s">
+      <c r="D48" s="184" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="94" t="s">
@@ -34339,51 +31166,51 @@
       <c r="F48" s="94">
         <v>2</v>
       </c>
-      <c r="G48" s="182"/>
+      <c r="G48" s="184"/>
       <c r="H48" s="95"/>
       <c r="I48" s="95"/>
       <c r="J48" s="95"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="182"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="182"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="192"/>
+      <c r="D49" s="184"/>
       <c r="E49" s="94" t="s">
         <v>98</v>
       </c>
       <c r="F49" s="94">
         <v>2</v>
       </c>
-      <c r="G49" s="182"/>
+      <c r="G49" s="184"/>
       <c r="H49" s="95"/>
       <c r="I49" s="95"/>
       <c r="J49" s="95"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="182"/>
-      <c r="C50" s="182" t="s">
+      <c r="B50" s="184"/>
+      <c r="C50" s="184" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="182"/>
-      <c r="E50" s="182"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="184"/>
       <c r="F50" s="94">
         <f>SUM($F$12,$F$16,$F$25,$F$29,$F$31,$F$34,$F$37,$F$41,$F$43,$F$45,$F$47,$F$49)</f>
         <v>414</v>
       </c>
-      <c r="G50" s="182"/>
+      <c r="G50" s="184"/>
       <c r="H50" s="95"/>
       <c r="I50" s="95"/>
       <c r="J50" s="95"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="182" t="s">
+      <c r="B51" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="189" t="s">
+      <c r="C51" s="191" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="189"/>
-      <c r="E51" s="189"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="191"/>
       <c r="F51" s="94">
         <v>2</v>
       </c>
@@ -34395,12 +31222,12 @@
       <c r="J51" s="95"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="182"/>
-      <c r="C52" s="189" t="s">
+      <c r="B52" s="184"/>
+      <c r="C52" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="191"/>
       <c r="F52" s="94">
         <v>3</v>
       </c>
@@ -34412,12 +31239,12 @@
       <c r="J52" s="95"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="182"/>
-      <c r="C53" s="189" t="s">
+      <c r="B53" s="184"/>
+      <c r="C53" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
       <c r="F53" s="94">
         <v>2</v>
       </c>
@@ -34427,12 +31254,12 @@
       <c r="J53" s="101"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="182"/>
-      <c r="C54" s="189" t="s">
+      <c r="B54" s="184"/>
+      <c r="C54" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="189"/>
-      <c r="E54" s="189"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="191"/>
       <c r="F54" s="94">
         <v>1</v>
       </c>
@@ -34442,12 +31269,12 @@
       <c r="J54" s="101"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="182"/>
-      <c r="C55" s="189" t="s">
+      <c r="B55" s="184"/>
+      <c r="C55" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="189"/>
-      <c r="E55" s="189"/>
+      <c r="D55" s="191"/>
+      <c r="E55" s="191"/>
       <c r="F55" s="94">
         <v>1</v>
       </c>
@@ -34459,12 +31286,12 @@
       <c r="J55" s="101"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="182"/>
-      <c r="C56" s="189" t="s">
+      <c r="B56" s="184"/>
+      <c r="C56" s="191" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="189"/>
-      <c r="E56" s="189"/>
+      <c r="D56" s="191"/>
+      <c r="E56" s="191"/>
       <c r="F56" s="94"/>
       <c r="G56" s="94">
         <v>4</v>
@@ -34474,12 +31301,12 @@
       <c r="J56" s="101"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="182"/>
-      <c r="C57" s="189" t="s">
+      <c r="B57" s="184"/>
+      <c r="C57" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="189"/>
-      <c r="E57" s="189"/>
+      <c r="D57" s="191"/>
+      <c r="E57" s="191"/>
       <c r="F57" s="94">
         <v>4</v>
       </c>
@@ -34491,12 +31318,12 @@
       <c r="J57" s="101"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="182"/>
-      <c r="C58" s="189" t="s">
+      <c r="B58" s="184"/>
+      <c r="C58" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="191"/>
       <c r="F58" s="94">
         <v>2</v>
       </c>
@@ -34506,12 +31333,12 @@
       <c r="J58" s="101"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="182"/>
-      <c r="C59" s="182" t="s">
+      <c r="B59" s="184"/>
+      <c r="C59" s="184" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="182"/>
-      <c r="E59" s="182"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="184"/>
       <c r="F59" s="94">
         <f>SUM($F$51:$F$58)</f>
         <v>15</v>
@@ -34525,12 +31352,12 @@
       <c r="J59" s="101"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="187" t="s">
+      <c r="B60" s="189" t="s">
         <v>410</v>
       </c>
-      <c r="C60" s="187"/>
-      <c r="D60" s="187"/>
-      <c r="E60" s="187"/>
+      <c r="C60" s="189"/>
+      <c r="D60" s="189"/>
+      <c r="E60" s="189"/>
       <c r="F60" s="94">
         <f>SUM($F$50,$F$59)</f>
         <v>429</v>
@@ -34547,11 +31374,11 @@
       <c r="B61" s="92" t="s">
         <v>411</v>
       </c>
-      <c r="C61" s="189" t="s">
+      <c r="C61" s="191" t="s">
         <v>412</v>
       </c>
-      <c r="D61" s="189"/>
-      <c r="E61" s="189"/>
+      <c r="D61" s="191"/>
+      <c r="E61" s="191"/>
       <c r="F61" s="94">
         <v>83</v>
       </c>
@@ -34563,14 +31390,14 @@
       <c r="J61" s="101"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="187" t="s">
+      <c r="B62" s="189" t="s">
         <v>413</v>
       </c>
-      <c r="C62" s="188" t="s">
+      <c r="C62" s="190" t="s">
         <v>414</v>
       </c>
-      <c r="D62" s="188"/>
-      <c r="E62" s="188"/>
+      <c r="D62" s="190"/>
+      <c r="E62" s="190"/>
       <c r="F62" s="94">
         <v>111</v>
       </c>
@@ -34582,12 +31409,12 @@
       <c r="J62" s="101"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="187"/>
-      <c r="C63" s="188" t="s">
+      <c r="B63" s="189"/>
+      <c r="C63" s="190" t="s">
         <v>415</v>
       </c>
-      <c r="D63" s="188"/>
-      <c r="E63" s="188"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="190"/>
       <c r="F63" s="94"/>
       <c r="G63" s="94">
         <v>2</v>
@@ -34597,12 +31424,12 @@
       <c r="J63" s="101"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="187"/>
-      <c r="C64" s="188" t="s">
+      <c r="B64" s="189"/>
+      <c r="C64" s="190" t="s">
         <v>416</v>
       </c>
-      <c r="D64" s="188"/>
-      <c r="E64" s="188"/>
+      <c r="D64" s="190"/>
+      <c r="E64" s="190"/>
       <c r="F64" s="94">
         <v>2</v>
       </c>
@@ -34612,12 +31439,12 @@
       <c r="J64" s="101"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="B65" s="187"/>
-      <c r="C65" s="188" t="s">
+      <c r="B65" s="189"/>
+      <c r="C65" s="190" t="s">
         <v>417</v>
       </c>
-      <c r="D65" s="188"/>
-      <c r="E65" s="188"/>
+      <c r="D65" s="190"/>
+      <c r="E65" s="190"/>
       <c r="F65" s="94">
         <v>1</v>
       </c>
@@ -34629,12 +31456,12 @@
       <c r="J65" s="101"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="B66" s="187"/>
-      <c r="C66" s="189" t="s">
+      <c r="B66" s="189"/>
+      <c r="C66" s="191" t="s">
         <v>418</v>
       </c>
-      <c r="D66" s="189"/>
-      <c r="E66" s="189"/>
+      <c r="D66" s="191"/>
+      <c r="E66" s="191"/>
       <c r="F66" s="94">
         <v>19</v>
       </c>
@@ -34646,12 +31473,12 @@
       <c r="J66" s="101"/>
     </row>
     <row r="67" spans="1:10">
-      <c r="B67" s="187"/>
-      <c r="C67" s="187" t="s">
+      <c r="B67" s="189"/>
+      <c r="C67" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="187"/>
-      <c r="E67" s="187"/>
+      <c r="D67" s="189"/>
+      <c r="E67" s="189"/>
       <c r="F67" s="94">
         <f>SUM($F$62:$F$66)</f>
         <v>133</v>
@@ -34665,12 +31492,12 @@
       <c r="J67" s="101"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="B68" s="187" t="s">
+      <c r="B68" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="187"/>
-      <c r="D68" s="187"/>
-      <c r="E68" s="187"/>
+      <c r="C68" s="189"/>
+      <c r="D68" s="189"/>
+      <c r="E68" s="189"/>
       <c r="F68" s="94">
         <f>SUM($F$67,$F$60,$F$61)</f>
         <v>645</v>
